--- a/June2014/ISWRPQAQ_stats.xlsx
+++ b/June2014/ISWRPQAQ_stats.xlsx
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>-0.06169359712230216</v>
+        <v>-0.06169388489208633</v>
       </c>
       <c r="AZ4">
-        <v>0.03949876766047573</v>
+        <v>0.03949891581539829</v>
       </c>
       <c r="BA4">
         <v>-0.307</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>-2.139307913669064</v>
+        <v>-2.139336690647481</v>
       </c>
       <c r="BH4">
-        <v>1.890410424707339</v>
+        <v>1.890439856778221</v>
       </c>
       <c r="BI4">
         <v>-11.6</v>
@@ -964,10 +964,10 @@
         <v>696</v>
       </c>
       <c r="S5">
-        <v>4.653290229885061</v>
+        <v>4.653247126436785</v>
       </c>
       <c r="T5">
-        <v>0.601607158534015</v>
+        <v>0.6016517569843691</v>
       </c>
       <c r="U5">
         <v>3.72</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>-0.0170435783045977</v>
+        <v>-0.01704356681034483</v>
       </c>
       <c r="AZ5">
-        <v>0.0243187228298592</v>
+        <v>0.02431872507063965</v>
       </c>
       <c r="BA5">
         <v>-0.195</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>-0.3799204698275863</v>
+        <v>-0.3799209022988507</v>
       </c>
       <c r="BH5">
-        <v>0.3427530402734364</v>
+        <v>0.3427526415044377</v>
       </c>
       <c r="BI5">
         <v>-2.5</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>-0.01150879339080462</v>
+        <v>-0.0115090129310345</v>
       </c>
       <c r="AZ6">
-        <v>0.02360501252434327</v>
+        <v>0.0236053004068576</v>
       </c>
       <c r="BA6">
         <v>-0.187</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>-0.1861725344827588</v>
+        <v>-0.1861744439655174</v>
       </c>
       <c r="BH6">
-        <v>0.1827835351758312</v>
+        <v>0.18278793573166</v>
       </c>
       <c r="BI6">
         <v>-0.834</v>
@@ -1296,7 +1296,7 @@
         <v>-0.173</v>
       </c>
       <c r="BL6">
-        <v>-0.05025</v>
+        <v>-0.050175</v>
       </c>
       <c r="BM6">
         <v>0.511</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>-0.0100320933908046</v>
+        <v>-0.01003212658045978</v>
       </c>
       <c r="AZ7">
-        <v>0.02274944450701974</v>
+        <v>0.02274941809167203</v>
       </c>
       <c r="BA7">
         <v>-0.18</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>-0.1484536752873565</v>
+        <v>-0.148458313218391</v>
       </c>
       <c r="BH7">
-        <v>0.1815018056921993</v>
+        <v>0.18150497120035</v>
       </c>
       <c r="BI7">
         <v>-0.711</v>
@@ -1493,7 +1493,7 @@
         <v>-0.122</v>
       </c>
       <c r="BL7">
-        <v>-0.017475</v>
+        <v>-0.0174</v>
       </c>
       <c r="BM7">
         <v>0.602</v>
@@ -1555,10 +1555,10 @@
         <v>696</v>
       </c>
       <c r="S8">
-        <v>4.251681034482763</v>
+        <v>4.25165229885058</v>
       </c>
       <c r="T8">
-        <v>0.6004271060048864</v>
+        <v>0.6004477943585962</v>
       </c>
       <c r="U8">
         <v>3.41</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>-0.009167071522988507</v>
+        <v>-0.009167199870689651</v>
       </c>
       <c r="AZ8">
-        <v>0.0220257114403839</v>
+        <v>0.02202568011506133</v>
       </c>
       <c r="BA8">
         <v>-0.174</v>
@@ -1663,7 +1663,7 @@
         <v>-0.0102</v>
       </c>
       <c r="BC8">
-        <v>-0.003974999999999999</v>
+        <v>-0.003979999999999999</v>
       </c>
       <c r="BD8">
         <v>-0.00036525</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>-0.1294221206896552</v>
+        <v>-0.1294269885057471</v>
       </c>
       <c r="BH8">
-        <v>0.1824385027174472</v>
+        <v>0.1824418014872276</v>
       </c>
       <c r="BI8">
         <v>-0.659</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>-0.00850382649425287</v>
+        <v>-0.008503873706896543</v>
       </c>
       <c r="AZ9">
-        <v>0.02139458750584211</v>
+        <v>0.0213945772088912</v>
       </c>
       <c r="BA9">
         <v>-0.168</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>-0.1157701293103449</v>
+        <v>-0.1157710359195403</v>
       </c>
       <c r="BH9">
-        <v>0.1838335736914826</v>
+        <v>0.1838329988862236</v>
       </c>
       <c r="BI9">
         <v>-0.626</v>
@@ -1997,10 +1997,10 @@
         <v>696</v>
       </c>
       <c r="AI10">
-        <v>111.5061781609195</v>
+        <v>111.5060344827586</v>
       </c>
       <c r="AJ10">
-        <v>29.81604037986398</v>
+        <v>29.81622547644352</v>
       </c>
       <c r="AK10">
         <v>60.3</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>-0.007824016120689654</v>
+        <v>-0.007823977945402301</v>
       </c>
       <c r="AZ10">
-        <v>0.02084109193272895</v>
+        <v>0.02084104462092708</v>
       </c>
       <c r="BA10">
         <v>-0.163</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>-0.1010765387931036</v>
+        <v>-0.1010848893678162</v>
       </c>
       <c r="BH10">
-        <v>0.1847434310031737</v>
+        <v>0.1847481511167949</v>
       </c>
       <c r="BI10">
         <v>-0.583</v>
@@ -2122,16 +2122,16 @@
         <v>696</v>
       </c>
       <c r="K11">
-        <v>38.07528735632186</v>
+        <v>38.0755747126437</v>
       </c>
       <c r="L11">
-        <v>2.519779293329419</v>
+        <v>2.519964819360155</v>
       </c>
       <c r="M11">
         <v>33.7</v>
       </c>
       <c r="N11">
-        <v>36.3</v>
+        <v>36.275</v>
       </c>
       <c r="O11">
         <v>38.2</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>3.951839080459771</v>
+        <v>3.952155172413794</v>
       </c>
       <c r="T11">
-        <v>0.6174249681814215</v>
+        <v>0.6175036390436909</v>
       </c>
       <c r="U11">
         <v>3.06</v>
@@ -2164,7 +2164,7 @@
         <v>4.32</v>
       </c>
       <c r="Y11">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="Z11">
         <v>696</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>110.1372126436782</v>
+        <v>110.1362068965518</v>
       </c>
       <c r="AJ11">
-        <v>29.47053024285456</v>
+        <v>29.46800600349265</v>
       </c>
       <c r="AK11">
         <v>58.6</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>29.16941091954024</v>
+        <v>29.16969827586207</v>
       </c>
       <c r="AR11">
-        <v>16.57934859384922</v>
+        <v>16.57965207073204</v>
       </c>
       <c r="AS11">
         <v>1.28</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>-0.007688667241379312</v>
+        <v>-0.007688436206896556</v>
       </c>
       <c r="AZ11">
-        <v>0.02249482517361496</v>
+        <v>0.02249439953620136</v>
       </c>
       <c r="BA11">
         <v>-0.179</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>-0.09899668821839083</v>
+        <v>-0.09898711350574717</v>
       </c>
       <c r="BH11">
-        <v>0.3034977793558464</v>
+        <v>0.3034827454597638</v>
       </c>
       <c r="BI11">
         <v>-1.45</v>
@@ -2281,7 +2281,7 @@
         <v>-0.06425</v>
       </c>
       <c r="BL11">
-        <v>0.084525</v>
+        <v>0.08455</v>
       </c>
       <c r="BM11">
         <v>0.877</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>-0.005214526925287356</v>
+        <v>-0.005214541077586208</v>
       </c>
       <c r="AZ12">
-        <v>0.01951553422484037</v>
+        <v>0.01951552676974679</v>
       </c>
       <c r="BA12">
         <v>-0.149</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>-0.03714736422413792</v>
+        <v>-0.03714749022988505</v>
       </c>
       <c r="BH12">
-        <v>0.1930881481309812</v>
+        <v>0.1930880570704747</v>
       </c>
       <c r="BI12">
         <v>-0.341</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>-0.004754621224137934</v>
+        <v>-0.004754649959770119</v>
       </c>
       <c r="AZ13">
-        <v>0.01861130609301352</v>
+        <v>0.0186112935770068</v>
       </c>
       <c r="BA13">
         <v>-0.142</v>
@@ -2660,10 +2660,10 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>-0.03327226336206898</v>
+        <v>-0.03327269439655173</v>
       </c>
       <c r="BH13">
-        <v>0.1881661726878995</v>
+        <v>0.1881658978139922</v>
       </c>
       <c r="BI13">
         <v>-0.323</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>-0.004135846839080462</v>
+        <v>-0.004135861206896554</v>
       </c>
       <c r="AZ14">
-        <v>0.01785758337843626</v>
+        <v>0.01785757587634889</v>
       </c>
       <c r="BA14">
         <v>-0.134</v>
@@ -2857,10 +2857,10 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>-0.02289294540229885</v>
+        <v>-0.02289438218390804</v>
       </c>
       <c r="BH14">
-        <v>0.1881122893757603</v>
+        <v>0.1881107259860123</v>
       </c>
       <c r="BI14">
         <v>-0.303</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>-0.003552582284482759</v>
+        <v>-0.003552611020114943</v>
       </c>
       <c r="AZ15">
-        <v>0.0171667131833007</v>
+        <v>0.01716670248399552</v>
       </c>
       <c r="BA15">
         <v>-0.127</v>
@@ -3054,10 +3054,10 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>-0.01285912068965518</v>
+        <v>-0.0128592643678161</v>
       </c>
       <c r="BH15">
-        <v>0.1880661223384056</v>
+        <v>0.1880660360307709</v>
       </c>
       <c r="BI15">
         <v>-0.286</v>
@@ -3227,10 +3227,10 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>-0.003005703591954025</v>
+        <v>-0.003005746695402301</v>
       </c>
       <c r="AZ16">
-        <v>0.01653678730788125</v>
+        <v>0.01653676975626877</v>
       </c>
       <c r="BA16">
         <v>-0.12</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>-0.002493948419540229</v>
+        <v>-0.002493991522988505</v>
       </c>
       <c r="AZ17">
-        <v>0.01596522721535633</v>
+        <v>0.01596520817494477</v>
       </c>
       <c r="BA17">
         <v>-0.114</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>-0.001993508764367816</v>
+        <v>-0.0019935375</v>
       </c>
       <c r="AZ18">
-        <v>0.01546090487909509</v>
+        <v>0.01546089180638942</v>
       </c>
       <c r="BA18">
         <v>-0.107</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.01354330028735632</v>
+        <v>0.01353898994252873</v>
       </c>
       <c r="BH18">
-        <v>0.1880164025571819</v>
+        <v>0.1880129750233233</v>
       </c>
       <c r="BI18">
         <v>-0.242</v>
@@ -3722,10 +3722,10 @@
         <v>696</v>
       </c>
       <c r="S19">
-        <v>3.989540229885056</v>
+        <v>3.989554597701148</v>
       </c>
       <c r="T19">
-        <v>0.6178613064941685</v>
+        <v>0.6178532827696152</v>
       </c>
       <c r="U19">
         <v>3.18</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>-0.001521657471264366</v>
+        <v>-0.001521671839080458</v>
       </c>
       <c r="AZ19">
-        <v>0.01503871663790866</v>
+        <v>0.01503870748487412</v>
       </c>
       <c r="BA19">
         <v>-0.101</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.02156686350574714</v>
+        <v>0.02156398994252875</v>
       </c>
       <c r="BH19">
-        <v>0.1890846082106515</v>
+        <v>0.1890818316999814</v>
       </c>
       <c r="BI19">
         <v>-0.231</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>-0.001090400862068966</v>
+        <v>-0.001090458333333334</v>
       </c>
       <c r="AZ20">
-        <v>0.01462561857885432</v>
+        <v>0.01462558964396798</v>
       </c>
       <c r="BA20">
         <v>-0.0954</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.0285036106321839</v>
+        <v>0.02850073706896551</v>
       </c>
       <c r="BH20">
-        <v>0.1877456440070892</v>
+        <v>0.1877428084053996</v>
       </c>
       <c r="BI20">
         <v>-0.224</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>-0.0007112383620689667</v>
+        <v>-0.0007112814655172428</v>
       </c>
       <c r="AZ21">
-        <v>0.01420236779441295</v>
+        <v>0.0142023536425659</v>
       </c>
       <c r="BA21">
         <v>-0.0898</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.03421423850574711</v>
+        <v>0.03421136494252873</v>
       </c>
       <c r="BH21">
-        <v>0.1835424793784588</v>
+        <v>0.1835397389311249</v>
       </c>
       <c r="BI21">
         <v>-0.217</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>-0.0003622553160919541</v>
+        <v>-0.0003622984195402299</v>
       </c>
       <c r="AZ22">
-        <v>0.01381211380341457</v>
+        <v>0.01381209986315712</v>
       </c>
       <c r="BA22">
         <v>-0.0843</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.03933640660919541</v>
+        <v>0.03933065948275862</v>
       </c>
       <c r="BH22">
-        <v>0.1800549215308617</v>
+        <v>0.1800494741427705</v>
       </c>
       <c r="BI22">
         <v>-0.21</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>7.164224137930644E-06</v>
+        <v>7.121120689654899E-06</v>
       </c>
       <c r="AZ23">
-        <v>0.01351359552285538</v>
+        <v>0.01351357967568576</v>
       </c>
       <c r="BA23">
         <v>-0.079</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.0454665028735632</v>
+        <v>0.045465066091954</v>
       </c>
       <c r="BH23">
-        <v>0.1811384298530592</v>
+        <v>0.1811368806181961</v>
       </c>
       <c r="BI23">
         <v>-0.204</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.0003952327586206892</v>
+        <v>0.000394988505747126</v>
       </c>
       <c r="AZ24">
-        <v>0.01329430611454442</v>
+        <v>0.01329415228773136</v>
       </c>
       <c r="BA24">
         <v>-0.07389999999999999</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.05236140804597702</v>
+        <v>0.05235711206896552</v>
       </c>
       <c r="BH24">
-        <v>0.1848134358333396</v>
+        <v>0.1848098314800444</v>
       </c>
       <c r="BI24">
         <v>-0.199</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.0007702860632183906</v>
+        <v>0.0007700705459770113</v>
       </c>
       <c r="AZ25">
-        <v>0.01312401004730773</v>
+        <v>0.01312374296057353</v>
       </c>
       <c r="BA25">
         <v>-0.0689</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.05891298132183907</v>
+        <v>0.05890709051724137</v>
       </c>
       <c r="BH25">
-        <v>0.1882013814122833</v>
+        <v>0.1881951714925485</v>
       </c>
       <c r="BI25">
         <v>-0.193</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.001137354166666667</v>
+        <v>0.001137282327586208</v>
       </c>
       <c r="AZ26">
-        <v>0.01299066047466121</v>
+        <v>0.01299063520090794</v>
       </c>
       <c r="BA26">
         <v>-0.064</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.06536160632183907</v>
+        <v>0.06535442241379311</v>
       </c>
       <c r="BH26">
-        <v>0.1919206172651349</v>
+        <v>0.1919135720323039</v>
       </c>
       <c r="BI26">
         <v>-0.188</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.001488463074712644</v>
+        <v>0.001488376867816092</v>
       </c>
       <c r="AZ27">
-        <v>0.01288628573166346</v>
+        <v>0.01288626114526505</v>
       </c>
       <c r="BA27">
         <v>-0.0593</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.07157096695402293</v>
+        <v>0.07156809339080453</v>
       </c>
       <c r="BH27">
-        <v>0.1953791216767623</v>
+        <v>0.1953763978559215</v>
       </c>
       <c r="BI27">
         <v>-0.183</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.001816829454022989</v>
+        <v>0.001816599568965518</v>
       </c>
       <c r="AZ28">
-        <v>0.01279173845226238</v>
+        <v>0.01279149896027511</v>
       </c>
       <c r="BA28">
         <v>-0.0547</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.07721302586206899</v>
+        <v>0.07720584195402301</v>
       </c>
       <c r="BH28">
-        <v>0.1977427617594085</v>
+        <v>0.1977358821778904</v>
       </c>
       <c r="BI28">
         <v>-0.178</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.002127279166666667</v>
+        <v>0.002127063793103448</v>
       </c>
       <c r="AZ29">
-        <v>0.01271779251745437</v>
+        <v>0.01271772282598922</v>
       </c>
       <c r="BA29">
         <v>-0.0501</v>
@@ -5800,10 +5800,10 @@
         <v>-0.0032225</v>
       </c>
       <c r="BC29">
-        <v>-4.81E-05</v>
+        <v>-4.805E-05</v>
       </c>
       <c r="BD29">
-        <v>0.006829999999999999</v>
+        <v>0.006827499999999999</v>
       </c>
       <c r="BE29">
         <v>0.07049999999999999</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.08246793821839082</v>
+        <v>0.08245788074712647</v>
       </c>
       <c r="BH29">
-        <v>0.1996355824361603</v>
+        <v>0.1996249638160441</v>
       </c>
       <c r="BI29">
         <v>-0.174</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.002425404367816092</v>
+        <v>0.002425246149425288</v>
       </c>
       <c r="AZ30">
-        <v>0.01266205894682335</v>
+        <v>0.0126619989612924</v>
       </c>
       <c r="BA30">
         <v>-0.0458</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.08748961537356331</v>
+        <v>0.0874808502873564</v>
       </c>
       <c r="BH30">
-        <v>0.2014451097006529</v>
+        <v>0.2014326364780448</v>
       </c>
       <c r="BI30">
         <v>-0.169</v>
@@ -6027,7 +6027,7 @@
         <v>0.263</v>
       </c>
       <c r="BM30">
-        <v>0.85</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.002708978304597698</v>
+        <v>0.00270825847701149</v>
       </c>
       <c r="AZ31">
-        <v>0.01262549880434574</v>
+        <v>0.0126235672714966</v>
       </c>
       <c r="BA31">
         <v>-0.0415</v>
@@ -6200,16 +6200,16 @@
         <v>0.0072575</v>
       </c>
       <c r="BE31">
-        <v>0.0743</v>
+        <v>0.0742</v>
       </c>
       <c r="BF31">
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.09230622988505752</v>
+        <v>0.09229617241379313</v>
       </c>
       <c r="BH31">
-        <v>0.2030968099741656</v>
+        <v>0.2030867043843016</v>
       </c>
       <c r="BI31">
         <v>-0.165</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.002982548275862072</v>
+        <v>0.00298201522988506</v>
       </c>
       <c r="AZ32">
-        <v>0.01260732863550837</v>
+        <v>0.01260619217549547</v>
       </c>
       <c r="BA32">
         <v>-0.0393</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.09692468247126441</v>
+        <v>0.09691175287356327</v>
       </c>
       <c r="BH32">
-        <v>0.2047967197476908</v>
+        <v>0.2047839301519245</v>
       </c>
       <c r="BI32">
         <v>-0.16</v>
@@ -6480,10 +6480,10 @@
         <v>696</v>
       </c>
       <c r="S33">
-        <v>3.949885057471271</v>
+        <v>3.949899425287363</v>
       </c>
       <c r="T33">
-        <v>0.6224067822546149</v>
+        <v>0.6223900243321377</v>
       </c>
       <c r="U33">
         <v>3.11</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.003248203591954025</v>
+        <v>0.00324795890804598</v>
       </c>
       <c r="AZ33">
-        <v>0.01261161718966708</v>
+        <v>0.012611542917029</v>
       </c>
       <c r="BA33">
         <v>-0.0376</v>
@@ -6591,7 +6591,7 @@
         <v>-4.03E-05</v>
       </c>
       <c r="BD33">
-        <v>0.0075925</v>
+        <v>0.00759</v>
       </c>
       <c r="BE33">
         <v>0.07770000000000001</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.1014220732758621</v>
+        <v>0.1014120143678161</v>
       </c>
       <c r="BH33">
-        <v>0.2065282194978901</v>
+        <v>0.2065183508744279</v>
       </c>
       <c r="BI33">
         <v>-0.156</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.003506249568965515</v>
+        <v>0.00350577543103448</v>
       </c>
       <c r="AZ34">
-        <v>0.01263078732939034</v>
+        <v>0.01263029923930214</v>
       </c>
       <c r="BA34">
         <v>-0.0361</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.105799018678161</v>
+        <v>0.1057789022988506</v>
       </c>
       <c r="BH34">
-        <v>0.2082866358489567</v>
+        <v>0.2082682676562129</v>
       </c>
       <c r="BI34">
         <v>-0.152</v>
@@ -6809,10 +6809,10 @@
         <v>-0.06257499999999999</v>
       </c>
       <c r="BK34">
-        <v>-0.0009025</v>
+        <v>-0.0009029999999999999</v>
       </c>
       <c r="BL34">
-        <v>0.29125</v>
+        <v>0.291</v>
       </c>
       <c r="BM34">
         <v>0.88</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.003755205603448272</v>
+        <v>0.003754559051724133</v>
       </c>
       <c r="AZ35">
-        <v>0.01266505994537774</v>
+        <v>0.01266448145822637</v>
       </c>
       <c r="BA35">
         <v>-0.0346</v>
@@ -6985,7 +6985,7 @@
         <v>-3.68E-05</v>
       </c>
       <c r="BD35">
-        <v>0.00796</v>
+        <v>0.007952500000000001</v>
       </c>
       <c r="BE35">
         <v>0.081</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.1100645646551724</v>
+        <v>0.1100415617816093</v>
       </c>
       <c r="BH35">
-        <v>0.2100901674865744</v>
+        <v>0.2100624478741696</v>
       </c>
       <c r="BI35">
         <v>-0.148</v>
@@ -7071,10 +7071,10 @@
         <v>696</v>
       </c>
       <c r="S36">
-        <v>3.945747126436787</v>
+        <v>3.945761494252878</v>
       </c>
       <c r="T36">
-        <v>0.6229304284563139</v>
+        <v>0.622923250590861</v>
       </c>
       <c r="U36">
         <v>3.1</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.003997487931034484</v>
+        <v>0.003997200718390805</v>
       </c>
       <c r="AZ36">
-        <v>0.01271410744547477</v>
+        <v>0.01271403234147723</v>
       </c>
       <c r="BA36">
         <v>-0.0332</v>
@@ -7182,7 +7182,7 @@
         <v>-3.565E-05</v>
       </c>
       <c r="BD36">
-        <v>0.008122500000000001</v>
+        <v>0.008114999999999999</v>
       </c>
       <c r="BE36">
         <v>0.08260000000000001</v>
@@ -7191,10 +7191,10 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.1141511020114944</v>
+        <v>0.1141396063218392</v>
       </c>
       <c r="BH36">
-        <v>0.2116725058605873</v>
+        <v>0.2116613935057464</v>
       </c>
       <c r="BI36">
         <v>-0.145</v>
@@ -7206,7 +7206,7 @@
         <v>-0.00085</v>
       </c>
       <c r="BL36">
-        <v>0.3045</v>
+        <v>0.30425</v>
       </c>
       <c r="BM36">
         <v>0.888</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.004232276436781606</v>
+        <v>0.004231414367816088</v>
       </c>
       <c r="AZ37">
-        <v>0.01277228041712667</v>
+        <v>0.0127714206021436</v>
       </c>
       <c r="BA37">
         <v>-0.0318</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.1181833462643678</v>
+        <v>0.1181517356321839</v>
       </c>
       <c r="BH37">
-        <v>0.2133107014575387</v>
+        <v>0.213276552599837</v>
       </c>
       <c r="BI37">
         <v>-0.141</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.004466326767241386</v>
+        <v>0.004465507801724144</v>
       </c>
       <c r="AZ38">
-        <v>0.01285140436279501</v>
+        <v>0.01285015356079175</v>
       </c>
       <c r="BA38">
         <v>-0.0305</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.1222639643678161</v>
+        <v>0.1222352287356322</v>
       </c>
       <c r="BH38">
-        <v>0.2151282280421414</v>
+        <v>0.2151027506245618</v>
       </c>
       <c r="BI38">
         <v>-0.138</v>
@@ -7734,10 +7734,10 @@
         <v>696</v>
       </c>
       <c r="AQ39">
-        <v>29.11770114942529</v>
+        <v>29.11771551724138</v>
       </c>
       <c r="AR39">
-        <v>16.52160354724777</v>
+        <v>16.52158272191072</v>
       </c>
       <c r="AS39">
         <v>1.27</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.004701050574712645</v>
+        <v>0.004700174281609197</v>
       </c>
       <c r="AZ39">
-        <v>0.01294883338173752</v>
+        <v>0.01294830709876831</v>
       </c>
       <c r="BA39">
         <v>-0.0293</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.1264546954022988</v>
+        <v>0.1264360186781609</v>
       </c>
       <c r="BH39">
-        <v>0.2172604046186336</v>
+        <v>0.217239940609611</v>
       </c>
       <c r="BI39">
         <v>-0.134</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.004933117528735631</v>
+        <v>0.004932269827586204</v>
       </c>
       <c r="AZ40">
-        <v>0.01306441136420356</v>
+        <v>0.01306367962139626</v>
       </c>
       <c r="BA40">
         <v>-0.0281</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.130600224137931</v>
+        <v>0.130569908045977</v>
       </c>
       <c r="BH40">
-        <v>0.2193366879613961</v>
+        <v>0.2193066763951126</v>
       </c>
       <c r="BI40">
         <v>-0.131</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.005157638505747127</v>
+        <v>0.005156402873563222</v>
       </c>
       <c r="AZ41">
-        <v>0.0131951602450722</v>
+        <v>0.01319397557811322</v>
       </c>
       <c r="BA41">
         <v>-0.027</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.134458448275862</v>
+        <v>0.1344311364942528</v>
       </c>
       <c r="BH41">
-        <v>0.2209952257120427</v>
+        <v>0.2209588614207169</v>
       </c>
       <c r="BI41">
         <v>-0.128</v>
@@ -8194,7 +8194,7 @@
         <v>0.3382500000000001</v>
       </c>
       <c r="BM41">
-        <v>0.895</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.005374345977011497</v>
+        <v>0.005373334482758623</v>
       </c>
       <c r="AZ42">
-        <v>0.0133307303709298</v>
+        <v>0.01332995151035951</v>
       </c>
       <c r="BA42">
         <v>-0.0259</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.1381612931034484</v>
+        <v>0.1381137298850577</v>
       </c>
       <c r="BH42">
-        <v>0.2225137489058238</v>
+        <v>0.2224587899430552</v>
       </c>
       <c r="BI42">
         <v>-0.124</v>
@@ -8388,7 +8388,7 @@
         <v>-0.0007210000000000001</v>
       </c>
       <c r="BL42">
-        <v>0.345</v>
+        <v>0.3442499999999999</v>
       </c>
       <c r="BM42">
         <v>0.89</v>
@@ -8522,10 +8522,10 @@
         <v>696</v>
       </c>
       <c r="AQ43">
-        <v>29.10079022988507</v>
+        <v>29.10093390804599</v>
       </c>
       <c r="AR43">
-        <v>16.51174934914175</v>
+        <v>16.51185783171048</v>
       </c>
       <c r="AS43">
         <v>1.27</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.005587348706896551</v>
+        <v>0.005586069971264368</v>
       </c>
       <c r="AZ43">
-        <v>0.01347424788698365</v>
+        <v>0.01347224794421557</v>
       </c>
       <c r="BA43">
         <v>-0.0248</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.1418241135057473</v>
+        <v>0.1417778491379311</v>
       </c>
       <c r="BH43">
-        <v>0.2242095433828804</v>
+        <v>0.2241548227390905</v>
       </c>
       <c r="BI43">
         <v>-0.121</v>
@@ -8588,7 +8588,7 @@
         <v>0.3505</v>
       </c>
       <c r="BM43">
-        <v>0.887</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -8647,10 +8647,10 @@
         <v>696</v>
       </c>
       <c r="S44">
-        <v>3.936393678160921</v>
+        <v>3.936408045977013</v>
       </c>
       <c r="T44">
-        <v>0.6251326744154777</v>
+        <v>0.6251266578021464</v>
       </c>
       <c r="U44">
         <v>3.08</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.005797200574712641</v>
+        <v>0.005795747988505743</v>
       </c>
       <c r="AZ44">
-        <v>0.01363276307095963</v>
+        <v>0.01363100181740283</v>
       </c>
       <c r="BA44">
         <v>-0.0238</v>
@@ -8758,7 +8758,7 @@
         <v>-2.83E-05</v>
       </c>
       <c r="BD44">
-        <v>0.009415</v>
+        <v>0.009412500000000001</v>
       </c>
       <c r="BE44">
         <v>0.0954</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.1453109324712644</v>
+        <v>0.1452576250000001</v>
       </c>
       <c r="BH44">
-        <v>0.2256868366879166</v>
+        <v>0.2256219615445304</v>
       </c>
       <c r="BI44">
         <v>-0.118</v>
@@ -8782,7 +8782,7 @@
         <v>-0.0006670000000000001</v>
       </c>
       <c r="BL44">
-        <v>0.35775</v>
+        <v>0.3575</v>
       </c>
       <c r="BM44">
         <v>0.9360000000000001</v>
@@ -8916,10 +8916,10 @@
         <v>696</v>
       </c>
       <c r="AQ45">
-        <v>29.09589080459772</v>
+        <v>29.09603448275864</v>
       </c>
       <c r="AR45">
-        <v>16.50880667735744</v>
+        <v>16.50887164397017</v>
       </c>
       <c r="AS45">
         <v>1.27</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.006010456465517239</v>
+        <v>0.006009278304597698</v>
       </c>
       <c r="AZ45">
-        <v>0.01381751524007116</v>
+        <v>0.01381507346633085</v>
       </c>
       <c r="BA45">
         <v>-0.0229</v>
@@ -8955,19 +8955,19 @@
         <v>-2.76E-05</v>
       </c>
       <c r="BD45">
-        <v>0.009809999999999999</v>
+        <v>0.009802499999999999</v>
       </c>
       <c r="BE45">
-        <v>0.0969</v>
+        <v>0.0968</v>
       </c>
       <c r="BF45">
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.1488017270114944</v>
+        <v>0.1487528821839082</v>
       </c>
       <c r="BH45">
-        <v>0.2279955211006565</v>
+        <v>0.2279398955897544</v>
       </c>
       <c r="BI45">
         <v>-0.115</v>
@@ -9089,10 +9089,10 @@
         <v>696</v>
       </c>
       <c r="AI46">
-        <v>109.8099137931035</v>
+        <v>109.8100574712644</v>
       </c>
       <c r="AJ46">
-        <v>29.14319056403314</v>
+        <v>29.14298241226495</v>
       </c>
       <c r="AK46">
         <v>59.7</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.006236415229885059</v>
+        <v>0.006234764367816092</v>
       </c>
       <c r="AZ46">
-        <v>0.01402309886670281</v>
+        <v>0.01402185871622309</v>
       </c>
       <c r="BA46">
         <v>-0.022</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.1528720201149426</v>
+        <v>0.1528185732758621</v>
       </c>
       <c r="BH46">
-        <v>0.2319538250636599</v>
+        <v>0.2319036521312532</v>
       </c>
       <c r="BI46">
         <v>-0.113</v>
@@ -9238,10 +9238,10 @@
         <v>696</v>
       </c>
       <c r="S47">
-        <v>3.933448275862072</v>
+        <v>3.933462643678164</v>
       </c>
       <c r="T47">
-        <v>0.6258060978776958</v>
+        <v>0.6258284351618847</v>
       </c>
       <c r="U47">
         <v>3.07</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.00643912744252874</v>
+        <v>0.006437761637931041</v>
       </c>
       <c r="AZ47">
-        <v>0.01418967365033566</v>
+        <v>0.01418874643066591</v>
       </c>
       <c r="BA47">
         <v>-0.0211</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.1563371091954021</v>
+        <v>0.1562738864942526</v>
       </c>
       <c r="BH47">
-        <v>0.2329754982826426</v>
+        <v>0.2329165962665484</v>
       </c>
       <c r="BI47">
         <v>-0.11</v>
@@ -9373,7 +9373,7 @@
         <v>-0.0005725</v>
       </c>
       <c r="BL47">
-        <v>0.37975</v>
+        <v>0.3795</v>
       </c>
       <c r="BM47">
         <v>1.07</v>
@@ -9435,10 +9435,10 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>3.932356321839083</v>
+        <v>3.932370689655175</v>
       </c>
       <c r="T48">
-        <v>0.6260424234966271</v>
+        <v>0.6260362785843142</v>
       </c>
       <c r="U48">
         <v>3.07</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.006606238362068962</v>
+        <v>0.00660437054597701</v>
       </c>
       <c r="AZ48">
-        <v>0.01431903808960362</v>
+        <v>0.01431759349381316</v>
       </c>
       <c r="BA48">
         <v>-0.0202</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.1587493635057471</v>
+        <v>0.1586832729885057</v>
       </c>
       <c r="BH48">
-        <v>0.2313668287745893</v>
+        <v>0.2313021915601283</v>
       </c>
       <c r="BI48">
         <v>-0.107</v>
@@ -9632,10 +9632,10 @@
         <v>696</v>
       </c>
       <c r="S49">
-        <v>3.93110632183908</v>
+        <v>3.931135057471264</v>
       </c>
       <c r="T49">
-        <v>0.6261912367147865</v>
+        <v>0.6261679772154344</v>
       </c>
       <c r="U49">
         <v>3.07</v>
@@ -9656,10 +9656,10 @@
         <v>696</v>
       </c>
       <c r="AA49">
-        <v>38.04727011494256</v>
+        <v>38.04741379310348</v>
       </c>
       <c r="AB49">
-        <v>2.584501347119761</v>
+        <v>2.584273228986069</v>
       </c>
       <c r="AC49">
         <v>33.6</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.006791003160919542</v>
+        <v>0.006788977298850573</v>
       </c>
       <c r="AZ49">
-        <v>0.01448320283608412</v>
+        <v>0.01448125631086444</v>
       </c>
       <c r="BA49">
         <v>-0.0194</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.1619930545977012</v>
+        <v>0.1619352672413793</v>
       </c>
       <c r="BH49">
-        <v>0.2331406194163425</v>
+        <v>0.2330827459426716</v>
       </c>
       <c r="BI49">
         <v>-0.104</v>
@@ -9767,7 +9767,7 @@
         <v>-0.0005245</v>
       </c>
       <c r="BL49">
-        <v>0.39425</v>
+        <v>0.3935</v>
       </c>
       <c r="BM49">
         <v>0.961</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.00699588893678161</v>
+        <v>0.006993904597701155</v>
       </c>
       <c r="AZ50">
-        <v>0.01467984825950357</v>
+        <v>0.01467850168896531</v>
       </c>
       <c r="BA50">
         <v>-0.0186</v>
@@ -9949,10 +9949,10 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.1658314468390805</v>
+        <v>0.1657667945402299</v>
       </c>
       <c r="BH50">
-        <v>0.2363930108837565</v>
+        <v>0.2363307427942886</v>
       </c>
       <c r="BI50">
         <v>-0.102</v>
@@ -10026,10 +10026,10 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>3.928908045977009</v>
+        <v>3.928922413793101</v>
       </c>
       <c r="T51">
-        <v>0.6269085623032483</v>
+        <v>0.6269041116428743</v>
       </c>
       <c r="U51">
         <v>3.06</v>
@@ -10074,10 +10074,10 @@
         <v>696</v>
       </c>
       <c r="AI51">
-        <v>109.7808908045977</v>
+        <v>109.7823275862069</v>
       </c>
       <c r="AJ51">
-        <v>29.14616985209296</v>
+        <v>29.14763691272636</v>
       </c>
       <c r="AK51">
         <v>59.7</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.007190010344827583</v>
+        <v>0.007187280459770113</v>
       </c>
       <c r="AZ51">
-        <v>0.01487849633402194</v>
+        <v>0.01487665934954902</v>
       </c>
       <c r="BA51">
         <v>-0.0179</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.1693191005747127</v>
+        <v>0.1692384971264368</v>
       </c>
       <c r="BH51">
-        <v>0.2392998058798015</v>
+        <v>0.2392113635410681</v>
       </c>
       <c r="BI51">
         <v>-0.0994</v>
@@ -10199,10 +10199,10 @@
         <v>696</v>
       </c>
       <c r="K52">
-        <v>38.0528735632184</v>
+        <v>38.05301724137932</v>
       </c>
       <c r="L52">
-        <v>2.579926453938515</v>
+        <v>2.579697618717911</v>
       </c>
       <c r="M52">
         <v>33.6</v>
@@ -10295,10 +10295,10 @@
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>29.07771551724136</v>
+        <v>29.07785919540228</v>
       </c>
       <c r="AR52">
-        <v>16.49993844626289</v>
+        <v>16.50009080900239</v>
       </c>
       <c r="AS52">
         <v>1.27</v>
@@ -10319,10 +10319,10 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.007387494540229888</v>
+        <v>0.007385556465517247</v>
       </c>
       <c r="AZ52">
-        <v>0.01508645254939702</v>
+        <v>0.01508551147543078</v>
       </c>
       <c r="BA52">
         <v>-0.0172</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.1729787859195402</v>
+        <v>0.172869591954023</v>
       </c>
       <c r="BH52">
-        <v>0.2425188567556567</v>
+        <v>0.2424057133824091</v>
       </c>
       <c r="BI52">
         <v>-0.0969</v>
@@ -10420,10 +10420,10 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>3.929583333333334</v>
+        <v>3.929612068965518</v>
       </c>
       <c r="T53">
-        <v>0.6272814236150072</v>
+        <v>0.6272635502906219</v>
       </c>
       <c r="U53">
         <v>3.06</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.00757033663793103</v>
+        <v>0.007567059482758617</v>
       </c>
       <c r="AZ53">
-        <v>0.01528578851473495</v>
+        <v>0.01528243097475794</v>
       </c>
       <c r="BA53">
         <v>-0.0165</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.17615533045977</v>
+        <v>0.17606625</v>
       </c>
       <c r="BH53">
-        <v>0.2443910721854266</v>
+        <v>0.2442967415758533</v>
       </c>
       <c r="BI53">
         <v>-0.0945</v>
@@ -10555,7 +10555,7 @@
         <v>-0.0004675</v>
       </c>
       <c r="BL53">
-        <v>0.41425</v>
+        <v>0.414</v>
       </c>
       <c r="BM53">
         <v>1.04</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.00774387183908046</v>
+        <v>0.007741027011494253</v>
       </c>
       <c r="AZ54">
-        <v>0.01546545651618275</v>
+        <v>0.01546404862161219</v>
       </c>
       <c r="BA54">
         <v>-0.0158</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.1792437313218389</v>
+        <v>0.1791489080459769</v>
       </c>
       <c r="BH54">
-        <v>0.2462780339453203</v>
+        <v>0.2461784387873998</v>
       </c>
       <c r="BI54">
         <v>-0.0922</v>
@@ -10814,10 +10814,10 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>3.928218390804601</v>
+        <v>3.928232758620692</v>
       </c>
       <c r="T55">
-        <v>0.6276801994745184</v>
+        <v>0.6276601819606318</v>
       </c>
       <c r="U55">
         <v>3.05</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.007921787643678161</v>
+        <v>0.007918830747126435</v>
       </c>
       <c r="AZ55">
-        <v>0.01567665921272648</v>
+        <v>0.0156744753812133</v>
       </c>
       <c r="BA55">
         <v>-0.0151</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.1823829468390805</v>
+        <v>0.1822793591954023</v>
       </c>
       <c r="BH55">
-        <v>0.2486905705547856</v>
+        <v>0.2485806736525935</v>
       </c>
       <c r="BI55">
         <v>-0.0898</v>
@@ -11107,10 +11107,10 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.008099471695402297</v>
+        <v>0.008096023275862068</v>
       </c>
       <c r="AZ56">
-        <v>0.01587228154163083</v>
+        <v>0.01586948228937846</v>
       </c>
       <c r="BA56">
         <v>-0.0145</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.1857117356321837</v>
+        <v>0.1855909066091953</v>
       </c>
       <c r="BH56">
-        <v>0.251439929308083</v>
+        <v>0.2512716435687011</v>
       </c>
       <c r="BI56">
         <v>-0.0876</v>
@@ -11149,7 +11149,7 @@
         <v>0.431</v>
       </c>
       <c r="BM56">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="57" spans="1:65">
@@ -11208,10 +11208,10 @@
         <v>696</v>
       </c>
       <c r="S57">
-        <v>3.926896551724137</v>
+        <v>3.926925287356321</v>
       </c>
       <c r="T57">
-        <v>0.6283046694306675</v>
+        <v>0.6282864902530133</v>
       </c>
       <c r="U57">
         <v>3.05</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.008274818821839081</v>
+        <v>0.008269890948275859</v>
       </c>
       <c r="AZ57">
-        <v>0.01607224564228271</v>
+        <v>0.01606734136624395</v>
       </c>
       <c r="BA57">
         <v>-0.0139</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.1889520775862068</v>
+        <v>0.1888341135057471</v>
       </c>
       <c r="BH57">
-        <v>0.2537293085048187</v>
+        <v>0.2536014779914721</v>
       </c>
       <c r="BI57">
         <v>-0.0854</v>
@@ -11405,10 +11405,10 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>3.925919540229881</v>
+        <v>3.925933908045972</v>
       </c>
       <c r="T58">
-        <v>0.6286381437831061</v>
+        <v>0.6286234738574125</v>
       </c>
       <c r="U58">
         <v>3.05</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.008440159051724138</v>
+        <v>0.008434180747126442</v>
       </c>
       <c r="AZ58">
-        <v>0.01627433196836513</v>
+        <v>0.01626056195572863</v>
       </c>
       <c r="BA58">
         <v>-0.0133</v>
@@ -11525,10 +11525,10 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.1918950775862068</v>
+        <v>0.1917670617816091</v>
       </c>
       <c r="BH58">
-        <v>0.2554582105198754</v>
+        <v>0.2553238959732891</v>
       </c>
       <c r="BI58">
         <v>-0.0832</v>
@@ -11602,10 +11602,10 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>3.924683908045971</v>
+        <v>3.924727011494247</v>
       </c>
       <c r="T59">
-        <v>0.6291393349805849</v>
+        <v>0.6291178569139765</v>
       </c>
       <c r="U59">
         <v>3.04</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.008600042672413797</v>
+        <v>0.008595015229885063</v>
       </c>
       <c r="AZ59">
-        <v>0.01647471610053718</v>
+        <v>0.01646197560149797</v>
       </c>
       <c r="BA59">
         <v>-0.0127</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.1946549827586206</v>
+        <v>0.194530125</v>
       </c>
       <c r="BH59">
-        <v>0.2570837818296455</v>
+        <v>0.2569564967445891</v>
       </c>
       <c r="BI59">
         <v>-0.08110000000000001</v>
@@ -11734,7 +11734,7 @@
         <v>-0.02135</v>
       </c>
       <c r="BK59">
-        <v>-0.0003955</v>
+        <v>-0.000395</v>
       </c>
       <c r="BL59">
         <v>0.448</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>109.7380747126437</v>
+        <v>109.7395114942529</v>
       </c>
       <c r="AJ60">
-        <v>29.1456896382531</v>
+        <v>29.14627025348314</v>
       </c>
       <c r="AK60">
         <v>59.7</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.008763053735632177</v>
+        <v>0.008758582758620672</v>
       </c>
       <c r="AZ60">
-        <v>0.01667203085490206</v>
+        <v>0.01666899295142012</v>
       </c>
       <c r="BA60">
         <v>-0.0122</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.1976119181034484</v>
+        <v>0.1974491278735632</v>
       </c>
       <c r="BH60">
-        <v>0.2593556488864525</v>
+        <v>0.2591815892482053</v>
       </c>
       <c r="BI60">
         <v>-0.079</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>3.92294540229885</v>
+        <v>3.922988505747126</v>
       </c>
       <c r="T61">
-        <v>0.6290727010464312</v>
+        <v>0.6290387595520415</v>
       </c>
       <c r="U61">
         <v>3.04</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.008926467241379309</v>
+        <v>0.008922831034482758</v>
       </c>
       <c r="AZ61">
-        <v>0.01687337499480722</v>
+        <v>0.01687179764992071</v>
       </c>
       <c r="BA61">
         <v>-0.0116</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.2005745675287356</v>
+        <v>0.2004277270114942</v>
       </c>
       <c r="BH61">
-        <v>0.2616402186918749</v>
+        <v>0.2614896094137501</v>
       </c>
       <c r="BI61">
         <v>-0.077</v>
@@ -12131,7 +12131,7 @@
         <v>-0.0003755</v>
       </c>
       <c r="BL61">
-        <v>0.45925</v>
+        <v>0.45825</v>
       </c>
       <c r="BM61">
         <v>1.1</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>3.921795977011491</v>
+        <v>3.921824712643675</v>
       </c>
       <c r="T62">
-        <v>0.6293681369754173</v>
+        <v>0.6293655393964417</v>
       </c>
       <c r="U62">
         <v>3.04</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.009090788764367818</v>
+        <v>0.009083689626436783</v>
       </c>
       <c r="AZ62">
-        <v>0.01709325647196391</v>
+        <v>0.01708030857464264</v>
       </c>
       <c r="BA62">
         <v>-0.0111</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.2035183844827588</v>
+        <v>0.2033598859195404</v>
       </c>
       <c r="BH62">
-        <v>0.2639256171538631</v>
+        <v>0.2637561823776476</v>
       </c>
       <c r="BI62">
         <v>-0.075</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>38.04554597701151</v>
+        <v>38.04568965517242</v>
       </c>
       <c r="L63">
-        <v>2.588092876511857</v>
+        <v>2.587865170830277</v>
       </c>
       <c r="M63">
         <v>33.5</v>
@@ -12438,10 +12438,10 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>109.7172413793103</v>
+        <v>109.7175287356322</v>
       </c>
       <c r="AJ63">
-        <v>29.13436827077833</v>
+        <v>29.13407424699449</v>
       </c>
       <c r="AK63">
         <v>59.7</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.009248898275862063</v>
+        <v>0.00924447212643678</v>
       </c>
       <c r="AZ63">
-        <v>0.01729593534674765</v>
+        <v>0.01729290374118607</v>
       </c>
       <c r="BA63">
         <v>-0.0106</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.2064348074712644</v>
+        <v>0.2062922528735633</v>
       </c>
       <c r="BH63">
-        <v>0.2662528611618678</v>
+        <v>0.2661105135325285</v>
       </c>
       <c r="BI63">
         <v>-0.0731</v>
@@ -12522,7 +12522,7 @@
         <v>-0.018525</v>
       </c>
       <c r="BK63">
-        <v>5.699999999999998E-05</v>
+        <v>5.600000000000001E-05</v>
       </c>
       <c r="BL63">
         <v>0.4695</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.009412918297413794</v>
+        <v>0.009406927574712641</v>
       </c>
       <c r="AZ64">
-        <v>0.01750701014223863</v>
+        <v>0.01750261163802921</v>
       </c>
       <c r="BA64">
         <v>-0.0101</v>
@@ -12695,7 +12695,7 @@
         <v>-0.0006940000000000001</v>
       </c>
       <c r="BC64">
-        <v>8.62675E-05</v>
+        <v>8.6196E-05</v>
       </c>
       <c r="BD64">
         <v>0.0127</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.2095582252873563</v>
+        <v>0.2093610748563218</v>
       </c>
       <c r="BH64">
-        <v>0.2691335359701422</v>
+        <v>0.2688961429388755</v>
       </c>
       <c r="BI64">
         <v>-0.0711</v>
@@ -12719,7 +12719,7 @@
         <v>-0.017875</v>
       </c>
       <c r="BK64">
-        <v>0.0008069</v>
+        <v>0.0008050500000000001</v>
       </c>
       <c r="BL64">
         <v>0.47475</v>
@@ -12784,10 +12784,10 @@
         <v>696</v>
       </c>
       <c r="S65">
-        <v>3.919784482758612</v>
+        <v>3.919827586206888</v>
       </c>
       <c r="T65">
-        <v>0.6299691298505221</v>
+        <v>0.629947102164679</v>
       </c>
       <c r="U65">
         <v>3.03</v>
@@ -12808,10 +12808,10 @@
         <v>696</v>
       </c>
       <c r="AA65">
-        <v>38.0353448275862</v>
+        <v>38.03548850574713</v>
       </c>
       <c r="AB65">
-        <v>2.597627727173468</v>
+        <v>2.597379264103399</v>
       </c>
       <c r="AC65">
         <v>33.5</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>109.7010057471264</v>
+        <v>109.7025862068966</v>
       </c>
       <c r="AJ65">
-        <v>29.13082693854928</v>
+        <v>29.1306072897853</v>
       </c>
       <c r="AK65">
         <v>59.7</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>29.05169540229886</v>
+        <v>29.05170977011495</v>
       </c>
       <c r="AR65">
-        <v>16.4867792597246</v>
+        <v>16.48675843054965</v>
       </c>
       <c r="AS65">
         <v>1.27</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.009574228591954021</v>
+        <v>0.009567532327586207</v>
       </c>
       <c r="AZ65">
-        <v>0.01771385833158312</v>
+        <v>0.01770957810406978</v>
       </c>
       <c r="BA65">
         <v>-0.009679999999999999</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.2126471020114942</v>
+        <v>0.2124470919540228</v>
       </c>
       <c r="BH65">
-        <v>0.2714678952881238</v>
+        <v>0.2712275645143604</v>
       </c>
       <c r="BI65">
         <v>-0.0693</v>
@@ -12919,7 +12919,7 @@
         <v>0.002785</v>
       </c>
       <c r="BL65">
-        <v>0.48</v>
+        <v>0.47975</v>
       </c>
       <c r="BM65">
         <v>1.16</v>
@@ -12957,10 +12957,10 @@
         <v>696</v>
       </c>
       <c r="K66">
-        <v>38.04295977011495</v>
+        <v>38.04310344827588</v>
       </c>
       <c r="L66">
-        <v>2.591342948649585</v>
+        <v>2.591237835517672</v>
       </c>
       <c r="M66">
         <v>33.5</v>
@@ -12981,10 +12981,10 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>3.919152298850564</v>
+        <v>3.919166666666657</v>
       </c>
       <c r="T66">
-        <v>0.630347397487994</v>
+        <v>0.6303459329636675</v>
       </c>
       <c r="U66">
         <v>3.03</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>29.0498275862069</v>
+        <v>29.04997126436783</v>
       </c>
       <c r="AR66">
-        <v>16.48533593765759</v>
+        <v>16.48544765724013</v>
       </c>
       <c r="AS66">
         <v>1.27</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.009724617715517237</v>
+        <v>0.009717788692528736</v>
       </c>
       <c r="AZ66">
-        <v>0.01792308952884403</v>
+        <v>0.01791020965182852</v>
       </c>
       <c r="BA66">
         <v>-0.00923</v>
@@ -13089,10 +13089,10 @@
         <v>-0.0006302500000000001</v>
       </c>
       <c r="BC66">
-        <v>0.0003205</v>
+        <v>0.00032</v>
       </c>
       <c r="BD66">
-        <v>0.013</v>
+        <v>0.012925</v>
       </c>
       <c r="BE66">
         <v>0.125</v>
@@ -13101,10 +13101,10 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.2154037772988506</v>
+        <v>0.2151939798850575</v>
       </c>
       <c r="BH66">
-        <v>0.2730517962096122</v>
+        <v>0.2728371724114353</v>
       </c>
       <c r="BI66">
         <v>-0.0674</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>3.918807471264358</v>
+        <v>3.918836206896541</v>
       </c>
       <c r="T67">
-        <v>0.6304397348535624</v>
+        <v>0.6304069227420742</v>
       </c>
       <c r="U67">
         <v>3.03</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>109.6647988505748</v>
+        <v>109.6663793103449</v>
       </c>
       <c r="AJ67">
-        <v>29.12933668141193</v>
+        <v>29.12976458143088</v>
       </c>
       <c r="AK67">
         <v>59.7</v>
@@ -13250,10 +13250,10 @@
         <v>696</v>
       </c>
       <c r="AQ67">
-        <v>29.04767241379312</v>
+        <v>29.04781609195403</v>
       </c>
       <c r="AR67">
-        <v>16.4834957976528</v>
+        <v>16.48363286250894</v>
       </c>
       <c r="AS67">
         <v>1.27</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.009870700387931038</v>
+        <v>0.009863526666666671</v>
       </c>
       <c r="AZ67">
-        <v>0.01812471529242685</v>
+        <v>0.01811855359974305</v>
       </c>
       <c r="BA67">
         <v>-0.008789999999999999</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.2179484147988502</v>
+        <v>0.2177409073275861</v>
       </c>
       <c r="BH67">
-        <v>0.2746539675036911</v>
+        <v>0.2744397274788493</v>
       </c>
       <c r="BI67">
         <v>-0.06560000000000001</v>
@@ -13310,10 +13310,10 @@
         <v>-0.0154</v>
       </c>
       <c r="BK67">
-        <v>0.00573</v>
+        <v>0.005724999999999999</v>
       </c>
       <c r="BL67">
-        <v>0.49075</v>
+        <v>0.49</v>
       </c>
       <c r="BM67">
         <v>1.14</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>3.918132183908039</v>
+        <v>3.918146551724131</v>
       </c>
       <c r="T68">
-        <v>0.6304863622679489</v>
+        <v>0.630465979378396</v>
       </c>
       <c r="U68">
         <v>3.02</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>109.6527298850575</v>
+        <v>109.6541666666667</v>
       </c>
       <c r="AJ68">
-        <v>29.0827812493729</v>
+        <v>29.09434833289908</v>
       </c>
       <c r="AK68">
         <v>59.7</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.01001703390804598</v>
+        <v>0.01001043807471264</v>
       </c>
       <c r="AZ68">
-        <v>0.01832868946032832</v>
+        <v>0.01832415819709056</v>
       </c>
       <c r="BA68">
         <v>-0.008359999999999999</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.2204854741379312</v>
+        <v>0.2202620359195404</v>
       </c>
       <c r="BH68">
-        <v>0.276430456692325</v>
+        <v>0.2761617406453573</v>
       </c>
       <c r="BI68">
         <v>-0.0638</v>
@@ -13510,7 +13510,7 @@
         <v>0.006815</v>
       </c>
       <c r="BL68">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="BM68">
         <v>1.15</v>
@@ -13572,10 +13572,10 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>3.91685344827586</v>
+        <v>3.916896551724136</v>
       </c>
       <c r="T69">
-        <v>0.6306413419945575</v>
+        <v>0.6306341407653757</v>
       </c>
       <c r="U69">
         <v>3.02</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.01015968706896553</v>
+        <v>0.01015221149425288</v>
       </c>
       <c r="AZ69">
-        <v>0.01853505382758848</v>
+        <v>0.01852874426001446</v>
       </c>
       <c r="BA69">
         <v>-0.00795</v>
@@ -13683,7 +13683,7 @@
         <v>0.0006510000000000001</v>
       </c>
       <c r="BD69">
-        <v>0.0134</v>
+        <v>0.013325</v>
       </c>
       <c r="BE69">
         <v>0.129</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.2229789913793102</v>
+        <v>0.2227174985632185</v>
       </c>
       <c r="BH69">
-        <v>0.2779968550972363</v>
+        <v>0.2776834413890038</v>
       </c>
       <c r="BI69">
         <v>-0.0621</v>
@@ -13707,10 +13707,10 @@
         <v>0.007875</v>
       </c>
       <c r="BL69">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="BM69">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="70" spans="1:65">
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>3.915775862068965</v>
+        <v>3.915818965517241</v>
       </c>
       <c r="T70">
-        <v>0.630907512443978</v>
+        <v>0.6308905812046501</v>
       </c>
       <c r="U70">
         <v>3.02</v>
@@ -13793,10 +13793,10 @@
         <v>696</v>
       </c>
       <c r="AA70">
-        <v>38.03074712643678</v>
+        <v>38.03117816091954</v>
       </c>
       <c r="AB70">
-        <v>2.601179038559094</v>
+        <v>2.600623454279152</v>
       </c>
       <c r="AC70">
         <v>33.5</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>29.0448563218391</v>
+        <v>29.04487068965519</v>
       </c>
       <c r="AR70">
-        <v>16.48322674745766</v>
+        <v>16.48320616418058</v>
       </c>
       <c r="AS70">
         <v>1.27</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.01029305675287355</v>
+        <v>0.01028403922413791</v>
       </c>
       <c r="AZ70">
-        <v>0.01872374508536031</v>
+        <v>0.01870910212966414</v>
       </c>
       <c r="BA70">
         <v>-0.00755</v>
@@ -13877,7 +13877,7 @@
         <v>-0.00051325</v>
       </c>
       <c r="BC70">
-        <v>0.0007415</v>
+        <v>0.000741</v>
       </c>
       <c r="BD70">
         <v>0.0135</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.2252536959770116</v>
+        <v>0.2250075580459772</v>
       </c>
       <c r="BH70">
-        <v>0.2789585419376833</v>
+        <v>0.278703875637894</v>
       </c>
       <c r="BI70">
         <v>-0.0604</v>
@@ -13904,7 +13904,7 @@
         <v>0.008895</v>
       </c>
       <c r="BL70">
-        <v>0.50575</v>
+        <v>0.505</v>
       </c>
       <c r="BM70">
         <v>1.13</v>
@@ -13942,10 +13942,10 @@
         <v>696</v>
       </c>
       <c r="K71">
-        <v>38.04209770114944</v>
+        <v>38.04224137931035</v>
       </c>
       <c r="L71">
-        <v>2.592117696878275</v>
+        <v>2.591868330724088</v>
       </c>
       <c r="M71">
         <v>33.5</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>38.02830459770114</v>
+        <v>38.02844827586206</v>
       </c>
       <c r="AB71">
-        <v>2.602193982844657</v>
+        <v>2.602062470325998</v>
       </c>
       <c r="AC71">
         <v>33.5</v>
@@ -14014,10 +14014,10 @@
         <v>696</v>
       </c>
       <c r="AI71">
-        <v>109.6212643678161</v>
+        <v>109.6227011494253</v>
       </c>
       <c r="AJ71">
-        <v>29.05029192357828</v>
+        <v>29.05211841907126</v>
       </c>
       <c r="AK71">
         <v>59.7</v>
@@ -14038,10 +14038,10 @@
         <v>696</v>
       </c>
       <c r="AQ71">
-        <v>29.04272988505749</v>
+        <v>29.04287356321842</v>
       </c>
       <c r="AR71">
-        <v>16.48382967888011</v>
+        <v>16.48391528422965</v>
       </c>
       <c r="AS71">
         <v>1.27</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.01041684166666667</v>
+        <v>0.01040935646551724</v>
       </c>
       <c r="AZ71">
-        <v>0.01889858882676646</v>
+        <v>0.01889325390817979</v>
       </c>
       <c r="BA71">
         <v>-0.00716</v>
@@ -14074,7 +14074,7 @@
         <v>-0.00047525</v>
       </c>
       <c r="BC71">
-        <v>0.0007980000000000001</v>
+        <v>0.0007975</v>
       </c>
       <c r="BD71">
         <v>0.0136</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.227312433908046</v>
+        <v>0.227060662356322</v>
       </c>
       <c r="BH71">
-        <v>0.2796808814618271</v>
+        <v>0.2793908503866748</v>
       </c>
       <c r="BI71">
         <v>-0.0587</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>3.914741379310345</v>
+        <v>3.914784482758622</v>
       </c>
       <c r="T72">
-        <v>0.6313841747973812</v>
+        <v>0.6313739359608278</v>
       </c>
       <c r="U72">
         <v>3.02</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.01054383663793104</v>
+        <v>0.01053465114942529</v>
       </c>
       <c r="AZ72">
-        <v>0.01907931622109808</v>
+        <v>0.0190726157737793</v>
       </c>
       <c r="BA72">
         <v>-0.00678</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.229458117816092</v>
+        <v>0.2291902658045978</v>
       </c>
       <c r="BH72">
-        <v>0.2807832035091453</v>
+        <v>0.2805030627777845</v>
       </c>
       <c r="BI72">
         <v>-0.057</v>
@@ -14298,7 +14298,7 @@
         <v>0.01085</v>
       </c>
       <c r="BL72">
-        <v>0.515</v>
+        <v>0.51475</v>
       </c>
       <c r="BM72">
         <v>1.09</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>3.914051724137929</v>
+        <v>3.91413793103448</v>
       </c>
       <c r="T73">
-        <v>0.6316983777771097</v>
+        <v>0.6316946293017397</v>
       </c>
       <c r="U73">
         <v>3.01</v>
@@ -14408,10 +14408,10 @@
         <v>696</v>
       </c>
       <c r="AI73">
-        <v>109.6067528735632</v>
+        <v>109.6068965517241</v>
       </c>
       <c r="AJ73">
-        <v>29.05006193139659</v>
+        <v>29.04984916556024</v>
       </c>
       <c r="AK73">
         <v>59.7</v>
@@ -14432,10 +14432,10 @@
         <v>696</v>
       </c>
       <c r="AQ73">
-        <v>29.03908045977014</v>
+        <v>29.03936781609198</v>
       </c>
       <c r="AR73">
-        <v>16.48283893317879</v>
+        <v>16.4832127343492</v>
       </c>
       <c r="AS73">
         <v>1.27</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.01066651422413792</v>
+        <v>0.01065558419540229</v>
       </c>
       <c r="AZ73">
-        <v>0.01925517896224319</v>
+        <v>0.0192482494957093</v>
       </c>
       <c r="BA73">
         <v>-0.00642</v>
@@ -14471,7 +14471,7 @@
         <v>0.0009015</v>
       </c>
       <c r="BD73">
-        <v>0.0139</v>
+        <v>0.0138</v>
       </c>
       <c r="BE73">
         <v>0.133</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.2315041910919539</v>
+        <v>0.2312396278735628</v>
       </c>
       <c r="BH73">
-        <v>0.2816572999653414</v>
+        <v>0.2813701218463778</v>
       </c>
       <c r="BI73">
         <v>-0.0554</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>3.913678160919539</v>
+        <v>3.913706896551723</v>
       </c>
       <c r="T74">
-        <v>0.6317045387901872</v>
+        <v>0.6317055094404395</v>
       </c>
       <c r="U74">
         <v>3.01</v>
@@ -14581,10 +14581,10 @@
         <v>696</v>
       </c>
       <c r="AA74">
-        <v>38.02543103448274</v>
+        <v>38.02557471264365</v>
       </c>
       <c r="AB74">
-        <v>2.60493716923625</v>
+        <v>2.604689951063766</v>
       </c>
       <c r="AC74">
         <v>33.5</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>29.03658045977014</v>
+        <v>29.03701149425289</v>
       </c>
       <c r="AR74">
-        <v>16.48105816875428</v>
+        <v>16.48118073858779</v>
       </c>
       <c r="AS74">
         <v>1.27</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.01077976982758622</v>
+        <v>0.01076862988505748</v>
       </c>
       <c r="AZ74">
-        <v>0.01942784430918069</v>
+        <v>0.01941145755601066</v>
       </c>
       <c r="BA74">
         <v>-0.00606</v>
@@ -14665,7 +14665,7 @@
         <v>-0.000387</v>
       </c>
       <c r="BC74">
-        <v>0.000928</v>
+        <v>0.0009274999999999999</v>
       </c>
       <c r="BD74">
         <v>0.014</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.233298110632184</v>
+        <v>0.2329845761494254</v>
       </c>
       <c r="BH74">
-        <v>0.282154707234895</v>
+        <v>0.2817642395880977</v>
       </c>
       <c r="BI74">
         <v>-0.0538</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>3.912945402298852</v>
+        <v>3.912988505747128</v>
       </c>
       <c r="T75">
-        <v>0.6317264934150129</v>
+        <v>0.6317054498793411</v>
       </c>
       <c r="U75">
         <v>3.01</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.0108883347204023</v>
+        <v>0.01087828759339082</v>
       </c>
       <c r="AZ75">
-        <v>0.01958957662151249</v>
+        <v>0.01957489667800703</v>
       </c>
       <c r="BA75">
         <v>-0.00571</v>
@@ -14868,16 +14868,16 @@
         <v>0.0141</v>
       </c>
       <c r="BE75">
-        <v>0.135</v>
+        <v>0.134</v>
       </c>
       <c r="BF75">
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.2350289901580458</v>
+        <v>0.2347076747413794</v>
       </c>
       <c r="BH75">
-        <v>0.2827218285237467</v>
+        <v>0.2823492585315893</v>
       </c>
       <c r="BI75">
         <v>-0.0522</v>
@@ -14951,10 +14951,10 @@
         <v>696</v>
       </c>
       <c r="S76">
-        <v>3.912341954022994</v>
+        <v>3.912399425287361</v>
       </c>
       <c r="T76">
-        <v>0.6320282329261444</v>
+        <v>0.6319861269761521</v>
       </c>
       <c r="U76">
         <v>3.01</v>
@@ -14975,10 +14975,10 @@
         <v>696</v>
       </c>
       <c r="AA76">
-        <v>38.02241379310342</v>
+        <v>38.02255747126434</v>
       </c>
       <c r="AB76">
-        <v>2.606016929561662</v>
+        <v>2.605792067462517</v>
       </c>
       <c r="AC76">
         <v>33.5</v>
@@ -14999,10 +14999,10 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>109.5991379310345</v>
+        <v>109.6005747126437</v>
       </c>
       <c r="AJ76">
-        <v>29.04782460639146</v>
+        <v>29.04915704197085</v>
       </c>
       <c r="AK76">
         <v>59.7</v>
@@ -15023,10 +15023,10 @@
         <v>696</v>
       </c>
       <c r="AQ76">
-        <v>29.03442528735634</v>
+        <v>29.03459770114944</v>
       </c>
       <c r="AR76">
-        <v>16.4803165773408</v>
+        <v>16.48042262534142</v>
       </c>
       <c r="AS76">
         <v>1.27</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.0110005566235632</v>
+        <v>0.01099140195402298</v>
       </c>
       <c r="AZ76">
-        <v>0.01975405434914752</v>
+        <v>0.01974839576464849</v>
       </c>
       <c r="BA76">
         <v>-0.00538</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.2368592089080459</v>
+        <v>0.2365539798850576</v>
       </c>
       <c r="BH76">
-        <v>0.2835421041439461</v>
+        <v>0.2832173965245285</v>
       </c>
       <c r="BI76">
         <v>-0.0506</v>
@@ -15086,7 +15086,7 @@
         <v>0.01445</v>
       </c>
       <c r="BL76">
-        <v>0.5337500000000001</v>
+        <v>0.533</v>
       </c>
       <c r="BM76">
         <v>1.03</v>
@@ -15148,10 +15148,10 @@
         <v>696</v>
       </c>
       <c r="S77">
-        <v>3.911709770114945</v>
+        <v>3.911752873563221</v>
       </c>
       <c r="T77">
-        <v>0.632265386149766</v>
+        <v>0.6322474034176977</v>
       </c>
       <c r="U77">
         <v>3.01</v>
@@ -15172,10 +15172,10 @@
         <v>696</v>
       </c>
       <c r="AA77">
-        <v>38.0222701149425</v>
+        <v>38.02241379310342</v>
       </c>
       <c r="AB77">
-        <v>2.606252805865929</v>
+        <v>2.606016929561662</v>
       </c>
       <c r="AC77">
         <v>33.5</v>
@@ -15196,10 +15196,10 @@
         <v>696</v>
       </c>
       <c r="AI77">
-        <v>109.5876436781609</v>
+        <v>109.5890804597701</v>
       </c>
       <c r="AJ77">
-        <v>29.0423133067864</v>
+        <v>29.04344840029448</v>
       </c>
       <c r="AK77">
         <v>59.7</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>29.0330747126437</v>
+        <v>29.03321839080462</v>
       </c>
       <c r="AR77">
-        <v>16.47942617130272</v>
+        <v>16.47950489891575</v>
       </c>
       <c r="AS77">
         <v>1.27</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.01111100045977012</v>
+        <v>0.01109783622126437</v>
       </c>
       <c r="AZ77">
-        <v>0.01991929543243032</v>
+        <v>0.01990074155322967</v>
       </c>
       <c r="BA77">
         <v>-0.00505</v>
@@ -15259,7 +15259,7 @@
         <v>0.0010835</v>
       </c>
       <c r="BD77">
-        <v>0.0143</v>
+        <v>0.0142</v>
       </c>
       <c r="BE77">
         <v>0.136</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.2386672945402297</v>
+        <v>0.2383498520114942</v>
       </c>
       <c r="BH77">
-        <v>0.2843962694027462</v>
+        <v>0.2840539229855414</v>
       </c>
       <c r="BI77">
         <v>-0.0491</v>
@@ -15283,7 +15283,7 @@
         <v>0.01525</v>
       </c>
       <c r="BL77">
-        <v>0.538</v>
+        <v>0.5377500000000001</v>
       </c>
       <c r="BM77">
         <v>1.01</v>
@@ -15321,10 +15321,10 @@
         <v>696</v>
       </c>
       <c r="K78">
-        <v>38.04080459770115</v>
+        <v>38.04094827586207</v>
       </c>
       <c r="L78">
-        <v>2.594338370742507</v>
+        <v>2.59409483642028</v>
       </c>
       <c r="M78">
         <v>33.5</v>
@@ -15345,10 +15345,10 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>3.911393678160922</v>
+        <v>3.911408045977014</v>
       </c>
       <c r="T78">
-        <v>0.6324440978306625</v>
+        <v>0.6324289366226177</v>
       </c>
       <c r="U78">
         <v>3.01</v>
@@ -15393,10 +15393,10 @@
         <v>696</v>
       </c>
       <c r="AI78">
-        <v>109.5739942528736</v>
+        <v>109.5742816091954</v>
       </c>
       <c r="AJ78">
-        <v>29.03469914400182</v>
+        <v>29.03431781519869</v>
       </c>
       <c r="AK78">
         <v>59.7</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>29.023591954023</v>
+        <v>29.02502873563219</v>
       </c>
       <c r="AR78">
-        <v>16.4345747765647</v>
+        <v>16.44196896956975</v>
       </c>
       <c r="AS78">
         <v>1.27</v>
@@ -15435,16 +15435,16 @@
         <v>40.45</v>
       </c>
       <c r="AW78">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX78">
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.0112296400862069</v>
+        <v>0.01121734913793103</v>
       </c>
       <c r="AZ78">
-        <v>0.02009733419841217</v>
+        <v>0.0200778674270728</v>
       </c>
       <c r="BA78">
         <v>-0.00473</v>
@@ -15456,7 +15456,7 @@
         <v>0.001139</v>
       </c>
       <c r="BD78">
-        <v>0.0144</v>
+        <v>0.0143</v>
       </c>
       <c r="BE78">
         <v>0.137</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.2406896954022993</v>
+        <v>0.2403662356321843</v>
       </c>
       <c r="BH78">
-        <v>0.2860005256054571</v>
+        <v>0.2856446495725729</v>
       </c>
       <c r="BI78">
         <v>-0.0476</v>
@@ -15480,7 +15480,7 @@
         <v>0.01605</v>
       </c>
       <c r="BL78">
-        <v>0.543</v>
+        <v>0.5427500000000001</v>
       </c>
       <c r="BM78">
         <v>1.05</v>
@@ -15518,10 +15518,10 @@
         <v>696</v>
       </c>
       <c r="K79">
-        <v>38.03951149425287</v>
+        <v>38.0396551724138</v>
       </c>
       <c r="L79">
-        <v>2.596157490957222</v>
+        <v>2.595925284433608</v>
       </c>
       <c r="M79">
         <v>33.5</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>3.911034482758624</v>
+        <v>3.911077586206899</v>
       </c>
       <c r="T79">
-        <v>0.6327171679641441</v>
+        <v>0.6326865088115528</v>
       </c>
       <c r="U79">
         <v>3.01</v>
@@ -15590,10 +15590,10 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>109.5525862068966</v>
+        <v>109.5540229885058</v>
       </c>
       <c r="AJ79">
-        <v>29.02769640825012</v>
+        <v>29.02804074097839</v>
       </c>
       <c r="AK79">
         <v>59.7</v>
@@ -15614,10 +15614,10 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>29.0221551724138</v>
+        <v>29.02229885057472</v>
       </c>
       <c r="AR79">
-        <v>16.43370563251558</v>
+        <v>16.43376979052054</v>
       </c>
       <c r="AS79">
         <v>1.27</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.01135078069224139</v>
+        <v>0.01133849156034484</v>
       </c>
       <c r="AZ79">
-        <v>0.02026424772551808</v>
+        <v>0.02025421027046811</v>
       </c>
       <c r="BA79">
         <v>-0.00442</v>
@@ -15653,7 +15653,7 @@
         <v>0.0011895</v>
       </c>
       <c r="BD79">
-        <v>0.0145</v>
+        <v>0.014425</v>
       </c>
       <c r="BE79">
         <v>0.138</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.2429067215833335</v>
+        <v>0.2425647144612071</v>
       </c>
       <c r="BH79">
-        <v>0.2877920284659744</v>
+        <v>0.2874253876201358</v>
       </c>
       <c r="BI79">
         <v>-0.0461</v>
@@ -15677,7 +15677,7 @@
         <v>0.01685</v>
       </c>
       <c r="BL79">
-        <v>0.548</v>
+        <v>0.54725</v>
       </c>
       <c r="BM79">
         <v>1.05</v>
@@ -15739,10 +15739,10 @@
         <v>696</v>
       </c>
       <c r="S80">
-        <v>3.910761494252877</v>
+        <v>3.91079022988506</v>
       </c>
       <c r="T80">
-        <v>0.6328868384058915</v>
+        <v>0.6328656595072479</v>
       </c>
       <c r="U80">
         <v>3</v>
@@ -15787,10 +15787,10 @@
         <v>696</v>
       </c>
       <c r="AI80">
-        <v>109.5475574712644</v>
+        <v>109.5477011494254</v>
       </c>
       <c r="AJ80">
-        <v>29.02866744433534</v>
+        <v>29.02860946324425</v>
       </c>
       <c r="AK80">
         <v>59.7</v>
@@ -15811,10 +15811,10 @@
         <v>696</v>
       </c>
       <c r="AQ80">
-        <v>29.02114942528737</v>
+        <v>29.02129310344829</v>
       </c>
       <c r="AR80">
-        <v>16.43292814169203</v>
+        <v>16.43300281856089</v>
       </c>
       <c r="AS80">
         <v>1.27</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.01146253466954023</v>
+        <v>0.01144964558908046</v>
       </c>
       <c r="AZ80">
-        <v>0.02044036734504991</v>
+        <v>0.02042327145732847</v>
       </c>
       <c r="BA80">
         <v>-0.00416</v>
@@ -15850,7 +15850,7 @@
         <v>0.0012395</v>
       </c>
       <c r="BD80">
-        <v>0.0146</v>
+        <v>0.014525</v>
       </c>
       <c r="BE80">
         <v>0.139</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.2447998474137932</v>
+        <v>0.2444158936781607</v>
       </c>
       <c r="BH80">
-        <v>0.2889036734389662</v>
+        <v>0.288469453971272</v>
       </c>
       <c r="BI80">
         <v>-0.0447</v>
@@ -15874,7 +15874,7 @@
         <v>0.0176</v>
       </c>
       <c r="BL80">
-        <v>0.5525</v>
+        <v>0.55125</v>
       </c>
       <c r="BM80">
         <v>1.03</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>3.909827586206898</v>
+        <v>3.909913793103449</v>
       </c>
       <c r="T81">
-        <v>0.6329044381142144</v>
+        <v>0.6329096845653979</v>
       </c>
       <c r="U81">
         <v>3</v>
@@ -15984,10 +15984,10 @@
         <v>696</v>
       </c>
       <c r="AI81">
-        <v>109.539367816092</v>
+        <v>109.5423850574713</v>
       </c>
       <c r="AJ81">
-        <v>29.0261534591778</v>
+        <v>29.02747643134659</v>
       </c>
       <c r="AK81">
         <v>59.7</v>
@@ -16008,10 +16008,10 @@
         <v>696</v>
       </c>
       <c r="AQ81">
-        <v>29.01971264367816</v>
+        <v>29.01985632183908</v>
       </c>
       <c r="AR81">
-        <v>16.43174083801431</v>
+        <v>16.4318925897185</v>
       </c>
       <c r="AS81">
         <v>1.27</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.01156888040660919</v>
+        <v>0.01155676390373564</v>
       </c>
       <c r="AZ81">
-        <v>0.02059907332437386</v>
+        <v>0.02059099001027275</v>
       </c>
       <c r="BA81">
         <v>-0.00403</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.2465565775862071</v>
+        <v>0.2461898834770115</v>
       </c>
       <c r="BH81">
-        <v>0.2899319968532452</v>
+        <v>0.2895402247700978</v>
       </c>
       <c r="BI81">
         <v>-0.0433</v>
@@ -16071,7 +16071,7 @@
         <v>0.01835</v>
       </c>
       <c r="BL81">
-        <v>0.5565</v>
+        <v>0.555</v>
       </c>
       <c r="BM81">
         <v>1.02</v>
@@ -16109,10 +16109,10 @@
         <v>696</v>
       </c>
       <c r="K82">
-        <v>38.04382183908046</v>
+        <v>38.04425287356321</v>
       </c>
       <c r="L82">
-        <v>2.597767008429261</v>
+        <v>2.596288721319753</v>
       </c>
       <c r="M82">
         <v>33.5</v>
@@ -16133,25 +16133,25 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>3.922916666666669</v>
+        <v>3.920761494252873</v>
       </c>
       <c r="T82">
-        <v>0.633705761064798</v>
+        <v>0.6334640364529021</v>
       </c>
       <c r="U82">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="V82">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="W82">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="X82">
-        <v>4.3125</v>
+        <v>4.3225</v>
       </c>
       <c r="Y82">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="Z82">
         <v>696</v>
@@ -16181,10 +16181,10 @@
         <v>696</v>
       </c>
       <c r="AI82">
-        <v>109.5981321839081</v>
+        <v>109.5899425287357</v>
       </c>
       <c r="AJ82">
-        <v>29.03121534025303</v>
+        <v>29.04460547734848</v>
       </c>
       <c r="AK82">
         <v>59.7</v>
@@ -16199,16 +16199,16 @@
         <v>118</v>
       </c>
       <c r="AO82">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AP82">
         <v>696</v>
       </c>
       <c r="AQ82">
-        <v>29.02800287356324</v>
+        <v>29.02682471264369</v>
       </c>
       <c r="AR82">
-        <v>16.45325722378198</v>
+        <v>16.44731723253514</v>
       </c>
       <c r="AS82">
         <v>1.27</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.01167823344827586</v>
+        <v>0.0116649546551724</v>
       </c>
       <c r="AZ82">
-        <v>0.02077737264933783</v>
+        <v>0.02076219937146133</v>
       </c>
       <c r="BA82">
         <v>-0.0039</v>
@@ -16253,10 +16253,10 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.2483722341954022</v>
+        <v>0.2479886135057472</v>
       </c>
       <c r="BH82">
-        <v>0.2911005459482282</v>
+        <v>0.2906413721310215</v>
       </c>
       <c r="BI82">
         <v>-0.0419</v>
@@ -16268,7 +16268,7 @@
         <v>0.01905</v>
       </c>
       <c r="BL82">
-        <v>0.56025</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="BM82">
         <v>1.02</v>
@@ -16306,10 +16306,10 @@
         <v>696</v>
       </c>
       <c r="K83">
-        <v>38.03663793103447</v>
+        <v>38.04396551724138</v>
       </c>
       <c r="L83">
-        <v>2.598415602681181</v>
+        <v>2.596930854596907</v>
       </c>
       <c r="M83">
         <v>33.5</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>3.913405172413791</v>
+        <v>3.920244252873558</v>
       </c>
       <c r="T83">
-        <v>0.6337391944123064</v>
+        <v>0.6337305994101859</v>
       </c>
       <c r="U83">
         <v>2.99</v>
@@ -16345,10 +16345,10 @@
         <v>3.77</v>
       </c>
       <c r="X83">
-        <v>4.315</v>
+        <v>4.33</v>
       </c>
       <c r="Y83">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="Z83">
         <v>696</v>
@@ -16378,10 +16378,10 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>109.5600574712644</v>
+        <v>109.5830459770115</v>
       </c>
       <c r="AJ83">
-        <v>29.02514488150534</v>
+        <v>29.04060912471661</v>
       </c>
       <c r="AK83">
         <v>59.7</v>
@@ -16396,16 +16396,16 @@
         <v>118</v>
       </c>
       <c r="AO83">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AP83">
         <v>696</v>
       </c>
       <c r="AQ83">
-        <v>29.01885057471263</v>
+        <v>29.02435344827587</v>
       </c>
       <c r="AR83">
-        <v>16.43608881867392</v>
+        <v>16.43917692582678</v>
       </c>
       <c r="AS83">
         <v>1.27</v>
@@ -16426,16 +16426,16 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.01178134291666666</v>
+        <v>0.01176231988505747</v>
       </c>
       <c r="AZ83">
-        <v>0.02094320281552861</v>
+        <v>0.02090535783293649</v>
       </c>
       <c r="BA83">
-        <v>-0.00378</v>
+        <v>-0.00377</v>
       </c>
       <c r="BB83">
-        <v>-0.000196</v>
+        <v>-0.00019525</v>
       </c>
       <c r="BC83">
         <v>0.001385</v>
@@ -16450,22 +16450,22 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.2500625534482754</v>
+        <v>0.2496298567528735</v>
       </c>
       <c r="BH83">
-        <v>0.2921916107553544</v>
+        <v>0.2916816651634918</v>
       </c>
       <c r="BI83">
-        <v>-0.0405</v>
+        <v>-0.0404</v>
       </c>
       <c r="BJ83">
         <v>-0.00461</v>
       </c>
       <c r="BK83">
-        <v>0.01975</v>
+        <v>0.0198</v>
       </c>
       <c r="BL83">
-        <v>0.5639999999999999</v>
+        <v>0.56125</v>
       </c>
       <c r="BM83">
         <v>1.02</v>
@@ -16503,10 +16503,10 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>38.03706896551724</v>
+        <v>38.02988505747128</v>
       </c>
       <c r="L84">
-        <v>2.597044147324143</v>
+        <v>2.596965132695906</v>
       </c>
       <c r="M84">
         <v>33.5</v>
@@ -16527,25 +16527,25 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>3.914784482758624</v>
+        <v>3.907399425287357</v>
       </c>
       <c r="T84">
-        <v>0.6338442353106696</v>
+        <v>0.6334196251497498</v>
       </c>
       <c r="U84">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="V84">
-        <v>3.39</v>
+        <v>3.3875</v>
       </c>
       <c r="W84">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="X84">
-        <v>4.3025</v>
+        <v>4.2975</v>
       </c>
       <c r="Y84">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="Z84">
         <v>696</v>
@@ -16575,16 +16575,16 @@
         <v>696</v>
       </c>
       <c r="AI84">
-        <v>109.5673850574713</v>
+        <v>109.5452586206896</v>
       </c>
       <c r="AJ84">
-        <v>29.02750989007534</v>
+        <v>29.02903444478181</v>
       </c>
       <c r="AK84">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AL84">
-        <v>94.175</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="AM84">
         <v>113</v>
@@ -16599,10 +16599,10 @@
         <v>696</v>
       </c>
       <c r="AQ84">
-        <v>29.02020114942528</v>
+        <v>29.0125143678161</v>
       </c>
       <c r="AR84">
-        <v>16.44374016040992</v>
+        <v>16.43327296333761</v>
       </c>
       <c r="AS84">
         <v>1.27</v>
@@ -16623,34 +16623,34 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01188667193821839</v>
+        <v>0.01186572523850574</v>
       </c>
       <c r="AZ84">
-        <v>0.02109676865838382</v>
+        <v>0.02105995358473263</v>
       </c>
       <c r="BA84">
         <v>-0.00364</v>
       </c>
       <c r="BB84">
-        <v>-0.000183</v>
+        <v>-0.000182</v>
       </c>
       <c r="BC84">
         <v>0.00143</v>
       </c>
       <c r="BD84">
-        <v>0.014925</v>
+        <v>0.01485</v>
       </c>
       <c r="BE84">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="BF84">
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.2518702035201148</v>
+        <v>0.2513726751149425</v>
       </c>
       <c r="BH84">
-        <v>0.2936362682076718</v>
+        <v>0.2931008575385238</v>
       </c>
       <c r="BI84">
         <v>-0.0391</v>
@@ -16662,7 +16662,7 @@
         <v>0.02045</v>
       </c>
       <c r="BL84">
-        <v>0.5669999999999999</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="BM84">
         <v>1.05</v>
@@ -16700,10 +16700,10 @@
         <v>696</v>
       </c>
       <c r="K85">
-        <v>38.01939655172415</v>
+        <v>38.01896551724137</v>
       </c>
       <c r="L85">
-        <v>2.597095263556595</v>
+        <v>2.597295121831242</v>
       </c>
       <c r="M85">
         <v>33.5</v>
@@ -16718,40 +16718,40 @@
         <v>40.1</v>
       </c>
       <c r="Q85">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="R85">
         <v>696</v>
       </c>
       <c r="S85">
-        <v>3.898606321839082</v>
+        <v>3.895977011494253</v>
       </c>
       <c r="T85">
-        <v>0.6339288798048439</v>
+        <v>0.6336042107448826</v>
       </c>
       <c r="U85">
         <v>2.96</v>
       </c>
       <c r="V85">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="W85">
-        <v>3.75</v>
+        <v>3.745</v>
       </c>
       <c r="X85">
-        <v>4.3025</v>
+        <v>4.2925</v>
       </c>
       <c r="Y85">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="Z85">
         <v>696</v>
       </c>
       <c r="AA85">
-        <v>38.0176724137931</v>
+        <v>38.01781609195402</v>
       </c>
       <c r="AB85">
-        <v>2.608842911548565</v>
+        <v>2.608728867249298</v>
       </c>
       <c r="AC85">
         <v>33.5</v>
@@ -16772,16 +16772,16 @@
         <v>696</v>
       </c>
       <c r="AI85">
-        <v>109.5136494252873</v>
+        <v>109.5080459770114</v>
       </c>
       <c r="AJ85">
-        <v>29.02327769149269</v>
+        <v>29.0261364469956</v>
       </c>
       <c r="AK85">
         <v>59.6</v>
       </c>
       <c r="AL85">
-        <v>94.175</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="AM85">
         <v>113</v>
@@ -16796,10 +16796,10 @@
         <v>696</v>
       </c>
       <c r="AQ85">
-        <v>29.00341954022991</v>
+        <v>29.00173850574715</v>
       </c>
       <c r="AR85">
-        <v>16.42890134832336</v>
+        <v>16.42746739989729</v>
       </c>
       <c r="AS85">
         <v>1.27</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.01199646548850577</v>
+        <v>0.01198043783045979</v>
       </c>
       <c r="AZ85">
-        <v>0.02125289967998597</v>
+        <v>0.021241827777398</v>
       </c>
       <c r="BA85">
         <v>-0.00352</v>
@@ -16835,7 +16835,7 @@
         <v>0.001485</v>
       </c>
       <c r="BD85">
-        <v>0.015</v>
+        <v>0.014925</v>
       </c>
       <c r="BE85">
         <v>0.142</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.253918301724138</v>
+        <v>0.253481066091954</v>
       </c>
       <c r="BH85">
-        <v>0.2957444861972649</v>
+        <v>0.2952835305644294</v>
       </c>
       <c r="BI85">
         <v>-0.0377</v>
@@ -16859,7 +16859,7 @@
         <v>0.02105</v>
       </c>
       <c r="BL85">
-        <v>0.5692499999999999</v>
+        <v>0.5672499999999999</v>
       </c>
       <c r="BM85">
         <v>1.08</v>
@@ -16897,10 +16897,10 @@
         <v>696</v>
       </c>
       <c r="K86">
-        <v>38.01580459770117</v>
+        <v>38.02471264367816</v>
       </c>
       <c r="L86">
-        <v>2.598639973409802</v>
+        <v>2.598553815431964</v>
       </c>
       <c r="M86">
         <v>33.5</v>
@@ -16909,7 +16909,7 @@
         <v>36.2</v>
       </c>
       <c r="O86">
-        <v>38.2</v>
+        <v>38.25</v>
       </c>
       <c r="P86">
         <v>40.1</v>
@@ -16921,25 +16921,25 @@
         <v>696</v>
       </c>
       <c r="S86">
-        <v>3.893419540229884</v>
+        <v>3.902543103448281</v>
       </c>
       <c r="T86">
-        <v>0.6336170705387144</v>
+        <v>0.6337970520406284</v>
       </c>
       <c r="U86">
         <v>2.97</v>
       </c>
       <c r="V86">
-        <v>3.3675</v>
+        <v>3.3775</v>
       </c>
       <c r="W86">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="X86">
-        <v>4.279999999999999</v>
+        <v>4.2975</v>
       </c>
       <c r="Y86">
-        <v>5.32</v>
+        <v>5.34</v>
       </c>
       <c r="Z86">
         <v>696</v>
@@ -16969,19 +16969,19 @@
         <v>696</v>
       </c>
       <c r="AI86">
-        <v>109.4931034482758</v>
+        <v>109.5160919540229</v>
       </c>
       <c r="AJ86">
-        <v>29.02330611237945</v>
+        <v>29.02307788689792</v>
       </c>
       <c r="AK86">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AL86">
         <v>94.15000000000001</v>
       </c>
       <c r="AM86">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN86">
         <v>118</v>
@@ -16993,10 +16993,10 @@
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>28.99830459770115</v>
+        <v>29.00547413793105</v>
       </c>
       <c r="AR86">
-        <v>16.41958655791876</v>
+        <v>16.42303059351681</v>
       </c>
       <c r="AS86">
         <v>1.27</v>
@@ -17008,7 +17008,7 @@
         <v>31.85</v>
       </c>
       <c r="AV86">
-        <v>40.34999999999999</v>
+        <v>40.425</v>
       </c>
       <c r="AW86">
         <v>113</v>
@@ -17017,10 +17017,10 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.01211351757183909</v>
+        <v>0.01210099018678162</v>
       </c>
       <c r="AZ86">
-        <v>0.02142948836873006</v>
+        <v>0.02142045035377466</v>
       </c>
       <c r="BA86">
         <v>-0.0034</v>
@@ -17032,7 +17032,7 @@
         <v>0.001575</v>
       </c>
       <c r="BD86">
-        <v>0.0151</v>
+        <v>0.015025</v>
       </c>
       <c r="BE86">
         <v>0.143</v>
@@ -17041,22 +17041,22 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.2561433132183906</v>
+        <v>0.2557624841954026</v>
       </c>
       <c r="BH86">
-        <v>0.2977949225541023</v>
+        <v>0.2973639595608247</v>
       </c>
       <c r="BI86">
         <v>-0.0364</v>
       </c>
       <c r="BJ86">
-        <v>-0.0025725</v>
+        <v>-0.00258</v>
       </c>
       <c r="BK86">
         <v>0.02175</v>
       </c>
       <c r="BL86">
-        <v>0.5732499999999999</v>
+        <v>0.571</v>
       </c>
       <c r="BM86">
         <v>1.08</v>
@@ -17094,10 +17094,10 @@
         <v>696</v>
       </c>
       <c r="K87">
-        <v>38.01997126436779</v>
+        <v>38.01968390804597</v>
       </c>
       <c r="L87">
-        <v>2.598425754577327</v>
+        <v>2.599009310553731</v>
       </c>
       <c r="M87">
         <v>33.5</v>
@@ -17118,25 +17118,25 @@
         <v>696</v>
       </c>
       <c r="S87">
-        <v>3.898304597701147</v>
+        <v>3.897887931034484</v>
       </c>
       <c r="T87">
-        <v>0.6342032892714417</v>
+        <v>0.633915087769342</v>
       </c>
       <c r="U87">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="V87">
         <v>3.37</v>
       </c>
       <c r="W87">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="X87">
-        <v>4.285</v>
+        <v>4.2825</v>
       </c>
       <c r="Y87">
-        <v>5.33</v>
+        <v>5.32</v>
       </c>
       <c r="Z87">
         <v>696</v>
@@ -17166,13 +17166,13 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>109.5034482758621</v>
+        <v>109.4971264367815</v>
       </c>
       <c r="AJ87">
-        <v>29.02235039800635</v>
+        <v>29.02141244357278</v>
       </c>
       <c r="AK87">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AL87">
         <v>94.15000000000001</v>
@@ -17190,10 +17190,10 @@
         <v>696</v>
       </c>
       <c r="AQ87">
-        <v>29.0003304597701</v>
+        <v>29.00113505747129</v>
       </c>
       <c r="AR87">
-        <v>16.42049427589621</v>
+        <v>16.42127766054622</v>
       </c>
       <c r="AS87">
         <v>1.27</v>
@@ -17214,13 +17214,13 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01222590854885058</v>
+        <v>0.01220818823275863</v>
       </c>
       <c r="AZ87">
-        <v>0.02161108445745481</v>
+        <v>0.02157830696702033</v>
       </c>
       <c r="BA87">
-        <v>-0.00327</v>
+        <v>-0.00328</v>
       </c>
       <c r="BB87">
         <v>-0.0001325</v>
@@ -17229,7 +17229,7 @@
         <v>0.00166</v>
       </c>
       <c r="BD87">
-        <v>0.0152</v>
+        <v>0.015125</v>
       </c>
       <c r="BE87">
         <v>0.144</v>
@@ -17238,25 +17238,25 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.2581981135057471</v>
+        <v>0.2577315991379313</v>
       </c>
       <c r="BH87">
-        <v>0.2994891006005796</v>
+        <v>0.2989516509423482</v>
       </c>
       <c r="BI87">
         <v>-0.0351</v>
       </c>
       <c r="BJ87">
-        <v>-0.0019125</v>
+        <v>-0.001915</v>
       </c>
       <c r="BK87">
         <v>0.02235</v>
       </c>
       <c r="BL87">
-        <v>0.576</v>
+        <v>0.574</v>
       </c>
       <c r="BM87">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="88" spans="1:65">
@@ -17291,10 +17291,10 @@
         <v>696</v>
       </c>
       <c r="K88">
-        <v>38.02097701149426</v>
+        <v>38.02830459770114</v>
       </c>
       <c r="L88">
-        <v>2.598049554977398</v>
+        <v>2.601181911612985</v>
       </c>
       <c r="M88">
         <v>33.5</v>
@@ -17303,7 +17303,7 @@
         <v>36.2</v>
       </c>
       <c r="O88">
-        <v>38.2</v>
+        <v>38.25</v>
       </c>
       <c r="P88">
         <v>40.1</v>
@@ -17315,34 +17315,34 @@
         <v>696</v>
       </c>
       <c r="S88">
-        <v>3.898261494252875</v>
+        <v>3.904051724137931</v>
       </c>
       <c r="T88">
-        <v>0.6346634483515238</v>
+        <v>0.6340902667487589</v>
       </c>
       <c r="U88">
-        <v>2.94</v>
+        <v>2.97</v>
       </c>
       <c r="V88">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="W88">
-        <v>3.745</v>
+        <v>3.76</v>
       </c>
       <c r="X88">
-        <v>4.29</v>
+        <v>4.2825</v>
       </c>
       <c r="Y88">
-        <v>5.34</v>
+        <v>5.32</v>
       </c>
       <c r="Z88">
         <v>696</v>
       </c>
       <c r="AA88">
-        <v>38.01451149425288</v>
+        <v>38.0146551724138</v>
       </c>
       <c r="AB88">
-        <v>2.607494299822858</v>
+        <v>2.607247926727807</v>
       </c>
       <c r="AC88">
         <v>33.5</v>
@@ -17363,19 +17363,19 @@
         <v>696</v>
       </c>
       <c r="AI88">
-        <v>109.5037356321838</v>
+        <v>109.510632183908</v>
       </c>
       <c r="AJ88">
-        <v>29.00949559964525</v>
+        <v>29.02115728649103</v>
       </c>
       <c r="AK88">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AL88">
-        <v>94.07499999999999</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="AM88">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN88">
         <v>118</v>
@@ -17387,22 +17387,22 @@
         <v>696</v>
       </c>
       <c r="AQ88">
-        <v>28.99985632183908</v>
+        <v>29.0046551724138</v>
       </c>
       <c r="AR88">
-        <v>16.42037194899542</v>
+        <v>16.42236505006989</v>
       </c>
       <c r="AS88">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT88">
         <v>15.1</v>
       </c>
       <c r="AU88">
-        <v>31.8</v>
+        <v>31.85</v>
       </c>
       <c r="AV88">
-        <v>40.425</v>
+        <v>40.34999999999999</v>
       </c>
       <c r="AW88">
         <v>113</v>
@@ -17411,13 +17411,13 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01234036925287356</v>
+        <v>0.01232323235632184</v>
       </c>
       <c r="AZ88">
-        <v>0.02179247093185968</v>
+        <v>0.02176503938116141</v>
       </c>
       <c r="BA88">
-        <v>-0.00315</v>
+        <v>-0.00316</v>
       </c>
       <c r="BB88">
         <v>-0.00011525</v>
@@ -17435,22 +17435,22 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.2603248304597701</v>
+        <v>0.2598543505747126</v>
       </c>
       <c r="BH88">
-        <v>0.3014927329118356</v>
+        <v>0.300973685025231</v>
       </c>
       <c r="BI88">
         <v>-0.0338</v>
       </c>
       <c r="BJ88">
-        <v>-0.0012825</v>
+        <v>-0.001275</v>
       </c>
       <c r="BK88">
         <v>0.0232</v>
       </c>
       <c r="BL88">
-        <v>0.5802499999999999</v>
+        <v>0.578</v>
       </c>
       <c r="BM88">
         <v>1.11</v>
@@ -17488,10 +17488,10 @@
         <v>696</v>
       </c>
       <c r="K89">
-        <v>38.02155172413793</v>
+        <v>38.0175287356322</v>
       </c>
       <c r="L89">
-        <v>2.59961721701842</v>
+        <v>2.599962963052556</v>
       </c>
       <c r="M89">
         <v>33.5</v>
@@ -17506,31 +17506,31 @@
         <v>40.1</v>
       </c>
       <c r="Q89">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R89">
         <v>696</v>
       </c>
       <c r="S89">
-        <v>3.898520114942532</v>
+        <v>3.894267241379311</v>
       </c>
       <c r="T89">
-        <v>0.6344439311342492</v>
+        <v>0.6347095027961348</v>
       </c>
       <c r="U89">
-        <v>2.97</v>
+        <v>2.95</v>
       </c>
       <c r="V89">
         <v>3.37</v>
       </c>
       <c r="W89">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="X89">
-        <v>4.29</v>
+        <v>4.295</v>
       </c>
       <c r="Y89">
-        <v>5.33</v>
+        <v>5.36</v>
       </c>
       <c r="Z89">
         <v>696</v>
@@ -17560,19 +17560,19 @@
         <v>696</v>
       </c>
       <c r="AI89">
-        <v>109.4889367816092</v>
+        <v>109.4906609195402</v>
       </c>
       <c r="AJ89">
-        <v>29.0190060470972</v>
+        <v>29.01173390238832</v>
       </c>
       <c r="AK89">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="AL89">
-        <v>94.15000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AM89">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN89">
         <v>118</v>
@@ -17584,10 +17584,10 @@
         <v>696</v>
       </c>
       <c r="AQ89">
-        <v>28.99775862068966</v>
+        <v>28.99625000000001</v>
       </c>
       <c r="AR89">
-        <v>16.41872029045456</v>
+        <v>16.42472563692317</v>
       </c>
       <c r="AS89">
         <v>1.27</v>
@@ -17596,34 +17596,34 @@
         <v>15.1</v>
       </c>
       <c r="AU89">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV89">
-        <v>40.34999999999999</v>
+        <v>40.425</v>
       </c>
       <c r="AW89">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX89">
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.01245672185057473</v>
+        <v>0.0124337609152299</v>
       </c>
       <c r="AZ89">
-        <v>0.0219667972604981</v>
+        <v>0.02193901850094708</v>
       </c>
       <c r="BA89">
         <v>-0.00304</v>
       </c>
       <c r="BB89">
-        <v>-9.289999999999999E-05</v>
+        <v>-9.287499999999999E-05</v>
       </c>
       <c r="BC89">
         <v>0.001835</v>
       </c>
       <c r="BD89">
-        <v>0.015325</v>
+        <v>0.01525</v>
       </c>
       <c r="BE89">
         <v>0.146</v>
@@ -17632,22 +17632,22 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.2624418188218389</v>
+        <v>0.2618486647988509</v>
       </c>
       <c r="BH89">
-        <v>0.3035313067894509</v>
+        <v>0.3028397357818748</v>
       </c>
       <c r="BI89">
         <v>-0.0326</v>
       </c>
       <c r="BJ89">
-        <v>-0.0007017499999999999</v>
+        <v>-0.0007012499999999999</v>
       </c>
       <c r="BK89">
         <v>0.024</v>
       </c>
       <c r="BL89">
-        <v>0.584</v>
+        <v>0.5805</v>
       </c>
       <c r="BM89">
         <v>1.13</v>
@@ -17685,10 +17685,10 @@
         <v>696</v>
       </c>
       <c r="K90">
-        <v>38.01781609195402</v>
+        <v>38.01379310344827</v>
       </c>
       <c r="L90">
-        <v>2.598909312033093</v>
+        <v>2.59728900894397</v>
       </c>
       <c r="M90">
         <v>33.5</v>
@@ -17703,40 +17703,40 @@
         <v>40.1</v>
       </c>
       <c r="Q90">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R90">
         <v>696</v>
       </c>
       <c r="S90">
-        <v>3.894770114942521</v>
+        <v>3.89198275862069</v>
       </c>
       <c r="T90">
-        <v>0.6346842677573569</v>
+        <v>0.6352135128415893</v>
       </c>
       <c r="U90">
         <v>2.95</v>
       </c>
       <c r="V90">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="W90">
-        <v>3.745</v>
+        <v>3.74</v>
       </c>
       <c r="X90">
-        <v>4.2925</v>
+        <v>4.3</v>
       </c>
       <c r="Y90">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="Z90">
         <v>696</v>
       </c>
       <c r="AA90">
-        <v>38.01264367816093</v>
+        <v>38.01278735632184</v>
       </c>
       <c r="AB90">
-        <v>2.608687405444907</v>
+        <v>2.608639821031009</v>
       </c>
       <c r="AC90">
         <v>33.5</v>
@@ -17757,16 +17757,16 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>109.4880747126437</v>
+        <v>109.4913793103449</v>
       </c>
       <c r="AJ90">
-        <v>29.01090271411654</v>
+        <v>29.00217427413228</v>
       </c>
       <c r="AK90">
         <v>59.6</v>
       </c>
       <c r="AL90">
-        <v>94.07499999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AM90">
         <v>113</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>28.99511494252873</v>
+        <v>28.99377873563218</v>
       </c>
       <c r="AR90">
-        <v>16.41763092430285</v>
+        <v>16.42361860257265</v>
       </c>
       <c r="AS90">
         <v>1.27</v>
@@ -17796,31 +17796,31 @@
         <v>31.85</v>
       </c>
       <c r="AV90">
-        <v>40.34999999999999</v>
+        <v>40.425</v>
       </c>
       <c r="AW90">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX90">
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.01256446011637931</v>
+        <v>0.01254633897988505</v>
       </c>
       <c r="AZ90">
-        <v>0.0221400556573166</v>
+        <v>0.02211530100013491</v>
       </c>
       <c r="BA90">
-        <v>-0.00293</v>
+        <v>-0.00292</v>
       </c>
       <c r="BB90">
-        <v>-5.35E-05</v>
+        <v>-5.3425E-05</v>
       </c>
       <c r="BC90">
-        <v>0.001925</v>
+        <v>0.00192</v>
       </c>
       <c r="BD90">
-        <v>0.01545</v>
+        <v>0.01535</v>
       </c>
       <c r="BE90">
         <v>0.147</v>
@@ -17829,22 +17829,22 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.2643859902873564</v>
+        <v>0.2639219315086207</v>
       </c>
       <c r="BH90">
-        <v>0.3051433173329755</v>
+        <v>0.304658610509004</v>
       </c>
       <c r="BI90">
         <v>-0.0313</v>
       </c>
       <c r="BJ90">
-        <v>-0.0006055</v>
+        <v>-0.0006050000000000001</v>
       </c>
       <c r="BK90">
         <v>0.025</v>
       </c>
       <c r="BL90">
-        <v>0.587</v>
+        <v>0.5842499999999999</v>
       </c>
       <c r="BM90">
         <v>1.13</v>
@@ -17882,19 +17882,19 @@
         <v>696</v>
       </c>
       <c r="K91">
-        <v>38.03591954022988</v>
+        <v>38.00617816091952</v>
       </c>
       <c r="L91">
-        <v>2.601123722711981</v>
+        <v>2.599021241870683</v>
       </c>
       <c r="M91">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N91">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O91">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P91">
         <v>40.1</v>
@@ -17906,34 +17906,34 @@
         <v>696</v>
       </c>
       <c r="S91">
-        <v>3.913836206896554</v>
+        <v>3.884928160919547</v>
       </c>
       <c r="T91">
-        <v>0.6349275802215743</v>
+        <v>0.6349916403551542</v>
       </c>
       <c r="U91">
-        <v>2.97</v>
+        <v>2.93</v>
       </c>
       <c r="V91">
-        <v>3.3875</v>
+        <v>3.36</v>
       </c>
       <c r="W91">
-        <v>3.77</v>
+        <v>3.735</v>
       </c>
       <c r="X91">
-        <v>4.2975</v>
+        <v>4.285</v>
       </c>
       <c r="Y91">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="Z91">
         <v>696</v>
       </c>
       <c r="AA91">
-        <v>38.01120689655172</v>
+        <v>38.01135057471264</v>
       </c>
       <c r="AB91">
-        <v>2.610111104944346</v>
+        <v>2.609870674173979</v>
       </c>
       <c r="AC91">
         <v>33.5</v>
@@ -17954,19 +17954,19 @@
         <v>696</v>
       </c>
       <c r="AI91">
-        <v>109.5359195402299</v>
+        <v>109.4660919540229</v>
       </c>
       <c r="AJ91">
-        <v>29.02162731162914</v>
+        <v>28.99839290436859</v>
       </c>
       <c r="AK91">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="AL91">
-        <v>94.15000000000001</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM91">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN91">
         <v>118</v>
@@ -17978,22 +17978,22 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>29.00903735632185</v>
+        <v>28.98570402298848</v>
       </c>
       <c r="AR91">
-        <v>16.42336715951259</v>
+        <v>16.4138448603842</v>
       </c>
       <c r="AS91">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT91">
         <v>15.1</v>
       </c>
       <c r="AU91">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV91">
-        <v>40.34999999999999</v>
+        <v>40.425</v>
       </c>
       <c r="AW91">
         <v>113</v>
@@ -18002,22 +18002,22 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.01267975312931033</v>
+        <v>0.0126537976551724</v>
       </c>
       <c r="AZ91">
-        <v>0.0223225822604967</v>
+        <v>0.02228380438059377</v>
       </c>
       <c r="BA91">
         <v>-0.00281</v>
       </c>
       <c r="BB91">
-        <v>-4.1225E-05</v>
+        <v>-4.13E-05</v>
       </c>
       <c r="BC91">
         <v>0.002005</v>
       </c>
       <c r="BD91">
-        <v>0.015525</v>
+        <v>0.01545</v>
       </c>
       <c r="BE91">
         <v>0.148</v>
@@ -18026,22 +18026,22 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.2665781051580461</v>
+        <v>0.265956059770115</v>
       </c>
       <c r="BH91">
-        <v>0.3071835875620323</v>
+        <v>0.3065007911942257</v>
       </c>
       <c r="BI91">
         <v>-0.0301</v>
       </c>
       <c r="BJ91">
-        <v>-0.0005955</v>
+        <v>-0.00059625</v>
       </c>
       <c r="BK91">
         <v>0.02605</v>
       </c>
       <c r="BL91">
-        <v>0.59</v>
+        <v>0.58775</v>
       </c>
       <c r="BM91">
         <v>1.14</v>
@@ -18079,10 +18079,10 @@
         <v>696</v>
       </c>
       <c r="K92">
-        <v>38.04008620689655</v>
+        <v>38.05560344827588</v>
       </c>
       <c r="L92">
-        <v>2.603846516829508</v>
+        <v>2.603240411971289</v>
       </c>
       <c r="M92">
         <v>33.5</v>
@@ -18094,7 +18094,7 @@
         <v>38.25</v>
       </c>
       <c r="P92">
-        <v>40.1</v>
+        <v>40.125</v>
       </c>
       <c r="Q92">
         <v>41.9</v>
@@ -18103,22 +18103,22 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>3.917169540229883</v>
+        <v>3.933663793103451</v>
       </c>
       <c r="T92">
-        <v>0.6353598923425104</v>
+        <v>0.6354774530045125</v>
       </c>
       <c r="U92">
-        <v>2.97</v>
+        <v>2.99</v>
       </c>
       <c r="V92">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="W92">
-        <v>3.77</v>
+        <v>3.79</v>
       </c>
       <c r="X92">
-        <v>4.3125</v>
+        <v>4.319999999999999</v>
       </c>
       <c r="Y92">
         <v>5.36</v>
@@ -18127,10 +18127,10 @@
         <v>696</v>
       </c>
       <c r="AA92">
-        <v>38.0096264367816</v>
+        <v>38.01005747126436</v>
       </c>
       <c r="AB92">
-        <v>2.611635696518348</v>
+        <v>2.611262160074078</v>
       </c>
       <c r="AC92">
         <v>33.5</v>
@@ -18151,16 +18151,16 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>109.5425287356322</v>
+        <v>109.5954022988505</v>
       </c>
       <c r="AJ92">
-        <v>29.02029806007472</v>
+        <v>29.02264819631612</v>
       </c>
       <c r="AK92">
         <v>59.7</v>
       </c>
       <c r="AL92">
-        <v>94.175</v>
+        <v>94.25</v>
       </c>
       <c r="AM92">
         <v>113</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>29.01017241379311</v>
+        <v>29.02441091954021</v>
       </c>
       <c r="AR92">
-        <v>16.42383551183678</v>
+        <v>16.44342157319394</v>
       </c>
       <c r="AS92">
         <v>1.27</v>
@@ -18193,28 +18193,28 @@
         <v>40.425</v>
       </c>
       <c r="AW92">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX92">
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.0128059906196839</v>
+        <v>0.01278627934813217</v>
       </c>
       <c r="AZ92">
-        <v>0.02252012674120818</v>
+        <v>0.02248218826017888</v>
       </c>
       <c r="BA92">
         <v>-0.0027</v>
       </c>
       <c r="BB92">
-        <v>-4.0975E-05</v>
+        <v>-4.0925E-05</v>
       </c>
       <c r="BC92">
         <v>0.00209</v>
       </c>
       <c r="BD92">
-        <v>0.01565</v>
+        <v>0.01555</v>
       </c>
       <c r="BE92">
         <v>0.149</v>
@@ -18223,22 +18223,22 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.2690002357471264</v>
+        <v>0.2685849077729886</v>
       </c>
       <c r="BH92">
-        <v>0.3097527026815948</v>
+        <v>0.3093168043138159</v>
       </c>
       <c r="BI92">
         <v>-0.0289</v>
       </c>
       <c r="BJ92">
-        <v>-0.0005735</v>
+        <v>-0.00057275</v>
       </c>
       <c r="BK92">
-        <v>0.02715</v>
+        <v>0.0272</v>
       </c>
       <c r="BL92">
-        <v>0.5934999999999999</v>
+        <v>0.5902499999999999</v>
       </c>
       <c r="BM92">
         <v>1.17</v>
@@ -18276,10 +18276,10 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>38.02083333333333</v>
+        <v>38.03103448275861</v>
       </c>
       <c r="L93">
-        <v>2.601755886520785</v>
+        <v>2.601568330301262</v>
       </c>
       <c r="M93">
         <v>33.5</v>
@@ -18294,31 +18294,31 @@
         <v>40.1</v>
       </c>
       <c r="Q93">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R93">
         <v>696</v>
       </c>
       <c r="S93">
-        <v>3.898520114942526</v>
+        <v>3.909008620689654</v>
       </c>
       <c r="T93">
-        <v>0.6352659622239133</v>
+        <v>0.6359892492058592</v>
       </c>
       <c r="U93">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="V93">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="W93">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="X93">
-        <v>4.285</v>
+        <v>4.3125</v>
       </c>
       <c r="Y93">
-        <v>5.33</v>
+        <v>5.38</v>
       </c>
       <c r="Z93">
         <v>696</v>
@@ -18348,19 +18348,19 @@
         <v>696</v>
       </c>
       <c r="AI93">
-        <v>109.4872126436782</v>
+        <v>109.521408045977</v>
       </c>
       <c r="AJ93">
-        <v>29.00869222728684</v>
+        <v>29.0213930276676</v>
       </c>
       <c r="AK93">
         <v>59.6</v>
       </c>
       <c r="AL93">
-        <v>94.15000000000001</v>
+        <v>94.175</v>
       </c>
       <c r="AM93">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN93">
         <v>118</v>
@@ -18372,10 +18372,10 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>28.99479885057472</v>
+        <v>29.00257183908048</v>
       </c>
       <c r="AR93">
-        <v>16.41703214408475</v>
+        <v>16.42734283615893</v>
       </c>
       <c r="AS93">
         <v>1.27</v>
@@ -18387,19 +18387,19 @@
         <v>31.85</v>
       </c>
       <c r="AV93">
-        <v>40.34999999999999</v>
+        <v>40.425</v>
       </c>
       <c r="AW93">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX93">
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01291625443965516</v>
+        <v>0.01289774093390804</v>
       </c>
       <c r="AZ93">
-        <v>0.02268974484608866</v>
+        <v>0.02266245344042285</v>
       </c>
       <c r="BA93">
         <v>-0.00259</v>
@@ -18411,7 +18411,7 @@
         <v>0.00217</v>
       </c>
       <c r="BD93">
-        <v>0.01575</v>
+        <v>0.01565</v>
       </c>
       <c r="BE93">
         <v>0.15</v>
@@ -18420,22 +18420,22 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.2712001436781609</v>
+        <v>0.2706624482758621</v>
       </c>
       <c r="BH93">
-        <v>0.3119106784967109</v>
+        <v>0.3112933582547815</v>
       </c>
       <c r="BI93">
         <v>-0.0277</v>
       </c>
       <c r="BJ93">
-        <v>-0.0005685</v>
+        <v>-0.00056875</v>
       </c>
       <c r="BK93">
         <v>0.02865</v>
       </c>
       <c r="BL93">
-        <v>0.5965</v>
+        <v>0.5934999999999999</v>
       </c>
       <c r="BM93">
         <v>1.18</v>
@@ -18473,19 +18473,19 @@
         <v>696</v>
       </c>
       <c r="K94">
-        <v>38.0125</v>
+        <v>38.01422413793102</v>
       </c>
       <c r="L94">
-        <v>2.602489469498181</v>
+        <v>2.600838044527678</v>
       </c>
       <c r="M94">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="N94">
         <v>36.1</v>
       </c>
       <c r="O94">
-        <v>38.2</v>
+        <v>38.25</v>
       </c>
       <c r="P94">
         <v>40.1</v>
@@ -18497,34 +18497,34 @@
         <v>696</v>
       </c>
       <c r="S94">
-        <v>3.890517241379309</v>
+        <v>3.892083333333331</v>
       </c>
       <c r="T94">
-        <v>0.6355463449165922</v>
+        <v>0.6351818174719756</v>
       </c>
       <c r="U94">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="V94">
         <v>3.36</v>
       </c>
       <c r="W94">
-        <v>3.735</v>
+        <v>3.75</v>
       </c>
       <c r="X94">
-        <v>4.282500000000001</v>
+        <v>4.285</v>
       </c>
       <c r="Y94">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="Z94">
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>38.00775862068965</v>
+        <v>38.00790229885057</v>
       </c>
       <c r="AB94">
-        <v>2.6128344275841</v>
+        <v>2.612754145803235</v>
       </c>
       <c r="AC94">
         <v>33.5</v>
@@ -18545,16 +18545,16 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>109.462356321839</v>
+        <v>109.4653735632184</v>
       </c>
       <c r="AJ94">
-        <v>29.00576508649117</v>
+        <v>29.0086540176859</v>
       </c>
       <c r="AK94">
         <v>59.6</v>
       </c>
       <c r="AL94">
-        <v>94.07499999999999</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="AM94">
         <v>112.5</v>
@@ -18569,19 +18569,19 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>28.98772988505749</v>
+        <v>28.98846264367817</v>
       </c>
       <c r="AR94">
-        <v>16.41384191315228</v>
+        <v>16.41391083368484</v>
       </c>
       <c r="AS94">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT94">
         <v>15.1</v>
       </c>
       <c r="AU94">
-        <v>31.8</v>
+        <v>31.85</v>
       </c>
       <c r="AV94">
         <v>40.34999999999999</v>
@@ -18593,22 +18593,22 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01303483293103449</v>
+        <v>0.01301563729885058</v>
       </c>
       <c r="AZ94">
-        <v>0.02287917798602496</v>
+        <v>0.02285880622874628</v>
       </c>
       <c r="BA94">
         <v>-0.00248</v>
       </c>
       <c r="BB94">
-        <v>-3.2725E-05</v>
+        <v>-3.265E-05</v>
       </c>
       <c r="BC94">
         <v>0.00225</v>
       </c>
       <c r="BD94">
-        <v>0.01585</v>
+        <v>0.015775</v>
       </c>
       <c r="BE94">
         <v>0.151</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.2734395301724138</v>
+        <v>0.2728776551724139</v>
       </c>
       <c r="BH94">
-        <v>0.3141431584326062</v>
+        <v>0.3135518401296177</v>
       </c>
       <c r="BI94">
         <v>-0.0265</v>
@@ -18632,7 +18632,7 @@
         <v>0.0301</v>
       </c>
       <c r="BL94">
-        <v>0.60075</v>
+        <v>0.5974999999999999</v>
       </c>
       <c r="BM94">
         <v>1.21</v>
@@ -18670,10 +18670,10 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>38.04267241379312</v>
+        <v>38.02758620689657</v>
       </c>
       <c r="L95">
-        <v>2.602860249998465</v>
+        <v>2.602707595387936</v>
       </c>
       <c r="M95">
         <v>33.5</v>
@@ -18688,31 +18688,31 @@
         <v>40.1</v>
       </c>
       <c r="Q95">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="R95">
         <v>696</v>
       </c>
       <c r="S95">
-        <v>3.921537356321834</v>
+        <v>3.906077586206897</v>
       </c>
       <c r="T95">
-        <v>0.6363116007733605</v>
+        <v>0.6357649805694572</v>
       </c>
       <c r="U95">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="V95">
         <v>3.39</v>
       </c>
       <c r="W95">
-        <v>3.775</v>
+        <v>3.76</v>
       </c>
       <c r="X95">
-        <v>4.315</v>
+        <v>4.305</v>
       </c>
       <c r="Y95">
-        <v>5.38</v>
+        <v>5.35</v>
       </c>
       <c r="Z95">
         <v>696</v>
@@ -18742,16 +18742,16 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>109.5558908045978</v>
+        <v>109.507040229885</v>
       </c>
       <c r="AJ95">
-        <v>29.00914903678525</v>
+        <v>29.01845296073435</v>
       </c>
       <c r="AK95">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AL95">
-        <v>94.175</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="AM95">
         <v>113</v>
@@ -18766,10 +18766,10 @@
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>29.0105028735632</v>
+        <v>28.9972988505747</v>
       </c>
       <c r="AR95">
-        <v>16.43012391849101</v>
+        <v>16.41766461900761</v>
       </c>
       <c r="AS95">
         <v>1.27</v>
@@ -18781,19 +18781,19 @@
         <v>31.85</v>
       </c>
       <c r="AV95">
-        <v>40.425</v>
+        <v>40.34999999999999</v>
       </c>
       <c r="AW95">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX95">
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.01316367958333333</v>
+        <v>0.01313884783045976</v>
       </c>
       <c r="AZ95">
-        <v>0.02308360958479377</v>
+        <v>0.02305178558661532</v>
       </c>
       <c r="BA95">
         <v>-0.00237</v>
@@ -18805,7 +18805,7 @@
         <v>0.002335</v>
       </c>
       <c r="BD95">
-        <v>0.01595</v>
+        <v>0.015875</v>
       </c>
       <c r="BE95">
         <v>0.152</v>
@@ -18814,22 +18814,22 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.275916452586207</v>
+        <v>0.275247908045977</v>
       </c>
       <c r="BH95">
-        <v>0.3168640659944195</v>
+        <v>0.3161354666029</v>
       </c>
       <c r="BI95">
         <v>-0.0253</v>
       </c>
       <c r="BJ95">
-        <v>-0.00055125</v>
+        <v>-0.0005525</v>
       </c>
       <c r="BK95">
-        <v>0.03155</v>
+        <v>0.0315</v>
       </c>
       <c r="BL95">
-        <v>0.604</v>
+        <v>0.60075</v>
       </c>
       <c r="BM95">
         <v>1.24</v>
@@ -18867,16 +18867,16 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>38.00948275862066</v>
+        <v>38.02399425287357</v>
       </c>
       <c r="L96">
-        <v>2.601354769836522</v>
+        <v>2.602110182963715</v>
       </c>
       <c r="M96">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="N96">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O96">
         <v>38.25</v>
@@ -18891,22 +18891,22 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>3.886767241379311</v>
+        <v>3.899928160919545</v>
       </c>
       <c r="T96">
-        <v>0.6358451310166328</v>
+        <v>0.6356215973168357</v>
       </c>
       <c r="U96">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="V96">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="W96">
-        <v>3.735</v>
+        <v>3.75</v>
       </c>
       <c r="X96">
-        <v>4.282500000000001</v>
+        <v>4.2875</v>
       </c>
       <c r="Y96">
         <v>5.33</v>
@@ -18915,10 +18915,10 @@
         <v>696</v>
       </c>
       <c r="AA96">
-        <v>38.00761494252873</v>
+        <v>38.00775862068965</v>
       </c>
       <c r="AB96">
-        <v>2.613063375158848</v>
+        <v>2.6128344275841</v>
       </c>
       <c r="AC96">
         <v>33.5</v>
@@ -18939,16 +18939,16 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>109.4499999999999</v>
+        <v>109.4816091954023</v>
       </c>
       <c r="AJ96">
-        <v>28.99519086892135</v>
+        <v>29.00504953799815</v>
       </c>
       <c r="AK96">
         <v>59.6</v>
       </c>
       <c r="AL96">
-        <v>94.07499999999999</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="AM96">
         <v>112.5</v>
@@ -18963,19 +18963,19 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>28.98313218390805</v>
+        <v>28.9942672413793</v>
       </c>
       <c r="AR96">
-        <v>16.41177660043245</v>
+        <v>16.41644907784875</v>
       </c>
       <c r="AS96">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT96">
         <v>15.1</v>
       </c>
       <c r="AU96">
-        <v>31.8</v>
+        <v>31.85</v>
       </c>
       <c r="AV96">
         <v>40.34999999999999</v>
@@ -18987,10 +18987,10 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.01327375705833333</v>
+        <v>0.01325529576609196</v>
       </c>
       <c r="AZ96">
-        <v>0.02326481800173226</v>
+        <v>0.02323783634833866</v>
       </c>
       <c r="BA96">
         <v>-0.00226</v>
@@ -19002,7 +19002,7 @@
         <v>0.00241</v>
       </c>
       <c r="BD96">
-        <v>0.01605</v>
+        <v>0.015975</v>
       </c>
       <c r="BE96">
         <v>0.153</v>
@@ -19011,22 +19011,22 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.2780064811637937</v>
+        <v>0.2774915848275866</v>
       </c>
       <c r="BH96">
-        <v>0.3190330202761056</v>
+        <v>0.3184371251774465</v>
       </c>
       <c r="BI96">
         <v>-0.025</v>
       </c>
       <c r="BJ96">
-        <v>-0.0004465</v>
+        <v>-0.000447</v>
       </c>
       <c r="BK96">
-        <v>0.03295</v>
+        <v>0.0329</v>
       </c>
       <c r="BL96">
-        <v>0.60725</v>
+        <v>0.604</v>
       </c>
       <c r="BM96">
         <v>1.25</v>
@@ -19064,19 +19064,19 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>38.0242816091954</v>
+        <v>38.00905172413793</v>
       </c>
       <c r="L97">
-        <v>2.603495061169084</v>
+        <v>2.60329978046345</v>
       </c>
       <c r="M97">
         <v>33.4</v>
       </c>
       <c r="N97">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O97">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P97">
         <v>40.1</v>
@@ -19088,22 +19088,22 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>3.902701149425285</v>
+        <v>3.88775862068966</v>
       </c>
       <c r="T97">
-        <v>0.6370181455453785</v>
+        <v>0.6366111983865729</v>
       </c>
       <c r="U97">
         <v>2.93</v>
       </c>
       <c r="V97">
-        <v>3.3775</v>
+        <v>3.36</v>
       </c>
       <c r="W97">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="X97">
-        <v>4.2925</v>
+        <v>4.282500000000001</v>
       </c>
       <c r="Y97">
         <v>5.38</v>
@@ -19136,10 +19136,10 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>109.4915229885057</v>
+        <v>109.4502873563218</v>
       </c>
       <c r="AJ97">
-        <v>28.99293885718469</v>
+        <v>28.97970562388107</v>
       </c>
       <c r="AK97">
         <v>59.6</v>
@@ -19160,10 +19160,10 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>28.99538793103446</v>
+        <v>28.9818247126437</v>
       </c>
       <c r="AR97">
-        <v>16.42306994213058</v>
+        <v>16.41728692272395</v>
       </c>
       <c r="AS97">
         <v>1.26</v>
@@ -19184,22 +19184,22 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.01339986718103449</v>
+        <v>0.01336795074137932</v>
       </c>
       <c r="AZ97">
-        <v>0.02347183543548419</v>
+        <v>0.02341630916316476</v>
       </c>
       <c r="BA97">
         <v>-0.00216</v>
       </c>
       <c r="BB97">
-        <v>-1.5E-05</v>
+        <v>-1.51E-05</v>
       </c>
       <c r="BC97">
         <v>0.002495</v>
       </c>
       <c r="BD97">
-        <v>0.01615</v>
+        <v>0.016075</v>
       </c>
       <c r="BE97">
         <v>0.154</v>
@@ -19208,22 +19208,22 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.280389833979885</v>
+        <v>0.2796517991522988</v>
       </c>
       <c r="BH97">
-        <v>0.321044603465781</v>
+        <v>0.3202150526852989</v>
       </c>
       <c r="BI97">
         <v>-0.0248</v>
       </c>
       <c r="BJ97">
-        <v>-0.000409</v>
+        <v>-0.00040825</v>
       </c>
       <c r="BK97">
-        <v>0.0344</v>
+        <v>0.0343</v>
       </c>
       <c r="BL97">
-        <v>0.61125</v>
+        <v>0.608</v>
       </c>
       <c r="BM97">
         <v>1.25</v>
@@ -19261,13 +19261,13 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>38.01221264367815</v>
+        <v>38.01135057471264</v>
       </c>
       <c r="L98">
-        <v>2.60318736353756</v>
+        <v>2.603600255114313</v>
       </c>
       <c r="M98">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N98">
         <v>36.1</v>
@@ -19285,25 +19285,25 @@
         <v>696</v>
       </c>
       <c r="S98">
-        <v>3.890129310344829</v>
+        <v>3.88909482758621</v>
       </c>
       <c r="T98">
-        <v>0.6360929396393987</v>
+        <v>0.6361701163164389</v>
       </c>
       <c r="U98">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="V98">
         <v>3.36</v>
       </c>
       <c r="W98">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="X98">
-        <v>4.295</v>
+        <v>4.2925</v>
       </c>
       <c r="Y98">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="Z98">
         <v>696</v>
@@ -19333,19 +19333,19 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>109.4502873563218</v>
+        <v>109.449856321839</v>
       </c>
       <c r="AJ98">
-        <v>28.98043199757775</v>
+        <v>28.99105096319465</v>
       </c>
       <c r="AK98">
         <v>59.6</v>
       </c>
       <c r="AL98">
-        <v>94.15000000000001</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM98">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN98">
         <v>118</v>
@@ -19357,19 +19357,19 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>28.98077586206898</v>
+        <v>28.97939655172415</v>
       </c>
       <c r="AR98">
-        <v>16.40941543117412</v>
+        <v>16.40896532218527</v>
       </c>
       <c r="AS98">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT98">
         <v>15.1</v>
       </c>
       <c r="AU98">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV98">
         <v>40.34999999999999</v>
@@ -19381,13 +19381,13 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.01349619199568965</v>
+        <v>0.01347510027586208</v>
       </c>
       <c r="AZ98">
-        <v>0.02362648089819947</v>
+        <v>0.02361253402996736</v>
       </c>
       <c r="BA98">
-        <v>-0.00206</v>
+        <v>-0.00205</v>
       </c>
       <c r="BB98">
         <v>-1.41E-05</v>
@@ -19396,7 +19396,7 @@
         <v>0.00257</v>
       </c>
       <c r="BD98">
-        <v>0.01625</v>
+        <v>0.016175</v>
       </c>
       <c r="BE98">
         <v>0.155</v>
@@ -19405,22 +19405,22 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.2821178357758622</v>
+        <v>0.2815155070402301</v>
       </c>
       <c r="BH98">
-        <v>0.3221065173134068</v>
+        <v>0.3214455474553219</v>
       </c>
       <c r="BI98">
         <v>-0.0245</v>
       </c>
       <c r="BJ98">
-        <v>-0.000329</v>
+        <v>-0.000328</v>
       </c>
       <c r="BK98">
         <v>0.0357</v>
       </c>
       <c r="BL98">
-        <v>0.61525</v>
+        <v>0.61125</v>
       </c>
       <c r="BM98">
         <v>1.23</v>
@@ -19458,10 +19458,10 @@
         <v>696</v>
       </c>
       <c r="K99">
-        <v>38.02988505747128</v>
+        <v>38.02772988505745</v>
       </c>
       <c r="L99">
-        <v>2.604218600491001</v>
+        <v>2.603897138288888</v>
       </c>
       <c r="M99">
         <v>33.5</v>
@@ -19482,10 +19482,10 @@
         <v>696</v>
       </c>
       <c r="S99">
-        <v>3.906637931034486</v>
+        <v>3.905747126436784</v>
       </c>
       <c r="T99">
-        <v>0.6363546506306923</v>
+        <v>0.6366463521371757</v>
       </c>
       <c r="U99">
         <v>2.95</v>
@@ -19494,13 +19494,13 @@
         <v>3.38</v>
       </c>
       <c r="W99">
-        <v>3.76</v>
+        <v>3.755</v>
       </c>
       <c r="X99">
-        <v>4.305</v>
+        <v>4.3025</v>
       </c>
       <c r="Y99">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="Z99">
         <v>696</v>
@@ -19530,19 +19530,19 @@
         <v>696</v>
       </c>
       <c r="AI99">
-        <v>109.489224137931</v>
+        <v>109.4887931034482</v>
       </c>
       <c r="AJ99">
-        <v>29.00015601994831</v>
+        <v>28.98813532003517</v>
       </c>
       <c r="AK99">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="AL99">
         <v>94.15000000000001</v>
       </c>
       <c r="AM99">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN99">
         <v>118</v>
@@ -19554,10 +19554,10 @@
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>28.99512931034481</v>
+        <v>28.99429597701151</v>
       </c>
       <c r="AR99">
-        <v>16.41665635075091</v>
+        <v>16.41607077371206</v>
       </c>
       <c r="AS99">
         <v>1.27</v>
@@ -19578,22 +19578,22 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.01360324022988505</v>
+        <v>0.01358320295977012</v>
       </c>
       <c r="AZ99">
-        <v>0.02380868011222276</v>
+        <v>0.02379621038799334</v>
       </c>
       <c r="BA99">
-        <v>-0.00195</v>
+        <v>-0.00196</v>
       </c>
       <c r="BB99">
-        <v>-1.3225E-05</v>
+        <v>-1.325E-05</v>
       </c>
       <c r="BC99">
         <v>0.002645</v>
       </c>
       <c r="BD99">
-        <v>0.01635</v>
+        <v>0.016275</v>
       </c>
       <c r="BE99">
         <v>0.156</v>
@@ -19602,25 +19602,25 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.2840345228448272</v>
+        <v>0.2833561004310342</v>
       </c>
       <c r="BH99">
-        <v>0.323578446194885</v>
+        <v>0.3227535330434816</v>
       </c>
       <c r="BI99">
         <v>-0.0243</v>
       </c>
       <c r="BJ99">
-        <v>-0.00031475</v>
+        <v>-0.000315</v>
       </c>
       <c r="BK99">
         <v>0.0371</v>
       </c>
       <c r="BL99">
-        <v>0.6185</v>
+        <v>0.6154999999999999</v>
       </c>
       <c r="BM99">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="100" spans="1:65">
@@ -19655,16 +19655,16 @@
         <v>696</v>
       </c>
       <c r="K100">
-        <v>38.03204022988505</v>
+        <v>38.0110632183908</v>
       </c>
       <c r="L100">
-        <v>2.605002244678899</v>
+        <v>2.603385956074406</v>
       </c>
       <c r="M100">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N100">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O100">
         <v>38.25</v>
@@ -19679,25 +19679,25 @@
         <v>696</v>
       </c>
       <c r="S100">
-        <v>3.909741379310342</v>
+        <v>3.888548850574711</v>
       </c>
       <c r="T100">
-        <v>0.6369384432589356</v>
+        <v>0.6363491127468014</v>
       </c>
       <c r="U100">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="V100">
-        <v>3.3875</v>
+        <v>3.36</v>
       </c>
       <c r="W100">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="X100">
-        <v>4.3025</v>
+        <v>4.285</v>
       </c>
       <c r="Y100">
-        <v>5.35</v>
+        <v>5.32</v>
       </c>
       <c r="Z100">
         <v>696</v>
@@ -19727,19 +19727,19 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>109.4994252873563</v>
+        <v>109.4405172413793</v>
       </c>
       <c r="AJ100">
-        <v>28.99946860763737</v>
+        <v>28.97846129973816</v>
       </c>
       <c r="AK100">
         <v>59.6</v>
       </c>
       <c r="AL100">
-        <v>94.15000000000001</v>
+        <v>94.05</v>
       </c>
       <c r="AM100">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN100">
         <v>118</v>
@@ -19751,19 +19751,19 @@
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>28.9956896551724</v>
+        <v>28.97913793103448</v>
       </c>
       <c r="AR100">
-        <v>16.41664799288371</v>
+        <v>16.40920022175482</v>
       </c>
       <c r="AS100">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT100">
         <v>15.1</v>
       </c>
       <c r="AU100">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV100">
         <v>40.34999999999999</v>
@@ -19775,22 +19775,22 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.01370810181034483</v>
+        <v>0.01367160237068965</v>
       </c>
       <c r="AZ100">
-        <v>0.02398695651934475</v>
+        <v>0.02393775485967098</v>
       </c>
       <c r="BA100">
         <v>-0.00185</v>
       </c>
       <c r="BB100">
-        <v>-1.305E-05</v>
+        <v>-1.3125E-05</v>
       </c>
       <c r="BC100">
-        <v>0.002725</v>
+        <v>0.00272</v>
       </c>
       <c r="BD100">
-        <v>0.01645</v>
+        <v>0.01635</v>
       </c>
       <c r="BE100">
         <v>0.157</v>
@@ -19799,13 +19799,13 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.2859294281609194</v>
+        <v>0.2850076278735633</v>
       </c>
       <c r="BH100">
-        <v>0.325229599254484</v>
+        <v>0.3242024403727287</v>
       </c>
       <c r="BI100">
-        <v>-0.0241</v>
+        <v>-0.024</v>
       </c>
       <c r="BJ100">
         <v>-0.00031175</v>
@@ -19814,7 +19814,7 @@
         <v>0.03845</v>
       </c>
       <c r="BL100">
-        <v>0.6225000000000001</v>
+        <v>0.61825</v>
       </c>
       <c r="BM100">
         <v>1.24</v>
@@ -19852,10 +19852,10 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>37.99870689655172</v>
+        <v>38.01178160919539</v>
       </c>
       <c r="L101">
-        <v>2.60556925281846</v>
+        <v>2.604866334356282</v>
       </c>
       <c r="M101">
         <v>33.4</v>
@@ -19870,40 +19870,40 @@
         <v>40.1</v>
       </c>
       <c r="Q101">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R101">
         <v>696</v>
       </c>
       <c r="S101">
-        <v>3.878160919540222</v>
+        <v>3.889885057471269</v>
       </c>
       <c r="T101">
-        <v>0.6375863276033913</v>
+        <v>0.6375420322491008</v>
       </c>
       <c r="U101">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="V101">
-        <v>3.3575</v>
+        <v>3.3675</v>
       </c>
       <c r="W101">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="X101">
-        <v>4.282500000000001</v>
+        <v>4.285</v>
       </c>
       <c r="Y101">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="Z101">
         <v>696</v>
       </c>
       <c r="AA101">
-        <v>38.00574712643676</v>
+        <v>38.00603448275859</v>
       </c>
       <c r="AB101">
-        <v>2.615289029378202</v>
+        <v>2.6148206962676</v>
       </c>
       <c r="AC101">
         <v>33.5</v>
@@ -19924,19 +19924,19 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>109.4125</v>
+        <v>109.4459770114942</v>
       </c>
       <c r="AJ101">
-        <v>28.97151370079076</v>
+        <v>28.97530004278221</v>
       </c>
       <c r="AK101">
         <v>59.6</v>
       </c>
       <c r="AL101">
-        <v>94</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM101">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN101">
         <v>118</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>28.97291666666667</v>
+        <v>28.979683908046</v>
       </c>
       <c r="AR101">
-        <v>16.40682227721782</v>
+        <v>16.40885637032502</v>
       </c>
       <c r="AS101">
         <v>1.26</v>
@@ -19972,10 +19972,10 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.01380469992816092</v>
+        <v>0.01377788995689655</v>
       </c>
       <c r="AZ101">
-        <v>0.02415276804907513</v>
+        <v>0.02411114277508832</v>
       </c>
       <c r="BA101">
         <v>-0.00175</v>
@@ -19987,7 +19987,7 @@
         <v>0.0028</v>
       </c>
       <c r="BD101">
-        <v>0.016525</v>
+        <v>0.01645</v>
       </c>
       <c r="BE101">
         <v>0.158</v>
@@ -19996,25 +19996,25 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.2876461077586209</v>
+        <v>0.286969041666667</v>
       </c>
       <c r="BH101">
-        <v>0.3268755479757595</v>
+        <v>0.3261316599488546</v>
       </c>
       <c r="BI101">
         <v>-0.0239</v>
       </c>
       <c r="BJ101">
-        <v>-0.00030875</v>
+        <v>-0.0003075</v>
       </c>
       <c r="BK101">
-        <v>0.0398</v>
+        <v>0.03975</v>
       </c>
       <c r="BL101">
-        <v>0.62525</v>
+        <v>0.6214999999999999</v>
       </c>
       <c r="BM101">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="102" spans="1:65">
@@ -20049,58 +20049,58 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>38.03433908045975</v>
+        <v>38.01379310344827</v>
       </c>
       <c r="L102">
-        <v>2.606375497049803</v>
+        <v>2.607142261465746</v>
       </c>
       <c r="M102">
         <v>33.4</v>
       </c>
       <c r="N102">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O102">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P102">
         <v>40.1</v>
       </c>
       <c r="Q102">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="R102">
         <v>696</v>
       </c>
       <c r="S102">
-        <v>3.912011494252874</v>
+        <v>3.89110632183908</v>
       </c>
       <c r="T102">
-        <v>0.6396568143586542</v>
+        <v>0.6421087652238077</v>
       </c>
       <c r="U102">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
       <c r="V102">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="W102">
-        <v>3.76</v>
+        <v>3.745</v>
       </c>
       <c r="X102">
-        <v>4.32</v>
+        <v>4.3125</v>
       </c>
       <c r="Y102">
-        <v>5.43</v>
+        <v>5.47</v>
       </c>
       <c r="Z102">
         <v>696</v>
       </c>
       <c r="AA102">
-        <v>38.00459770114941</v>
+        <v>38.00488505747125</v>
       </c>
       <c r="AB102">
-        <v>2.616017426557448</v>
+        <v>2.615549350334533</v>
       </c>
       <c r="AC102">
         <v>33.5</v>
@@ -20121,16 +20121,16 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>109.5034482758621</v>
+        <v>109.4692528735632</v>
       </c>
       <c r="AJ102">
-        <v>28.97505430995681</v>
+        <v>28.98392514072764</v>
       </c>
       <c r="AK102">
-        <v>59.6</v>
+        <v>59.5</v>
       </c>
       <c r="AL102">
-        <v>94.175</v>
+        <v>94</v>
       </c>
       <c r="AM102">
         <v>113</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>28.9952011494253</v>
+        <v>28.98090517241382</v>
       </c>
       <c r="AR102">
-        <v>16.42212067430681</v>
+        <v>16.41633022415196</v>
       </c>
       <c r="AS102">
         <v>1.26</v>
@@ -20169,49 +20169,49 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.01392717319094827</v>
+        <v>0.01388082721408045</v>
       </c>
       <c r="AZ102">
-        <v>0.02434374859966148</v>
+        <v>0.0242787179244644</v>
       </c>
       <c r="BA102">
-        <v>-0.00165</v>
+        <v>-0.00166</v>
       </c>
       <c r="BB102">
-        <v>-9.647499999999999E-06</v>
+        <v>-9.73E-06</v>
       </c>
       <c r="BC102">
-        <v>0.002865</v>
+        <v>0.00286</v>
       </c>
       <c r="BD102">
-        <v>0.01665</v>
+        <v>0.01655</v>
       </c>
       <c r="BE102">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
       <c r="BF102">
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.290030687428161</v>
+        <v>0.2888771188218389</v>
       </c>
       <c r="BH102">
-        <v>0.3294532410172111</v>
+        <v>0.328156736113914</v>
       </c>
       <c r="BI102">
         <v>-0.0237</v>
       </c>
       <c r="BJ102">
-        <v>-0.000223</v>
+        <v>-0.00022325</v>
       </c>
       <c r="BK102">
-        <v>0.0412</v>
+        <v>0.04115</v>
       </c>
       <c r="BL102">
-        <v>0.63025</v>
+        <v>0.62375</v>
       </c>
       <c r="BM102">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="103" spans="1:65">
@@ -20246,49 +20246,49 @@
         <v>696</v>
       </c>
       <c r="K103">
-        <v>38.0508620689655</v>
+        <v>37.98922413793103</v>
       </c>
       <c r="L103">
-        <v>2.608844801480885</v>
+        <v>2.603033421662932</v>
       </c>
       <c r="M103">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N103">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O103">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="P103">
         <v>40.1</v>
       </c>
       <c r="Q103">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="R103">
         <v>696</v>
       </c>
       <c r="S103">
-        <v>3.929482758620687</v>
+        <v>3.866767241379315</v>
       </c>
       <c r="T103">
-        <v>0.639601285191684</v>
+        <v>0.6375459089612625</v>
       </c>
       <c r="U103">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="V103">
-        <v>3.41</v>
+        <v>3.3475</v>
       </c>
       <c r="W103">
-        <v>3.785</v>
+        <v>3.71</v>
       </c>
       <c r="X103">
-        <v>4.342499999999999</v>
+        <v>4.27</v>
       </c>
       <c r="Y103">
-        <v>5.46</v>
+        <v>5.33</v>
       </c>
       <c r="Z103">
         <v>696</v>
@@ -20318,70 +20318,70 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>109.5456896551724</v>
+        <v>109.3814655172414</v>
       </c>
       <c r="AJ103">
-        <v>28.98519510631296</v>
+        <v>28.95823365239037</v>
       </c>
       <c r="AK103">
-        <v>59.7</v>
+        <v>59.5</v>
       </c>
       <c r="AL103">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="AM103">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN103">
         <v>118</v>
       </c>
       <c r="AO103">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AP103">
         <v>696</v>
       </c>
       <c r="AQ103">
-        <v>29.00606321839083</v>
+        <v>28.96091954022988</v>
       </c>
       <c r="AR103">
-        <v>16.42549389830308</v>
+        <v>16.40012014394904</v>
       </c>
       <c r="AS103">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT103">
         <v>15.1</v>
       </c>
       <c r="AU103">
-        <v>31.9</v>
+        <v>31.75</v>
       </c>
       <c r="AV103">
-        <v>40.425</v>
+        <v>40.325</v>
       </c>
       <c r="AW103">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX103">
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.01404553798994254</v>
+        <v>0.01399220215014368</v>
       </c>
       <c r="AZ103">
-        <v>0.02454816202391438</v>
+        <v>0.02446379708013166</v>
       </c>
       <c r="BA103">
-        <v>-0.00157</v>
+        <v>-0.00156</v>
       </c>
       <c r="BB103">
-        <v>-6.995E-06</v>
+        <v>-6.95E-06</v>
       </c>
       <c r="BC103">
-        <v>0.00293</v>
+        <v>0.00292</v>
       </c>
       <c r="BD103">
-        <v>0.01675</v>
+        <v>0.01665</v>
       </c>
       <c r="BE103">
         <v>0.16</v>
@@ -20390,25 +20390,25 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.2922443530603448</v>
+        <v>0.291010270413793</v>
       </c>
       <c r="BH103">
-        <v>0.331700060376031</v>
+        <v>0.3303432475866094</v>
       </c>
       <c r="BI103">
-        <v>-0.0236</v>
+        <v>-0.0235</v>
       </c>
       <c r="BJ103">
-        <v>-0.00012425</v>
+        <v>-0.00012225</v>
       </c>
       <c r="BK103">
-        <v>0.04255</v>
+        <v>0.04239999999999999</v>
       </c>
       <c r="BL103">
-        <v>0.63275</v>
+        <v>0.6285000000000001</v>
       </c>
       <c r="BM103">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="104" spans="1:65">
@@ -20443,10 +20443,10 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>37.99827586206896</v>
+        <v>38.01221264367815</v>
       </c>
       <c r="L104">
-        <v>2.603848267478274</v>
+        <v>2.604425175129265</v>
       </c>
       <c r="M104">
         <v>33.4</v>
@@ -20455,7 +20455,7 @@
         <v>36.1</v>
       </c>
       <c r="O104">
-        <v>38.2</v>
+        <v>38.25</v>
       </c>
       <c r="P104">
         <v>40.1</v>
@@ -20467,22 +20467,22 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>3.875617816091954</v>
+        <v>3.889339080459773</v>
       </c>
       <c r="T104">
-        <v>0.6373099201337094</v>
+        <v>0.6369691001134175</v>
       </c>
       <c r="U104">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="V104">
-        <v>3.3475</v>
+        <v>3.3675</v>
       </c>
       <c r="W104">
-        <v>3.725</v>
+        <v>3.74</v>
       </c>
       <c r="X104">
-        <v>4.28</v>
+        <v>4.2875</v>
       </c>
       <c r="Y104">
         <v>5.33</v>
@@ -20491,10 +20491,10 @@
         <v>696</v>
       </c>
       <c r="AA104">
-        <v>38.00402298850574</v>
+        <v>38.00416666666666</v>
       </c>
       <c r="AB104">
-        <v>2.616249370892191</v>
+        <v>2.61608140058455</v>
       </c>
       <c r="AC104">
         <v>33.5</v>
@@ -20515,16 +20515,16 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>109.3977011494253</v>
+        <v>109.4321839080459</v>
       </c>
       <c r="AJ104">
-        <v>28.95927421488676</v>
+        <v>28.96072207555179</v>
       </c>
       <c r="AK104">
         <v>59.6</v>
       </c>
       <c r="AL104">
-        <v>93.97499999999999</v>
+        <v>94.125</v>
       </c>
       <c r="AM104">
         <v>112.5</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>28.96433908045979</v>
+        <v>28.9744971264368</v>
       </c>
       <c r="AR104">
-        <v>16.39982021729748</v>
+        <v>16.40445161656675</v>
       </c>
       <c r="AS104">
         <v>1.26</v>
@@ -20551,10 +20551,10 @@
         <v>15.1</v>
       </c>
       <c r="AU104">
-        <v>31.75</v>
+        <v>31.8</v>
       </c>
       <c r="AV104">
-        <v>40.325</v>
+        <v>40.34999999999999</v>
       </c>
       <c r="AW104">
         <v>113</v>
@@ -20563,46 +20563,46 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.01411317445114942</v>
+        <v>0.01409720724568966</v>
       </c>
       <c r="AZ104">
-        <v>0.02464801108226919</v>
+        <v>0.02463972835837569</v>
       </c>
       <c r="BA104">
         <v>-0.00146</v>
       </c>
       <c r="BB104">
-        <v>-4.5175E-06</v>
+        <v>-4.52E-06</v>
       </c>
       <c r="BC104">
         <v>0.002985</v>
       </c>
       <c r="BD104">
-        <v>0.016825</v>
+        <v>0.01675</v>
       </c>
       <c r="BE104">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="BF104">
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.2934539602011497</v>
+        <v>0.2928950324712647</v>
       </c>
       <c r="BH104">
-        <v>0.3327241875128716</v>
+        <v>0.3320848747435523</v>
       </c>
       <c r="BI104">
         <v>-0.0233</v>
       </c>
       <c r="BJ104">
-        <v>-9.555000000000001E-05</v>
+        <v>-9.562500000000001E-05</v>
       </c>
       <c r="BK104">
         <v>0.0437</v>
       </c>
       <c r="BL104">
-        <v>0.63575</v>
+        <v>0.6315</v>
       </c>
       <c r="BM104">
         <v>1.31</v>
@@ -20640,10 +20640,10 @@
         <v>696</v>
       </c>
       <c r="K105">
-        <v>38.00272988505749</v>
+        <v>37.98706896551724</v>
       </c>
       <c r="L105">
-        <v>2.605037956121222</v>
+        <v>2.604308444829926</v>
       </c>
       <c r="M105">
         <v>33.4</v>
@@ -20664,34 +20664,34 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>3.881939655172413</v>
+        <v>3.865100574712646</v>
       </c>
       <c r="T105">
-        <v>0.6397212538943799</v>
+        <v>0.6385982772090329</v>
       </c>
       <c r="U105">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="V105">
-        <v>3.3575</v>
+        <v>3.34</v>
       </c>
       <c r="W105">
-        <v>3.74</v>
+        <v>3.715</v>
       </c>
       <c r="X105">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="Y105">
-        <v>5.38</v>
+        <v>5.37</v>
       </c>
       <c r="Z105">
         <v>696</v>
       </c>
       <c r="AA105">
-        <v>38.00272988505746</v>
+        <v>38.00344827586206</v>
       </c>
       <c r="AB105">
-        <v>2.617716291000675</v>
+        <v>2.616921065311096</v>
       </c>
       <c r="AC105">
         <v>33.5</v>
@@ -20712,16 +20712,16 @@
         <v>696</v>
       </c>
       <c r="AI105">
-        <v>109.4030172413793</v>
+        <v>109.3693965517242</v>
       </c>
       <c r="AJ105">
-        <v>28.93764478749412</v>
+        <v>28.94111904252991</v>
       </c>
       <c r="AK105">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="AL105">
-        <v>94.07499999999999</v>
+        <v>94</v>
       </c>
       <c r="AM105">
         <v>113</v>
@@ -20736,10 +20736,10 @@
         <v>696</v>
       </c>
       <c r="AQ105">
-        <v>28.9655028735632</v>
+        <v>28.95693965517242</v>
       </c>
       <c r="AR105">
-        <v>16.40059148012149</v>
+        <v>16.39663577449756</v>
       </c>
       <c r="AS105">
         <v>1.26</v>
@@ -20760,46 +20760,46 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.01422590711781611</v>
+        <v>0.01418566206896551</v>
       </c>
       <c r="AZ105">
-        <v>0.0248439715478369</v>
+        <v>0.02478215039562359</v>
       </c>
       <c r="BA105">
         <v>-0.00137</v>
       </c>
       <c r="BB105">
-        <v>9.914999999999999E-06</v>
+        <v>9.75E-06</v>
       </c>
       <c r="BC105">
-        <v>0.00305</v>
+        <v>0.003045</v>
       </c>
       <c r="BD105">
-        <v>0.016925</v>
+        <v>0.01685</v>
       </c>
       <c r="BE105">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="BF105">
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.2954994389367815</v>
+        <v>0.2945766155172415</v>
       </c>
       <c r="BH105">
-        <v>0.334524530830859</v>
+        <v>0.3335255359109788</v>
       </c>
       <c r="BI105">
         <v>-0.0231</v>
       </c>
       <c r="BJ105">
-        <v>0.00040825</v>
+        <v>0.0004025</v>
       </c>
       <c r="BK105">
-        <v>0.0449</v>
+        <v>0.04485</v>
       </c>
       <c r="BL105">
-        <v>0.64</v>
+        <v>0.63525</v>
       </c>
       <c r="BM105">
         <v>1.32</v>
@@ -20837,22 +20837,22 @@
         <v>696</v>
       </c>
       <c r="K106">
-        <v>38.02758620689655</v>
+        <v>37.97126436781608</v>
       </c>
       <c r="L106">
-        <v>2.607137503811549</v>
+        <v>2.60399949368325</v>
       </c>
       <c r="M106">
         <v>33.4</v>
       </c>
       <c r="N106">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O106">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P106">
-        <v>40.1</v>
+        <v>40.025</v>
       </c>
       <c r="Q106">
         <v>41.9</v>
@@ -20861,34 +20861,34 @@
         <v>696</v>
       </c>
       <c r="S106">
-        <v>3.905761494252876</v>
+        <v>3.849353448275863</v>
       </c>
       <c r="T106">
-        <v>0.638537443517737</v>
+        <v>0.6401739973140219</v>
       </c>
       <c r="U106">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
       <c r="V106">
-        <v>3.38</v>
+        <v>3.3275</v>
       </c>
       <c r="W106">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="X106">
-        <v>4.3025</v>
+        <v>4.26</v>
       </c>
       <c r="Y106">
-        <v>5.39</v>
+        <v>5.37</v>
       </c>
       <c r="Z106">
         <v>696</v>
       </c>
       <c r="AA106">
-        <v>38.00172413793103</v>
+        <v>38.00186781609194</v>
       </c>
       <c r="AB106">
-        <v>2.619000284592786</v>
+        <v>2.618755696572248</v>
       </c>
       <c r="AC106">
         <v>33.5</v>
@@ -20909,16 +20909,16 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>109.4656609195403</v>
+        <v>109.3228448275862</v>
       </c>
       <c r="AJ106">
-        <v>28.97237307962046</v>
+        <v>28.92583089887435</v>
       </c>
       <c r="AK106">
-        <v>59.6</v>
+        <v>59.5</v>
       </c>
       <c r="AL106">
-        <v>94.09999999999999</v>
+        <v>93.97499999999999</v>
       </c>
       <c r="AM106">
         <v>113</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>28.98308908045974</v>
+        <v>28.94040229885059</v>
       </c>
       <c r="AR106">
-        <v>16.4069467239814</v>
+        <v>16.38940432799227</v>
       </c>
       <c r="AS106">
         <v>1.26</v>
@@ -20945,10 +20945,10 @@
         <v>15.1</v>
       </c>
       <c r="AU106">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV106">
-        <v>40.34999999999999</v>
+        <v>40.325</v>
       </c>
       <c r="AW106">
         <v>113</v>
@@ -20957,46 +20957,46 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.01432109099137932</v>
+        <v>0.01428610443965518</v>
       </c>
       <c r="AZ106">
-        <v>0.02500364135544371</v>
+        <v>0.02495778985813632</v>
       </c>
       <c r="BA106">
-        <v>-0.00127</v>
+        <v>-0.00128</v>
       </c>
       <c r="BB106">
-        <v>2.27E-05</v>
+        <v>2.29E-05</v>
       </c>
       <c r="BC106">
         <v>0.003105</v>
       </c>
       <c r="BD106">
-        <v>0.017025</v>
+        <v>0.016925</v>
       </c>
       <c r="BE106">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
       <c r="BF106">
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.2972328290229887</v>
+        <v>0.2963308216954022</v>
       </c>
       <c r="BH106">
-        <v>0.3359607332485385</v>
+        <v>0.3350229008815</v>
       </c>
       <c r="BI106">
-        <v>-0.0229</v>
+        <v>-0.023</v>
       </c>
       <c r="BJ106">
-        <v>0.0008795000000000001</v>
+        <v>0.0008784999999999999</v>
       </c>
       <c r="BK106">
-        <v>0.0456</v>
+        <v>0.04555</v>
       </c>
       <c r="BL106">
-        <v>0.644</v>
+        <v>0.6385000000000001</v>
       </c>
       <c r="BM106">
         <v>1.32</v>
@@ -21034,16 +21034,16 @@
         <v>696</v>
       </c>
       <c r="K107">
-        <v>38.02284482758621</v>
+        <v>38.00057471264368</v>
       </c>
       <c r="L107">
-        <v>2.610037836281712</v>
+        <v>2.606212768169771</v>
       </c>
       <c r="M107">
         <v>33.4</v>
       </c>
       <c r="N107">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O107">
         <v>38.2</v>
@@ -21058,22 +21058,22 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>3.901178160919537</v>
+        <v>3.877873563218395</v>
       </c>
       <c r="T107">
-        <v>0.6398030653706025</v>
+        <v>0.6393265936462017</v>
       </c>
       <c r="U107">
         <v>2.87</v>
       </c>
       <c r="V107">
-        <v>3.3775</v>
+        <v>3.36</v>
       </c>
       <c r="W107">
-        <v>3.75</v>
+        <v>3.725</v>
       </c>
       <c r="X107">
-        <v>4.29</v>
+        <v>4.28</v>
       </c>
       <c r="Y107">
         <v>5.36</v>
@@ -21106,10 +21106,10 @@
         <v>696</v>
       </c>
       <c r="AI107">
-        <v>109.4508620689655</v>
+        <v>109.3938218390805</v>
       </c>
       <c r="AJ107">
-        <v>28.95410358418443</v>
+        <v>28.94571658359829</v>
       </c>
       <c r="AK107">
         <v>59.5</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>28.98004310344827</v>
+        <v>28.96248563218391</v>
       </c>
       <c r="AR107">
-        <v>16.40418721325858</v>
+        <v>16.39726944279593</v>
       </c>
       <c r="AS107">
         <v>1.26</v>
@@ -21154,10 +21154,10 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.01442305701149425</v>
+        <v>0.01438873426724139</v>
       </c>
       <c r="AZ107">
-        <v>0.02516528595446318</v>
+        <v>0.02511762692277071</v>
       </c>
       <c r="BA107">
         <v>-0.00118</v>
@@ -21166,10 +21166,10 @@
         <v>3.545E-05</v>
       </c>
       <c r="BC107">
-        <v>0.00317</v>
+        <v>0.00316</v>
       </c>
       <c r="BD107">
-        <v>0.0171</v>
+        <v>0.017025</v>
       </c>
       <c r="BE107">
         <v>0.163</v>
@@ -21178,22 +21178,22 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.2991551293103452</v>
+        <v>0.2983064959770116</v>
       </c>
       <c r="BH107">
-        <v>0.337856640169757</v>
+        <v>0.3369547505372283</v>
       </c>
       <c r="BI107">
-        <v>-0.0227</v>
+        <v>-0.0228</v>
       </c>
       <c r="BJ107">
         <v>0.0013375</v>
       </c>
       <c r="BK107">
-        <v>0.04625</v>
+        <v>0.0462</v>
       </c>
       <c r="BL107">
-        <v>0.64675</v>
+        <v>0.64225</v>
       </c>
       <c r="BM107">
         <v>1.34</v>
@@ -21231,49 +21231,49 @@
         <v>696</v>
       </c>
       <c r="K108">
-        <v>38.01853448275862</v>
+        <v>37.98275862068964</v>
       </c>
       <c r="L108">
-        <v>2.608842436093677</v>
+        <v>2.605250123577463</v>
       </c>
       <c r="M108">
         <v>33.4</v>
       </c>
       <c r="N108">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O108">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P108">
         <v>40.1</v>
       </c>
       <c r="Q108">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="R108">
         <v>696</v>
       </c>
       <c r="S108">
-        <v>3.895890804597701</v>
+        <v>3.861738505747127</v>
       </c>
       <c r="T108">
-        <v>0.6384268522024779</v>
+        <v>0.638104202500647</v>
       </c>
       <c r="U108">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="V108">
-        <v>3.37</v>
+        <v>3.3375</v>
       </c>
       <c r="W108">
-        <v>3.745</v>
+        <v>3.715</v>
       </c>
       <c r="X108">
-        <v>4.3025</v>
+        <v>4.2575</v>
       </c>
       <c r="Y108">
-        <v>5.36</v>
+        <v>5.34</v>
       </c>
       <c r="Z108">
         <v>696</v>
@@ -21303,19 +21303,19 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>109.4326149425288</v>
+        <v>109.3479885057471</v>
       </c>
       <c r="AJ108">
-        <v>28.94596776483527</v>
+        <v>28.93566809379732</v>
       </c>
       <c r="AK108">
-        <v>59.6</v>
+        <v>59.5</v>
       </c>
       <c r="AL108">
-        <v>94.07499999999999</v>
+        <v>94</v>
       </c>
       <c r="AM108">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN108">
         <v>118</v>
@@ -21327,10 +21327,10 @@
         <v>696</v>
       </c>
       <c r="AQ108">
-        <v>28.97191091954024</v>
+        <v>28.9466666666667</v>
       </c>
       <c r="AR108">
-        <v>16.40035914497422</v>
+        <v>16.38912447201597</v>
       </c>
       <c r="AS108">
         <v>1.26</v>
@@ -21351,22 +21351,22 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.01453186612068966</v>
+        <v>0.01448123415229885</v>
       </c>
       <c r="AZ108">
-        <v>0.02534424992944692</v>
+        <v>0.0252644563462378</v>
       </c>
       <c r="BA108">
         <v>-0.00109</v>
       </c>
       <c r="BB108">
-        <v>4.8525E-05</v>
+        <v>4.8325E-05</v>
       </c>
       <c r="BC108">
         <v>0.003225</v>
       </c>
       <c r="BD108">
-        <v>0.0172</v>
+        <v>0.017125</v>
       </c>
       <c r="BE108">
         <v>0.164</v>
@@ -21375,10 +21375,10 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.3012363163793104</v>
+        <v>0.3000924363505746</v>
       </c>
       <c r="BH108">
-        <v>0.3400779208347093</v>
+        <v>0.3388522125465854</v>
       </c>
       <c r="BI108">
         <v>-0.0226</v>
@@ -21387,10 +21387,10 @@
         <v>0.0017875</v>
       </c>
       <c r="BK108">
-        <v>0.04695</v>
+        <v>0.0469</v>
       </c>
       <c r="BL108">
-        <v>0.64925</v>
+        <v>0.64525</v>
       </c>
       <c r="BM108">
         <v>1.36</v>
@@ -21428,10 +21428,10 @@
         <v>696</v>
       </c>
       <c r="K109">
-        <v>38.01537356321838</v>
+        <v>38.04741379310342</v>
       </c>
       <c r="L109">
-        <v>2.608703060681856</v>
+        <v>2.611070880622895</v>
       </c>
       <c r="M109">
         <v>33.4</v>
@@ -21440,46 +21440,46 @@
         <v>36.2</v>
       </c>
       <c r="O109">
-        <v>38.2</v>
+        <v>38.25</v>
       </c>
       <c r="P109">
         <v>40.1</v>
       </c>
       <c r="Q109">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R109">
         <v>696</v>
       </c>
       <c r="S109">
-        <v>3.893735632183905</v>
+        <v>3.925445402298859</v>
       </c>
       <c r="T109">
-        <v>0.6388815399551209</v>
+        <v>0.6394910992965817</v>
       </c>
       <c r="U109">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="V109">
-        <v>3.3675</v>
+        <v>3.4075</v>
       </c>
       <c r="W109">
-        <v>3.745</v>
+        <v>3.77</v>
       </c>
       <c r="X109">
-        <v>4.2925</v>
+        <v>4.325</v>
       </c>
       <c r="Y109">
-        <v>5.35</v>
+        <v>5.4</v>
       </c>
       <c r="Z109">
         <v>696</v>
       </c>
       <c r="AA109">
-        <v>38.00100574712643</v>
+        <v>38.00129310344828</v>
       </c>
       <c r="AB109">
-        <v>2.620250220347879</v>
+        <v>2.619750341283955</v>
       </c>
       <c r="AC109">
         <v>33.4</v>
@@ -21500,19 +21500,19 @@
         <v>696</v>
       </c>
       <c r="AI109">
-        <v>109.4221264367816</v>
+        <v>109.5074712643679</v>
       </c>
       <c r="AJ109">
-        <v>28.9413437873911</v>
+        <v>28.95989936857555</v>
       </c>
       <c r="AK109">
         <v>59.6</v>
       </c>
       <c r="AL109">
-        <v>94.07499999999999</v>
+        <v>94.175</v>
       </c>
       <c r="AM109">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN109">
         <v>118</v>
@@ -21524,10 +21524,10 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>28.97067528735636</v>
+        <v>28.99231321839082</v>
       </c>
       <c r="AR109">
-        <v>16.39887401743589</v>
+        <v>16.40785749544898</v>
       </c>
       <c r="AS109">
         <v>1.26</v>
@@ -21536,10 +21536,10 @@
         <v>15.1</v>
       </c>
       <c r="AU109">
-        <v>31.8</v>
+        <v>31.85</v>
       </c>
       <c r="AV109">
-        <v>40.325</v>
+        <v>40.34999999999999</v>
       </c>
       <c r="AW109">
         <v>113</v>
@@ -21548,22 +21548,22 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.01463222984195403</v>
+        <v>0.01461564274425287</v>
       </c>
       <c r="AZ109">
-        <v>0.02550648841673348</v>
+        <v>0.02548872481764582</v>
       </c>
       <c r="BA109">
-        <v>-0.001</v>
+        <v>-0.00101</v>
       </c>
       <c r="BB109">
-        <v>6.04E-05</v>
+        <v>6.045E-05</v>
       </c>
       <c r="BC109">
-        <v>0.003285</v>
+        <v>0.00329</v>
       </c>
       <c r="BD109">
-        <v>0.0173</v>
+        <v>0.017225</v>
       </c>
       <c r="BE109">
         <v>0.165</v>
@@ -21572,22 +21572,22 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.3032182647988504</v>
+        <v>0.302726457327586</v>
       </c>
       <c r="BH109">
-        <v>0.3421631792039143</v>
+        <v>0.3416443655012801</v>
       </c>
       <c r="BI109">
-        <v>-0.0224</v>
+        <v>-0.0225</v>
       </c>
       <c r="BJ109">
         <v>0.0021825</v>
       </c>
       <c r="BK109">
-        <v>0.0476</v>
+        <v>0.0477</v>
       </c>
       <c r="BL109">
-        <v>0.65325</v>
+        <v>0.651</v>
       </c>
       <c r="BM109">
         <v>1.38</v>
@@ -21625,10 +21625,10 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>37.99583333333332</v>
+        <v>38.00272988505746</v>
       </c>
       <c r="L110">
-        <v>2.606802919829141</v>
+        <v>2.608311235461299</v>
       </c>
       <c r="M110">
         <v>33.4</v>
@@ -21643,31 +21643,31 @@
         <v>40.1</v>
       </c>
       <c r="Q110">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R110">
         <v>696</v>
       </c>
       <c r="S110">
-        <v>3.873563218390807</v>
+        <v>3.881910919540223</v>
       </c>
       <c r="T110">
-        <v>0.6385099146494111</v>
+        <v>0.6394113282774347</v>
       </c>
       <c r="U110">
         <v>2.9</v>
       </c>
       <c r="V110">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="W110">
-        <v>3.72</v>
+        <v>3.725</v>
       </c>
       <c r="X110">
-        <v>4.28</v>
+        <v>4.282500000000001</v>
       </c>
       <c r="Y110">
-        <v>5.33</v>
+        <v>5.36</v>
       </c>
       <c r="Z110">
         <v>696</v>
@@ -21697,34 +21697,34 @@
         <v>696</v>
       </c>
       <c r="AI110">
-        <v>109.3692528735632</v>
+        <v>109.3962643678161</v>
       </c>
       <c r="AJ110">
-        <v>28.91486541111954</v>
+        <v>28.93663954793524</v>
       </c>
       <c r="AK110">
         <v>59.6</v>
       </c>
       <c r="AL110">
-        <v>94.05</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM110">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN110">
         <v>118</v>
       </c>
       <c r="AO110">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AP110">
         <v>696</v>
       </c>
       <c r="AQ110">
-        <v>28.95347701149429</v>
+        <v>28.96094827586204</v>
       </c>
       <c r="AR110">
-        <v>16.39082351558015</v>
+        <v>16.39371980008357</v>
       </c>
       <c r="AS110">
         <v>1.26</v>
@@ -21733,7 +21733,7 @@
         <v>15.1</v>
       </c>
       <c r="AU110">
-        <v>31.75</v>
+        <v>31.8</v>
       </c>
       <c r="AV110">
         <v>40.325</v>
@@ -21745,22 +21745,22 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.01471753590517242</v>
+        <v>0.01469770803160921</v>
       </c>
       <c r="AZ110">
-        <v>0.02564659258691945</v>
+        <v>0.02561947978008908</v>
       </c>
       <c r="BA110">
-        <v>-0.0009120000000000001</v>
+        <v>-0.000914</v>
       </c>
       <c r="BB110">
-        <v>7.3725E-05</v>
+        <v>7.38E-05</v>
       </c>
       <c r="BC110">
-        <v>0.003335</v>
+        <v>0.00334</v>
       </c>
       <c r="BD110">
-        <v>0.0174</v>
+        <v>0.017325</v>
       </c>
       <c r="BE110">
         <v>0.166</v>
@@ -21769,22 +21769,22 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.3048258458333336</v>
+        <v>0.3042795787356323</v>
       </c>
       <c r="BH110">
-        <v>0.3436735465629994</v>
+        <v>0.3431093717226407</v>
       </c>
       <c r="BI110">
         <v>-0.0222</v>
       </c>
       <c r="BJ110">
-        <v>0.002565</v>
+        <v>0.002575</v>
       </c>
       <c r="BK110">
-        <v>0.0482</v>
+        <v>0.04825</v>
       </c>
       <c r="BL110">
-        <v>0.65625</v>
+        <v>0.6537500000000001</v>
       </c>
       <c r="BM110">
         <v>1.38</v>
@@ -21822,16 +21822,16 @@
         <v>696</v>
       </c>
       <c r="K111">
-        <v>37.99770114942529</v>
+        <v>38.01968390804598</v>
       </c>
       <c r="L111">
-        <v>2.609036957264649</v>
+        <v>2.609898239549853</v>
       </c>
       <c r="M111">
         <v>33.4</v>
       </c>
       <c r="N111">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O111">
         <v>38.2</v>
@@ -21846,25 +21846,25 @@
         <v>696</v>
       </c>
       <c r="S111">
-        <v>3.874899425287355</v>
+        <v>3.896925287356322</v>
       </c>
       <c r="T111">
-        <v>0.6388906673556917</v>
+        <v>0.6394773271695764</v>
       </c>
       <c r="U111">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="V111">
-        <v>3.3575</v>
+        <v>3.37</v>
       </c>
       <c r="W111">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="X111">
-        <v>4.274999999999999</v>
+        <v>4.29</v>
       </c>
       <c r="Y111">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="Z111">
         <v>696</v>
@@ -21894,16 +21894,16 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>109.364367816092</v>
+        <v>109.4188218390804</v>
       </c>
       <c r="AJ111">
-        <v>28.92162060799105</v>
+        <v>28.93631119649323</v>
       </c>
       <c r="AK111">
         <v>59.6</v>
       </c>
       <c r="AL111">
-        <v>94.07499999999999</v>
+        <v>94</v>
       </c>
       <c r="AM111">
         <v>112.5</v>
@@ -21918,10 +21918,10 @@
         <v>696</v>
       </c>
       <c r="AQ111">
-        <v>28.95172413793106</v>
+        <v>28.96936781609195</v>
       </c>
       <c r="AR111">
-        <v>16.38870632065868</v>
+        <v>16.39496920214663</v>
       </c>
       <c r="AS111">
         <v>1.26</v>
@@ -21942,46 +21942,46 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.01482024695402298</v>
+        <v>0.01479148466954024</v>
       </c>
       <c r="AZ111">
-        <v>0.02582094456831924</v>
+        <v>0.02577283064766227</v>
       </c>
       <c r="BA111">
-        <v>-0.000873</v>
+        <v>-0.000875</v>
       </c>
       <c r="BB111">
-        <v>8.7575E-05</v>
+        <v>8.7725E-05</v>
       </c>
       <c r="BC111">
-        <v>0.00339</v>
+        <v>0.003395</v>
       </c>
       <c r="BD111">
-        <v>0.0175</v>
+        <v>0.017425</v>
       </c>
       <c r="BE111">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="BF111">
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.3067291761494252</v>
+        <v>0.3060344609195405</v>
       </c>
       <c r="BH111">
-        <v>0.3453809478767792</v>
+        <v>0.3445488792325471</v>
       </c>
       <c r="BI111">
-        <v>-0.022</v>
+        <v>-0.0221</v>
       </c>
       <c r="BJ111">
         <v>0.00295</v>
       </c>
       <c r="BK111">
-        <v>0.04855</v>
+        <v>0.0486</v>
       </c>
       <c r="BL111">
-        <v>0.6597500000000001</v>
+        <v>0.656</v>
       </c>
       <c r="BM111">
         <v>1.38</v>
@@ -22019,16 +22019,16 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>38.01422413793102</v>
+        <v>37.99841954022988</v>
       </c>
       <c r="L112">
-        <v>2.609018443571938</v>
+        <v>2.608383898758211</v>
       </c>
       <c r="M112">
         <v>33.4</v>
       </c>
       <c r="N112">
-        <v>36.175</v>
+        <v>36.1</v>
       </c>
       <c r="O112">
         <v>38.2</v>
@@ -22043,34 +22043,34 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>3.892772988505748</v>
+        <v>3.877155172413795</v>
       </c>
       <c r="T112">
-        <v>0.6394734211093535</v>
+        <v>0.6395751369018279</v>
       </c>
       <c r="U112">
         <v>2.9</v>
       </c>
       <c r="V112">
-        <v>3.37</v>
+        <v>3.35</v>
       </c>
       <c r="W112">
-        <v>3.745</v>
+        <v>3.73</v>
       </c>
       <c r="X112">
-        <v>4.2875</v>
+        <v>4.2725</v>
       </c>
       <c r="Y112">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="Z112">
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>37.99971264367814</v>
+        <v>37.99999999999999</v>
       </c>
       <c r="AB112">
-        <v>2.620434348786542</v>
+        <v>2.619956614501565</v>
       </c>
       <c r="AC112">
         <v>33.4</v>
@@ -22091,10 +22091,10 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>109.407040229885</v>
+        <v>109.3682471264368</v>
       </c>
       <c r="AJ112">
-        <v>28.91813390157567</v>
+        <v>28.91687735665288</v>
       </c>
       <c r="AK112">
         <v>59.6</v>
@@ -22115,10 +22115,10 @@
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>28.9627011494253</v>
+        <v>28.9512787356322</v>
       </c>
       <c r="AR112">
-        <v>16.39224106343555</v>
+        <v>16.38803802927042</v>
       </c>
       <c r="AS112">
         <v>1.26</v>
@@ -22139,46 +22139,46 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.0149196612643678</v>
+        <v>0.0148795632183908</v>
       </c>
       <c r="AZ112">
-        <v>0.02598800138716325</v>
+        <v>0.02592588286149636</v>
       </c>
       <c r="BA112">
-        <v>-0.00087</v>
+        <v>-0.000868</v>
       </c>
       <c r="BB112">
-        <v>0.000101075</v>
+        <v>0.000101</v>
       </c>
       <c r="BC112">
-        <v>0.003455</v>
+        <v>0.00345</v>
       </c>
       <c r="BD112">
-        <v>0.0176</v>
+        <v>0.0175</v>
       </c>
       <c r="BE112">
-        <v>0.168</v>
+        <v>0.167</v>
       </c>
       <c r="BF112">
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.3085995225574712</v>
+        <v>0.3075796201149422</v>
       </c>
       <c r="BH112">
-        <v>0.3469300583941767</v>
+        <v>0.3457499204990316</v>
       </c>
       <c r="BI112">
-        <v>-0.022</v>
+        <v>-0.0219</v>
       </c>
       <c r="BJ112">
-        <v>0.00333</v>
+        <v>0.0033275</v>
       </c>
       <c r="BK112">
-        <v>0.04925</v>
+        <v>0.04915</v>
       </c>
       <c r="BL112">
-        <v>0.664</v>
+        <v>0.66</v>
       </c>
       <c r="BM112">
         <v>1.38</v>

--- a/June2014/ISWRPQAQ_stats.xlsx
+++ b/June2014/ISWRPQAQ_stats.xlsx
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>-0.06169388489208633</v>
+        <v>-0.06169359712230216</v>
       </c>
       <c r="AZ4">
-        <v>0.03949891581539829</v>
+        <v>0.03949876766047573</v>
       </c>
       <c r="BA4">
         <v>-0.307</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>-2.139336690647481</v>
+        <v>-2.139307913669064</v>
       </c>
       <c r="BH4">
-        <v>1.890439856778221</v>
+        <v>1.890410424707339</v>
       </c>
       <c r="BI4">
         <v>-11.6</v>
@@ -964,10 +964,10 @@
         <v>696</v>
       </c>
       <c r="S5">
-        <v>4.653247126436785</v>
+        <v>4.653261494252877</v>
       </c>
       <c r="T5">
-        <v>0.6016517569843691</v>
+        <v>0.6016357754842306</v>
       </c>
       <c r="U5">
         <v>3.72</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>-0.01704356681034483</v>
+        <v>-0.0170435783045977</v>
       </c>
       <c r="AZ5">
-        <v>0.02431872507063965</v>
+        <v>0.0243187228298592</v>
       </c>
       <c r="BA5">
         <v>-0.195</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>-0.3799209022988507</v>
+        <v>-0.3799204698275863</v>
       </c>
       <c r="BH5">
-        <v>0.3427526415044377</v>
+        <v>0.3427530402734364</v>
       </c>
       <c r="BI5">
         <v>-2.5</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>-0.0115090129310345</v>
+        <v>-0.01150879339080462</v>
       </c>
       <c r="AZ6">
-        <v>0.0236053004068576</v>
+        <v>0.02360501252434327</v>
       </c>
       <c r="BA6">
         <v>-0.187</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>-0.1861744439655174</v>
+        <v>-0.1861725344827588</v>
       </c>
       <c r="BH6">
-        <v>0.18278793573166</v>
+        <v>0.1827835351758312</v>
       </c>
       <c r="BI6">
         <v>-0.834</v>
@@ -1296,7 +1296,7 @@
         <v>-0.173</v>
       </c>
       <c r="BL6">
-        <v>-0.050175</v>
+        <v>-0.05025</v>
       </c>
       <c r="BM6">
         <v>0.511</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>-0.01003212658045978</v>
+        <v>-0.0100320933908046</v>
       </c>
       <c r="AZ7">
-        <v>0.02274941809167203</v>
+        <v>0.02274944450701974</v>
       </c>
       <c r="BA7">
         <v>-0.18</v>
@@ -1478,10 +1478,10 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>-0.148458313218391</v>
+        <v>-0.1484536752873565</v>
       </c>
       <c r="BH7">
-        <v>0.18150497120035</v>
+        <v>0.1815018056921993</v>
       </c>
       <c r="BI7">
         <v>-0.711</v>
@@ -1493,7 +1493,7 @@
         <v>-0.122</v>
       </c>
       <c r="BL7">
-        <v>-0.0174</v>
+        <v>-0.017475</v>
       </c>
       <c r="BM7">
         <v>0.602</v>
@@ -1555,10 +1555,10 @@
         <v>696</v>
       </c>
       <c r="S8">
-        <v>4.25165229885058</v>
+        <v>4.251681034482763</v>
       </c>
       <c r="T8">
-        <v>0.6004477943585962</v>
+        <v>0.6004271060048864</v>
       </c>
       <c r="U8">
         <v>3.41</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>-0.009167199870689651</v>
+        <v>-0.009167071522988507</v>
       </c>
       <c r="AZ8">
-        <v>0.02202568011506133</v>
+        <v>0.0220257114403839</v>
       </c>
       <c r="BA8">
         <v>-0.174</v>
@@ -1663,7 +1663,7 @@
         <v>-0.0102</v>
       </c>
       <c r="BC8">
-        <v>-0.003979999999999999</v>
+        <v>-0.003974999999999999</v>
       </c>
       <c r="BD8">
         <v>-0.00036525</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>-0.1294269885057471</v>
+        <v>-0.1294221206896552</v>
       </c>
       <c r="BH8">
-        <v>0.1824418014872276</v>
+        <v>0.1824385027174472</v>
       </c>
       <c r="BI8">
         <v>-0.659</v>
@@ -1848,10 +1848,10 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>-0.008503873706896543</v>
+        <v>-0.00850382649425287</v>
       </c>
       <c r="AZ9">
-        <v>0.0213945772088912</v>
+        <v>0.02139458750584211</v>
       </c>
       <c r="BA9">
         <v>-0.168</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>-0.1157710359195403</v>
+        <v>-0.1157701293103449</v>
       </c>
       <c r="BH9">
-        <v>0.1838329988862236</v>
+        <v>0.1838335736914826</v>
       </c>
       <c r="BI9">
         <v>-0.626</v>
@@ -1997,10 +1997,10 @@
         <v>696</v>
       </c>
       <c r="AI10">
-        <v>111.5060344827586</v>
+        <v>111.5061781609195</v>
       </c>
       <c r="AJ10">
-        <v>29.81622547644352</v>
+        <v>29.81604037986398</v>
       </c>
       <c r="AK10">
         <v>60.3</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>-0.007823977945402301</v>
+        <v>-0.007824016120689654</v>
       </c>
       <c r="AZ10">
-        <v>0.02084104462092708</v>
+        <v>0.02084109193272895</v>
       </c>
       <c r="BA10">
         <v>-0.163</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>-0.1010848893678162</v>
+        <v>-0.1010765387931036</v>
       </c>
       <c r="BH10">
-        <v>0.1847481511167949</v>
+        <v>0.1847434310031737</v>
       </c>
       <c r="BI10">
         <v>-0.583</v>
@@ -2122,16 +2122,16 @@
         <v>696</v>
       </c>
       <c r="K11">
-        <v>38.0755747126437</v>
+        <v>38.07643678160922</v>
       </c>
       <c r="L11">
-        <v>2.519964819360155</v>
+        <v>2.519579033931638</v>
       </c>
       <c r="M11">
         <v>33.7</v>
       </c>
       <c r="N11">
-        <v>36.275</v>
+        <v>36.3</v>
       </c>
       <c r="O11">
         <v>38.2</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>3.952155172413794</v>
+        <v>3.952471264367816</v>
       </c>
       <c r="T11">
-        <v>0.6175036390436909</v>
+        <v>0.6175194628049063</v>
       </c>
       <c r="U11">
         <v>3.06</v>
@@ -2164,7 +2164,7 @@
         <v>4.32</v>
       </c>
       <c r="Y11">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="Z11">
         <v>696</v>
@@ -2194,10 +2194,10 @@
         <v>696</v>
       </c>
       <c r="AI11">
-        <v>110.1362068965518</v>
+        <v>110.1405172413793</v>
       </c>
       <c r="AJ11">
-        <v>29.46800600349265</v>
+        <v>29.47087667203686</v>
       </c>
       <c r="AK11">
         <v>58.6</v>
@@ -2218,10 +2218,10 @@
         <v>696</v>
       </c>
       <c r="AQ11">
-        <v>29.16969827586207</v>
+        <v>29.16987068965518</v>
       </c>
       <c r="AR11">
-        <v>16.57965207073204</v>
+        <v>16.57952580174091</v>
       </c>
       <c r="AS11">
         <v>1.28</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>-0.007688436206896556</v>
+        <v>-0.007688772413793106</v>
       </c>
       <c r="AZ11">
-        <v>0.02249439953620136</v>
+        <v>0.02249490482135004</v>
       </c>
       <c r="BA11">
         <v>-0.179</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>-0.09898711350574717</v>
+        <v>-0.09899524856321841</v>
       </c>
       <c r="BH11">
-        <v>0.3034827454597638</v>
+        <v>0.3034988133027849</v>
       </c>
       <c r="BI11">
         <v>-1.45</v>
@@ -2281,7 +2281,7 @@
         <v>-0.06425</v>
       </c>
       <c r="BL11">
-        <v>0.08455</v>
+        <v>0.084525</v>
       </c>
       <c r="BM11">
         <v>0.877</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>-0.005214541077586208</v>
+        <v>-0.005214540359195403</v>
       </c>
       <c r="AZ12">
-        <v>0.01951552676974679</v>
+        <v>0.01951552724837671</v>
       </c>
       <c r="BA12">
         <v>-0.149</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>-0.03714749022988505</v>
+        <v>-0.0371487408045977</v>
       </c>
       <c r="BH12">
-        <v>0.1930880570704747</v>
+        <v>0.1930868650986087</v>
       </c>
       <c r="BI12">
         <v>-0.341</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>-0.004754649959770119</v>
+        <v>-0.004754621222701152</v>
       </c>
       <c r="AZ13">
-        <v>0.0186112935770068</v>
+        <v>0.01861130609338112</v>
       </c>
       <c r="BA13">
         <v>-0.142</v>
@@ -2660,10 +2660,10 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>-0.03327269439655173</v>
+        <v>-0.03327224885057473</v>
       </c>
       <c r="BH13">
-        <v>0.1881658978139922</v>
+        <v>0.188166175451424</v>
       </c>
       <c r="BI13">
         <v>-0.323</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>-0.004135861206896554</v>
+        <v>-0.004135846839080462</v>
       </c>
       <c r="AZ14">
-        <v>0.01785757587634889</v>
+        <v>0.01785758337843626</v>
       </c>
       <c r="BA14">
         <v>-0.134</v>
@@ -2857,10 +2857,10 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>-0.02289438218390804</v>
+        <v>-0.02289294540229885</v>
       </c>
       <c r="BH14">
-        <v>0.1881107259860123</v>
+        <v>0.1881122893757603</v>
       </c>
       <c r="BI14">
         <v>-0.303</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>-0.003552611020114943</v>
+        <v>-0.003552582284482759</v>
       </c>
       <c r="AZ15">
-        <v>0.01716670248399552</v>
+        <v>0.0171667131833007</v>
       </c>
       <c r="BA15">
         <v>-0.127</v>
@@ -3054,10 +3054,10 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>-0.0128592643678161</v>
+        <v>-0.01285912068965518</v>
       </c>
       <c r="BH15">
-        <v>0.1880660360307709</v>
+        <v>0.1880661223384056</v>
       </c>
       <c r="BI15">
         <v>-0.286</v>
@@ -3227,10 +3227,10 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>-0.003005746695402301</v>
+        <v>-0.003005703591954025</v>
       </c>
       <c r="AZ16">
-        <v>0.01653676975626877</v>
+        <v>0.01653678730788125</v>
       </c>
       <c r="BA16">
         <v>-0.12</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>-0.002493991522988505</v>
+        <v>-0.002493948419540229</v>
       </c>
       <c r="AZ17">
-        <v>0.01596520817494477</v>
+        <v>0.01596522721535633</v>
       </c>
       <c r="BA17">
         <v>-0.114</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>-0.0019935375</v>
+        <v>-0.001993508764367816</v>
       </c>
       <c r="AZ18">
-        <v>0.01546089180638942</v>
+        <v>0.01546090487909509</v>
       </c>
       <c r="BA18">
         <v>-0.107</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.01353898994252873</v>
+        <v>0.01354330028735632</v>
       </c>
       <c r="BH18">
-        <v>0.1880129750233233</v>
+        <v>0.1880164025571819</v>
       </c>
       <c r="BI18">
         <v>-0.242</v>
@@ -3722,10 +3722,10 @@
         <v>696</v>
       </c>
       <c r="S19">
-        <v>3.989554597701148</v>
+        <v>3.989540229885056</v>
       </c>
       <c r="T19">
-        <v>0.6178532827696152</v>
+        <v>0.6178613064941685</v>
       </c>
       <c r="U19">
         <v>3.18</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>-0.001521671839080458</v>
+        <v>-0.001521657471264366</v>
       </c>
       <c r="AZ19">
-        <v>0.01503870748487412</v>
+        <v>0.01503871663790866</v>
       </c>
       <c r="BA19">
         <v>-0.101</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.02156398994252875</v>
+        <v>0.02156686350574714</v>
       </c>
       <c r="BH19">
-        <v>0.1890818316999814</v>
+        <v>0.1890846082106515</v>
       </c>
       <c r="BI19">
         <v>-0.231</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>-0.001090458333333334</v>
+        <v>-0.001090400862068966</v>
       </c>
       <c r="AZ20">
-        <v>0.01462558964396798</v>
+        <v>0.01462561857885432</v>
       </c>
       <c r="BA20">
         <v>-0.0954</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.02850073706896551</v>
+        <v>0.0285036106321839</v>
       </c>
       <c r="BH20">
-        <v>0.1877428084053996</v>
+        <v>0.1877456440070892</v>
       </c>
       <c r="BI20">
         <v>-0.224</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>-0.0007112814655172428</v>
+        <v>-0.0007112383620689667</v>
       </c>
       <c r="AZ21">
-        <v>0.0142023536425659</v>
+        <v>0.01420236779441295</v>
       </c>
       <c r="BA21">
         <v>-0.0898</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.03421136494252873</v>
+        <v>0.03421423850574711</v>
       </c>
       <c r="BH21">
-        <v>0.1835397389311249</v>
+        <v>0.1835424793784588</v>
       </c>
       <c r="BI21">
         <v>-0.217</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>-0.0003622984195402299</v>
+        <v>-0.0003622553160919541</v>
       </c>
       <c r="AZ22">
-        <v>0.01381209986315712</v>
+        <v>0.01381211380341457</v>
       </c>
       <c r="BA22">
         <v>-0.0843</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.03933065948275862</v>
+        <v>0.03933640660919541</v>
       </c>
       <c r="BH22">
-        <v>0.1800494741427705</v>
+        <v>0.1800549215308617</v>
       </c>
       <c r="BI22">
         <v>-0.21</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>7.121120689654899E-06</v>
+        <v>7.164224137930644E-06</v>
       </c>
       <c r="AZ23">
-        <v>0.01351357967568576</v>
+        <v>0.01351359552285538</v>
       </c>
       <c r="BA23">
         <v>-0.079</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.045465066091954</v>
+        <v>0.0454665028735632</v>
       </c>
       <c r="BH23">
-        <v>0.1811368806181961</v>
+        <v>0.1811384298530592</v>
       </c>
       <c r="BI23">
         <v>-0.204</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.000394988505747126</v>
+        <v>0.0003952327586206892</v>
       </c>
       <c r="AZ24">
-        <v>0.01329415228773136</v>
+        <v>0.01329430611454442</v>
       </c>
       <c r="BA24">
         <v>-0.07389999999999999</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.05235711206896552</v>
+        <v>0.05236140804597702</v>
       </c>
       <c r="BH24">
-        <v>0.1848098314800444</v>
+        <v>0.1848134358333396</v>
       </c>
       <c r="BI24">
         <v>-0.199</v>
@@ -5000,10 +5000,10 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.0007700705459770113</v>
+        <v>0.0007702860632183906</v>
       </c>
       <c r="AZ25">
-        <v>0.01312374296057353</v>
+        <v>0.01312401004730773</v>
       </c>
       <c r="BA25">
         <v>-0.0689</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.05890709051724137</v>
+        <v>0.05891298132183907</v>
       </c>
       <c r="BH25">
-        <v>0.1881951714925485</v>
+        <v>0.1882013814122833</v>
       </c>
       <c r="BI25">
         <v>-0.193</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.001137282327586208</v>
+        <v>0.001137354166666667</v>
       </c>
       <c r="AZ26">
-        <v>0.01299063520090794</v>
+        <v>0.01299066047466121</v>
       </c>
       <c r="BA26">
         <v>-0.064</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.06535442241379311</v>
+        <v>0.06536160632183907</v>
       </c>
       <c r="BH26">
-        <v>0.1919135720323039</v>
+        <v>0.1919206172651349</v>
       </c>
       <c r="BI26">
         <v>-0.188</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.001488376867816092</v>
+        <v>0.001488463074712644</v>
       </c>
       <c r="AZ27">
-        <v>0.01288626114526505</v>
+        <v>0.01288628573166346</v>
       </c>
       <c r="BA27">
         <v>-0.0593</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.07156809339080453</v>
+        <v>0.07157096695402293</v>
       </c>
       <c r="BH27">
-        <v>0.1953763978559215</v>
+        <v>0.1953791216767623</v>
       </c>
       <c r="BI27">
         <v>-0.183</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.001816599568965518</v>
+        <v>0.001816829454022989</v>
       </c>
       <c r="AZ28">
-        <v>0.01279149896027511</v>
+        <v>0.01279173845226238</v>
       </c>
       <c r="BA28">
         <v>-0.0547</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.07720584195402301</v>
+        <v>0.07721302586206899</v>
       </c>
       <c r="BH28">
-        <v>0.1977358821778904</v>
+        <v>0.1977427617594085</v>
       </c>
       <c r="BI28">
         <v>-0.178</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.002127063793103448</v>
+        <v>0.002127279166666667</v>
       </c>
       <c r="AZ29">
-        <v>0.01271772282598922</v>
+        <v>0.01271779251745437</v>
       </c>
       <c r="BA29">
         <v>-0.0501</v>
@@ -5800,10 +5800,10 @@
         <v>-0.0032225</v>
       </c>
       <c r="BC29">
-        <v>-4.805E-05</v>
+        <v>-4.81E-05</v>
       </c>
       <c r="BD29">
-        <v>0.006827499999999999</v>
+        <v>0.006829999999999999</v>
       </c>
       <c r="BE29">
         <v>0.07049999999999999</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.08245788074712647</v>
+        <v>0.08246793821839082</v>
       </c>
       <c r="BH29">
-        <v>0.1996249638160441</v>
+        <v>0.1996355824361603</v>
       </c>
       <c r="BI29">
         <v>-0.174</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.002425246149425288</v>
+        <v>0.002425404367816092</v>
       </c>
       <c r="AZ30">
-        <v>0.0126619989612924</v>
+        <v>0.01266205894682335</v>
       </c>
       <c r="BA30">
         <v>-0.0458</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.0874808502873564</v>
+        <v>0.08748961537356331</v>
       </c>
       <c r="BH30">
-        <v>0.2014326364780448</v>
+        <v>0.2014451097006529</v>
       </c>
       <c r="BI30">
         <v>-0.169</v>
@@ -6027,7 +6027,7 @@
         <v>0.263</v>
       </c>
       <c r="BM30">
-        <v>0.849</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="31" spans="1:65">
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.00270825847701149</v>
+        <v>0.002708978304597698</v>
       </c>
       <c r="AZ31">
-        <v>0.0126235672714966</v>
+        <v>0.01262549880434574</v>
       </c>
       <c r="BA31">
         <v>-0.0415</v>
@@ -6200,16 +6200,16 @@
         <v>0.0072575</v>
       </c>
       <c r="BE31">
-        <v>0.0742</v>
+        <v>0.0743</v>
       </c>
       <c r="BF31">
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.09229617241379313</v>
+        <v>0.09230622988505752</v>
       </c>
       <c r="BH31">
-        <v>0.2030867043843016</v>
+        <v>0.2030968099741656</v>
       </c>
       <c r="BI31">
         <v>-0.165</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.00298201522988506</v>
+        <v>0.002982548275862072</v>
       </c>
       <c r="AZ32">
-        <v>0.01260619217549547</v>
+        <v>0.01260732863550837</v>
       </c>
       <c r="BA32">
         <v>-0.0393</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.09691175287356327</v>
+        <v>0.09692468247126441</v>
       </c>
       <c r="BH32">
-        <v>0.2047839301519245</v>
+        <v>0.2047967197476908</v>
       </c>
       <c r="BI32">
         <v>-0.16</v>
@@ -6480,10 +6480,10 @@
         <v>696</v>
       </c>
       <c r="S33">
-        <v>3.949899425287363</v>
+        <v>3.949885057471271</v>
       </c>
       <c r="T33">
-        <v>0.6223900243321377</v>
+        <v>0.6224067822546149</v>
       </c>
       <c r="U33">
         <v>3.11</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.00324795890804598</v>
+        <v>0.003248203591954025</v>
       </c>
       <c r="AZ33">
-        <v>0.012611542917029</v>
+        <v>0.01261161718966708</v>
       </c>
       <c r="BA33">
         <v>-0.0376</v>
@@ -6591,7 +6591,7 @@
         <v>-4.03E-05</v>
       </c>
       <c r="BD33">
-        <v>0.00759</v>
+        <v>0.0075925</v>
       </c>
       <c r="BE33">
         <v>0.07770000000000001</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.1014120143678161</v>
+        <v>0.1014220732758621</v>
       </c>
       <c r="BH33">
-        <v>0.2065183508744279</v>
+        <v>0.2065282194978901</v>
       </c>
       <c r="BI33">
         <v>-0.156</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.00350577543103448</v>
+        <v>0.003506249568965515</v>
       </c>
       <c r="AZ34">
-        <v>0.01263029923930214</v>
+        <v>0.01263078732939034</v>
       </c>
       <c r="BA34">
         <v>-0.0361</v>
@@ -6797,10 +6797,10 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.1057789022988506</v>
+        <v>0.105799018678161</v>
       </c>
       <c r="BH34">
-        <v>0.2082682676562129</v>
+        <v>0.2082866358489567</v>
       </c>
       <c r="BI34">
         <v>-0.152</v>
@@ -6809,10 +6809,10 @@
         <v>-0.06257499999999999</v>
       </c>
       <c r="BK34">
-        <v>-0.0009029999999999999</v>
+        <v>-0.0009025</v>
       </c>
       <c r="BL34">
-        <v>0.291</v>
+        <v>0.29125</v>
       </c>
       <c r="BM34">
         <v>0.88</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.003754559051724133</v>
+        <v>0.003755205603448272</v>
       </c>
       <c r="AZ35">
-        <v>0.01266448145822637</v>
+        <v>0.01266505994537774</v>
       </c>
       <c r="BA35">
         <v>-0.0346</v>
@@ -6985,7 +6985,7 @@
         <v>-3.68E-05</v>
       </c>
       <c r="BD35">
-        <v>0.007952500000000001</v>
+        <v>0.00796</v>
       </c>
       <c r="BE35">
         <v>0.081</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.1100415617816093</v>
+        <v>0.1100645646551724</v>
       </c>
       <c r="BH35">
-        <v>0.2100624478741696</v>
+        <v>0.2100901674865744</v>
       </c>
       <c r="BI35">
         <v>-0.148</v>
@@ -7071,10 +7071,10 @@
         <v>696</v>
       </c>
       <c r="S36">
-        <v>3.945761494252878</v>
+        <v>3.945747126436787</v>
       </c>
       <c r="T36">
-        <v>0.622923250590861</v>
+        <v>0.6229304284563139</v>
       </c>
       <c r="U36">
         <v>3.1</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.003997200718390805</v>
+        <v>0.003997487931034484</v>
       </c>
       <c r="AZ36">
-        <v>0.01271403234147723</v>
+        <v>0.01271410744547477</v>
       </c>
       <c r="BA36">
         <v>-0.0332</v>
@@ -7182,7 +7182,7 @@
         <v>-3.565E-05</v>
       </c>
       <c r="BD36">
-        <v>0.008114999999999999</v>
+        <v>0.008122500000000001</v>
       </c>
       <c r="BE36">
         <v>0.08260000000000001</v>
@@ -7191,10 +7191,10 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.1141396063218392</v>
+        <v>0.1141511020114944</v>
       </c>
       <c r="BH36">
-        <v>0.2116613935057464</v>
+        <v>0.2116725058605873</v>
       </c>
       <c r="BI36">
         <v>-0.145</v>
@@ -7206,7 +7206,7 @@
         <v>-0.00085</v>
       </c>
       <c r="BL36">
-        <v>0.30425</v>
+        <v>0.3045</v>
       </c>
       <c r="BM36">
         <v>0.888</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.004231414367816088</v>
+        <v>0.004232276436781606</v>
       </c>
       <c r="AZ37">
-        <v>0.0127714206021436</v>
+        <v>0.01277228041712667</v>
       </c>
       <c r="BA37">
         <v>-0.0318</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.1181517356321839</v>
+        <v>0.1181833462643678</v>
       </c>
       <c r="BH37">
-        <v>0.213276552599837</v>
+        <v>0.2133107014575387</v>
       </c>
       <c r="BI37">
         <v>-0.141</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.004465507801724144</v>
+        <v>0.004466326767241386</v>
       </c>
       <c r="AZ38">
-        <v>0.01285015356079175</v>
+        <v>0.01285140436279501</v>
       </c>
       <c r="BA38">
         <v>-0.0305</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.1222352287356322</v>
+        <v>0.1222639643678161</v>
       </c>
       <c r="BH38">
-        <v>0.2151027506245618</v>
+        <v>0.2151282280421414</v>
       </c>
       <c r="BI38">
         <v>-0.138</v>
@@ -7734,10 +7734,10 @@
         <v>696</v>
       </c>
       <c r="AQ39">
-        <v>29.11771551724138</v>
+        <v>29.11770114942529</v>
       </c>
       <c r="AR39">
-        <v>16.52158272191072</v>
+        <v>16.52160354724777</v>
       </c>
       <c r="AS39">
         <v>1.27</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.004700174281609197</v>
+        <v>0.004701050574712645</v>
       </c>
       <c r="AZ39">
-        <v>0.01294830709876831</v>
+        <v>0.01294883338173752</v>
       </c>
       <c r="BA39">
         <v>-0.0293</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.1264360186781609</v>
+        <v>0.1264546954022988</v>
       </c>
       <c r="BH39">
-        <v>0.217239940609611</v>
+        <v>0.2172604046186336</v>
       </c>
       <c r="BI39">
         <v>-0.134</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.004932269827586204</v>
+        <v>0.004933117528735631</v>
       </c>
       <c r="AZ40">
-        <v>0.01306367962139626</v>
+        <v>0.01306441136420356</v>
       </c>
       <c r="BA40">
         <v>-0.0281</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.130569908045977</v>
+        <v>0.130600224137931</v>
       </c>
       <c r="BH40">
-        <v>0.2193066763951126</v>
+        <v>0.2193366879613961</v>
       </c>
       <c r="BI40">
         <v>-0.131</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.005156402873563222</v>
+        <v>0.005157638505747127</v>
       </c>
       <c r="AZ41">
-        <v>0.01319397557811322</v>
+        <v>0.0131951602450722</v>
       </c>
       <c r="BA41">
         <v>-0.027</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.1344311364942528</v>
+        <v>0.134458448275862</v>
       </c>
       <c r="BH41">
-        <v>0.2209588614207169</v>
+        <v>0.2209952257120427</v>
       </c>
       <c r="BI41">
         <v>-0.128</v>
@@ -8194,7 +8194,7 @@
         <v>0.3382500000000001</v>
       </c>
       <c r="BM41">
-        <v>0.894</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="42" spans="1:65">
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.005373334482758623</v>
+        <v>0.005374345977011497</v>
       </c>
       <c r="AZ42">
-        <v>0.01332995151035951</v>
+        <v>0.0133307303709298</v>
       </c>
       <c r="BA42">
         <v>-0.0259</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.1381137298850577</v>
+        <v>0.1381612931034484</v>
       </c>
       <c r="BH42">
-        <v>0.2224587899430552</v>
+        <v>0.2225137489058238</v>
       </c>
       <c r="BI42">
         <v>-0.124</v>
@@ -8388,7 +8388,7 @@
         <v>-0.0007210000000000001</v>
       </c>
       <c r="BL42">
-        <v>0.3442499999999999</v>
+        <v>0.345</v>
       </c>
       <c r="BM42">
         <v>0.89</v>
@@ -8522,10 +8522,10 @@
         <v>696</v>
       </c>
       <c r="AQ43">
-        <v>29.10093390804599</v>
+        <v>29.10079022988507</v>
       </c>
       <c r="AR43">
-        <v>16.51185783171048</v>
+        <v>16.51174934914175</v>
       </c>
       <c r="AS43">
         <v>1.27</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.005586069971264368</v>
+        <v>0.005587348706896551</v>
       </c>
       <c r="AZ43">
-        <v>0.01347224794421557</v>
+        <v>0.01347424788698365</v>
       </c>
       <c r="BA43">
         <v>-0.0248</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.1417778491379311</v>
+        <v>0.1418255502873564</v>
       </c>
       <c r="BH43">
-        <v>0.2241548227390905</v>
+        <v>0.2242113253365934</v>
       </c>
       <c r="BI43">
         <v>-0.121</v>
@@ -8588,7 +8588,7 @@
         <v>0.3505</v>
       </c>
       <c r="BM43">
-        <v>0.886</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="44" spans="1:65">
@@ -8647,10 +8647,10 @@
         <v>696</v>
       </c>
       <c r="S44">
-        <v>3.936408045977013</v>
+        <v>3.936393678160921</v>
       </c>
       <c r="T44">
-        <v>0.6251266578021464</v>
+        <v>0.6251326744154777</v>
       </c>
       <c r="U44">
         <v>3.08</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.005795747988505743</v>
+        <v>0.005797200574712641</v>
       </c>
       <c r="AZ44">
-        <v>0.01363100181740283</v>
+        <v>0.01363276307095963</v>
       </c>
       <c r="BA44">
         <v>-0.0238</v>
@@ -8758,7 +8758,7 @@
         <v>-2.83E-05</v>
       </c>
       <c r="BD44">
-        <v>0.009412500000000001</v>
+        <v>0.009415</v>
       </c>
       <c r="BE44">
         <v>0.0954</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.1452576250000001</v>
+        <v>0.1453109324712644</v>
       </c>
       <c r="BH44">
-        <v>0.2256219615445304</v>
+        <v>0.2256868366879166</v>
       </c>
       <c r="BI44">
         <v>-0.118</v>
@@ -8782,7 +8782,7 @@
         <v>-0.0006670000000000001</v>
       </c>
       <c r="BL44">
-        <v>0.3575</v>
+        <v>0.35775</v>
       </c>
       <c r="BM44">
         <v>0.9360000000000001</v>
@@ -8916,10 +8916,10 @@
         <v>696</v>
       </c>
       <c r="AQ45">
-        <v>29.09603448275864</v>
+        <v>29.09589080459772</v>
       </c>
       <c r="AR45">
-        <v>16.50887164397017</v>
+        <v>16.50880667735744</v>
       </c>
       <c r="AS45">
         <v>1.27</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.006009278304597698</v>
+        <v>0.006010456465517239</v>
       </c>
       <c r="AZ45">
-        <v>0.01381507346633085</v>
+        <v>0.01381751524007116</v>
       </c>
       <c r="BA45">
         <v>-0.0229</v>
@@ -8955,19 +8955,19 @@
         <v>-2.76E-05</v>
       </c>
       <c r="BD45">
-        <v>0.009802499999999999</v>
+        <v>0.009809999999999999</v>
       </c>
       <c r="BE45">
-        <v>0.0968</v>
+        <v>0.0969</v>
       </c>
       <c r="BF45">
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.1487528821839082</v>
+        <v>0.1488017270114944</v>
       </c>
       <c r="BH45">
-        <v>0.2279398955897544</v>
+        <v>0.2279955211006565</v>
       </c>
       <c r="BI45">
         <v>-0.115</v>
@@ -9089,10 +9089,10 @@
         <v>696</v>
       </c>
       <c r="AI46">
-        <v>109.8100574712644</v>
+        <v>109.8099137931035</v>
       </c>
       <c r="AJ46">
-        <v>29.14298241226495</v>
+        <v>29.14319056403314</v>
       </c>
       <c r="AK46">
         <v>59.7</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.006234764367816092</v>
+        <v>0.006236415229885059</v>
       </c>
       <c r="AZ46">
-        <v>0.01402185871622309</v>
+        <v>0.01402309886670281</v>
       </c>
       <c r="BA46">
         <v>-0.022</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.1528185732758621</v>
+        <v>0.1528720201149426</v>
       </c>
       <c r="BH46">
-        <v>0.2319036521312532</v>
+        <v>0.2319538250636599</v>
       </c>
       <c r="BI46">
         <v>-0.113</v>
@@ -9238,10 +9238,10 @@
         <v>696</v>
       </c>
       <c r="S47">
-        <v>3.933462643678164</v>
+        <v>3.933448275862072</v>
       </c>
       <c r="T47">
-        <v>0.6258284351618847</v>
+        <v>0.6258060978776958</v>
       </c>
       <c r="U47">
         <v>3.07</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.006437761637931041</v>
+        <v>0.00643912744252874</v>
       </c>
       <c r="AZ47">
-        <v>0.01418874643066591</v>
+        <v>0.01418967365033566</v>
       </c>
       <c r="BA47">
         <v>-0.0211</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.1562738864942526</v>
+        <v>0.1563371091954021</v>
       </c>
       <c r="BH47">
-        <v>0.2329165962665484</v>
+        <v>0.2329754982826426</v>
       </c>
       <c r="BI47">
         <v>-0.11</v>
@@ -9373,7 +9373,7 @@
         <v>-0.0005725</v>
       </c>
       <c r="BL47">
-        <v>0.3795</v>
+        <v>0.37975</v>
       </c>
       <c r="BM47">
         <v>1.07</v>
@@ -9435,10 +9435,10 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>3.932370689655175</v>
+        <v>3.932356321839083</v>
       </c>
       <c r="T48">
-        <v>0.6260362785843142</v>
+        <v>0.6260424234966271</v>
       </c>
       <c r="U48">
         <v>3.07</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.00660437054597701</v>
+        <v>0.006606238362068962</v>
       </c>
       <c r="AZ48">
-        <v>0.01431759349381316</v>
+        <v>0.01431903808960362</v>
       </c>
       <c r="BA48">
         <v>-0.0202</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.1586832729885057</v>
+        <v>0.1587493635057471</v>
       </c>
       <c r="BH48">
-        <v>0.2313021915601283</v>
+        <v>0.2313668287745893</v>
       </c>
       <c r="BI48">
         <v>-0.107</v>
@@ -9632,10 +9632,10 @@
         <v>696</v>
       </c>
       <c r="S49">
-        <v>3.931135057471264</v>
+        <v>3.93110632183908</v>
       </c>
       <c r="T49">
-        <v>0.6261679772154344</v>
+        <v>0.6261912367147865</v>
       </c>
       <c r="U49">
         <v>3.07</v>
@@ -9656,10 +9656,10 @@
         <v>696</v>
       </c>
       <c r="AA49">
-        <v>38.04741379310348</v>
+        <v>38.04727011494256</v>
       </c>
       <c r="AB49">
-        <v>2.584273228986069</v>
+        <v>2.584501347119761</v>
       </c>
       <c r="AC49">
         <v>33.6</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.006788977298850573</v>
+        <v>0.006791003160919542</v>
       </c>
       <c r="AZ49">
-        <v>0.01448125631086444</v>
+        <v>0.01448320283608412</v>
       </c>
       <c r="BA49">
         <v>-0.0194</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.1619352672413793</v>
+        <v>0.1619930545977012</v>
       </c>
       <c r="BH49">
-        <v>0.2330827459426716</v>
+        <v>0.2331406194163425</v>
       </c>
       <c r="BI49">
         <v>-0.104</v>
@@ -9767,7 +9767,7 @@
         <v>-0.0005245</v>
       </c>
       <c r="BL49">
-        <v>0.3935</v>
+        <v>0.39425</v>
       </c>
       <c r="BM49">
         <v>0.961</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.006993904597701155</v>
+        <v>0.00699588893678161</v>
       </c>
       <c r="AZ50">
-        <v>0.01467850168896531</v>
+        <v>0.01467984825950357</v>
       </c>
       <c r="BA50">
         <v>-0.0186</v>
@@ -9949,10 +9949,10 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.1657667945402299</v>
+        <v>0.1658314468390805</v>
       </c>
       <c r="BH50">
-        <v>0.2363307427942886</v>
+        <v>0.2363930108837565</v>
       </c>
       <c r="BI50">
         <v>-0.102</v>
@@ -10026,10 +10026,10 @@
         <v>696</v>
       </c>
       <c r="S51">
-        <v>3.928922413793101</v>
+        <v>3.928908045977009</v>
       </c>
       <c r="T51">
-        <v>0.6269041116428743</v>
+        <v>0.6269085623032483</v>
       </c>
       <c r="U51">
         <v>3.06</v>
@@ -10074,10 +10074,10 @@
         <v>696</v>
       </c>
       <c r="AI51">
-        <v>109.7823275862069</v>
+        <v>109.7808908045977</v>
       </c>
       <c r="AJ51">
-        <v>29.14763691272636</v>
+        <v>29.14616985209296</v>
       </c>
       <c r="AK51">
         <v>59.7</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.007187280459770113</v>
+        <v>0.007190010344827583</v>
       </c>
       <c r="AZ51">
-        <v>0.01487665934954902</v>
+        <v>0.01487849633402194</v>
       </c>
       <c r="BA51">
         <v>-0.0179</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.1692384971264368</v>
+        <v>0.1693191005747127</v>
       </c>
       <c r="BH51">
-        <v>0.2392113635410681</v>
+        <v>0.2392998058798015</v>
       </c>
       <c r="BI51">
         <v>-0.0994</v>
@@ -10199,10 +10199,10 @@
         <v>696</v>
       </c>
       <c r="K52">
-        <v>38.05301724137932</v>
+        <v>38.0528735632184</v>
       </c>
       <c r="L52">
-        <v>2.579697618717911</v>
+        <v>2.579926453938515</v>
       </c>
       <c r="M52">
         <v>33.6</v>
@@ -10295,10 +10295,10 @@
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>29.07785919540228</v>
+        <v>29.07771551724136</v>
       </c>
       <c r="AR52">
-        <v>16.50009080900239</v>
+        <v>16.49993844626289</v>
       </c>
       <c r="AS52">
         <v>1.27</v>
@@ -10319,10 +10319,10 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.007385556465517247</v>
+        <v>0.007387494540229888</v>
       </c>
       <c r="AZ52">
-        <v>0.01508551147543078</v>
+        <v>0.01508645254939702</v>
       </c>
       <c r="BA52">
         <v>-0.0172</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.172869591954023</v>
+        <v>0.1729787859195402</v>
       </c>
       <c r="BH52">
-        <v>0.2424057133824091</v>
+        <v>0.2425188567556567</v>
       </c>
       <c r="BI52">
         <v>-0.0969</v>
@@ -10420,10 +10420,10 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>3.929612068965518</v>
+        <v>3.929583333333334</v>
       </c>
       <c r="T53">
-        <v>0.6272635502906219</v>
+        <v>0.6272814236150072</v>
       </c>
       <c r="U53">
         <v>3.06</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.007567059482758617</v>
+        <v>0.00757033663793103</v>
       </c>
       <c r="AZ53">
-        <v>0.01528243097475794</v>
+        <v>0.01528578851473495</v>
       </c>
       <c r="BA53">
         <v>-0.0165</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.17606625</v>
+        <v>0.17615533045977</v>
       </c>
       <c r="BH53">
-        <v>0.2442967415758533</v>
+        <v>0.2443910721854266</v>
       </c>
       <c r="BI53">
         <v>-0.0945</v>
@@ -10555,7 +10555,7 @@
         <v>-0.0004675</v>
       </c>
       <c r="BL53">
-        <v>0.414</v>
+        <v>0.41425</v>
       </c>
       <c r="BM53">
         <v>1.04</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.007741027011494253</v>
+        <v>0.00774387183908046</v>
       </c>
       <c r="AZ54">
-        <v>0.01546404862161219</v>
+        <v>0.01546545651618275</v>
       </c>
       <c r="BA54">
         <v>-0.0158</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.1791489080459769</v>
+        <v>0.1792437313218389</v>
       </c>
       <c r="BH54">
-        <v>0.2461784387873998</v>
+        <v>0.2462780339453203</v>
       </c>
       <c r="BI54">
         <v>-0.0922</v>
@@ -10814,10 +10814,10 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>3.928232758620692</v>
+        <v>3.928218390804601</v>
       </c>
       <c r="T55">
-        <v>0.6276601819606318</v>
+        <v>0.6276801994745184</v>
       </c>
       <c r="U55">
         <v>3.05</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.007918830747126435</v>
+        <v>0.007921787643678161</v>
       </c>
       <c r="AZ55">
-        <v>0.0156744753812133</v>
+        <v>0.01567665921272648</v>
       </c>
       <c r="BA55">
         <v>-0.0151</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.1822793591954023</v>
+        <v>0.1823829468390805</v>
       </c>
       <c r="BH55">
-        <v>0.2485806736525935</v>
+        <v>0.2486905705547856</v>
       </c>
       <c r="BI55">
         <v>-0.0898</v>
@@ -11107,10 +11107,10 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.008096023275862068</v>
+        <v>0.008099471695402297</v>
       </c>
       <c r="AZ56">
-        <v>0.01586948228937846</v>
+        <v>0.01587228154163083</v>
       </c>
       <c r="BA56">
         <v>-0.0145</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.1855909066091953</v>
+        <v>0.1857117356321837</v>
       </c>
       <c r="BH56">
-        <v>0.2512716435687011</v>
+        <v>0.251439929308083</v>
       </c>
       <c r="BI56">
         <v>-0.0876</v>
@@ -11149,7 +11149,7 @@
         <v>0.431</v>
       </c>
       <c r="BM56">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="57" spans="1:65">
@@ -11208,10 +11208,10 @@
         <v>696</v>
       </c>
       <c r="S57">
-        <v>3.926925287356321</v>
+        <v>3.926896551724137</v>
       </c>
       <c r="T57">
-        <v>0.6282864902530133</v>
+        <v>0.6283046694306675</v>
       </c>
       <c r="U57">
         <v>3.05</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.008269890948275859</v>
+        <v>0.008274818821839081</v>
       </c>
       <c r="AZ57">
-        <v>0.01606734136624395</v>
+        <v>0.01607224564228271</v>
       </c>
       <c r="BA57">
         <v>-0.0139</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.1888341135057471</v>
+        <v>0.1889520775862068</v>
       </c>
       <c r="BH57">
-        <v>0.2536014779914721</v>
+        <v>0.2537293085048187</v>
       </c>
       <c r="BI57">
         <v>-0.0854</v>
@@ -11405,10 +11405,10 @@
         <v>696</v>
       </c>
       <c r="S58">
-        <v>3.925933908045972</v>
+        <v>3.925919540229881</v>
       </c>
       <c r="T58">
-        <v>0.6286234738574125</v>
+        <v>0.6286381437831061</v>
       </c>
       <c r="U58">
         <v>3.05</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.008434180747126442</v>
+        <v>0.008440159051724138</v>
       </c>
       <c r="AZ58">
-        <v>0.01626056195572863</v>
+        <v>0.01627433196836513</v>
       </c>
       <c r="BA58">
         <v>-0.0133</v>
@@ -11525,10 +11525,10 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.1917670617816091</v>
+        <v>0.1918950775862068</v>
       </c>
       <c r="BH58">
-        <v>0.2553238959732891</v>
+        <v>0.2554582105198754</v>
       </c>
       <c r="BI58">
         <v>-0.0832</v>
@@ -11602,10 +11602,10 @@
         <v>696</v>
       </c>
       <c r="S59">
-        <v>3.924727011494247</v>
+        <v>3.924683908045971</v>
       </c>
       <c r="T59">
-        <v>0.6291178569139765</v>
+        <v>0.6291393349805849</v>
       </c>
       <c r="U59">
         <v>3.04</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.008595015229885063</v>
+        <v>0.008600042672413797</v>
       </c>
       <c r="AZ59">
-        <v>0.01646197560149797</v>
+        <v>0.01647471610053718</v>
       </c>
       <c r="BA59">
         <v>-0.0127</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.194530125</v>
+        <v>0.1946549827586206</v>
       </c>
       <c r="BH59">
-        <v>0.2569564967445891</v>
+        <v>0.2570837818296455</v>
       </c>
       <c r="BI59">
         <v>-0.08110000000000001</v>
@@ -11734,7 +11734,7 @@
         <v>-0.02135</v>
       </c>
       <c r="BK59">
-        <v>-0.000395</v>
+        <v>-0.0003955</v>
       </c>
       <c r="BL59">
         <v>0.448</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>109.7395114942529</v>
+        <v>109.7380747126437</v>
       </c>
       <c r="AJ60">
-        <v>29.14627025348314</v>
+        <v>29.1456896382531</v>
       </c>
       <c r="AK60">
         <v>59.7</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.008758582758620672</v>
+        <v>0.008763053735632177</v>
       </c>
       <c r="AZ60">
-        <v>0.01666899295142012</v>
+        <v>0.01667203085490206</v>
       </c>
       <c r="BA60">
         <v>-0.0122</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.1974491278735632</v>
+        <v>0.1976119181034484</v>
       </c>
       <c r="BH60">
-        <v>0.2591815892482053</v>
+        <v>0.2593556488864525</v>
       </c>
       <c r="BI60">
         <v>-0.079</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>3.922988505747126</v>
+        <v>3.92294540229885</v>
       </c>
       <c r="T61">
-        <v>0.6290387595520415</v>
+        <v>0.6290727010464312</v>
       </c>
       <c r="U61">
         <v>3.04</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.008922831034482758</v>
+        <v>0.008926467241379309</v>
       </c>
       <c r="AZ61">
-        <v>0.01687179764992071</v>
+        <v>0.01687337499480722</v>
       </c>
       <c r="BA61">
         <v>-0.0116</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.2004277270114942</v>
+        <v>0.2005745675287356</v>
       </c>
       <c r="BH61">
-        <v>0.2614896094137501</v>
+        <v>0.2616402186918749</v>
       </c>
       <c r="BI61">
         <v>-0.077</v>
@@ -12131,7 +12131,7 @@
         <v>-0.0003755</v>
       </c>
       <c r="BL61">
-        <v>0.45825</v>
+        <v>0.45925</v>
       </c>
       <c r="BM61">
         <v>1.1</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>3.921824712643675</v>
+        <v>3.921795977011491</v>
       </c>
       <c r="T62">
-        <v>0.6293655393964417</v>
+        <v>0.6293681369754173</v>
       </c>
       <c r="U62">
         <v>3.04</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.009083689626436783</v>
+        <v>0.009090788764367818</v>
       </c>
       <c r="AZ62">
-        <v>0.01708030857464264</v>
+        <v>0.01709325647196391</v>
       </c>
       <c r="BA62">
         <v>-0.0111</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.2033598859195404</v>
+        <v>0.2035183844827588</v>
       </c>
       <c r="BH62">
-        <v>0.2637561823776476</v>
+        <v>0.2639256171538631</v>
       </c>
       <c r="BI62">
         <v>-0.075</v>
@@ -12366,10 +12366,10 @@
         <v>696</v>
       </c>
       <c r="K63">
-        <v>38.04568965517242</v>
+        <v>38.04554597701151</v>
       </c>
       <c r="L63">
-        <v>2.587865170830277</v>
+        <v>2.588092876511857</v>
       </c>
       <c r="M63">
         <v>33.5</v>
@@ -12438,10 +12438,10 @@
         <v>696</v>
       </c>
       <c r="AI63">
-        <v>109.7175287356322</v>
+        <v>109.7172413793103</v>
       </c>
       <c r="AJ63">
-        <v>29.13407424699449</v>
+        <v>29.13436827077833</v>
       </c>
       <c r="AK63">
         <v>59.7</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.00924447212643678</v>
+        <v>0.009248898275862063</v>
       </c>
       <c r="AZ63">
-        <v>0.01729290374118607</v>
+        <v>0.01729593534674765</v>
       </c>
       <c r="BA63">
         <v>-0.0106</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.2062922528735633</v>
+        <v>0.2064348074712644</v>
       </c>
       <c r="BH63">
-        <v>0.2661105135325285</v>
+        <v>0.2662528611618678</v>
       </c>
       <c r="BI63">
         <v>-0.0731</v>
@@ -12522,7 +12522,7 @@
         <v>-0.018525</v>
       </c>
       <c r="BK63">
-        <v>5.600000000000001E-05</v>
+        <v>5.699999999999998E-05</v>
       </c>
       <c r="BL63">
         <v>0.4695</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.009406927574712641</v>
+        <v>0.009412918297413794</v>
       </c>
       <c r="AZ64">
-        <v>0.01750261163802921</v>
+        <v>0.01750701014223863</v>
       </c>
       <c r="BA64">
         <v>-0.0101</v>
@@ -12695,7 +12695,7 @@
         <v>-0.0006940000000000001</v>
       </c>
       <c r="BC64">
-        <v>8.6196E-05</v>
+        <v>8.62675E-05</v>
       </c>
       <c r="BD64">
         <v>0.0127</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.2093610748563218</v>
+        <v>0.2095582252873563</v>
       </c>
       <c r="BH64">
-        <v>0.2688961429388755</v>
+        <v>0.2691335359701422</v>
       </c>
       <c r="BI64">
         <v>-0.0711</v>
@@ -12719,7 +12719,7 @@
         <v>-0.017875</v>
       </c>
       <c r="BK64">
-        <v>0.0008050500000000001</v>
+        <v>0.0008069</v>
       </c>
       <c r="BL64">
         <v>0.47475</v>
@@ -12784,10 +12784,10 @@
         <v>696</v>
       </c>
       <c r="S65">
-        <v>3.919827586206888</v>
+        <v>3.919784482758612</v>
       </c>
       <c r="T65">
-        <v>0.629947102164679</v>
+        <v>0.6299691298505221</v>
       </c>
       <c r="U65">
         <v>3.03</v>
@@ -12808,10 +12808,10 @@
         <v>696</v>
       </c>
       <c r="AA65">
-        <v>38.03548850574713</v>
+        <v>38.0353448275862</v>
       </c>
       <c r="AB65">
-        <v>2.597379264103399</v>
+        <v>2.597627727173468</v>
       </c>
       <c r="AC65">
         <v>33.5</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>109.7025862068966</v>
+        <v>109.7010057471264</v>
       </c>
       <c r="AJ65">
-        <v>29.1306072897853</v>
+        <v>29.13082693854928</v>
       </c>
       <c r="AK65">
         <v>59.7</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>29.05170977011495</v>
+        <v>29.05169540229886</v>
       </c>
       <c r="AR65">
-        <v>16.48675843054965</v>
+        <v>16.4867792597246</v>
       </c>
       <c r="AS65">
         <v>1.27</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.009567532327586207</v>
+        <v>0.009574228591954021</v>
       </c>
       <c r="AZ65">
-        <v>0.01770957810406978</v>
+        <v>0.01771385833158312</v>
       </c>
       <c r="BA65">
         <v>-0.009679999999999999</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.2124470919540228</v>
+        <v>0.2126471020114942</v>
       </c>
       <c r="BH65">
-        <v>0.2712275645143604</v>
+        <v>0.2714678952881238</v>
       </c>
       <c r="BI65">
         <v>-0.0693</v>
@@ -12919,7 +12919,7 @@
         <v>0.002785</v>
       </c>
       <c r="BL65">
-        <v>0.47975</v>
+        <v>0.48</v>
       </c>
       <c r="BM65">
         <v>1.16</v>
@@ -12957,10 +12957,10 @@
         <v>696</v>
       </c>
       <c r="K66">
-        <v>38.04310344827588</v>
+        <v>38.04295977011495</v>
       </c>
       <c r="L66">
-        <v>2.591237835517672</v>
+        <v>2.591342948649585</v>
       </c>
       <c r="M66">
         <v>33.5</v>
@@ -12981,10 +12981,10 @@
         <v>696</v>
       </c>
       <c r="S66">
-        <v>3.919166666666657</v>
+        <v>3.919152298850564</v>
       </c>
       <c r="T66">
-        <v>0.6303459329636675</v>
+        <v>0.630347397487994</v>
       </c>
       <c r="U66">
         <v>3.03</v>
@@ -13053,10 +13053,10 @@
         <v>696</v>
       </c>
       <c r="AQ66">
-        <v>29.04997126436783</v>
+        <v>29.0498275862069</v>
       </c>
       <c r="AR66">
-        <v>16.48544765724013</v>
+        <v>16.48533593765759</v>
       </c>
       <c r="AS66">
         <v>1.27</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.009717788692528736</v>
+        <v>0.009724617715517237</v>
       </c>
       <c r="AZ66">
-        <v>0.01791020965182852</v>
+        <v>0.01792308952884403</v>
       </c>
       <c r="BA66">
         <v>-0.00923</v>
@@ -13089,10 +13089,10 @@
         <v>-0.0006302500000000001</v>
       </c>
       <c r="BC66">
-        <v>0.00032</v>
+        <v>0.0003205</v>
       </c>
       <c r="BD66">
-        <v>0.012925</v>
+        <v>0.013</v>
       </c>
       <c r="BE66">
         <v>0.125</v>
@@ -13101,10 +13101,10 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.2151939798850575</v>
+        <v>0.2154037772988506</v>
       </c>
       <c r="BH66">
-        <v>0.2728371724114353</v>
+        <v>0.2730517962096122</v>
       </c>
       <c r="BI66">
         <v>-0.0674</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>3.918836206896541</v>
+        <v>3.918807471264358</v>
       </c>
       <c r="T67">
-        <v>0.6304069227420742</v>
+        <v>0.6304397348535624</v>
       </c>
       <c r="U67">
         <v>3.03</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>109.6663793103449</v>
+        <v>109.6647988505748</v>
       </c>
       <c r="AJ67">
-        <v>29.12976458143088</v>
+        <v>29.12933668141193</v>
       </c>
       <c r="AK67">
         <v>59.7</v>
@@ -13250,10 +13250,10 @@
         <v>696</v>
       </c>
       <c r="AQ67">
-        <v>29.04781609195403</v>
+        <v>29.04767241379312</v>
       </c>
       <c r="AR67">
-        <v>16.48363286250894</v>
+        <v>16.4834957976528</v>
       </c>
       <c r="AS67">
         <v>1.27</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.009863526666666671</v>
+        <v>0.009870700387931038</v>
       </c>
       <c r="AZ67">
-        <v>0.01811855359974305</v>
+        <v>0.01812471529242685</v>
       </c>
       <c r="BA67">
         <v>-0.008789999999999999</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.2177409073275861</v>
+        <v>0.2179484147988502</v>
       </c>
       <c r="BH67">
-        <v>0.2744397274788493</v>
+        <v>0.2746539675036911</v>
       </c>
       <c r="BI67">
         <v>-0.06560000000000001</v>
@@ -13310,10 +13310,10 @@
         <v>-0.0154</v>
       </c>
       <c r="BK67">
-        <v>0.005724999999999999</v>
+        <v>0.00573</v>
       </c>
       <c r="BL67">
-        <v>0.49</v>
+        <v>0.49075</v>
       </c>
       <c r="BM67">
         <v>1.14</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>3.918146551724131</v>
+        <v>3.918132183908039</v>
       </c>
       <c r="T68">
-        <v>0.630465979378396</v>
+        <v>0.6304863622679489</v>
       </c>
       <c r="U68">
         <v>3.02</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>109.6541666666667</v>
+        <v>109.6527298850575</v>
       </c>
       <c r="AJ68">
-        <v>29.09434833289908</v>
+        <v>29.0827812493729</v>
       </c>
       <c r="AK68">
         <v>59.7</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.01001043807471264</v>
+        <v>0.01001703390804598</v>
       </c>
       <c r="AZ68">
-        <v>0.01832415819709056</v>
+        <v>0.01832868946032832</v>
       </c>
       <c r="BA68">
         <v>-0.008359999999999999</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.2202620359195404</v>
+        <v>0.2204854741379312</v>
       </c>
       <c r="BH68">
-        <v>0.2761617406453573</v>
+        <v>0.276430456692325</v>
       </c>
       <c r="BI68">
         <v>-0.0638</v>
@@ -13510,7 +13510,7 @@
         <v>0.006815</v>
       </c>
       <c r="BL68">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
       <c r="BM68">
         <v>1.15</v>
@@ -13572,10 +13572,10 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>3.916896551724136</v>
+        <v>3.91685344827586</v>
       </c>
       <c r="T69">
-        <v>0.6306341407653757</v>
+        <v>0.6306413419945575</v>
       </c>
       <c r="U69">
         <v>3.02</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.01015221149425288</v>
+        <v>0.01015968706896553</v>
       </c>
       <c r="AZ69">
-        <v>0.01852874426001446</v>
+        <v>0.01853505382758848</v>
       </c>
       <c r="BA69">
         <v>-0.00795</v>
@@ -13683,7 +13683,7 @@
         <v>0.0006510000000000001</v>
       </c>
       <c r="BD69">
-        <v>0.013325</v>
+        <v>0.0134</v>
       </c>
       <c r="BE69">
         <v>0.129</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.2227174985632185</v>
+        <v>0.2229789913793102</v>
       </c>
       <c r="BH69">
-        <v>0.2776834413890038</v>
+        <v>0.2779968550972363</v>
       </c>
       <c r="BI69">
         <v>-0.0621</v>
@@ -13707,10 +13707,10 @@
         <v>0.007875</v>
       </c>
       <c r="BL69">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="BM69">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="70" spans="1:65">
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>3.915818965517241</v>
+        <v>3.915775862068965</v>
       </c>
       <c r="T70">
-        <v>0.6308905812046501</v>
+        <v>0.630907512443978</v>
       </c>
       <c r="U70">
         <v>3.02</v>
@@ -13793,10 +13793,10 @@
         <v>696</v>
       </c>
       <c r="AA70">
-        <v>38.03117816091954</v>
+        <v>38.03074712643678</v>
       </c>
       <c r="AB70">
-        <v>2.600623454279152</v>
+        <v>2.601179038559094</v>
       </c>
       <c r="AC70">
         <v>33.5</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>29.04487068965519</v>
+        <v>29.0448563218391</v>
       </c>
       <c r="AR70">
-        <v>16.48320616418058</v>
+        <v>16.48322674745766</v>
       </c>
       <c r="AS70">
         <v>1.27</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.01028403922413791</v>
+        <v>0.01029305675287355</v>
       </c>
       <c r="AZ70">
-        <v>0.01870910212966414</v>
+        <v>0.01872374508536031</v>
       </c>
       <c r="BA70">
         <v>-0.00755</v>
@@ -13877,7 +13877,7 @@
         <v>-0.00051325</v>
       </c>
       <c r="BC70">
-        <v>0.000741</v>
+        <v>0.0007415</v>
       </c>
       <c r="BD70">
         <v>0.0135</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.2250075580459772</v>
+        <v>0.2252536959770116</v>
       </c>
       <c r="BH70">
-        <v>0.278703875637894</v>
+        <v>0.2789585419376833</v>
       </c>
       <c r="BI70">
         <v>-0.0604</v>
@@ -13904,7 +13904,7 @@
         <v>0.008895</v>
       </c>
       <c r="BL70">
-        <v>0.505</v>
+        <v>0.50575</v>
       </c>
       <c r="BM70">
         <v>1.13</v>
@@ -13942,10 +13942,10 @@
         <v>696</v>
       </c>
       <c r="K71">
-        <v>38.04224137931035</v>
+        <v>38.04209770114944</v>
       </c>
       <c r="L71">
-        <v>2.591868330724088</v>
+        <v>2.592117696878275</v>
       </c>
       <c r="M71">
         <v>33.5</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>38.02844827586206</v>
+        <v>38.02830459770114</v>
       </c>
       <c r="AB71">
-        <v>2.602062470325998</v>
+        <v>2.602193982844657</v>
       </c>
       <c r="AC71">
         <v>33.5</v>
@@ -14014,10 +14014,10 @@
         <v>696</v>
       </c>
       <c r="AI71">
-        <v>109.6227011494253</v>
+        <v>109.6212643678161</v>
       </c>
       <c r="AJ71">
-        <v>29.05211841907126</v>
+        <v>29.05029192357828</v>
       </c>
       <c r="AK71">
         <v>59.7</v>
@@ -14038,10 +14038,10 @@
         <v>696</v>
       </c>
       <c r="AQ71">
-        <v>29.04287356321842</v>
+        <v>29.04272988505749</v>
       </c>
       <c r="AR71">
-        <v>16.48391528422965</v>
+        <v>16.48382967888011</v>
       </c>
       <c r="AS71">
         <v>1.27</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.01040935646551724</v>
+        <v>0.01041684166666667</v>
       </c>
       <c r="AZ71">
-        <v>0.01889325390817979</v>
+        <v>0.01889858882676646</v>
       </c>
       <c r="BA71">
         <v>-0.00716</v>
@@ -14074,7 +14074,7 @@
         <v>-0.00047525</v>
       </c>
       <c r="BC71">
-        <v>0.0007975</v>
+        <v>0.0007980000000000001</v>
       </c>
       <c r="BD71">
         <v>0.0136</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.227060662356322</v>
+        <v>0.227312433908046</v>
       </c>
       <c r="BH71">
-        <v>0.2793908503866748</v>
+        <v>0.2796808814618271</v>
       </c>
       <c r="BI71">
         <v>-0.0587</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>3.914784482758622</v>
+        <v>3.914741379310345</v>
       </c>
       <c r="T72">
-        <v>0.6313739359608278</v>
+        <v>0.6313841747973812</v>
       </c>
       <c r="U72">
         <v>3.02</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.01053465114942529</v>
+        <v>0.01054383663793104</v>
       </c>
       <c r="AZ72">
-        <v>0.0190726157737793</v>
+        <v>0.01907931622109808</v>
       </c>
       <c r="BA72">
         <v>-0.00678</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.2291902658045978</v>
+        <v>0.229458117816092</v>
       </c>
       <c r="BH72">
-        <v>0.2805030627777845</v>
+        <v>0.2807832035091453</v>
       </c>
       <c r="BI72">
         <v>-0.057</v>
@@ -14298,7 +14298,7 @@
         <v>0.01085</v>
       </c>
       <c r="BL72">
-        <v>0.51475</v>
+        <v>0.515</v>
       </c>
       <c r="BM72">
         <v>1.09</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>3.91413793103448</v>
+        <v>3.914051724137929</v>
       </c>
       <c r="T73">
-        <v>0.6316946293017397</v>
+        <v>0.6316983777771097</v>
       </c>
       <c r="U73">
         <v>3.01</v>
@@ -14408,10 +14408,10 @@
         <v>696</v>
       </c>
       <c r="AI73">
-        <v>109.6068965517241</v>
+        <v>109.6067528735632</v>
       </c>
       <c r="AJ73">
-        <v>29.04984916556024</v>
+        <v>29.05006193139659</v>
       </c>
       <c r="AK73">
         <v>59.7</v>
@@ -14432,10 +14432,10 @@
         <v>696</v>
       </c>
       <c r="AQ73">
-        <v>29.03936781609198</v>
+        <v>29.03908045977014</v>
       </c>
       <c r="AR73">
-        <v>16.4832127343492</v>
+        <v>16.48283893317879</v>
       </c>
       <c r="AS73">
         <v>1.27</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.01065558419540229</v>
+        <v>0.01066651422413792</v>
       </c>
       <c r="AZ73">
-        <v>0.0192482494957093</v>
+        <v>0.01925517896224319</v>
       </c>
       <c r="BA73">
         <v>-0.00642</v>
@@ -14471,7 +14471,7 @@
         <v>0.0009015</v>
       </c>
       <c r="BD73">
-        <v>0.0138</v>
+        <v>0.0139</v>
       </c>
       <c r="BE73">
         <v>0.133</v>
@@ -14480,10 +14480,10 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.2312396278735628</v>
+        <v>0.2315041910919539</v>
       </c>
       <c r="BH73">
-        <v>0.2813701218463778</v>
+        <v>0.2816572999653414</v>
       </c>
       <c r="BI73">
         <v>-0.0554</v>
@@ -14557,10 +14557,10 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>3.913706896551723</v>
+        <v>3.913678160919539</v>
       </c>
       <c r="T74">
-        <v>0.6317055094404395</v>
+        <v>0.6317045387901872</v>
       </c>
       <c r="U74">
         <v>3.01</v>
@@ -14581,10 +14581,10 @@
         <v>696</v>
       </c>
       <c r="AA74">
-        <v>38.02557471264365</v>
+        <v>38.02543103448274</v>
       </c>
       <c r="AB74">
-        <v>2.604689951063766</v>
+        <v>2.60493716923625</v>
       </c>
       <c r="AC74">
         <v>33.5</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>29.03701149425289</v>
+        <v>29.03658045977014</v>
       </c>
       <c r="AR74">
-        <v>16.48118073858779</v>
+        <v>16.48105816875428</v>
       </c>
       <c r="AS74">
         <v>1.27</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.01076862988505748</v>
+        <v>0.01077976982758622</v>
       </c>
       <c r="AZ74">
-        <v>0.01941145755601066</v>
+        <v>0.01942784430918069</v>
       </c>
       <c r="BA74">
         <v>-0.00606</v>
@@ -14665,7 +14665,7 @@
         <v>-0.000387</v>
       </c>
       <c r="BC74">
-        <v>0.0009274999999999999</v>
+        <v>0.000928</v>
       </c>
       <c r="BD74">
         <v>0.014</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.2329845761494254</v>
+        <v>0.233298110632184</v>
       </c>
       <c r="BH74">
-        <v>0.2817642395880977</v>
+        <v>0.282154707234895</v>
       </c>
       <c r="BI74">
         <v>-0.0538</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>3.912988505747128</v>
+        <v>3.912945402298852</v>
       </c>
       <c r="T75">
-        <v>0.6317054498793411</v>
+        <v>0.6317264934150129</v>
       </c>
       <c r="U75">
         <v>3.01</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.01087828759339082</v>
+        <v>0.0108883347204023</v>
       </c>
       <c r="AZ75">
-        <v>0.01957489667800703</v>
+        <v>0.01958957662151249</v>
       </c>
       <c r="BA75">
         <v>-0.00571</v>
@@ -14868,16 +14868,16 @@
         <v>0.0141</v>
       </c>
       <c r="BE75">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="BF75">
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.2347076747413794</v>
+        <v>0.2350289901580458</v>
       </c>
       <c r="BH75">
-        <v>0.2823492585315893</v>
+        <v>0.2827218285237467</v>
       </c>
       <c r="BI75">
         <v>-0.0522</v>
@@ -14951,10 +14951,10 @@
         <v>696</v>
       </c>
       <c r="S76">
-        <v>3.912399425287361</v>
+        <v>3.912341954022994</v>
       </c>
       <c r="T76">
-        <v>0.6319861269761521</v>
+        <v>0.6320282329261444</v>
       </c>
       <c r="U76">
         <v>3.01</v>
@@ -14975,10 +14975,10 @@
         <v>696</v>
       </c>
       <c r="AA76">
-        <v>38.02255747126434</v>
+        <v>38.02241379310342</v>
       </c>
       <c r="AB76">
-        <v>2.605792067462517</v>
+        <v>2.606016929561662</v>
       </c>
       <c r="AC76">
         <v>33.5</v>
@@ -14999,10 +14999,10 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>109.6005747126437</v>
+        <v>109.5991379310345</v>
       </c>
       <c r="AJ76">
-        <v>29.04915704197085</v>
+        <v>29.04782460639146</v>
       </c>
       <c r="AK76">
         <v>59.7</v>
@@ -15023,10 +15023,10 @@
         <v>696</v>
       </c>
       <c r="AQ76">
-        <v>29.03459770114944</v>
+        <v>29.03442528735634</v>
       </c>
       <c r="AR76">
-        <v>16.48042262534142</v>
+        <v>16.4803165773408</v>
       </c>
       <c r="AS76">
         <v>1.27</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.01099140195402298</v>
+        <v>0.0110005566235632</v>
       </c>
       <c r="AZ76">
-        <v>0.01974839576464849</v>
+        <v>0.01975405434914752</v>
       </c>
       <c r="BA76">
         <v>-0.00538</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.2365539798850576</v>
+        <v>0.2368592089080459</v>
       </c>
       <c r="BH76">
-        <v>0.2832173965245285</v>
+        <v>0.2835421041439461</v>
       </c>
       <c r="BI76">
         <v>-0.0506</v>
@@ -15086,7 +15086,7 @@
         <v>0.01445</v>
       </c>
       <c r="BL76">
-        <v>0.533</v>
+        <v>0.5337500000000001</v>
       </c>
       <c r="BM76">
         <v>1.03</v>
@@ -15148,10 +15148,10 @@
         <v>696</v>
       </c>
       <c r="S77">
-        <v>3.911752873563221</v>
+        <v>3.911709770114945</v>
       </c>
       <c r="T77">
-        <v>0.6322474034176977</v>
+        <v>0.632265386149766</v>
       </c>
       <c r="U77">
         <v>3.01</v>
@@ -15172,10 +15172,10 @@
         <v>696</v>
       </c>
       <c r="AA77">
-        <v>38.02241379310342</v>
+        <v>38.0222701149425</v>
       </c>
       <c r="AB77">
-        <v>2.606016929561662</v>
+        <v>2.606252805865929</v>
       </c>
       <c r="AC77">
         <v>33.5</v>
@@ -15196,10 +15196,10 @@
         <v>696</v>
       </c>
       <c r="AI77">
-        <v>109.5890804597701</v>
+        <v>109.5876436781609</v>
       </c>
       <c r="AJ77">
-        <v>29.04344840029448</v>
+        <v>29.0423133067864</v>
       </c>
       <c r="AK77">
         <v>59.7</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>29.03321839080462</v>
+        <v>29.0330747126437</v>
       </c>
       <c r="AR77">
-        <v>16.47950489891575</v>
+        <v>16.47942617130272</v>
       </c>
       <c r="AS77">
         <v>1.27</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.01109783622126437</v>
+        <v>0.01111100045977012</v>
       </c>
       <c r="AZ77">
-        <v>0.01990074155322967</v>
+        <v>0.01991929543243032</v>
       </c>
       <c r="BA77">
         <v>-0.00505</v>
@@ -15259,7 +15259,7 @@
         <v>0.0010835</v>
       </c>
       <c r="BD77">
-        <v>0.0142</v>
+        <v>0.0143</v>
       </c>
       <c r="BE77">
         <v>0.136</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.2383498520114942</v>
+        <v>0.2386672945402297</v>
       </c>
       <c r="BH77">
-        <v>0.2840539229855414</v>
+        <v>0.2843962694027462</v>
       </c>
       <c r="BI77">
         <v>-0.0491</v>
@@ -15283,7 +15283,7 @@
         <v>0.01525</v>
       </c>
       <c r="BL77">
-        <v>0.5377500000000001</v>
+        <v>0.538</v>
       </c>
       <c r="BM77">
         <v>1.01</v>
@@ -15321,10 +15321,10 @@
         <v>696</v>
       </c>
       <c r="K78">
-        <v>38.04094827586207</v>
+        <v>38.04080459770115</v>
       </c>
       <c r="L78">
-        <v>2.59409483642028</v>
+        <v>2.594338370742507</v>
       </c>
       <c r="M78">
         <v>33.5</v>
@@ -15345,10 +15345,10 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>3.911408045977014</v>
+        <v>3.911393678160922</v>
       </c>
       <c r="T78">
-        <v>0.6324289366226177</v>
+        <v>0.6324440978306625</v>
       </c>
       <c r="U78">
         <v>3.01</v>
@@ -15393,10 +15393,10 @@
         <v>696</v>
       </c>
       <c r="AI78">
-        <v>109.5742816091954</v>
+        <v>109.5739942528736</v>
       </c>
       <c r="AJ78">
-        <v>29.03431781519869</v>
+        <v>29.03469914400182</v>
       </c>
       <c r="AK78">
         <v>59.7</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>29.02502873563219</v>
+        <v>29.023591954023</v>
       </c>
       <c r="AR78">
-        <v>16.44196896956975</v>
+        <v>16.4345747765647</v>
       </c>
       <c r="AS78">
         <v>1.27</v>
@@ -15435,16 +15435,16 @@
         <v>40.45</v>
       </c>
       <c r="AW78">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX78">
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.01121734913793103</v>
+        <v>0.0112296400862069</v>
       </c>
       <c r="AZ78">
-        <v>0.0200778674270728</v>
+        <v>0.02009733419841217</v>
       </c>
       <c r="BA78">
         <v>-0.00473</v>
@@ -15456,7 +15456,7 @@
         <v>0.001139</v>
       </c>
       <c r="BD78">
-        <v>0.0143</v>
+        <v>0.0144</v>
       </c>
       <c r="BE78">
         <v>0.137</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.2403662356321843</v>
+        <v>0.2406896954022993</v>
       </c>
       <c r="BH78">
-        <v>0.2856446495725729</v>
+        <v>0.2860005256054571</v>
       </c>
       <c r="BI78">
         <v>-0.0476</v>
@@ -15480,7 +15480,7 @@
         <v>0.01605</v>
       </c>
       <c r="BL78">
-        <v>0.5427500000000001</v>
+        <v>0.543</v>
       </c>
       <c r="BM78">
         <v>1.05</v>
@@ -15518,10 +15518,10 @@
         <v>696</v>
       </c>
       <c r="K79">
-        <v>38.0396551724138</v>
+        <v>38.03951149425287</v>
       </c>
       <c r="L79">
-        <v>2.595925284433608</v>
+        <v>2.596157490957222</v>
       </c>
       <c r="M79">
         <v>33.5</v>
@@ -15542,10 +15542,10 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>3.911077586206899</v>
+        <v>3.911034482758624</v>
       </c>
       <c r="T79">
-        <v>0.6326865088115528</v>
+        <v>0.6327171679641441</v>
       </c>
       <c r="U79">
         <v>3.01</v>
@@ -15590,10 +15590,10 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>109.5540229885058</v>
+        <v>109.5525862068966</v>
       </c>
       <c r="AJ79">
-        <v>29.02804074097839</v>
+        <v>29.02769640825012</v>
       </c>
       <c r="AK79">
         <v>59.7</v>
@@ -15614,10 +15614,10 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>29.02229885057472</v>
+        <v>29.0221551724138</v>
       </c>
       <c r="AR79">
-        <v>16.43376979052054</v>
+        <v>16.43370563251558</v>
       </c>
       <c r="AS79">
         <v>1.27</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.01133849156034484</v>
+        <v>0.01135078069224139</v>
       </c>
       <c r="AZ79">
-        <v>0.02025421027046811</v>
+        <v>0.02026424772551808</v>
       </c>
       <c r="BA79">
         <v>-0.00442</v>
@@ -15653,7 +15653,7 @@
         <v>0.0011895</v>
       </c>
       <c r="BD79">
-        <v>0.014425</v>
+        <v>0.0145</v>
       </c>
       <c r="BE79">
         <v>0.138</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.2425647144612071</v>
+        <v>0.2429067215833335</v>
       </c>
       <c r="BH79">
-        <v>0.2874253876201358</v>
+        <v>0.2877920284659744</v>
       </c>
       <c r="BI79">
         <v>-0.0461</v>
@@ -15677,7 +15677,7 @@
         <v>0.01685</v>
       </c>
       <c r="BL79">
-        <v>0.54725</v>
+        <v>0.548</v>
       </c>
       <c r="BM79">
         <v>1.05</v>
@@ -15739,10 +15739,10 @@
         <v>696</v>
       </c>
       <c r="S80">
-        <v>3.91079022988506</v>
+        <v>3.910761494252877</v>
       </c>
       <c r="T80">
-        <v>0.6328656595072479</v>
+        <v>0.6328868384058915</v>
       </c>
       <c r="U80">
         <v>3</v>
@@ -15787,10 +15787,10 @@
         <v>696</v>
       </c>
       <c r="AI80">
-        <v>109.5477011494254</v>
+        <v>109.5475574712644</v>
       </c>
       <c r="AJ80">
-        <v>29.02860946324425</v>
+        <v>29.02866744433534</v>
       </c>
       <c r="AK80">
         <v>59.7</v>
@@ -15811,10 +15811,10 @@
         <v>696</v>
       </c>
       <c r="AQ80">
-        <v>29.02129310344829</v>
+        <v>29.02114942528737</v>
       </c>
       <c r="AR80">
-        <v>16.43300281856089</v>
+        <v>16.43292814169203</v>
       </c>
       <c r="AS80">
         <v>1.27</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.01144964558908046</v>
+        <v>0.01146253466954023</v>
       </c>
       <c r="AZ80">
-        <v>0.02042327145732847</v>
+        <v>0.02044036734504991</v>
       </c>
       <c r="BA80">
         <v>-0.00416</v>
@@ -15850,7 +15850,7 @@
         <v>0.0012395</v>
       </c>
       <c r="BD80">
-        <v>0.014525</v>
+        <v>0.0146</v>
       </c>
       <c r="BE80">
         <v>0.139</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.2444158936781607</v>
+        <v>0.2447998474137932</v>
       </c>
       <c r="BH80">
-        <v>0.288469453971272</v>
+        <v>0.2889036734389662</v>
       </c>
       <c r="BI80">
         <v>-0.0447</v>
@@ -15874,7 +15874,7 @@
         <v>0.0176</v>
       </c>
       <c r="BL80">
-        <v>0.55125</v>
+        <v>0.5525</v>
       </c>
       <c r="BM80">
         <v>1.03</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>3.909913793103449</v>
+        <v>3.909827586206898</v>
       </c>
       <c r="T81">
-        <v>0.6329096845653979</v>
+        <v>0.6329044381142144</v>
       </c>
       <c r="U81">
         <v>3</v>
@@ -15984,10 +15984,10 @@
         <v>696</v>
       </c>
       <c r="AI81">
-        <v>109.5423850574713</v>
+        <v>109.539367816092</v>
       </c>
       <c r="AJ81">
-        <v>29.02747643134659</v>
+        <v>29.0261534591778</v>
       </c>
       <c r="AK81">
         <v>59.7</v>
@@ -16008,10 +16008,10 @@
         <v>696</v>
       </c>
       <c r="AQ81">
-        <v>29.01985632183908</v>
+        <v>29.01971264367816</v>
       </c>
       <c r="AR81">
-        <v>16.4318925897185</v>
+        <v>16.43174083801431</v>
       </c>
       <c r="AS81">
         <v>1.27</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.01155676390373564</v>
+        <v>0.01156888040660919</v>
       </c>
       <c r="AZ81">
-        <v>0.02059099001027275</v>
+        <v>0.02059907332437386</v>
       </c>
       <c r="BA81">
         <v>-0.00403</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.2461898834770115</v>
+        <v>0.2465565775862071</v>
       </c>
       <c r="BH81">
-        <v>0.2895402247700978</v>
+        <v>0.2899319968532452</v>
       </c>
       <c r="BI81">
         <v>-0.0433</v>
@@ -16071,7 +16071,7 @@
         <v>0.01835</v>
       </c>
       <c r="BL81">
-        <v>0.555</v>
+        <v>0.5565</v>
       </c>
       <c r="BM81">
         <v>1.02</v>
@@ -16109,10 +16109,10 @@
         <v>696</v>
       </c>
       <c r="K82">
-        <v>38.04425287356321</v>
+        <v>38.04382183908046</v>
       </c>
       <c r="L82">
-        <v>2.596288721319753</v>
+        <v>2.597767008429261</v>
       </c>
       <c r="M82">
         <v>33.5</v>
@@ -16133,25 +16133,25 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>3.920761494252873</v>
+        <v>3.922916666666669</v>
       </c>
       <c r="T82">
-        <v>0.6334640364529021</v>
+        <v>0.633705761064798</v>
       </c>
       <c r="U82">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="V82">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="W82">
-        <v>3.77</v>
+        <v>3.78</v>
       </c>
       <c r="X82">
-        <v>4.3225</v>
+        <v>4.3125</v>
       </c>
       <c r="Y82">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="Z82">
         <v>696</v>
@@ -16181,10 +16181,10 @@
         <v>696</v>
       </c>
       <c r="AI82">
-        <v>109.5899425287357</v>
+        <v>109.5981321839081</v>
       </c>
       <c r="AJ82">
-        <v>29.04460547734848</v>
+        <v>29.03121534025303</v>
       </c>
       <c r="AK82">
         <v>59.7</v>
@@ -16199,16 +16199,16 @@
         <v>118</v>
       </c>
       <c r="AO82">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AP82">
         <v>696</v>
       </c>
       <c r="AQ82">
-        <v>29.02682471264369</v>
+        <v>29.02800287356324</v>
       </c>
       <c r="AR82">
-        <v>16.44731723253514</v>
+        <v>16.45325722378198</v>
       </c>
       <c r="AS82">
         <v>1.27</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.0116649546551724</v>
+        <v>0.01167823344827586</v>
       </c>
       <c r="AZ82">
-        <v>0.02076219937146133</v>
+        <v>0.02077737264933783</v>
       </c>
       <c r="BA82">
         <v>-0.0039</v>
@@ -16253,10 +16253,10 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.2479886135057472</v>
+        <v>0.2483722341954022</v>
       </c>
       <c r="BH82">
-        <v>0.2906413721310215</v>
+        <v>0.2911005459482282</v>
       </c>
       <c r="BI82">
         <v>-0.0419</v>
@@ -16268,7 +16268,7 @@
         <v>0.01905</v>
       </c>
       <c r="BL82">
-        <v>0.5590000000000001</v>
+        <v>0.56025</v>
       </c>
       <c r="BM82">
         <v>1.02</v>
@@ -16306,10 +16306,10 @@
         <v>696</v>
       </c>
       <c r="K83">
-        <v>38.04396551724138</v>
+        <v>38.03663793103447</v>
       </c>
       <c r="L83">
-        <v>2.596930854596907</v>
+        <v>2.598415602681181</v>
       </c>
       <c r="M83">
         <v>33.5</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>3.920244252873558</v>
+        <v>3.913405172413791</v>
       </c>
       <c r="T83">
-        <v>0.6337305994101859</v>
+        <v>0.6337391944123064</v>
       </c>
       <c r="U83">
         <v>2.99</v>
@@ -16345,10 +16345,10 @@
         <v>3.77</v>
       </c>
       <c r="X83">
-        <v>4.33</v>
+        <v>4.315</v>
       </c>
       <c r="Y83">
-        <v>5.38</v>
+        <v>5.36</v>
       </c>
       <c r="Z83">
         <v>696</v>
@@ -16378,10 +16378,10 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>109.5830459770115</v>
+        <v>109.5600574712644</v>
       </c>
       <c r="AJ83">
-        <v>29.04060912471661</v>
+        <v>29.02514488150534</v>
       </c>
       <c r="AK83">
         <v>59.7</v>
@@ -16396,16 +16396,16 @@
         <v>118</v>
       </c>
       <c r="AO83">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AP83">
         <v>696</v>
       </c>
       <c r="AQ83">
-        <v>29.02435344827587</v>
+        <v>29.01885057471263</v>
       </c>
       <c r="AR83">
-        <v>16.43917692582678</v>
+        <v>16.43608881867392</v>
       </c>
       <c r="AS83">
         <v>1.27</v>
@@ -16426,16 +16426,16 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.01176231988505747</v>
+        <v>0.01178148659482758</v>
       </c>
       <c r="AZ83">
-        <v>0.02090535783293649</v>
+        <v>0.02094320534779866</v>
       </c>
       <c r="BA83">
-        <v>-0.00377</v>
+        <v>-0.00378</v>
       </c>
       <c r="BB83">
-        <v>-0.00019525</v>
+        <v>-0.000196</v>
       </c>
       <c r="BC83">
         <v>0.001385</v>
@@ -16450,22 +16450,22 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.2496298567528735</v>
+        <v>0.2500625534482754</v>
       </c>
       <c r="BH83">
-        <v>0.2916816651634918</v>
+        <v>0.2921916107553544</v>
       </c>
       <c r="BI83">
-        <v>-0.0404</v>
+        <v>-0.0405</v>
       </c>
       <c r="BJ83">
         <v>-0.00461</v>
       </c>
       <c r="BK83">
-        <v>0.0198</v>
+        <v>0.01975</v>
       </c>
       <c r="BL83">
-        <v>0.56125</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="BM83">
         <v>1.02</v>
@@ -16503,10 +16503,10 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>38.02988505747128</v>
+        <v>38.03706896551724</v>
       </c>
       <c r="L84">
-        <v>2.596965132695906</v>
+        <v>2.597044147324143</v>
       </c>
       <c r="M84">
         <v>33.5</v>
@@ -16527,25 +16527,25 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>3.907399425287357</v>
+        <v>3.914784482758624</v>
       </c>
       <c r="T84">
-        <v>0.6334196251497498</v>
+        <v>0.6338442353106696</v>
       </c>
       <c r="U84">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="V84">
-        <v>3.3875</v>
+        <v>3.39</v>
       </c>
       <c r="W84">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="X84">
-        <v>4.2975</v>
+        <v>4.3025</v>
       </c>
       <c r="Y84">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="Z84">
         <v>696</v>
@@ -16575,16 +16575,16 @@
         <v>696</v>
       </c>
       <c r="AI84">
-        <v>109.5452586206896</v>
+        <v>109.5673850574713</v>
       </c>
       <c r="AJ84">
-        <v>29.02903444478181</v>
+        <v>29.02750989007534</v>
       </c>
       <c r="AK84">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="AL84">
-        <v>94.15000000000001</v>
+        <v>94.175</v>
       </c>
       <c r="AM84">
         <v>113</v>
@@ -16599,10 +16599,10 @@
         <v>696</v>
       </c>
       <c r="AQ84">
-        <v>29.0125143678161</v>
+        <v>29.02020114942528</v>
       </c>
       <c r="AR84">
-        <v>16.43327296333761</v>
+        <v>16.44374016040992</v>
       </c>
       <c r="AS84">
         <v>1.27</v>
@@ -16623,34 +16623,34 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.01186572523850574</v>
+        <v>0.01188667193821839</v>
       </c>
       <c r="AZ84">
-        <v>0.02105995358473263</v>
+        <v>0.02109676865838382</v>
       </c>
       <c r="BA84">
         <v>-0.00364</v>
       </c>
       <c r="BB84">
-        <v>-0.000182</v>
+        <v>-0.000183</v>
       </c>
       <c r="BC84">
         <v>0.00143</v>
       </c>
       <c r="BD84">
-        <v>0.01485</v>
+        <v>0.014925</v>
       </c>
       <c r="BE84">
-        <v>0.141</v>
+        <v>0.142</v>
       </c>
       <c r="BF84">
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.2513726751149425</v>
+        <v>0.2518702035201148</v>
       </c>
       <c r="BH84">
-        <v>0.2931008575385238</v>
+        <v>0.2936362682076718</v>
       </c>
       <c r="BI84">
         <v>-0.0391</v>
@@ -16662,7 +16662,7 @@
         <v>0.02045</v>
       </c>
       <c r="BL84">
-        <v>0.5649999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="BM84">
         <v>1.05</v>
@@ -16700,10 +16700,10 @@
         <v>696</v>
       </c>
       <c r="K85">
-        <v>38.01896551724137</v>
+        <v>38.01939655172415</v>
       </c>
       <c r="L85">
-        <v>2.597295121831242</v>
+        <v>2.597095263556595</v>
       </c>
       <c r="M85">
         <v>33.5</v>
@@ -16718,40 +16718,40 @@
         <v>40.1</v>
       </c>
       <c r="Q85">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R85">
         <v>696</v>
       </c>
       <c r="S85">
-        <v>3.895977011494253</v>
+        <v>3.898606321839082</v>
       </c>
       <c r="T85">
-        <v>0.6336042107448826</v>
+        <v>0.6339288798048439</v>
       </c>
       <c r="U85">
         <v>2.96</v>
       </c>
       <c r="V85">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="W85">
-        <v>3.745</v>
+        <v>3.75</v>
       </c>
       <c r="X85">
-        <v>4.2925</v>
+        <v>4.3025</v>
       </c>
       <c r="Y85">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="Z85">
         <v>696</v>
       </c>
       <c r="AA85">
-        <v>38.01781609195402</v>
+        <v>38.0176724137931</v>
       </c>
       <c r="AB85">
-        <v>2.608728867249298</v>
+        <v>2.608842911548565</v>
       </c>
       <c r="AC85">
         <v>33.5</v>
@@ -16772,16 +16772,16 @@
         <v>696</v>
       </c>
       <c r="AI85">
-        <v>109.5080459770114</v>
+        <v>109.5136494252873</v>
       </c>
       <c r="AJ85">
-        <v>29.0261364469956</v>
+        <v>29.02327769149269</v>
       </c>
       <c r="AK85">
         <v>59.6</v>
       </c>
       <c r="AL85">
-        <v>94.15000000000001</v>
+        <v>94.175</v>
       </c>
       <c r="AM85">
         <v>113</v>
@@ -16796,10 +16796,10 @@
         <v>696</v>
       </c>
       <c r="AQ85">
-        <v>29.00173850574715</v>
+        <v>29.00341954022991</v>
       </c>
       <c r="AR85">
-        <v>16.42746739989729</v>
+        <v>16.42890134832336</v>
       </c>
       <c r="AS85">
         <v>1.27</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.01198043783045979</v>
+        <v>0.01199646548850577</v>
       </c>
       <c r="AZ85">
-        <v>0.021241827777398</v>
+        <v>0.02125289967998597</v>
       </c>
       <c r="BA85">
         <v>-0.00352</v>
@@ -16835,7 +16835,7 @@
         <v>0.001485</v>
       </c>
       <c r="BD85">
-        <v>0.014925</v>
+        <v>0.015</v>
       </c>
       <c r="BE85">
         <v>0.142</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.253481066091954</v>
+        <v>0.253918301724138</v>
       </c>
       <c r="BH85">
-        <v>0.2952835305644294</v>
+        <v>0.2957444861972649</v>
       </c>
       <c r="BI85">
         <v>-0.0377</v>
@@ -16859,7 +16859,7 @@
         <v>0.02105</v>
       </c>
       <c r="BL85">
-        <v>0.5672499999999999</v>
+        <v>0.5692499999999999</v>
       </c>
       <c r="BM85">
         <v>1.08</v>
@@ -16897,10 +16897,10 @@
         <v>696</v>
       </c>
       <c r="K86">
-        <v>38.02471264367816</v>
+        <v>38.02198275862071</v>
       </c>
       <c r="L86">
-        <v>2.598553815431964</v>
+        <v>2.598564535612975</v>
       </c>
       <c r="M86">
         <v>33.5</v>
@@ -16921,25 +16921,25 @@
         <v>696</v>
       </c>
       <c r="S86">
-        <v>3.902543103448281</v>
+        <v>3.900201149425287</v>
       </c>
       <c r="T86">
-        <v>0.6337970520406284</v>
+        <v>0.6340094770858306</v>
       </c>
       <c r="U86">
         <v>2.97</v>
       </c>
       <c r="V86">
-        <v>3.3775</v>
+        <v>3.37</v>
       </c>
       <c r="W86">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="X86">
-        <v>4.2975</v>
+        <v>4.3025</v>
       </c>
       <c r="Y86">
-        <v>5.34</v>
+        <v>5.35</v>
       </c>
       <c r="Z86">
         <v>696</v>
@@ -16969,13 +16969,13 @@
         <v>696</v>
       </c>
       <c r="AI86">
-        <v>109.5160919540229</v>
+        <v>109.5155172413793</v>
       </c>
       <c r="AJ86">
-        <v>29.02307788689792</v>
+        <v>29.02408259324583</v>
       </c>
       <c r="AK86">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="AL86">
         <v>94.15000000000001</v>
@@ -16993,10 +16993,10 @@
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>29.00547413793105</v>
+        <v>29.00528735632181</v>
       </c>
       <c r="AR86">
-        <v>16.42303059351681</v>
+        <v>16.42959922982176</v>
       </c>
       <c r="AS86">
         <v>1.27</v>
@@ -17011,16 +17011,16 @@
         <v>40.425</v>
       </c>
       <c r="AW86">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX86">
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.01210099018678162</v>
+        <v>0.01211527005747128</v>
       </c>
       <c r="AZ86">
-        <v>0.02142045035377466</v>
+        <v>0.02143077839068892</v>
       </c>
       <c r="BA86">
         <v>-0.0034</v>
@@ -17032,7 +17032,7 @@
         <v>0.001575</v>
       </c>
       <c r="BD86">
-        <v>0.015025</v>
+        <v>0.0151</v>
       </c>
       <c r="BE86">
         <v>0.143</v>
@@ -17041,22 +17041,22 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.2557624841954026</v>
+        <v>0.256189208333333</v>
       </c>
       <c r="BH86">
-        <v>0.2973639595608247</v>
+        <v>0.2978477953547735</v>
       </c>
       <c r="BI86">
         <v>-0.0364</v>
       </c>
       <c r="BJ86">
-        <v>-0.00258</v>
+        <v>-0.0025725</v>
       </c>
       <c r="BK86">
         <v>0.02175</v>
       </c>
       <c r="BL86">
-        <v>0.571</v>
+        <v>0.5732499999999999</v>
       </c>
       <c r="BM86">
         <v>1.08</v>
@@ -17094,10 +17094,10 @@
         <v>696</v>
       </c>
       <c r="K87">
-        <v>38.01968390804597</v>
+        <v>38.03218390804599</v>
       </c>
       <c r="L87">
-        <v>2.599009310553731</v>
+        <v>2.598195023849538</v>
       </c>
       <c r="M87">
         <v>33.5</v>
@@ -17112,31 +17112,31 @@
         <v>40.1</v>
       </c>
       <c r="Q87">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R87">
         <v>696</v>
       </c>
       <c r="S87">
-        <v>3.897887931034484</v>
+        <v>3.911005747126439</v>
       </c>
       <c r="T87">
-        <v>0.633915087769342</v>
+        <v>0.6349820095757901</v>
       </c>
       <c r="U87">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="V87">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="W87">
         <v>3.76</v>
       </c>
       <c r="X87">
-        <v>4.2825</v>
+        <v>4.31</v>
       </c>
       <c r="Y87">
-        <v>5.32</v>
+        <v>5.39</v>
       </c>
       <c r="Z87">
         <v>696</v>
@@ -17166,34 +17166,34 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>109.4971264367815</v>
+        <v>109.553448275862</v>
       </c>
       <c r="AJ87">
-        <v>29.02141244357278</v>
+        <v>29.03890894466601</v>
       </c>
       <c r="AK87">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="AL87">
-        <v>94.15000000000001</v>
+        <v>94.175</v>
       </c>
       <c r="AM87">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN87">
         <v>118</v>
       </c>
       <c r="AO87">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AP87">
         <v>696</v>
       </c>
       <c r="AQ87">
-        <v>29.00113505747129</v>
+        <v>29.01133620689657</v>
       </c>
       <c r="AR87">
-        <v>16.42127766054622</v>
+        <v>16.43892553934842</v>
       </c>
       <c r="AS87">
         <v>1.27</v>
@@ -17205,25 +17205,25 @@
         <v>31.85</v>
       </c>
       <c r="AV87">
-        <v>40.34999999999999</v>
+        <v>40.425</v>
       </c>
       <c r="AW87">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX87">
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.01220818823275863</v>
+        <v>0.01223330761494254</v>
       </c>
       <c r="AZ87">
-        <v>0.02157830696702033</v>
+        <v>0.02162219455091281</v>
       </c>
       <c r="BA87">
-        <v>-0.00328</v>
+        <v>-0.00327</v>
       </c>
       <c r="BB87">
-        <v>-0.0001325</v>
+        <v>-0.00013225</v>
       </c>
       <c r="BC87">
         <v>0.00166</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.2577315991379313</v>
+        <v>0.2583362112068967</v>
       </c>
       <c r="BH87">
-        <v>0.2989516509423482</v>
+        <v>0.2996228915261082</v>
       </c>
       <c r="BI87">
         <v>-0.0351</v>
@@ -17253,7 +17253,7 @@
         <v>0.02235</v>
       </c>
       <c r="BL87">
-        <v>0.574</v>
+        <v>0.577</v>
       </c>
       <c r="BM87">
         <v>1.08</v>
@@ -17291,19 +17291,19 @@
         <v>696</v>
       </c>
       <c r="K88">
-        <v>38.02830459770114</v>
+        <v>38.00488505747123</v>
       </c>
       <c r="L88">
-        <v>2.601181911612985</v>
+        <v>2.597154887939698</v>
       </c>
       <c r="M88">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N88">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O88">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P88">
         <v>40.1</v>
@@ -17315,34 +17315,34 @@
         <v>696</v>
       </c>
       <c r="S88">
-        <v>3.904051724137931</v>
+        <v>3.883951149425287</v>
       </c>
       <c r="T88">
-        <v>0.6340902667487589</v>
+        <v>0.6344201843195549</v>
       </c>
       <c r="U88">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="V88">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="W88">
-        <v>3.76</v>
+        <v>3.73</v>
       </c>
       <c r="X88">
-        <v>4.2825</v>
+        <v>4.28</v>
       </c>
       <c r="Y88">
-        <v>5.32</v>
+        <v>5.33</v>
       </c>
       <c r="Z88">
         <v>696</v>
       </c>
       <c r="AA88">
-        <v>38.0146551724138</v>
+        <v>38.01451149425288</v>
       </c>
       <c r="AB88">
-        <v>2.607247926727807</v>
+        <v>2.607494299822858</v>
       </c>
       <c r="AC88">
         <v>33.5</v>
@@ -17363,16 +17363,16 @@
         <v>696</v>
       </c>
       <c r="AI88">
-        <v>109.510632183908</v>
+        <v>109.4682471264368</v>
       </c>
       <c r="AJ88">
-        <v>29.02115728649103</v>
+        <v>28.99876475318875</v>
       </c>
       <c r="AK88">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="AL88">
-        <v>94.15000000000001</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM88">
         <v>112.5</v>
@@ -17387,19 +17387,19 @@
         <v>696</v>
       </c>
       <c r="AQ88">
-        <v>29.0046551724138</v>
+        <v>28.98936781609194</v>
       </c>
       <c r="AR88">
-        <v>16.42236505006989</v>
+        <v>16.41557958541058</v>
       </c>
       <c r="AS88">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT88">
         <v>15.1</v>
       </c>
       <c r="AU88">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV88">
         <v>40.34999999999999</v>
@@ -17411,19 +17411,19 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.01232323235632184</v>
+        <v>0.01233101204022987</v>
       </c>
       <c r="AZ88">
-        <v>0.02176503938116141</v>
+        <v>0.02176703442228257</v>
       </c>
       <c r="BA88">
-        <v>-0.00316</v>
+        <v>-0.00315</v>
       </c>
       <c r="BB88">
-        <v>-0.00011525</v>
+        <v>-0.000115</v>
       </c>
       <c r="BC88">
-        <v>0.001745</v>
+        <v>0.00175</v>
       </c>
       <c r="BD88">
         <v>0.015225</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.2598543505747126</v>
+        <v>0.2600920775862068</v>
       </c>
       <c r="BH88">
-        <v>0.300973685025231</v>
+        <v>0.3012224125106124</v>
       </c>
       <c r="BI88">
         <v>-0.0338</v>
@@ -17447,10 +17447,10 @@
         <v>-0.001275</v>
       </c>
       <c r="BK88">
-        <v>0.0232</v>
+        <v>0.02315</v>
       </c>
       <c r="BL88">
-        <v>0.578</v>
+        <v>0.5792499999999999</v>
       </c>
       <c r="BM88">
         <v>1.11</v>
@@ -17488,10 +17488,10 @@
         <v>696</v>
       </c>
       <c r="K89">
-        <v>38.0175287356322</v>
+        <v>38.03922413793101</v>
       </c>
       <c r="L89">
-        <v>2.599962963052556</v>
+        <v>2.600221125360118</v>
       </c>
       <c r="M89">
         <v>33.5</v>
@@ -17512,25 +17512,25 @@
         <v>696</v>
       </c>
       <c r="S89">
-        <v>3.894267241379311</v>
+        <v>3.917859195402307</v>
       </c>
       <c r="T89">
-        <v>0.6347095027961348</v>
+        <v>0.6350243978784861</v>
       </c>
       <c r="U89">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="V89">
-        <v>3.37</v>
+        <v>3.39</v>
       </c>
       <c r="W89">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="X89">
-        <v>4.295</v>
+        <v>4.3125</v>
       </c>
       <c r="Y89">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="Z89">
         <v>696</v>
@@ -17560,16 +17560,16 @@
         <v>696</v>
       </c>
       <c r="AI89">
-        <v>109.4906609195402</v>
+        <v>109.5550287356322</v>
       </c>
       <c r="AJ89">
-        <v>29.01173390238832</v>
+        <v>29.02397774303087</v>
       </c>
       <c r="AK89">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AL89">
-        <v>94.09999999999999</v>
+        <v>94.175</v>
       </c>
       <c r="AM89">
         <v>113</v>
@@ -17584,10 +17584,10 @@
         <v>696</v>
       </c>
       <c r="AQ89">
-        <v>28.99625000000001</v>
+        <v>29.01487068965517</v>
       </c>
       <c r="AR89">
-        <v>16.42472563692317</v>
+        <v>16.43315217306062</v>
       </c>
       <c r="AS89">
         <v>1.27</v>
@@ -17596,7 +17596,7 @@
         <v>15.1</v>
       </c>
       <c r="AU89">
-        <v>31.8</v>
+        <v>31.85</v>
       </c>
       <c r="AV89">
         <v>40.425</v>
@@ -17608,22 +17608,22 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.0124337609152299</v>
+        <v>0.01246063236206897</v>
       </c>
       <c r="AZ89">
-        <v>0.02193901850094708</v>
+        <v>0.02198445061880059</v>
       </c>
       <c r="BA89">
         <v>-0.00304</v>
       </c>
       <c r="BB89">
-        <v>-9.287499999999999E-05</v>
+        <v>-9.305E-05</v>
       </c>
       <c r="BC89">
-        <v>0.001835</v>
+        <v>0.00184</v>
       </c>
       <c r="BD89">
-        <v>0.01525</v>
+        <v>0.01535</v>
       </c>
       <c r="BE89">
         <v>0.146</v>
@@ -17632,22 +17632,22 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.2618486647988509</v>
+        <v>0.2624685625</v>
       </c>
       <c r="BH89">
-        <v>0.3028397357818748</v>
+        <v>0.3035274251446156</v>
       </c>
       <c r="BI89">
         <v>-0.0326</v>
       </c>
       <c r="BJ89">
-        <v>-0.0007012499999999999</v>
+        <v>-0.0007017499999999999</v>
       </c>
       <c r="BK89">
         <v>0.024</v>
       </c>
       <c r="BL89">
-        <v>0.5805</v>
+        <v>0.5832499999999999</v>
       </c>
       <c r="BM89">
         <v>1.13</v>
@@ -17685,10 +17685,10 @@
         <v>696</v>
       </c>
       <c r="K90">
-        <v>38.01379310344827</v>
+        <v>38.01910919540229</v>
       </c>
       <c r="L90">
-        <v>2.59728900894397</v>
+        <v>2.601348805562816</v>
       </c>
       <c r="M90">
         <v>33.5</v>
@@ -17697,46 +17697,46 @@
         <v>36.2</v>
       </c>
       <c r="O90">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P90">
         <v>40.1</v>
       </c>
       <c r="Q90">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="R90">
         <v>696</v>
       </c>
       <c r="S90">
-        <v>3.89198275862069</v>
+        <v>3.895847701149423</v>
       </c>
       <c r="T90">
-        <v>0.6352135128415893</v>
+        <v>0.6344771822195799</v>
       </c>
       <c r="U90">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="V90">
         <v>3.37</v>
       </c>
       <c r="W90">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="X90">
-        <v>4.3</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="Y90">
-        <v>5.37</v>
+        <v>5.32</v>
       </c>
       <c r="Z90">
         <v>696</v>
       </c>
       <c r="AA90">
-        <v>38.01278735632184</v>
+        <v>38.0125</v>
       </c>
       <c r="AB90">
-        <v>2.608639821031009</v>
+        <v>2.608928016577585</v>
       </c>
       <c r="AC90">
         <v>33.5</v>
@@ -17757,19 +17757,19 @@
         <v>696</v>
       </c>
       <c r="AI90">
-        <v>109.4913793103449</v>
+        <v>109.4870689655172</v>
       </c>
       <c r="AJ90">
-        <v>29.00217427413228</v>
+        <v>29.01985982396245</v>
       </c>
       <c r="AK90">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AL90">
-        <v>94.09999999999999</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="AM90">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN90">
         <v>118</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>28.99377873563218</v>
+        <v>28.99583333333334</v>
       </c>
       <c r="AR90">
-        <v>16.42361860257265</v>
+        <v>16.41838635577741</v>
       </c>
       <c r="AS90">
         <v>1.27</v>
@@ -17793,34 +17793,34 @@
         <v>15.1</v>
       </c>
       <c r="AU90">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV90">
-        <v>40.425</v>
+        <v>40.34999999999999</v>
       </c>
       <c r="AW90">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX90">
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.01254633897988505</v>
+        <v>0.01256408194252873</v>
       </c>
       <c r="AZ90">
-        <v>0.02211530100013491</v>
+        <v>0.02214036342519158</v>
       </c>
       <c r="BA90">
         <v>-0.00292</v>
       </c>
       <c r="BB90">
-        <v>-5.3425E-05</v>
+        <v>-5.35E-05</v>
       </c>
       <c r="BC90">
-        <v>0.00192</v>
+        <v>0.001925</v>
       </c>
       <c r="BD90">
-        <v>0.01535</v>
+        <v>0.015425</v>
       </c>
       <c r="BE90">
         <v>0.147</v>
@@ -17829,22 +17829,22 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.2639219315086207</v>
+        <v>0.264400576724138</v>
       </c>
       <c r="BH90">
-        <v>0.304658610509004</v>
+        <v>0.3051694274995881</v>
       </c>
       <c r="BI90">
         <v>-0.0313</v>
       </c>
       <c r="BJ90">
-        <v>-0.0006050000000000001</v>
+        <v>-0.00060575</v>
       </c>
       <c r="BK90">
         <v>0.025</v>
       </c>
       <c r="BL90">
-        <v>0.5842499999999999</v>
+        <v>0.587</v>
       </c>
       <c r="BM90">
         <v>1.13</v>
@@ -17882,16 +17882,16 @@
         <v>696</v>
       </c>
       <c r="K91">
-        <v>38.00617816091952</v>
+        <v>38.02557471264367</v>
       </c>
       <c r="L91">
-        <v>2.599021241870683</v>
+        <v>2.601273835741002</v>
       </c>
       <c r="M91">
         <v>33.4</v>
       </c>
       <c r="N91">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O91">
         <v>38.2</v>
@@ -17900,40 +17900,40 @@
         <v>40.1</v>
       </c>
       <c r="Q91">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R91">
         <v>696</v>
       </c>
       <c r="S91">
-        <v>3.884928160919547</v>
+        <v>3.904497126436782</v>
       </c>
       <c r="T91">
-        <v>0.6349916403551542</v>
+        <v>0.6356151769971682</v>
       </c>
       <c r="U91">
         <v>2.93</v>
       </c>
       <c r="V91">
-        <v>3.36</v>
+        <v>3.3775</v>
       </c>
       <c r="W91">
-        <v>3.735</v>
+        <v>3.76</v>
       </c>
       <c r="X91">
-        <v>4.285</v>
+        <v>4.29</v>
       </c>
       <c r="Y91">
-        <v>5.35</v>
+        <v>5.38</v>
       </c>
       <c r="Z91">
         <v>696</v>
       </c>
       <c r="AA91">
-        <v>38.01135057471264</v>
+        <v>38.01120689655172</v>
       </c>
       <c r="AB91">
-        <v>2.609870674173979</v>
+        <v>2.610111104944346</v>
       </c>
       <c r="AC91">
         <v>33.5</v>
@@ -17954,16 +17954,16 @@
         <v>696</v>
       </c>
       <c r="AI91">
-        <v>109.4660919540229</v>
+        <v>109.5089080459769</v>
       </c>
       <c r="AJ91">
-        <v>28.99839290436859</v>
+        <v>29.00883479342293</v>
       </c>
       <c r="AK91">
         <v>59.6</v>
       </c>
       <c r="AL91">
-        <v>94.07499999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AM91">
         <v>113</v>
@@ -17978,10 +17978,10 @@
         <v>696</v>
       </c>
       <c r="AQ91">
-        <v>28.98570402298848</v>
+        <v>29.00360632183909</v>
       </c>
       <c r="AR91">
-        <v>16.4138448603842</v>
+        <v>16.42771901426674</v>
       </c>
       <c r="AS91">
         <v>1.26</v>
@@ -17996,28 +17996,28 @@
         <v>40.425</v>
       </c>
       <c r="AW91">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX91">
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.0126537976551724</v>
+        <v>0.01268386032471264</v>
       </c>
       <c r="AZ91">
-        <v>0.02228380438059377</v>
+        <v>0.02233515982243008</v>
       </c>
       <c r="BA91">
         <v>-0.00281</v>
       </c>
       <c r="BB91">
-        <v>-4.13E-05</v>
+        <v>-4.1225E-05</v>
       </c>
       <c r="BC91">
         <v>0.002005</v>
       </c>
       <c r="BD91">
-        <v>0.01545</v>
+        <v>0.015525</v>
       </c>
       <c r="BE91">
         <v>0.148</v>
@@ -18026,10 +18026,10 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.265956059770115</v>
+        <v>0.2666585311206897</v>
       </c>
       <c r="BH91">
-        <v>0.3065007911942257</v>
+        <v>0.3072767643634467</v>
       </c>
       <c r="BI91">
         <v>-0.0301</v>
@@ -18041,7 +18041,7 @@
         <v>0.02605</v>
       </c>
       <c r="BL91">
-        <v>0.58775</v>
+        <v>0.5902499999999999</v>
       </c>
       <c r="BM91">
         <v>1.14</v>
@@ -18079,10 +18079,10 @@
         <v>696</v>
       </c>
       <c r="K92">
-        <v>38.05560344827588</v>
+        <v>38.03347701149426</v>
       </c>
       <c r="L92">
-        <v>2.603240411971289</v>
+        <v>2.600932313650281</v>
       </c>
       <c r="M92">
         <v>33.5</v>
@@ -18094,7 +18094,7 @@
         <v>38.25</v>
       </c>
       <c r="P92">
-        <v>40.125</v>
+        <v>40.1</v>
       </c>
       <c r="Q92">
         <v>41.9</v>
@@ -18103,34 +18103,34 @@
         <v>696</v>
       </c>
       <c r="S92">
-        <v>3.933663793103451</v>
+        <v>3.90997126436781</v>
       </c>
       <c r="T92">
-        <v>0.6354774530045125</v>
+        <v>0.6352911295752206</v>
       </c>
       <c r="U92">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="V92">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="W92">
-        <v>3.79</v>
+        <v>3.765</v>
       </c>
       <c r="X92">
-        <v>4.319999999999999</v>
+        <v>4.3125</v>
       </c>
       <c r="Y92">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="Z92">
         <v>696</v>
       </c>
       <c r="AA92">
-        <v>38.01005747126436</v>
+        <v>38.0096264367816</v>
       </c>
       <c r="AB92">
-        <v>2.611262160074078</v>
+        <v>2.611635696518348</v>
       </c>
       <c r="AC92">
         <v>33.5</v>
@@ -18151,16 +18151,16 @@
         <v>696</v>
       </c>
       <c r="AI92">
-        <v>109.5954022988505</v>
+        <v>109.5231321839081</v>
       </c>
       <c r="AJ92">
-        <v>29.02264819631612</v>
+        <v>29.0186751471808</v>
       </c>
       <c r="AK92">
         <v>59.7</v>
       </c>
       <c r="AL92">
-        <v>94.25</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="AM92">
         <v>113</v>
@@ -18175,10 +18175,10 @@
         <v>696</v>
       </c>
       <c r="AQ92">
-        <v>29.02441091954021</v>
+        <v>29.00521551724138</v>
       </c>
       <c r="AR92">
-        <v>16.44342157319394</v>
+        <v>16.4219609747327</v>
       </c>
       <c r="AS92">
         <v>1.27</v>
@@ -18193,28 +18193,28 @@
         <v>40.425</v>
       </c>
       <c r="AW92">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX92">
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.01278627934813217</v>
+        <v>0.01280763832485632</v>
       </c>
       <c r="AZ92">
-        <v>0.02248218826017888</v>
+        <v>0.02252284727527307</v>
       </c>
       <c r="BA92">
         <v>-0.0027</v>
       </c>
       <c r="BB92">
-        <v>-4.0925E-05</v>
+        <v>-4.09E-05</v>
       </c>
       <c r="BC92">
         <v>0.00209</v>
       </c>
       <c r="BD92">
-        <v>0.01555</v>
+        <v>0.01565</v>
       </c>
       <c r="BE92">
         <v>0.149</v>
@@ -18223,22 +18223,22 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.2685849077729886</v>
+        <v>0.2690339173505748</v>
       </c>
       <c r="BH92">
-        <v>0.3093168043138159</v>
+        <v>0.3097889446313553</v>
       </c>
       <c r="BI92">
         <v>-0.0289</v>
       </c>
       <c r="BJ92">
-        <v>-0.00057275</v>
+        <v>-0.00057175</v>
       </c>
       <c r="BK92">
-        <v>0.0272</v>
+        <v>0.02725</v>
       </c>
       <c r="BL92">
-        <v>0.5902499999999999</v>
+        <v>0.5934999999999999</v>
       </c>
       <c r="BM92">
         <v>1.17</v>
@@ -18276,16 +18276,16 @@
         <v>696</v>
       </c>
       <c r="K93">
-        <v>38.03103448275861</v>
+        <v>38.00890804597699</v>
       </c>
       <c r="L93">
-        <v>2.601568330301262</v>
+        <v>2.598390417692328</v>
       </c>
       <c r="M93">
         <v>33.5</v>
       </c>
       <c r="N93">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O93">
         <v>38.25</v>
@@ -18300,25 +18300,25 @@
         <v>696</v>
       </c>
       <c r="S93">
-        <v>3.909008620689654</v>
+        <v>3.887758620689656</v>
       </c>
       <c r="T93">
-        <v>0.6359892492058592</v>
+        <v>0.6353288430210746</v>
       </c>
       <c r="U93">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="V93">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="W93">
-        <v>3.76</v>
+        <v>3.74</v>
       </c>
       <c r="X93">
-        <v>4.3125</v>
+        <v>4.3</v>
       </c>
       <c r="Y93">
-        <v>5.38</v>
+        <v>5.35</v>
       </c>
       <c r="Z93">
         <v>696</v>
@@ -18348,16 +18348,16 @@
         <v>696</v>
       </c>
       <c r="AI93">
-        <v>109.521408045977</v>
+        <v>109.476724137931</v>
       </c>
       <c r="AJ93">
-        <v>29.0213930276676</v>
+        <v>28.99122523985423</v>
       </c>
       <c r="AK93">
         <v>59.6</v>
       </c>
       <c r="AL93">
-        <v>94.175</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM93">
         <v>113</v>
@@ -18372,10 +18372,10 @@
         <v>696</v>
       </c>
       <c r="AQ93">
-        <v>29.00257183908048</v>
+        <v>28.98495689655174</v>
       </c>
       <c r="AR93">
-        <v>16.42734283615893</v>
+        <v>16.41185223584131</v>
       </c>
       <c r="AS93">
         <v>1.27</v>
@@ -18387,19 +18387,19 @@
         <v>31.85</v>
       </c>
       <c r="AV93">
-        <v>40.425</v>
+        <v>40.34999999999999</v>
       </c>
       <c r="AW93">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX93">
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.01289774093390804</v>
+        <v>0.01291706412356321</v>
       </c>
       <c r="AZ93">
-        <v>0.02266245344042285</v>
+        <v>0.0226907561155828</v>
       </c>
       <c r="BA93">
         <v>-0.00259</v>
@@ -18411,7 +18411,7 @@
         <v>0.00217</v>
       </c>
       <c r="BD93">
-        <v>0.01565</v>
+        <v>0.01575</v>
       </c>
       <c r="BE93">
         <v>0.15</v>
@@ -18420,22 +18420,22 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.2706624482758621</v>
+        <v>0.2711620488505745</v>
       </c>
       <c r="BH93">
-        <v>0.3112933582547815</v>
+        <v>0.3118668818082584</v>
       </c>
       <c r="BI93">
         <v>-0.0277</v>
       </c>
       <c r="BJ93">
-        <v>-0.00056875</v>
+        <v>-0.00056775</v>
       </c>
       <c r="BK93">
         <v>0.02865</v>
       </c>
       <c r="BL93">
-        <v>0.5934999999999999</v>
+        <v>0.59675</v>
       </c>
       <c r="BM93">
         <v>1.18</v>
@@ -18473,16 +18473,16 @@
         <v>696</v>
       </c>
       <c r="K94">
-        <v>38.01422413793102</v>
+        <v>38.03232758620689</v>
       </c>
       <c r="L94">
-        <v>2.600838044527678</v>
+        <v>2.602744160395968</v>
       </c>
       <c r="M94">
         <v>33.5</v>
       </c>
       <c r="N94">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O94">
         <v>38.25</v>
@@ -18491,40 +18491,40 @@
         <v>40.1</v>
       </c>
       <c r="Q94">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R94">
         <v>696</v>
       </c>
       <c r="S94">
-        <v>3.892083333333331</v>
+        <v>3.908376436781606</v>
       </c>
       <c r="T94">
-        <v>0.6351818174719756</v>
+        <v>0.6357331522150392</v>
       </c>
       <c r="U94">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="V94">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="W94">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="X94">
-        <v>4.285</v>
+        <v>4.3125</v>
       </c>
       <c r="Y94">
-        <v>5.33</v>
+        <v>5.36</v>
       </c>
       <c r="Z94">
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>38.00790229885057</v>
+        <v>38.00775862068965</v>
       </c>
       <c r="AB94">
-        <v>2.612754145803235</v>
+        <v>2.6128344275841</v>
       </c>
       <c r="AC94">
         <v>33.5</v>
@@ -18545,19 +18545,19 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>109.4653735632184</v>
+        <v>109.5169540229885</v>
       </c>
       <c r="AJ94">
-        <v>29.0086540176859</v>
+        <v>29.01987113652672</v>
       </c>
       <c r="AK94">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="AL94">
         <v>94.15000000000001</v>
       </c>
       <c r="AM94">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN94">
         <v>118</v>
@@ -18569,10 +18569,10 @@
         <v>696</v>
       </c>
       <c r="AQ94">
-        <v>28.98846264367817</v>
+        <v>29.00117816091953</v>
       </c>
       <c r="AR94">
-        <v>16.41391083368484</v>
+        <v>16.4198434010491</v>
       </c>
       <c r="AS94">
         <v>1.27</v>
@@ -18593,22 +18593,22 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.01301563729885058</v>
+        <v>0.01303898179597701</v>
       </c>
       <c r="AZ94">
-        <v>0.02285880622874628</v>
+        <v>0.02288319186990048</v>
       </c>
       <c r="BA94">
         <v>-0.00248</v>
       </c>
       <c r="BB94">
-        <v>-3.265E-05</v>
+        <v>-3.2725E-05</v>
       </c>
       <c r="BC94">
-        <v>0.00225</v>
+        <v>0.002255</v>
       </c>
       <c r="BD94">
-        <v>0.015775</v>
+        <v>0.01585</v>
       </c>
       <c r="BE94">
         <v>0.151</v>
@@ -18617,22 +18617,22 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.2728776551724139</v>
+        <v>0.2735605129310344</v>
       </c>
       <c r="BH94">
-        <v>0.3135518401296177</v>
+        <v>0.3142645960646822</v>
       </c>
       <c r="BI94">
         <v>-0.0265</v>
       </c>
       <c r="BJ94">
-        <v>-0.000563</v>
+        <v>-0.00056375</v>
       </c>
       <c r="BK94">
         <v>0.0301</v>
       </c>
       <c r="BL94">
-        <v>0.5974999999999999</v>
+        <v>0.60075</v>
       </c>
       <c r="BM94">
         <v>1.21</v>
@@ -18670,10 +18670,10 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>38.02758620689657</v>
+        <v>38.01609195402297</v>
       </c>
       <c r="L95">
-        <v>2.602707595387936</v>
+        <v>2.602411656871387</v>
       </c>
       <c r="M95">
         <v>33.5</v>
@@ -18694,25 +18694,25 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>3.906077586206897</v>
+        <v>3.895071839080467</v>
       </c>
       <c r="T95">
-        <v>0.6357649805694572</v>
+        <v>0.6355961303177408</v>
       </c>
       <c r="U95">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="V95">
-        <v>3.39</v>
+        <v>3.3775</v>
       </c>
       <c r="W95">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="X95">
-        <v>4.305</v>
+        <v>4.295</v>
       </c>
       <c r="Y95">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="Z95">
         <v>696</v>
@@ -18742,19 +18742,19 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>109.507040229885</v>
+        <v>109.4797413793103</v>
       </c>
       <c r="AJ95">
-        <v>29.01845296073435</v>
+        <v>29.00983123739654</v>
       </c>
       <c r="AK95">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="AL95">
         <v>94.15000000000001</v>
       </c>
       <c r="AM95">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN95">
         <v>118</v>
@@ -18766,10 +18766,10 @@
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>28.9972988505747</v>
+        <v>28.98885057471265</v>
       </c>
       <c r="AR95">
-        <v>16.41766461900761</v>
+        <v>16.41367330863741</v>
       </c>
       <c r="AS95">
         <v>1.27</v>
@@ -18790,22 +18790,22 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.01313884783045976</v>
+        <v>0.01315637396551724</v>
       </c>
       <c r="AZ95">
-        <v>0.02305178558661532</v>
+        <v>0.02307699008556232</v>
       </c>
       <c r="BA95">
         <v>-0.00237</v>
       </c>
       <c r="BB95">
-        <v>-2.2225E-05</v>
+        <v>-2.215E-05</v>
       </c>
       <c r="BC95">
         <v>0.002335</v>
       </c>
       <c r="BD95">
-        <v>0.015875</v>
+        <v>0.01595</v>
       </c>
       <c r="BE95">
         <v>0.152</v>
@@ -18814,22 +18814,22 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.275247908045977</v>
+        <v>0.2756945373563219</v>
       </c>
       <c r="BH95">
-        <v>0.3161354666029</v>
+        <v>0.3165945759827395</v>
       </c>
       <c r="BI95">
         <v>-0.0253</v>
       </c>
       <c r="BJ95">
-        <v>-0.0005525</v>
+        <v>-0.00055325</v>
       </c>
       <c r="BK95">
         <v>0.0315</v>
       </c>
       <c r="BL95">
-        <v>0.60075</v>
+        <v>0.604</v>
       </c>
       <c r="BM95">
         <v>1.24</v>
@@ -18867,13 +18867,13 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>38.02399425287357</v>
+        <v>38.0221264367816</v>
       </c>
       <c r="L96">
-        <v>2.602110182963715</v>
+        <v>2.604854144102566</v>
       </c>
       <c r="M96">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N96">
         <v>36.2</v>
@@ -18891,13 +18891,13 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>3.899928160919545</v>
+        <v>3.899008620689655</v>
       </c>
       <c r="T96">
-        <v>0.6356215973168357</v>
+        <v>0.6360044069666285</v>
       </c>
       <c r="U96">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="V96">
         <v>3.37</v>
@@ -18906,19 +18906,19 @@
         <v>3.75</v>
       </c>
       <c r="X96">
-        <v>4.2875</v>
+        <v>4.29</v>
       </c>
       <c r="Y96">
-        <v>5.33</v>
+        <v>5.34</v>
       </c>
       <c r="Z96">
         <v>696</v>
       </c>
       <c r="AA96">
-        <v>38.00775862068965</v>
+        <v>38.00761494252873</v>
       </c>
       <c r="AB96">
-        <v>2.6128344275841</v>
+        <v>2.613063375158848</v>
       </c>
       <c r="AC96">
         <v>33.5</v>
@@ -18939,16 +18939,16 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>109.4816091954023</v>
+        <v>109.4738505747126</v>
       </c>
       <c r="AJ96">
-        <v>29.00504953799815</v>
+        <v>29.00130793578581</v>
       </c>
       <c r="AK96">
         <v>59.6</v>
       </c>
       <c r="AL96">
-        <v>94.15000000000001</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM96">
         <v>112.5</v>
@@ -18963,19 +18963,19 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>28.9942672413793</v>
+        <v>28.99354885057472</v>
       </c>
       <c r="AR96">
-        <v>16.41644907784875</v>
+        <v>16.41642678522742</v>
       </c>
       <c r="AS96">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT96">
         <v>15.1</v>
       </c>
       <c r="AU96">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV96">
         <v>40.34999999999999</v>
@@ -18987,10 +18987,10 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.01325529576609196</v>
+        <v>0.01327849544238506</v>
       </c>
       <c r="AZ96">
-        <v>0.02323783634833866</v>
+        <v>0.02326920146884514</v>
       </c>
       <c r="BA96">
         <v>-0.00226</v>
@@ -19002,7 +19002,7 @@
         <v>0.00241</v>
       </c>
       <c r="BD96">
-        <v>0.015975</v>
+        <v>0.01605</v>
       </c>
       <c r="BE96">
         <v>0.153</v>
@@ -19011,22 +19011,22 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.2774915848275866</v>
+        <v>0.2780942126436783</v>
       </c>
       <c r="BH96">
-        <v>0.3184371251774465</v>
+        <v>0.3191571142642186</v>
       </c>
       <c r="BI96">
         <v>-0.025</v>
       </c>
       <c r="BJ96">
-        <v>-0.000447</v>
+        <v>-0.000446</v>
       </c>
       <c r="BK96">
-        <v>0.0329</v>
+        <v>0.03295</v>
       </c>
       <c r="BL96">
-        <v>0.604</v>
+        <v>0.608</v>
       </c>
       <c r="BM96">
         <v>1.25</v>
@@ -19064,13 +19064,13 @@
         <v>696</v>
       </c>
       <c r="K97">
-        <v>38.00905172413793</v>
+        <v>38.00991379310344</v>
       </c>
       <c r="L97">
-        <v>2.60329978046345</v>
+        <v>2.602771515308825</v>
       </c>
       <c r="M97">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="N97">
         <v>36.1</v>
@@ -19079,34 +19079,34 @@
         <v>38.2</v>
       </c>
       <c r="P97">
-        <v>40.1</v>
+        <v>40.025</v>
       </c>
       <c r="Q97">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="R97">
         <v>696</v>
       </c>
       <c r="S97">
-        <v>3.88775862068966</v>
+        <v>3.887873563218391</v>
       </c>
       <c r="T97">
-        <v>0.6366111983865729</v>
+        <v>0.6357440017721753</v>
       </c>
       <c r="U97">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="V97">
         <v>3.36</v>
       </c>
       <c r="W97">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="X97">
-        <v>4.282500000000001</v>
+        <v>4.2725</v>
       </c>
       <c r="Y97">
-        <v>5.38</v>
+        <v>5.31</v>
       </c>
       <c r="Z97">
         <v>696</v>
@@ -19136,19 +19136,19 @@
         <v>696</v>
       </c>
       <c r="AI97">
-        <v>109.4502873563218</v>
+        <v>109.4465517241379</v>
       </c>
       <c r="AJ97">
-        <v>28.97970562388107</v>
+        <v>28.99304684007357</v>
       </c>
       <c r="AK97">
         <v>59.6</v>
       </c>
       <c r="AL97">
-        <v>94.09999999999999</v>
+        <v>94.125</v>
       </c>
       <c r="AM97">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN97">
         <v>118</v>
@@ -19160,13 +19160,13 @@
         <v>696</v>
       </c>
       <c r="AQ97">
-        <v>28.9818247126437</v>
+        <v>28.98060344827587</v>
       </c>
       <c r="AR97">
-        <v>16.41728692272395</v>
+        <v>16.40947224025416</v>
       </c>
       <c r="AS97">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT97">
         <v>15.1</v>
@@ -19175,31 +19175,31 @@
         <v>31.8</v>
       </c>
       <c r="AV97">
-        <v>40.425</v>
+        <v>40.34999999999999</v>
       </c>
       <c r="AW97">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX97">
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.01336795074137932</v>
+        <v>0.01339157131609197</v>
       </c>
       <c r="AZ97">
-        <v>0.02341630916316476</v>
+        <v>0.02344696162831589</v>
       </c>
       <c r="BA97">
         <v>-0.00216</v>
       </c>
       <c r="BB97">
-        <v>-1.51E-05</v>
+        <v>-1.5E-05</v>
       </c>
       <c r="BC97">
         <v>0.002495</v>
       </c>
       <c r="BD97">
-        <v>0.016075</v>
+        <v>0.01615</v>
       </c>
       <c r="BE97">
         <v>0.154</v>
@@ -19208,22 +19208,22 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.2796517991522988</v>
+        <v>0.2802893284051723</v>
       </c>
       <c r="BH97">
-        <v>0.3202150526852989</v>
+        <v>0.320909130271862</v>
       </c>
       <c r="BI97">
-        <v>-0.0248</v>
+        <v>-0.0247</v>
       </c>
       <c r="BJ97">
-        <v>-0.00040825</v>
+        <v>-0.000408</v>
       </c>
       <c r="BK97">
-        <v>0.0343</v>
+        <v>0.03435</v>
       </c>
       <c r="BL97">
-        <v>0.608</v>
+        <v>0.611</v>
       </c>
       <c r="BM97">
         <v>1.25</v>
@@ -19261,19 +19261,19 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>38.01135057471264</v>
+        <v>38.01091954022989</v>
       </c>
       <c r="L98">
-        <v>2.603600255114313</v>
+        <v>2.603129553014202</v>
       </c>
       <c r="M98">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="N98">
         <v>36.1</v>
       </c>
       <c r="O98">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P98">
         <v>40.1</v>
@@ -19285,25 +19285,25 @@
         <v>696</v>
       </c>
       <c r="S98">
-        <v>3.88909482758621</v>
+        <v>3.888433908045979</v>
       </c>
       <c r="T98">
-        <v>0.6361701163164389</v>
+        <v>0.6359589065948894</v>
       </c>
       <c r="U98">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="V98">
         <v>3.36</v>
       </c>
       <c r="W98">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="X98">
-        <v>4.2925</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="Y98">
-        <v>5.35</v>
+        <v>5.32</v>
       </c>
       <c r="Z98">
         <v>696</v>
@@ -19333,19 +19333,19 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>109.449856321839</v>
+        <v>109.4449712643678</v>
       </c>
       <c r="AJ98">
-        <v>28.99105096319465</v>
+        <v>28.99175676441394</v>
       </c>
       <c r="AK98">
         <v>59.6</v>
       </c>
       <c r="AL98">
-        <v>94.07499999999999</v>
+        <v>94.125</v>
       </c>
       <c r="AM98">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN98">
         <v>118</v>
@@ -19357,13 +19357,13 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>28.97939655172415</v>
+        <v>28.97985632183911</v>
       </c>
       <c r="AR98">
-        <v>16.40896532218527</v>
+        <v>16.40945035601502</v>
       </c>
       <c r="AS98">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AT98">
         <v>15.1</v>
@@ -19381,13 +19381,13 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.01347510027586208</v>
+        <v>0.01349614230028736</v>
       </c>
       <c r="AZ98">
-        <v>0.02361253402996736</v>
+        <v>0.02363178447373094</v>
       </c>
       <c r="BA98">
-        <v>-0.00205</v>
+        <v>-0.00206</v>
       </c>
       <c r="BB98">
         <v>-1.41E-05</v>
@@ -19396,7 +19396,7 @@
         <v>0.00257</v>
       </c>
       <c r="BD98">
-        <v>0.016175</v>
+        <v>0.01625</v>
       </c>
       <c r="BE98">
         <v>0.155</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.2815155070402301</v>
+        <v>0.2820992712643677</v>
       </c>
       <c r="BH98">
-        <v>0.3214455474553219</v>
+        <v>0.3220801378361051</v>
       </c>
       <c r="BI98">
         <v>-0.0245</v>
@@ -19420,7 +19420,7 @@
         <v>0.0357</v>
       </c>
       <c r="BL98">
-        <v>0.61125</v>
+        <v>0.61525</v>
       </c>
       <c r="BM98">
         <v>1.23</v>
@@ -19458,13 +19458,13 @@
         <v>696</v>
       </c>
       <c r="K99">
-        <v>38.02772988505745</v>
+        <v>38.01666666666664</v>
       </c>
       <c r="L99">
-        <v>2.603897138288888</v>
+        <v>2.604889333781188</v>
       </c>
       <c r="M99">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="N99">
         <v>36.2</v>
@@ -19482,25 +19482,25 @@
         <v>696</v>
       </c>
       <c r="S99">
-        <v>3.905747126436784</v>
+        <v>3.89387931034483</v>
       </c>
       <c r="T99">
-        <v>0.6366463521371757</v>
+        <v>0.6363926278485278</v>
       </c>
       <c r="U99">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="V99">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="W99">
-        <v>3.755</v>
+        <v>3.745</v>
       </c>
       <c r="X99">
-        <v>4.3025</v>
+        <v>4.2925</v>
       </c>
       <c r="Y99">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="Z99">
         <v>696</v>
@@ -19530,19 +19530,19 @@
         <v>696</v>
       </c>
       <c r="AI99">
-        <v>109.4887931034482</v>
+        <v>109.4548850574712</v>
       </c>
       <c r="AJ99">
-        <v>28.98813532003517</v>
+        <v>28.97745795660926</v>
       </c>
       <c r="AK99">
         <v>59.6</v>
       </c>
       <c r="AL99">
-        <v>94.15000000000001</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM99">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN99">
         <v>118</v>
@@ -19554,13 +19554,13 @@
         <v>696</v>
       </c>
       <c r="AQ99">
-        <v>28.99429597701151</v>
+        <v>28.98433908045976</v>
       </c>
       <c r="AR99">
-        <v>16.41607077371206</v>
+        <v>16.41173027129707</v>
       </c>
       <c r="AS99">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AT99">
         <v>15.1</v>
@@ -19578,22 +19578,22 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.01358320295977012</v>
+        <v>0.01359739860632184</v>
       </c>
       <c r="AZ99">
-        <v>0.02379621038799334</v>
+        <v>0.02379693048255771</v>
       </c>
       <c r="BA99">
-        <v>-0.00196</v>
+        <v>-0.00195</v>
       </c>
       <c r="BB99">
-        <v>-1.325E-05</v>
+        <v>-1.33E-05</v>
       </c>
       <c r="BC99">
         <v>0.002645</v>
       </c>
       <c r="BD99">
-        <v>0.016275</v>
+        <v>0.01635</v>
       </c>
       <c r="BE99">
         <v>0.156</v>
@@ -19602,25 +19602,25 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.2833561004310342</v>
+        <v>0.2839187071839077</v>
       </c>
       <c r="BH99">
-        <v>0.3227535330434816</v>
+        <v>0.3234251264963104</v>
       </c>
       <c r="BI99">
         <v>-0.0243</v>
       </c>
       <c r="BJ99">
-        <v>-0.000315</v>
+        <v>-0.0003145</v>
       </c>
       <c r="BK99">
         <v>0.0371</v>
       </c>
       <c r="BL99">
-        <v>0.6154999999999999</v>
+        <v>0.6185</v>
       </c>
       <c r="BM99">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="100" spans="1:65">
@@ -19655,16 +19655,16 @@
         <v>696</v>
       </c>
       <c r="K100">
-        <v>38.0110632183908</v>
+        <v>38.01451149425288</v>
       </c>
       <c r="L100">
-        <v>2.603385956074406</v>
+        <v>2.604772441740158</v>
       </c>
       <c r="M100">
         <v>33.4</v>
       </c>
       <c r="N100">
-        <v>36.1</v>
+        <v>36.175</v>
       </c>
       <c r="O100">
         <v>38.25</v>
@@ -19679,25 +19679,25 @@
         <v>696</v>
       </c>
       <c r="S100">
-        <v>3.888548850574711</v>
+        <v>3.892988505747132</v>
       </c>
       <c r="T100">
-        <v>0.6363491127468014</v>
+        <v>0.6363732490432861</v>
       </c>
       <c r="U100">
         <v>2.94</v>
       </c>
       <c r="V100">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="W100">
-        <v>3.74</v>
+        <v>3.745</v>
       </c>
       <c r="X100">
-        <v>4.285</v>
+        <v>4.2925</v>
       </c>
       <c r="Y100">
-        <v>5.32</v>
+        <v>5.34</v>
       </c>
       <c r="Z100">
         <v>696</v>
@@ -19727,16 +19727,16 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>109.4405172413793</v>
+        <v>109.4471264367816</v>
       </c>
       <c r="AJ100">
-        <v>28.97846129973816</v>
+        <v>28.98863568581656</v>
       </c>
       <c r="AK100">
         <v>59.6</v>
       </c>
       <c r="AL100">
-        <v>94.05</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM100">
         <v>112.5</v>
@@ -19751,10 +19751,10 @@
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>28.97913793103448</v>
+        <v>28.98248563218391</v>
       </c>
       <c r="AR100">
-        <v>16.40920022175482</v>
+        <v>16.41052549585641</v>
       </c>
       <c r="AS100">
         <v>1.26</v>
@@ -19763,7 +19763,7 @@
         <v>15.1</v>
       </c>
       <c r="AU100">
-        <v>31.8</v>
+        <v>31.85</v>
       </c>
       <c r="AV100">
         <v>40.34999999999999</v>
@@ -19775,22 +19775,22 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.01367160237068965</v>
+        <v>0.01370416166666666</v>
       </c>
       <c r="AZ100">
-        <v>0.02393775485967098</v>
+        <v>0.02397876975533564</v>
       </c>
       <c r="BA100">
         <v>-0.00185</v>
       </c>
       <c r="BB100">
-        <v>-1.3125E-05</v>
+        <v>-1.305E-05</v>
       </c>
       <c r="BC100">
-        <v>0.00272</v>
+        <v>0.002725</v>
       </c>
       <c r="BD100">
-        <v>0.01635</v>
+        <v>0.01645</v>
       </c>
       <c r="BE100">
         <v>0.157</v>
@@ -19799,22 +19799,22 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.2850076278735633</v>
+        <v>0.2858420086206898</v>
       </c>
       <c r="BH100">
-        <v>0.3242024403727287</v>
+        <v>0.3251153526112621</v>
       </c>
       <c r="BI100">
-        <v>-0.024</v>
+        <v>-0.0241</v>
       </c>
       <c r="BJ100">
-        <v>-0.00031175</v>
+        <v>-0.000311</v>
       </c>
       <c r="BK100">
         <v>0.03845</v>
       </c>
       <c r="BL100">
-        <v>0.61825</v>
+        <v>0.62225</v>
       </c>
       <c r="BM100">
         <v>1.24</v>
@@ -19852,10 +19852,10 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>38.01178160919539</v>
+        <v>38.00531609195402</v>
       </c>
       <c r="L101">
-        <v>2.604866334356282</v>
+        <v>2.603608544673901</v>
       </c>
       <c r="M101">
         <v>33.4</v>
@@ -19876,34 +19876,34 @@
         <v>696</v>
       </c>
       <c r="S101">
-        <v>3.889885057471269</v>
+        <v>3.882859195402299</v>
       </c>
       <c r="T101">
-        <v>0.6375420322491008</v>
+        <v>0.6372610119972238</v>
       </c>
       <c r="U101">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="V101">
-        <v>3.3675</v>
+        <v>3.36</v>
       </c>
       <c r="W101">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="X101">
-        <v>4.285</v>
+        <v>4.282500000000001</v>
       </c>
       <c r="Y101">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="Z101">
         <v>696</v>
       </c>
       <c r="AA101">
-        <v>38.00603448275859</v>
+        <v>38.00589080459768</v>
       </c>
       <c r="AB101">
-        <v>2.6148206962676</v>
+        <v>2.615054877259896</v>
       </c>
       <c r="AC101">
         <v>33.5</v>
@@ -19924,10 +19924,10 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>109.4459770114942</v>
+        <v>109.4272988505748</v>
       </c>
       <c r="AJ101">
-        <v>28.97530004278221</v>
+        <v>28.97306914558547</v>
       </c>
       <c r="AK101">
         <v>59.6</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>28.979683908046</v>
+        <v>28.97454022988508</v>
       </c>
       <c r="AR101">
-        <v>16.40885637032502</v>
+        <v>16.40673080219352</v>
       </c>
       <c r="AS101">
         <v>1.26</v>
@@ -19972,10 +19972,10 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.01377788995689655</v>
+        <v>0.01380282113505747</v>
       </c>
       <c r="AZ101">
-        <v>0.02411114277508832</v>
+        <v>0.0241423612681215</v>
       </c>
       <c r="BA101">
         <v>-0.00175</v>
@@ -19984,10 +19984,10 @@
         <v>-1.27E-05</v>
       </c>
       <c r="BC101">
-        <v>0.0028</v>
+        <v>0.002795</v>
       </c>
       <c r="BD101">
-        <v>0.01645</v>
+        <v>0.01655</v>
       </c>
       <c r="BE101">
         <v>0.158</v>
@@ -19996,22 +19996,22 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.286969041666667</v>
+        <v>0.2876475689655177</v>
       </c>
       <c r="BH101">
-        <v>0.3261316599488546</v>
+        <v>0.3269017371516149</v>
       </c>
       <c r="BI101">
         <v>-0.0239</v>
       </c>
       <c r="BJ101">
-        <v>-0.0003075</v>
+        <v>-0.00030875</v>
       </c>
       <c r="BK101">
         <v>0.03975</v>
       </c>
       <c r="BL101">
-        <v>0.6214999999999999</v>
+        <v>0.62475</v>
       </c>
       <c r="BM101">
         <v>1.26</v>
@@ -20049,16 +20049,16 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>38.01379310344827</v>
+        <v>38.00574712643677</v>
       </c>
       <c r="L102">
-        <v>2.607142261465746</v>
+        <v>2.606786111189049</v>
       </c>
       <c r="M102">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N102">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O102">
         <v>38.2</v>
@@ -20067,40 +20067,40 @@
         <v>40.1</v>
       </c>
       <c r="Q102">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="R102">
         <v>696</v>
       </c>
       <c r="S102">
-        <v>3.89110632183908</v>
+        <v>3.884166666666663</v>
       </c>
       <c r="T102">
-        <v>0.6421087652238077</v>
+        <v>0.6429848523749941</v>
       </c>
       <c r="U102">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="V102">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="W102">
-        <v>3.745</v>
+        <v>3.74</v>
       </c>
       <c r="X102">
-        <v>4.3125</v>
+        <v>4.27</v>
       </c>
       <c r="Y102">
-        <v>5.47</v>
+        <v>5.39</v>
       </c>
       <c r="Z102">
         <v>696</v>
       </c>
       <c r="AA102">
-        <v>38.00488505747125</v>
+        <v>38.00459770114941</v>
       </c>
       <c r="AB102">
-        <v>2.615549350334533</v>
+        <v>2.616017426557448</v>
       </c>
       <c r="AC102">
         <v>33.5</v>
@@ -20121,16 +20121,16 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>109.4692528735632</v>
+        <v>109.4218390804598</v>
       </c>
       <c r="AJ102">
-        <v>28.98392514072764</v>
+        <v>28.96857607936839</v>
       </c>
       <c r="AK102">
-        <v>59.5</v>
+        <v>59.4</v>
       </c>
       <c r="AL102">
-        <v>94</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM102">
         <v>113</v>
@@ -20139,76 +20139,76 @@
         <v>118</v>
       </c>
       <c r="AO102">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AP102">
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>28.98090517241382</v>
+        <v>28.97383620689655</v>
       </c>
       <c r="AR102">
-        <v>16.41633022415196</v>
+        <v>16.40786751352773</v>
       </c>
       <c r="AS102">
         <v>1.26</v>
       </c>
       <c r="AT102">
-        <v>15.1</v>
+        <v>15.025</v>
       </c>
       <c r="AU102">
         <v>31.8</v>
       </c>
       <c r="AV102">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="AW102">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX102">
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.01388082721408045</v>
+        <v>0.01392013029454022</v>
       </c>
       <c r="AZ102">
-        <v>0.0242787179244644</v>
+        <v>0.02433305861511255</v>
       </c>
       <c r="BA102">
         <v>-0.00166</v>
       </c>
       <c r="BB102">
-        <v>-9.73E-06</v>
+        <v>-9.6875E-06</v>
       </c>
       <c r="BC102">
-        <v>0.00286</v>
+        <v>0.002865</v>
       </c>
       <c r="BD102">
-        <v>0.01655</v>
+        <v>0.016625</v>
       </c>
       <c r="BE102">
-        <v>0.158</v>
+        <v>0.159</v>
       </c>
       <c r="BF102">
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.2888771188218389</v>
+        <v>0.2898505722701145</v>
       </c>
       <c r="BH102">
-        <v>0.328156736113914</v>
+        <v>0.3292408424230583</v>
       </c>
       <c r="BI102">
         <v>-0.0237</v>
       </c>
       <c r="BJ102">
-        <v>-0.00022325</v>
+        <v>-0.00022625</v>
       </c>
       <c r="BK102">
         <v>0.04115</v>
       </c>
       <c r="BL102">
-        <v>0.62375</v>
+        <v>0.629</v>
       </c>
       <c r="BM102">
         <v>1.29</v>
@@ -20246,10 +20246,10 @@
         <v>696</v>
       </c>
       <c r="K103">
-        <v>37.98922413793103</v>
+        <v>37.98778735632182</v>
       </c>
       <c r="L103">
-        <v>2.603033421662932</v>
+        <v>2.60397211594458</v>
       </c>
       <c r="M103">
         <v>33.4</v>
@@ -20264,31 +20264,31 @@
         <v>40.1</v>
       </c>
       <c r="Q103">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R103">
         <v>696</v>
       </c>
       <c r="S103">
-        <v>3.866767241379315</v>
+        <v>3.865603448275864</v>
       </c>
       <c r="T103">
-        <v>0.6375459089612625</v>
+        <v>0.639122990102297</v>
       </c>
       <c r="U103">
         <v>2.88</v>
       </c>
       <c r="V103">
-        <v>3.3475</v>
+        <v>3.3375</v>
       </c>
       <c r="W103">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="X103">
-        <v>4.27</v>
+        <v>4.282500000000001</v>
       </c>
       <c r="Y103">
-        <v>5.33</v>
+        <v>5.41</v>
       </c>
       <c r="Z103">
         <v>696</v>
@@ -20318,10 +20318,10 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>109.3814655172414</v>
+        <v>109.3827586206896</v>
       </c>
       <c r="AJ103">
-        <v>28.95823365239037</v>
+        <v>28.95312940438592</v>
       </c>
       <c r="AK103">
         <v>59.5</v>
@@ -20330,7 +20330,7 @@
         <v>94</v>
       </c>
       <c r="AM103">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN103">
         <v>118</v>
@@ -20342,10 +20342,10 @@
         <v>696</v>
       </c>
       <c r="AQ103">
-        <v>28.96091954022988</v>
+        <v>28.96043103448279</v>
       </c>
       <c r="AR103">
-        <v>16.40012014394904</v>
+        <v>16.40676892555422</v>
       </c>
       <c r="AS103">
         <v>1.26</v>
@@ -20354,34 +20354,34 @@
         <v>15.1</v>
       </c>
       <c r="AU103">
-        <v>31.75</v>
+        <v>31.8</v>
       </c>
       <c r="AV103">
-        <v>40.325</v>
+        <v>40.4</v>
       </c>
       <c r="AW103">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AX103">
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.01399220215014368</v>
+        <v>0.01401245656609194</v>
       </c>
       <c r="AZ103">
-        <v>0.02446379708013166</v>
+        <v>0.02448253055219247</v>
       </c>
       <c r="BA103">
         <v>-0.00156</v>
       </c>
       <c r="BB103">
-        <v>-6.95E-06</v>
+        <v>-6.8975E-06</v>
       </c>
       <c r="BC103">
-        <v>0.00292</v>
+        <v>0.002925</v>
       </c>
       <c r="BD103">
-        <v>0.01665</v>
+        <v>0.016725</v>
       </c>
       <c r="BE103">
         <v>0.16</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.291010270413793</v>
+        <v>0.2915412754022987</v>
       </c>
       <c r="BH103">
-        <v>0.3303432475866094</v>
+        <v>0.3308961261037434</v>
       </c>
       <c r="BI103">
         <v>-0.0235</v>
@@ -20402,10 +20402,10 @@
         <v>-0.00012225</v>
       </c>
       <c r="BK103">
-        <v>0.04239999999999999</v>
+        <v>0.04245</v>
       </c>
       <c r="BL103">
-        <v>0.6285000000000001</v>
+        <v>0.6315</v>
       </c>
       <c r="BM103">
         <v>1.3</v>
@@ -20443,49 +20443,49 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>38.01221264367815</v>
+        <v>38.0110632183908</v>
       </c>
       <c r="L104">
-        <v>2.604425175129265</v>
+        <v>2.605529486287068</v>
       </c>
       <c r="M104">
         <v>33.4</v>
       </c>
       <c r="N104">
-        <v>36.1</v>
+        <v>36.175</v>
       </c>
       <c r="O104">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P104">
         <v>40.1</v>
       </c>
       <c r="Q104">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R104">
         <v>696</v>
       </c>
       <c r="S104">
-        <v>3.889339080459773</v>
+        <v>3.890545977011493</v>
       </c>
       <c r="T104">
-        <v>0.6369691001134175</v>
+        <v>0.6392065591193523</v>
       </c>
       <c r="U104">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="V104">
-        <v>3.3675</v>
+        <v>3.36</v>
       </c>
       <c r="W104">
         <v>3.74</v>
       </c>
       <c r="X104">
-        <v>4.2875</v>
+        <v>4.28</v>
       </c>
       <c r="Y104">
-        <v>5.33</v>
+        <v>5.39</v>
       </c>
       <c r="Z104">
         <v>696</v>
@@ -20515,19 +20515,19 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>109.4321839080459</v>
+        <v>109.4438218390805</v>
       </c>
       <c r="AJ104">
-        <v>28.96072207555179</v>
+        <v>28.95572689553467</v>
       </c>
       <c r="AK104">
         <v>59.6</v>
       </c>
       <c r="AL104">
-        <v>94.125</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AM104">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN104">
         <v>118</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>28.9744971264368</v>
+        <v>28.97544540229888</v>
       </c>
       <c r="AR104">
-        <v>16.40445161656675</v>
+        <v>16.40544565939449</v>
       </c>
       <c r="AS104">
         <v>1.26</v>
@@ -20554,7 +20554,7 @@
         <v>31.8</v>
       </c>
       <c r="AV104">
-        <v>40.34999999999999</v>
+        <v>40.325</v>
       </c>
       <c r="AW104">
         <v>113</v>
@@ -20563,46 +20563,46 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.01409720724568966</v>
+        <v>0.01412052959051724</v>
       </c>
       <c r="AZ104">
-        <v>0.02463972835837569</v>
+        <v>0.02466600992048954</v>
       </c>
       <c r="BA104">
         <v>-0.00146</v>
       </c>
       <c r="BB104">
-        <v>-4.52E-06</v>
+        <v>-4.45E-06</v>
       </c>
       <c r="BC104">
         <v>0.002985</v>
       </c>
       <c r="BD104">
-        <v>0.01675</v>
+        <v>0.016825</v>
       </c>
       <c r="BE104">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="BF104">
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.2928950324712647</v>
+        <v>0.2935545948275869</v>
       </c>
       <c r="BH104">
-        <v>0.3320848747435523</v>
+        <v>0.3327911665474366</v>
       </c>
       <c r="BI104">
         <v>-0.0233</v>
       </c>
       <c r="BJ104">
-        <v>-9.562500000000001E-05</v>
+        <v>-9.55E-05</v>
       </c>
       <c r="BK104">
-        <v>0.0437</v>
+        <v>0.04365</v>
       </c>
       <c r="BL104">
-        <v>0.6315</v>
+        <v>0.63475</v>
       </c>
       <c r="BM104">
         <v>1.31</v>
@@ -20640,10 +20640,10 @@
         <v>696</v>
       </c>
       <c r="K105">
-        <v>37.98706896551724</v>
+        <v>37.99956896551724</v>
       </c>
       <c r="L105">
-        <v>2.604308444829926</v>
+        <v>2.605033829490676</v>
       </c>
       <c r="M105">
         <v>33.4</v>
@@ -20664,34 +20664,34 @@
         <v>696</v>
       </c>
       <c r="S105">
-        <v>3.865100574712646</v>
+        <v>3.87728448275862</v>
       </c>
       <c r="T105">
-        <v>0.6385982772090329</v>
+        <v>0.6391621850588698</v>
       </c>
       <c r="U105">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="V105">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="W105">
-        <v>3.715</v>
+        <v>3.735</v>
       </c>
       <c r="X105">
-        <v>4.26</v>
+        <v>4.2725</v>
       </c>
       <c r="Y105">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="Z105">
         <v>696</v>
       </c>
       <c r="AA105">
-        <v>38.00344827586206</v>
+        <v>38.00287356321839</v>
       </c>
       <c r="AB105">
-        <v>2.616921065311096</v>
+        <v>2.617614448275008</v>
       </c>
       <c r="AC105">
         <v>33.5</v>
@@ -20712,16 +20712,16 @@
         <v>696</v>
       </c>
       <c r="AI105">
-        <v>109.3693965517242</v>
+        <v>109.3915229885057</v>
       </c>
       <c r="AJ105">
-        <v>28.94111904252991</v>
+        <v>28.94284171103903</v>
       </c>
       <c r="AK105">
-        <v>59.6</v>
+        <v>59.5</v>
       </c>
       <c r="AL105">
-        <v>94</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM105">
         <v>113</v>
@@ -20736,10 +20736,10 @@
         <v>696</v>
       </c>
       <c r="AQ105">
-        <v>28.95693965517242</v>
+        <v>28.9624568965517</v>
       </c>
       <c r="AR105">
-        <v>16.39663577449756</v>
+        <v>16.39945276761625</v>
       </c>
       <c r="AS105">
         <v>1.26</v>
@@ -20760,46 +20760,46 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.01418566206896551</v>
+        <v>0.01421808874137931</v>
       </c>
       <c r="AZ105">
-        <v>0.02478215039562359</v>
+        <v>0.02482864193687654</v>
       </c>
       <c r="BA105">
         <v>-0.00137</v>
       </c>
       <c r="BB105">
-        <v>9.75E-06</v>
+        <v>9.8275E-06</v>
       </c>
       <c r="BC105">
-        <v>0.003045</v>
+        <v>0.00305</v>
       </c>
       <c r="BD105">
-        <v>0.01685</v>
+        <v>0.016925</v>
       </c>
       <c r="BE105">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="BF105">
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.2945766155172415</v>
+        <v>0.2953326689655169</v>
       </c>
       <c r="BH105">
-        <v>0.3335255359109788</v>
+        <v>0.3343252779327366</v>
       </c>
       <c r="BI105">
         <v>-0.0231</v>
       </c>
       <c r="BJ105">
-        <v>0.0004025</v>
+        <v>0.000404</v>
       </c>
       <c r="BK105">
-        <v>0.04485</v>
+        <v>0.04495</v>
       </c>
       <c r="BL105">
-        <v>0.63525</v>
+        <v>0.64</v>
       </c>
       <c r="BM105">
         <v>1.32</v>
@@ -20837,22 +20837,22 @@
         <v>696</v>
       </c>
       <c r="K106">
-        <v>37.97126436781608</v>
+        <v>38.02011494252873</v>
       </c>
       <c r="L106">
-        <v>2.60399949368325</v>
+        <v>2.607095572643763</v>
       </c>
       <c r="M106">
         <v>33.4</v>
       </c>
       <c r="N106">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O106">
         <v>38.2</v>
       </c>
       <c r="P106">
-        <v>40.025</v>
+        <v>40.1</v>
       </c>
       <c r="Q106">
         <v>41.9</v>
@@ -20861,34 +20861,34 @@
         <v>696</v>
       </c>
       <c r="S106">
-        <v>3.849353448275863</v>
+        <v>3.898635057471263</v>
       </c>
       <c r="T106">
-        <v>0.6401739973140219</v>
+        <v>0.6394291556088033</v>
       </c>
       <c r="U106">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="V106">
-        <v>3.3275</v>
+        <v>3.38</v>
       </c>
       <c r="W106">
-        <v>3.7</v>
+        <v>3.755</v>
       </c>
       <c r="X106">
-        <v>4.26</v>
+        <v>4.295</v>
       </c>
       <c r="Y106">
-        <v>5.37</v>
+        <v>5.39</v>
       </c>
       <c r="Z106">
         <v>696</v>
       </c>
       <c r="AA106">
-        <v>38.00186781609194</v>
+        <v>38.00172413793103</v>
       </c>
       <c r="AB106">
-        <v>2.618755696572248</v>
+        <v>2.619000284592786</v>
       </c>
       <c r="AC106">
         <v>33.5</v>
@@ -20909,16 +20909,16 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>109.3228448275862</v>
+        <v>109.4531609195403</v>
       </c>
       <c r="AJ106">
-        <v>28.92583089887435</v>
+        <v>28.95977296917004</v>
       </c>
       <c r="AK106">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="AL106">
-        <v>93.97499999999999</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM106">
         <v>113</v>
@@ -20933,10 +20933,10 @@
         <v>696</v>
       </c>
       <c r="AQ106">
-        <v>28.94040229885059</v>
+        <v>28.97691091954021</v>
       </c>
       <c r="AR106">
-        <v>16.38940432799227</v>
+        <v>16.40397959517627</v>
       </c>
       <c r="AS106">
         <v>1.26</v>
@@ -20957,46 +20957,46 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.01428610443965518</v>
+        <v>0.01432212056034483</v>
       </c>
       <c r="AZ106">
-        <v>0.02495778985813632</v>
+        <v>0.02500415842333742</v>
       </c>
       <c r="BA106">
-        <v>-0.00128</v>
+        <v>-0.00127</v>
       </c>
       <c r="BB106">
-        <v>2.29E-05</v>
+        <v>2.265E-05</v>
       </c>
       <c r="BC106">
         <v>0.003105</v>
       </c>
       <c r="BD106">
-        <v>0.016925</v>
+        <v>0.017025</v>
       </c>
       <c r="BE106">
-        <v>0.162</v>
+        <v>0.163</v>
       </c>
       <c r="BF106">
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.2963308216954022</v>
+        <v>0.2972443985632184</v>
       </c>
       <c r="BH106">
-        <v>0.3350229008815</v>
+        <v>0.336009499456185</v>
       </c>
       <c r="BI106">
-        <v>-0.023</v>
+        <v>-0.0229</v>
       </c>
       <c r="BJ106">
-        <v>0.0008784999999999999</v>
+        <v>0.0008832499999999999</v>
       </c>
       <c r="BK106">
         <v>0.04555</v>
       </c>
       <c r="BL106">
-        <v>0.6385000000000001</v>
+        <v>0.64325</v>
       </c>
       <c r="BM106">
         <v>1.32</v>
@@ -21034,19 +21034,19 @@
         <v>696</v>
       </c>
       <c r="K107">
-        <v>38.00057471264368</v>
+        <v>38.02198275862068</v>
       </c>
       <c r="L107">
-        <v>2.606212768169771</v>
+        <v>2.609626248438045</v>
       </c>
       <c r="M107">
         <v>33.4</v>
       </c>
       <c r="N107">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O107">
-        <v>38.2</v>
+        <v>38.25</v>
       </c>
       <c r="P107">
         <v>40.1</v>
@@ -21058,22 +21058,22 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>3.877873563218395</v>
+        <v>3.897787356321839</v>
       </c>
       <c r="T107">
-        <v>0.6393265936462017</v>
+        <v>0.6386739776142706</v>
       </c>
       <c r="U107">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="V107">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="W107">
-        <v>3.725</v>
+        <v>3.745</v>
       </c>
       <c r="X107">
-        <v>4.28</v>
+        <v>4.295</v>
       </c>
       <c r="Y107">
         <v>5.36</v>
@@ -21106,16 +21106,16 @@
         <v>696</v>
       </c>
       <c r="AI107">
-        <v>109.3938218390805</v>
+        <v>109.4439655172413</v>
       </c>
       <c r="AJ107">
-        <v>28.94571658359829</v>
+        <v>28.94594552081124</v>
       </c>
       <c r="AK107">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="AL107">
-        <v>94</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM107">
         <v>113</v>
@@ -21130,10 +21130,10 @@
         <v>696</v>
       </c>
       <c r="AQ107">
-        <v>28.96248563218391</v>
+        <v>28.97706896551724</v>
       </c>
       <c r="AR107">
-        <v>16.39726944279593</v>
+        <v>16.40355093250351</v>
       </c>
       <c r="AS107">
         <v>1.26</v>
@@ -21154,10 +21154,10 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.01438873426724139</v>
+        <v>0.01443115890804597</v>
       </c>
       <c r="AZ107">
-        <v>0.02511762692277071</v>
+        <v>0.0251790580432063</v>
       </c>
       <c r="BA107">
         <v>-0.00118</v>
@@ -21166,34 +21166,34 @@
         <v>3.545E-05</v>
       </c>
       <c r="BC107">
-        <v>0.00316</v>
+        <v>0.00317</v>
       </c>
       <c r="BD107">
-        <v>0.017025</v>
+        <v>0.017125</v>
       </c>
       <c r="BE107">
-        <v>0.163</v>
+        <v>0.164</v>
       </c>
       <c r="BF107">
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.2983064959770116</v>
+        <v>0.2992807642241382</v>
       </c>
       <c r="BH107">
-        <v>0.3369547505372283</v>
+        <v>0.3379935883356154</v>
       </c>
       <c r="BI107">
         <v>-0.0228</v>
       </c>
       <c r="BJ107">
-        <v>0.0013375</v>
+        <v>0.001345</v>
       </c>
       <c r="BK107">
-        <v>0.0462</v>
+        <v>0.0463</v>
       </c>
       <c r="BL107">
-        <v>0.64225</v>
+        <v>0.647</v>
       </c>
       <c r="BM107">
         <v>1.34</v>
@@ -21231,10 +21231,10 @@
         <v>696</v>
       </c>
       <c r="K108">
-        <v>37.98275862068964</v>
+        <v>37.9987068965517</v>
       </c>
       <c r="L108">
-        <v>2.605250123577463</v>
+        <v>2.606447135623759</v>
       </c>
       <c r="M108">
         <v>33.4</v>
@@ -21249,31 +21249,31 @@
         <v>40.1</v>
       </c>
       <c r="Q108">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="R108">
         <v>696</v>
       </c>
       <c r="S108">
-        <v>3.861738505747127</v>
+        <v>3.877227011494254</v>
       </c>
       <c r="T108">
-        <v>0.638104202500647</v>
+        <v>0.6384389100899251</v>
       </c>
       <c r="U108">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V108">
-        <v>3.3375</v>
+        <v>3.35</v>
       </c>
       <c r="W108">
-        <v>3.715</v>
+        <v>3.73</v>
       </c>
       <c r="X108">
-        <v>4.2575</v>
+        <v>4.2775</v>
       </c>
       <c r="Y108">
-        <v>5.34</v>
+        <v>5.36</v>
       </c>
       <c r="Z108">
         <v>696</v>
@@ -21303,19 +21303,19 @@
         <v>696</v>
       </c>
       <c r="AI108">
-        <v>109.3479885057471</v>
+        <v>109.3818965517242</v>
       </c>
       <c r="AJ108">
-        <v>28.93566809379732</v>
+        <v>28.93112316556237</v>
       </c>
       <c r="AK108">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="AL108">
-        <v>94</v>
+        <v>94.07499999999999</v>
       </c>
       <c r="AM108">
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="AN108">
         <v>118</v>
@@ -21327,10 +21327,10 @@
         <v>696</v>
       </c>
       <c r="AQ108">
-        <v>28.9466666666667</v>
+        <v>28.95778735632189</v>
       </c>
       <c r="AR108">
-        <v>16.38912447201597</v>
+        <v>16.39385962397341</v>
       </c>
       <c r="AS108">
         <v>1.26</v>
@@ -21351,22 +21351,22 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.01448123415229885</v>
+        <v>0.01451849961206897</v>
       </c>
       <c r="AZ108">
-        <v>0.0252644563462378</v>
+        <v>0.02532634901674628</v>
       </c>
       <c r="BA108">
         <v>-0.00109</v>
       </c>
       <c r="BB108">
-        <v>4.8325E-05</v>
+        <v>4.8475E-05</v>
       </c>
       <c r="BC108">
         <v>0.003225</v>
       </c>
       <c r="BD108">
-        <v>0.017125</v>
+        <v>0.0172</v>
       </c>
       <c r="BE108">
         <v>0.164</v>
@@ -21375,22 +21375,22 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.3000924363505746</v>
+        <v>0.3009804991379309</v>
       </c>
       <c r="BH108">
-        <v>0.3388522125465854</v>
+        <v>0.3398056560633116</v>
       </c>
       <c r="BI108">
         <v>-0.0226</v>
       </c>
       <c r="BJ108">
-        <v>0.0017875</v>
+        <v>0.001785</v>
       </c>
       <c r="BK108">
         <v>0.0469</v>
       </c>
       <c r="BL108">
-        <v>0.64525</v>
+        <v>0.64925</v>
       </c>
       <c r="BM108">
         <v>1.36</v>
@@ -21428,58 +21428,58 @@
         <v>696</v>
       </c>
       <c r="K109">
-        <v>38.04741379310342</v>
+        <v>37.99554597701148</v>
       </c>
       <c r="L109">
-        <v>2.611070880622895</v>
+        <v>2.607106003957009</v>
       </c>
       <c r="M109">
         <v>33.4</v>
       </c>
       <c r="N109">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O109">
-        <v>38.25</v>
+        <v>38.2</v>
       </c>
       <c r="P109">
         <v>40.1</v>
       </c>
       <c r="Q109">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="R109">
         <v>696</v>
       </c>
       <c r="S109">
-        <v>3.925445402298859</v>
+        <v>3.874367816091955</v>
       </c>
       <c r="T109">
-        <v>0.6394910992965817</v>
+        <v>0.6382919223879677</v>
       </c>
       <c r="U109">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="V109">
-        <v>3.4075</v>
+        <v>3.35</v>
       </c>
       <c r="W109">
-        <v>3.77</v>
+        <v>3.73</v>
       </c>
       <c r="X109">
-        <v>4.325</v>
+        <v>4.2675</v>
       </c>
       <c r="Y109">
-        <v>5.4</v>
+        <v>5.34</v>
       </c>
       <c r="Z109">
         <v>696</v>
       </c>
       <c r="AA109">
-        <v>38.00129310344828</v>
+        <v>38.00100574712643</v>
       </c>
       <c r="AB109">
-        <v>2.619750341283955</v>
+        <v>2.620250220347879</v>
       </c>
       <c r="AC109">
         <v>33.4</v>
@@ -21500,19 +21500,19 @@
         <v>696</v>
       </c>
       <c r="AI109">
-        <v>109.5074712643679</v>
+        <v>109.3645114942529</v>
       </c>
       <c r="AJ109">
-        <v>28.95989936857555</v>
+        <v>28.92499189317108</v>
       </c>
       <c r="AK109">
         <v>59.6</v>
       </c>
       <c r="AL109">
-        <v>94.175</v>
+        <v>94</v>
       </c>
       <c r="AM109">
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="AN109">
         <v>118</v>
@@ -21524,10 +21524,10 @@
         <v>696</v>
       </c>
       <c r="AQ109">
-        <v>28.99231321839082</v>
+        <v>28.95356321839083</v>
       </c>
       <c r="AR109">
-        <v>16.40785749544898</v>
+        <v>16.39101661150361</v>
       </c>
       <c r="AS109">
         <v>1.26</v>
@@ -21536,10 +21536,10 @@
         <v>15.1</v>
       </c>
       <c r="AU109">
-        <v>31.85</v>
+        <v>31.8</v>
       </c>
       <c r="AV109">
-        <v>40.34999999999999</v>
+        <v>40.325</v>
       </c>
       <c r="AW109">
         <v>113</v>
@@ -21548,22 +21548,22 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.01461564274425287</v>
+        <v>0.01463486724137931</v>
       </c>
       <c r="AZ109">
-        <v>0.02548872481764582</v>
+        <v>0.02550318365407929</v>
       </c>
       <c r="BA109">
-        <v>-0.00101</v>
+        <v>-0.001</v>
       </c>
       <c r="BB109">
-        <v>6.045E-05</v>
+        <v>6.035E-05</v>
       </c>
       <c r="BC109">
-        <v>0.00329</v>
+        <v>0.003285</v>
       </c>
       <c r="BD109">
-        <v>0.017225</v>
+        <v>0.0173</v>
       </c>
       <c r="BE109">
         <v>0.165</v>
@@ -21572,22 +21572,22 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.302726457327586</v>
+        <v>0.3032915882183909</v>
       </c>
       <c r="BH109">
-        <v>0.3416443655012801</v>
+        <v>0.3422492161572654</v>
       </c>
       <c r="BI109">
-        <v>-0.0225</v>
+        <v>-0.0224</v>
       </c>
       <c r="BJ109">
         <v>0.0021825</v>
       </c>
       <c r="BK109">
-        <v>0.0477</v>
+        <v>0.04765</v>
       </c>
       <c r="BL109">
-        <v>0.651</v>
+        <v>0.65325</v>
       </c>
       <c r="BM109">
         <v>1.38</v>
@@ -21625,19 +21625,19 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>38.00272988505746</v>
+        <v>38.02902298850575</v>
       </c>
       <c r="L110">
-        <v>2.608311235461299</v>
+        <v>2.610315379835277</v>
       </c>
       <c r="M110">
         <v>33.4</v>
       </c>
       <c r="N110">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O110">
-        <v>38.2</v>
+        <v>38.25</v>
       </c>
       <c r="P110">
         <v>40.1</v>
@@ -21649,25 +21649,25 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>3.881910919540223</v>
+        <v>3.907672413793102</v>
       </c>
       <c r="T110">
-        <v>0.6394113282774347</v>
+        <v>0.6397648278695174</v>
       </c>
       <c r="U110">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V110">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="W110">
-        <v>3.725</v>
+        <v>3.755</v>
       </c>
       <c r="X110">
-        <v>4.282500000000001</v>
+        <v>4.3125</v>
       </c>
       <c r="Y110">
-        <v>5.36</v>
+        <v>5.37</v>
       </c>
       <c r="Z110">
         <v>696</v>
@@ -21697,10 +21697,10 @@
         <v>696</v>
       </c>
       <c r="AI110">
-        <v>109.3962643678161</v>
+        <v>109.4568965517242</v>
       </c>
       <c r="AJ110">
-        <v>28.93663954793524</v>
+        <v>28.94599752147131</v>
       </c>
       <c r="AK110">
         <v>59.6</v>
@@ -21721,10 +21721,10 @@
         <v>696</v>
       </c>
       <c r="AQ110">
-        <v>28.96094827586204</v>
+        <v>28.97752873563215</v>
       </c>
       <c r="AR110">
-        <v>16.39371980008357</v>
+        <v>16.40009827788701</v>
       </c>
       <c r="AS110">
         <v>1.26</v>
@@ -21745,10 +21745,10 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.01469770803160921</v>
+        <v>0.01474902890804599</v>
       </c>
       <c r="AZ110">
-        <v>0.02561947978008908</v>
+        <v>0.02569208854879255</v>
       </c>
       <c r="BA110">
         <v>-0.000914</v>
@@ -21757,10 +21757,10 @@
         <v>7.38E-05</v>
       </c>
       <c r="BC110">
-        <v>0.00334</v>
+        <v>0.003345</v>
       </c>
       <c r="BD110">
-        <v>0.017325</v>
+        <v>0.0174</v>
       </c>
       <c r="BE110">
         <v>0.166</v>
@@ -21769,10 +21769,10 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.3042795787356323</v>
+        <v>0.3054809413793101</v>
       </c>
       <c r="BH110">
-        <v>0.3431093717226407</v>
+        <v>0.3444192046801542</v>
       </c>
       <c r="BI110">
         <v>-0.0222</v>
@@ -21784,7 +21784,7 @@
         <v>0.04825</v>
       </c>
       <c r="BL110">
-        <v>0.6537500000000001</v>
+        <v>0.6577500000000001</v>
       </c>
       <c r="BM110">
         <v>1.38</v>
@@ -21822,16 +21822,16 @@
         <v>696</v>
       </c>
       <c r="K111">
-        <v>38.01968390804598</v>
+        <v>37.99612068965516</v>
       </c>
       <c r="L111">
-        <v>2.609898239549853</v>
+        <v>2.608144279746463</v>
       </c>
       <c r="M111">
         <v>33.4</v>
       </c>
       <c r="N111">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="O111">
         <v>38.2</v>
@@ -21840,31 +21840,31 @@
         <v>40.1</v>
       </c>
       <c r="Q111">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="R111">
         <v>696</v>
       </c>
       <c r="S111">
-        <v>3.896925287356322</v>
+        <v>3.871522988505748</v>
       </c>
       <c r="T111">
-        <v>0.6394773271695764</v>
+        <v>0.6391581531941131</v>
       </c>
       <c r="U111">
         <v>2.88</v>
       </c>
       <c r="V111">
-        <v>3.37</v>
+        <v>3.34</v>
       </c>
       <c r="W111">
-        <v>3.75</v>
+        <v>3.71</v>
       </c>
       <c r="X111">
-        <v>4.29</v>
+        <v>4.27</v>
       </c>
       <c r="Y111">
-        <v>5.35</v>
+        <v>5.32</v>
       </c>
       <c r="Z111">
         <v>696</v>
@@ -21894,16 +21894,16 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>109.4188218390804</v>
+        <v>109.3472701149425</v>
       </c>
       <c r="AJ111">
-        <v>28.93631119649323</v>
+        <v>28.90620542308287</v>
       </c>
       <c r="AK111">
-        <v>59.6</v>
+        <v>59.5</v>
       </c>
       <c r="AL111">
-        <v>94</v>
+        <v>93.97499999999999</v>
       </c>
       <c r="AM111">
         <v>112.5</v>
@@ -21912,16 +21912,16 @@
         <v>118</v>
       </c>
       <c r="AO111">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AP111">
         <v>696</v>
       </c>
       <c r="AQ111">
-        <v>28.96936781609195</v>
+        <v>28.94811781609198</v>
       </c>
       <c r="AR111">
-        <v>16.39496920214663</v>
+        <v>16.38632243449111</v>
       </c>
       <c r="AS111">
         <v>1.26</v>
@@ -21930,7 +21930,7 @@
         <v>15.1</v>
       </c>
       <c r="AU111">
-        <v>31.8</v>
+        <v>31.75</v>
       </c>
       <c r="AV111">
         <v>40.325</v>
@@ -21942,34 +21942,34 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.01479148466954024</v>
+        <v>0.01482354543103449</v>
       </c>
       <c r="AZ111">
-        <v>0.02577283064766227</v>
+        <v>0.02582491650289663</v>
       </c>
       <c r="BA111">
-        <v>-0.000875</v>
+        <v>-0.000874</v>
       </c>
       <c r="BB111">
-        <v>8.7725E-05</v>
+        <v>8.759999999999999E-05</v>
       </c>
       <c r="BC111">
-        <v>0.003395</v>
+        <v>0.00339</v>
       </c>
       <c r="BD111">
-        <v>0.017425</v>
+        <v>0.0175</v>
       </c>
       <c r="BE111">
-        <v>0.166</v>
+        <v>0.167</v>
       </c>
       <c r="BF111">
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.3060344609195405</v>
+        <v>0.306844096551724</v>
       </c>
       <c r="BH111">
-        <v>0.3445488792325471</v>
+        <v>0.3454955505484782</v>
       </c>
       <c r="BI111">
         <v>-0.0221</v>
@@ -21978,10 +21978,10 @@
         <v>0.00295</v>
       </c>
       <c r="BK111">
-        <v>0.0486</v>
+        <v>0.04855</v>
       </c>
       <c r="BL111">
-        <v>0.656</v>
+        <v>0.66</v>
       </c>
       <c r="BM111">
         <v>1.38</v>
@@ -22019,19 +22019,19 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>37.99841954022988</v>
+        <v>38.02442528735632</v>
       </c>
       <c r="L112">
-        <v>2.608383898758211</v>
+        <v>2.609756120283969</v>
       </c>
       <c r="M112">
         <v>33.4</v>
       </c>
       <c r="N112">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="O112">
-        <v>38.2</v>
+        <v>38.25</v>
       </c>
       <c r="P112">
         <v>40.1</v>
@@ -22043,22 +22043,22 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>3.877155172413795</v>
+        <v>3.903031609195398</v>
       </c>
       <c r="T112">
-        <v>0.6395751369018279</v>
+        <v>0.6398935425225127</v>
       </c>
       <c r="U112">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="V112">
-        <v>3.35</v>
+        <v>3.3775</v>
       </c>
       <c r="W112">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="X112">
-        <v>4.2725</v>
+        <v>4.3125</v>
       </c>
       <c r="Y112">
         <v>5.38</v>
@@ -22067,10 +22067,10 @@
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>37.99999999999999</v>
+        <v>37.99956896551722</v>
       </c>
       <c r="AB112">
-        <v>2.619956614501565</v>
+        <v>2.620673171438189</v>
       </c>
       <c r="AC112">
         <v>33.4</v>
@@ -22091,10 +22091,10 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>109.3682471264368</v>
+        <v>109.4318965517241</v>
       </c>
       <c r="AJ112">
-        <v>28.91687735665288</v>
+        <v>28.92541666679248</v>
       </c>
       <c r="AK112">
         <v>59.6</v>
@@ -22115,10 +22115,10 @@
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>28.9512787356322</v>
+        <v>28.96883620689659</v>
       </c>
       <c r="AR112">
-        <v>16.38803802927042</v>
+        <v>16.39472571608038</v>
       </c>
       <c r="AS112">
         <v>1.26</v>
@@ -22139,46 +22139,46 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.0148795632183908</v>
+        <v>0.01493694005747127</v>
       </c>
       <c r="AZ112">
-        <v>0.02592588286149636</v>
+        <v>0.02602581937665014</v>
       </c>
       <c r="BA112">
-        <v>-0.000868</v>
+        <v>-0.00087</v>
       </c>
       <c r="BB112">
-        <v>0.000101</v>
+        <v>0.0001011</v>
       </c>
       <c r="BC112">
-        <v>0.00345</v>
+        <v>0.003455</v>
       </c>
       <c r="BD112">
-        <v>0.0175</v>
+        <v>0.0176</v>
       </c>
       <c r="BE112">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="BF112">
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.3075796201149422</v>
+        <v>0.3088806130747123</v>
       </c>
       <c r="BH112">
-        <v>0.3457499204990316</v>
+        <v>0.3472149604973544</v>
       </c>
       <c r="BI112">
-        <v>-0.0219</v>
+        <v>-0.022</v>
       </c>
       <c r="BJ112">
-        <v>0.0033275</v>
+        <v>0.00333</v>
       </c>
       <c r="BK112">
-        <v>0.04915</v>
+        <v>0.0492</v>
       </c>
       <c r="BL112">
-        <v>0.66</v>
+        <v>0.664</v>
       </c>
       <c r="BM112">
         <v>1.38</v>

--- a/June2014/ISWRPQAQ_stats.xlsx
+++ b/June2014/ISWRPQAQ_stats.xlsx
@@ -767,10 +767,10 @@
         <v>695</v>
       </c>
       <c r="S4">
-        <v>3.602935251798558</v>
+        <v>3.602951079136689</v>
       </c>
       <c r="T4">
-        <v>1.356875943398221</v>
+        <v>1.356881039776422</v>
       </c>
       <c r="U4">
         <v>0.218</v>
@@ -815,10 +815,10 @@
         <v>695</v>
       </c>
       <c r="AI4">
-        <v>107.2856115107913</v>
+        <v>107.2854676258992</v>
       </c>
       <c r="AJ4">
-        <v>27.83048615852838</v>
+        <v>27.83071363366058</v>
       </c>
       <c r="AK4">
         <v>25.5</v>
@@ -839,10 +839,10 @@
         <v>695</v>
       </c>
       <c r="AQ4">
-        <v>1.126794244604316</v>
+        <v>1.126792805755396</v>
       </c>
       <c r="AR4">
-        <v>0.6310482653218173</v>
+        <v>0.6310504374814857</v>
       </c>
       <c r="AS4">
         <v>0.0456</v>
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>0.3590169352517988</v>
+        <v>0.3589352086330936</v>
       </c>
       <c r="AZ4">
-        <v>0.6770977000495213</v>
+        <v>0.6769750874420795</v>
       </c>
       <c r="BA4">
         <v>-1.62</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>0.4402463021582735</v>
+        <v>0.4401799712230215</v>
       </c>
       <c r="BH4">
-        <v>0.8012960123201825</v>
+        <v>0.8012694752606248</v>
       </c>
       <c r="BI4">
         <v>-1.59</v>
@@ -902,7 +902,7 @@
         <v>0.309</v>
       </c>
       <c r="BL4">
-        <v>0.7324999999999999</v>
+        <v>0.7315</v>
       </c>
       <c r="BM4">
         <v>3.87</v>
@@ -988,10 +988,10 @@
         <v>696</v>
       </c>
       <c r="AA5">
-        <v>37.85747126436778</v>
+        <v>37.8576149425287</v>
       </c>
       <c r="AB5">
-        <v>3.289700769105331</v>
+        <v>3.289477367861903</v>
       </c>
       <c r="AC5">
         <v>30.3</v>
@@ -1060,10 +1060,10 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>0.4104135387931033</v>
+        <v>0.4103586537356322</v>
       </c>
       <c r="AZ5">
-        <v>0.4760669460944655</v>
+        <v>0.4760237792659802</v>
       </c>
       <c r="BA5">
         <v>-0.145</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>0.5045998232758623</v>
+        <v>0.5045624525862072</v>
       </c>
       <c r="BH5">
-        <v>0.6713734713076919</v>
+        <v>0.6713683667328584</v>
       </c>
       <c r="BI5">
         <v>-0.236</v>
@@ -1233,10 +1233,10 @@
         <v>696</v>
       </c>
       <c r="AQ6">
-        <v>1.180822701149425</v>
+        <v>1.180821264367815</v>
       </c>
       <c r="AR6">
-        <v>0.6659256019772842</v>
+        <v>0.665926328659449</v>
       </c>
       <c r="AS6">
         <v>0.0525</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>0.347377787356322</v>
+        <v>0.3472903893678163</v>
       </c>
       <c r="AZ6">
-        <v>0.4586488396971358</v>
+        <v>0.4585297261246164</v>
       </c>
       <c r="BA6">
         <v>-0.163</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>0.4339895574712641</v>
+        <v>0.4338906925287356</v>
       </c>
       <c r="BH6">
-        <v>0.6378601802695131</v>
+        <v>0.637766147437018</v>
       </c>
       <c r="BI6">
         <v>-0.266</v>
@@ -1296,7 +1296,7 @@
         <v>0.13</v>
       </c>
       <c r="BL6">
-        <v>0.6294999999999999</v>
+        <v>0.62925</v>
       </c>
       <c r="BM6">
         <v>3.52</v>
@@ -1358,10 +1358,10 @@
         <v>696</v>
       </c>
       <c r="S7">
-        <v>3.966885057471264</v>
+        <v>3.966870689655172</v>
       </c>
       <c r="T7">
-        <v>0.9209685258564084</v>
+        <v>0.9209702737468125</v>
       </c>
       <c r="U7">
         <v>0.64</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>0.3434345886494253</v>
+        <v>0.3433793926724139</v>
       </c>
       <c r="AZ7">
-        <v>0.4748397563593226</v>
+        <v>0.4748021647508063</v>
       </c>
       <c r="BA7">
         <v>-0.169</v>
@@ -1478,22 +1478,22 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>0.4298785251436777</v>
+        <v>0.4298088195402296</v>
       </c>
       <c r="BH7">
-        <v>0.6559836173738465</v>
+        <v>0.6559149137517325</v>
       </c>
       <c r="BI7">
         <v>-0.275</v>
       </c>
       <c r="BJ7">
-        <v>0.008635</v>
+        <v>0.008637500000000001</v>
       </c>
       <c r="BK7">
         <v>0.103</v>
       </c>
       <c r="BL7">
-        <v>0.5932499999999999</v>
+        <v>0.593</v>
       </c>
       <c r="BM7">
         <v>3.44</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>0.3504202663793105</v>
+        <v>0.3503707750000004</v>
       </c>
       <c r="AZ8">
-        <v>0.4961784721690556</v>
+        <v>0.4961631857541847</v>
       </c>
       <c r="BA8">
         <v>-0.169</v>
@@ -1666,7 +1666,7 @@
         <v>0.08074999999999999</v>
       </c>
       <c r="BD8">
-        <v>0.6014999999999999</v>
+        <v>0.60125</v>
       </c>
       <c r="BE8">
         <v>2.64</v>
@@ -1675,16 +1675,16 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>0.4372334377873566</v>
+        <v>0.4371648709770116</v>
       </c>
       <c r="BH8">
-        <v>0.6827392915635514</v>
+        <v>0.6826807315699467</v>
       </c>
       <c r="BI8">
         <v>-0.275</v>
       </c>
       <c r="BJ8">
-        <v>0.00394</v>
+        <v>0.00395</v>
       </c>
       <c r="BK8">
         <v>0.08074999999999999</v>
@@ -1776,10 +1776,10 @@
         <v>696</v>
       </c>
       <c r="AA9">
-        <v>37.56206896551724</v>
+        <v>37.56221264367816</v>
       </c>
       <c r="AB9">
-        <v>3.304777144107502</v>
+        <v>3.304654705572569</v>
       </c>
       <c r="AC9">
         <v>30.3</v>
@@ -1848,13 +1848,13 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>0.3741738433908046</v>
+        <v>0.374129196408046</v>
       </c>
       <c r="AZ9">
-        <v>0.5958395721920081</v>
+        <v>0.5958336709975843</v>
       </c>
       <c r="BA9">
-        <v>-0.167</v>
+        <v>-0.168</v>
       </c>
       <c r="BB9">
         <v>-0.002475</v>
@@ -1863,7 +1863,7 @@
         <v>0.07345</v>
       </c>
       <c r="BD9">
-        <v>0.601</v>
+        <v>0.60025</v>
       </c>
       <c r="BE9">
         <v>3.4</v>
@@ -1872,10 +1872,10 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>0.4746286948275863</v>
+        <v>0.4745371186781613</v>
       </c>
       <c r="BH9">
-        <v>0.8453409834759197</v>
+        <v>0.845276980108564</v>
       </c>
       <c r="BI9">
         <v>-0.273</v>
@@ -1949,10 +1949,10 @@
         <v>696</v>
       </c>
       <c r="S10">
-        <v>3.762229885057479</v>
+        <v>3.762446839080468</v>
       </c>
       <c r="T10">
-        <v>0.9111494797314823</v>
+        <v>0.9112101811833281</v>
       </c>
       <c r="U10">
         <v>0.594</v>
@@ -1997,10 +1997,10 @@
         <v>696</v>
       </c>
       <c r="AI10">
-        <v>108.9265804597701</v>
+        <v>108.9264367816091</v>
       </c>
       <c r="AJ10">
-        <v>28.51507283514316</v>
+        <v>28.51518221294973</v>
       </c>
       <c r="AK10">
         <v>60</v>
@@ -2045,10 +2045,10 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>0.3808792130747129</v>
+        <v>0.3808392775862072</v>
       </c>
       <c r="AZ10">
-        <v>0.6391029599767508</v>
+        <v>0.6390996717864799</v>
       </c>
       <c r="BA10">
         <v>-0.175</v>
@@ -2069,10 +2069,10 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>0.4840362011494251</v>
+        <v>0.4839934758620689</v>
       </c>
       <c r="BH10">
-        <v>0.9002082912177078</v>
+        <v>0.9001989217679596</v>
       </c>
       <c r="BI10">
         <v>-0.271</v>
@@ -2146,10 +2146,10 @@
         <v>696</v>
       </c>
       <c r="S11">
-        <v>3.709185344827586</v>
+        <v>3.709186781609195</v>
       </c>
       <c r="T11">
-        <v>0.9076322799052061</v>
+        <v>0.9076273248122745</v>
       </c>
       <c r="U11">
         <v>0.583</v>
@@ -2242,10 +2242,10 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.3808749788793103</v>
+        <v>0.380836172413793</v>
       </c>
       <c r="AZ11">
-        <v>0.6405877717552526</v>
+        <v>0.6405850719667817</v>
       </c>
       <c r="BA11">
         <v>-0.184</v>
@@ -2254,7 +2254,7 @@
         <v>-0.011125</v>
       </c>
       <c r="BC11">
-        <v>0.0573</v>
+        <v>0.05725</v>
       </c>
       <c r="BD11">
         <v>0.59075</v>
@@ -2266,10 +2266,10 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.4820623176724139</v>
+        <v>0.4820105193965518</v>
       </c>
       <c r="BH11">
-        <v>0.8948024655058735</v>
+        <v>0.8947384010202587</v>
       </c>
       <c r="BI11">
         <v>-0.269</v>
@@ -2278,7 +2278,7 @@
         <v>-0.0064575</v>
       </c>
       <c r="BK11">
-        <v>0.04065</v>
+        <v>0.0406</v>
       </c>
       <c r="BL11">
         <v>0.63</v>
@@ -2439,10 +2439,10 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.3029380370689654</v>
+        <v>0.3028797288793104</v>
       </c>
       <c r="AZ12">
-        <v>0.4386113601734239</v>
+        <v>0.4385670061436658</v>
       </c>
       <c r="BA12">
         <v>-0.193</v>
@@ -2454,7 +2454,7 @@
         <v>0.04955</v>
       </c>
       <c r="BD12">
-        <v>0.5682499999999999</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="BE12">
         <v>2.63</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.3741300300287357</v>
+        <v>0.3740746492816092</v>
       </c>
       <c r="BH12">
-        <v>0.5942145078488505</v>
+        <v>0.5941880450033672</v>
       </c>
       <c r="BI12">
         <v>-0.264</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.2941507413793103</v>
+        <v>0.2940863132183909</v>
       </c>
       <c r="AZ13">
-        <v>0.4276088850542246</v>
+        <v>0.4275027878106177</v>
       </c>
       <c r="BA13">
         <v>-0.195</v>
@@ -2660,16 +2660,16 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.3601623607758617</v>
+        <v>0.3601176525862065</v>
       </c>
       <c r="BH13">
-        <v>0.5749796735656041</v>
+        <v>0.5749388859087532</v>
       </c>
       <c r="BI13">
-        <v>-0.259</v>
+        <v>-0.26</v>
       </c>
       <c r="BJ13">
-        <v>-0.009457500000000001</v>
+        <v>-0.009455000000000002</v>
       </c>
       <c r="BK13">
         <v>0.038</v>
@@ -2713,10 +2713,10 @@
         <v>696</v>
       </c>
       <c r="K14">
-        <v>37.76566091954019</v>
+        <v>37.76637931034479</v>
       </c>
       <c r="L14">
-        <v>2.93826388713991</v>
+        <v>2.93851459462483</v>
       </c>
       <c r="M14">
         <v>30.1</v>
@@ -2737,10 +2737,10 @@
         <v>696</v>
       </c>
       <c r="S14">
-        <v>3.642474137931027</v>
+        <v>3.643127873563211</v>
       </c>
       <c r="T14">
-        <v>0.8952804677177723</v>
+        <v>0.8953218573391021</v>
       </c>
       <c r="U14">
         <v>0.571</v>
@@ -2761,10 +2761,10 @@
         <v>696</v>
       </c>
       <c r="AA14">
-        <v>37.4702586206896</v>
+        <v>37.47040229885052</v>
       </c>
       <c r="AB14">
-        <v>3.155462171497688</v>
+        <v>3.155447564819553</v>
       </c>
       <c r="AC14">
         <v>30.3</v>
@@ -2785,10 +2785,10 @@
         <v>696</v>
       </c>
       <c r="AI14">
-        <v>107.6962643678161</v>
+        <v>107.6979885057471</v>
       </c>
       <c r="AJ14">
-        <v>28.21056412890422</v>
+        <v>28.21223871326513</v>
       </c>
       <c r="AK14">
         <v>59.2</v>
@@ -2809,10 +2809,10 @@
         <v>696</v>
       </c>
       <c r="AQ14">
-        <v>1.138290229885057</v>
+        <v>1.138294540229885</v>
       </c>
       <c r="AR14">
-        <v>0.6425006089559168</v>
+        <v>0.6424914150973113</v>
       </c>
       <c r="AS14">
         <v>0.0501</v>
@@ -2833,16 +2833,16 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>0.2941940086206895</v>
+        <v>0.2941361781609192</v>
       </c>
       <c r="AZ14">
-        <v>0.3915958827749146</v>
+        <v>0.3915460165322982</v>
       </c>
       <c r="BA14">
         <v>-0.177</v>
       </c>
       <c r="BB14">
-        <v>0.001535</v>
+        <v>0.0015425</v>
       </c>
       <c r="BC14">
         <v>0.07035</v>
@@ -2857,16 +2857,16 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>0.3533176091954027</v>
+        <v>0.3532824554597704</v>
       </c>
       <c r="BH14">
-        <v>0.5396207352808543</v>
+        <v>0.539616060756986</v>
       </c>
       <c r="BI14">
         <v>-0.247</v>
       </c>
       <c r="BJ14">
-        <v>0.0005255</v>
+        <v>0.00052575</v>
       </c>
       <c r="BK14">
         <v>0.06455</v>
@@ -2934,10 +2934,10 @@
         <v>696</v>
       </c>
       <c r="S15">
-        <v>3.621811781609193</v>
+        <v>3.621797413793101</v>
       </c>
       <c r="T15">
-        <v>0.8902359386103034</v>
+        <v>0.8902292602909616</v>
       </c>
       <c r="U15">
         <v>0.578</v>
@@ -3030,10 +3030,10 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.2802011007183909</v>
+        <v>0.2801538732758622</v>
       </c>
       <c r="AZ15">
-        <v>0.3954375802755366</v>
+        <v>0.3954284086201366</v>
       </c>
       <c r="BA15">
         <v>-0.182</v>
@@ -3054,10 +3054,10 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>0.3364090395114948</v>
+        <v>0.3363306428160924</v>
       </c>
       <c r="BH15">
-        <v>0.5427194301952477</v>
+        <v>0.5426723719866556</v>
       </c>
       <c r="BI15">
         <v>-0.226</v>
@@ -3069,7 +3069,7 @@
         <v>0.0453</v>
       </c>
       <c r="BL15">
-        <v>0.49125</v>
+        <v>0.4905</v>
       </c>
       <c r="BM15">
         <v>2.58</v>
@@ -3131,10 +3131,10 @@
         <v>696</v>
       </c>
       <c r="S16">
-        <v>3.592939655172412</v>
+        <v>3.59292528735632</v>
       </c>
       <c r="T16">
-        <v>0.8867870868255009</v>
+        <v>0.8867964639705709</v>
       </c>
       <c r="U16">
         <v>0.578</v>
@@ -3155,10 +3155,10 @@
         <v>696</v>
       </c>
       <c r="AA16">
-        <v>37.43922413793102</v>
+        <v>37.43936781609194</v>
       </c>
       <c r="AB16">
-        <v>3.124928587623638</v>
+        <v>3.124717269935738</v>
       </c>
       <c r="AC16">
         <v>30.2</v>
@@ -3227,19 +3227,19 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>0.2612050718390805</v>
+        <v>0.2611618247126438</v>
       </c>
       <c r="AZ16">
-        <v>0.3626981796539093</v>
+        <v>0.3626868077480283</v>
       </c>
       <c r="BA16">
         <v>-0.191</v>
       </c>
       <c r="BB16">
-        <v>-0.013675</v>
+        <v>-0.0137</v>
       </c>
       <c r="BC16">
-        <v>0.0587</v>
+        <v>0.05855</v>
       </c>
       <c r="BD16">
         <v>0.52525</v>
@@ -3251,22 +3251,22 @@
         <v>696</v>
       </c>
       <c r="BG16">
-        <v>0.3134841364942532</v>
+        <v>0.313384166666667</v>
       </c>
       <c r="BH16">
-        <v>0.4927465746209615</v>
+        <v>0.4926320673050323</v>
       </c>
       <c r="BI16">
-        <v>-0.211</v>
+        <v>-0.212</v>
       </c>
       <c r="BJ16">
         <v>-0.009272499999999999</v>
       </c>
       <c r="BK16">
-        <v>0.0443</v>
+        <v>0.0442</v>
       </c>
       <c r="BL16">
-        <v>0.4662500000000001</v>
+        <v>0.466</v>
       </c>
       <c r="BM16">
         <v>2.27</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>0.2525709568965516</v>
+        <v>0.2525334850574713</v>
       </c>
       <c r="AZ17">
-        <v>0.3695464077275749</v>
+        <v>0.3695320423155565</v>
       </c>
       <c r="BA17">
         <v>-0.207</v>
@@ -3448,10 +3448,10 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>0.3079617150862071</v>
+        <v>0.3078960094827589</v>
       </c>
       <c r="BH17">
-        <v>0.5012041675397918</v>
+        <v>0.501146104200661</v>
       </c>
       <c r="BI17">
         <v>-0.209</v>
@@ -3525,10 +3525,10 @@
         <v>696</v>
       </c>
       <c r="S18">
-        <v>3.473974137931036</v>
+        <v>3.473959770114944</v>
       </c>
       <c r="T18">
-        <v>0.8826456661605847</v>
+        <v>0.882639128677599</v>
       </c>
       <c r="U18">
         <v>0.541</v>
@@ -3597,10 +3597,10 @@
         <v>696</v>
       </c>
       <c r="AQ18">
-        <v>1.122039224137929</v>
+        <v>1.122052155172412</v>
       </c>
       <c r="AR18">
-        <v>0.6347192510046807</v>
+        <v>0.6347337275030231</v>
       </c>
       <c r="AS18">
         <v>0.0491</v>
@@ -3621,10 +3621,10 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>0.2981123965517242</v>
+        <v>0.2980431882183909</v>
       </c>
       <c r="AZ18">
-        <v>0.5220651255081716</v>
+        <v>0.5220054399969911</v>
       </c>
       <c r="BA18">
         <v>-0.225</v>
@@ -3645,10 +3645,10 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.3704569051724138</v>
+        <v>0.3703941609195403</v>
       </c>
       <c r="BH18">
-        <v>0.7043513634326886</v>
+        <v>0.7043130002496244</v>
       </c>
       <c r="BI18">
         <v>-0.227</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.3357850349137931</v>
+        <v>0.3357393567528735</v>
       </c>
       <c r="AZ19">
-        <v>0.6222476571604849</v>
+        <v>0.6222164486899366</v>
       </c>
       <c r="BA19">
         <v>-0.239</v>
@@ -3842,10 +3842,10 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.418685026149425</v>
+        <v>0.41862589841954</v>
       </c>
       <c r="BH19">
-        <v>0.8362645724569242</v>
+        <v>0.8362400299910296</v>
       </c>
       <c r="BI19">
         <v>-0.24</v>
@@ -3857,7 +3857,7 @@
         <v>0.02</v>
       </c>
       <c r="BL19">
-        <v>0.51475</v>
+        <v>0.5145</v>
       </c>
       <c r="BM19">
         <v>4.4</v>
@@ -3943,10 +3943,10 @@
         <v>696</v>
       </c>
       <c r="AA20">
-        <v>37.14612068965516</v>
+        <v>37.14626436781607</v>
       </c>
       <c r="AB20">
-        <v>3.207116530481753</v>
+        <v>3.206892372195179</v>
       </c>
       <c r="AC20">
         <v>30.1</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.3072930022988505</v>
+        <v>0.3072520612068965</v>
       </c>
       <c r="AZ20">
-        <v>0.542645516308749</v>
+        <v>0.5426332286078891</v>
       </c>
       <c r="BA20">
         <v>-0.25</v>
@@ -4027,7 +4027,7 @@
         <v>-0.048725</v>
       </c>
       <c r="BC20">
-        <v>0.03949999999999999</v>
+        <v>0.03945</v>
       </c>
       <c r="BD20">
         <v>0.5307500000000001</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.3749879462643674</v>
+        <v>0.3749475897988503</v>
       </c>
       <c r="BH20">
-        <v>0.6892230887815539</v>
+        <v>0.6892152259717242</v>
       </c>
       <c r="BI20">
         <v>-0.249</v>
@@ -4116,10 +4116,10 @@
         <v>696</v>
       </c>
       <c r="S21">
-        <v>3.292152298850574</v>
+        <v>3.292153735632183</v>
       </c>
       <c r="T21">
-        <v>0.8722268943279334</v>
+        <v>0.8722223089255761</v>
       </c>
       <c r="U21">
         <v>0.503</v>
@@ -4164,10 +4164,10 @@
         <v>696</v>
       </c>
       <c r="AI21">
-        <v>104.3859195402298</v>
+        <v>104.3870689655172</v>
       </c>
       <c r="AJ21">
-        <v>27.67673469146977</v>
+        <v>27.67704457807103</v>
       </c>
       <c r="AK21">
         <v>56.7</v>
@@ -4188,10 +4188,10 @@
         <v>696</v>
       </c>
       <c r="AQ21">
-        <v>1.104005316091953</v>
+        <v>1.104003879310344</v>
       </c>
       <c r="AR21">
-        <v>0.6258897805493862</v>
+        <v>0.6258907840226581</v>
       </c>
       <c r="AS21">
         <v>0.0481</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.3040287112068968</v>
+        <v>0.3039910761494255</v>
       </c>
       <c r="AZ21">
-        <v>0.544201507167662</v>
+        <v>0.5441941315782903</v>
       </c>
       <c r="BA21">
         <v>-0.254</v>
@@ -4236,10 +4236,10 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.3725250057471265</v>
+        <v>0.3724734037356323</v>
       </c>
       <c r="BH21">
-        <v>0.7047155341077493</v>
+        <v>0.7046528112195656</v>
       </c>
       <c r="BI21">
         <v>-0.252</v>
@@ -4385,10 +4385,10 @@
         <v>696</v>
       </c>
       <c r="AQ22">
-        <v>1.098556752873563</v>
+        <v>1.098555316091953</v>
       </c>
       <c r="AR22">
-        <v>0.623014210385945</v>
+        <v>0.6230145938915987</v>
       </c>
       <c r="AS22">
         <v>0.0478</v>
@@ -4409,16 +4409,16 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.3265549712643677</v>
+        <v>0.3265146752873562</v>
       </c>
       <c r="AZ22">
-        <v>0.6256376116450042</v>
+        <v>0.6256309146732846</v>
       </c>
       <c r="BA22">
         <v>-0.256</v>
       </c>
       <c r="BB22">
-        <v>-0.04735</v>
+        <v>-0.047375</v>
       </c>
       <c r="BC22">
         <v>0.04295</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.4011876837643672</v>
+        <v>0.4011282556034478</v>
       </c>
       <c r="BH22">
-        <v>0.8229357135824783</v>
+        <v>0.8228656107666399</v>
       </c>
       <c r="BI22">
         <v>-0.254</v>
@@ -4510,10 +4510,10 @@
         <v>696</v>
       </c>
       <c r="S23">
-        <v>3.203977011494251</v>
+        <v>3.203962643678159</v>
       </c>
       <c r="T23">
-        <v>0.8684709507384368</v>
+        <v>0.8684767323156796</v>
       </c>
       <c r="U23">
         <v>0.484</v>
@@ -4558,10 +4558,10 @@
         <v>696</v>
       </c>
       <c r="AI23">
-        <v>103.4613505747127</v>
+        <v>103.4612068965518</v>
       </c>
       <c r="AJ23">
-        <v>27.54944776974541</v>
+        <v>27.54963584833447</v>
       </c>
       <c r="AK23">
         <v>56.2</v>
@@ -4582,10 +4582,10 @@
         <v>696</v>
       </c>
       <c r="AQ23">
-        <v>1.0942125</v>
+        <v>1.094211063218391</v>
       </c>
       <c r="AR23">
-        <v>0.6211866617611812</v>
+        <v>0.6211870363325736</v>
       </c>
       <c r="AS23">
         <v>0.0476</v>
@@ -4606,19 +4606,19 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.3208342974137933</v>
+        <v>0.3208014116379313</v>
       </c>
       <c r="AZ23">
-        <v>0.6472910841069432</v>
+        <v>0.6472840516964579</v>
       </c>
       <c r="BA23">
         <v>-0.259</v>
       </c>
       <c r="BB23">
-        <v>-0.04775</v>
+        <v>-0.047825</v>
       </c>
       <c r="BC23">
-        <v>0.0339</v>
+        <v>0.0338</v>
       </c>
       <c r="BD23">
         <v>0.4515</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.3931040732758621</v>
+        <v>0.3930389215517242</v>
       </c>
       <c r="BH23">
-        <v>0.8431470332236028</v>
+        <v>0.8430584488510429</v>
       </c>
       <c r="BI23">
         <v>-0.256</v>
@@ -4645,7 +4645,7 @@
         <v>0.01725</v>
       </c>
       <c r="BL23">
-        <v>0.54825</v>
+        <v>0.548</v>
       </c>
       <c r="BM23">
         <v>4.47</v>
@@ -4707,10 +4707,10 @@
         <v>696</v>
       </c>
       <c r="S24">
-        <v>3.187498563218387</v>
+        <v>3.187469827586203</v>
       </c>
       <c r="T24">
-        <v>0.8632139459859852</v>
+        <v>0.8632260300433668</v>
       </c>
       <c r="U24">
         <v>0.484</v>
@@ -4755,10 +4755,10 @@
         <v>696</v>
       </c>
       <c r="AI24">
-        <v>103.3001436781609</v>
+        <v>103.2999999999999</v>
       </c>
       <c r="AJ24">
-        <v>27.59866407948277</v>
+        <v>27.59869405731121</v>
       </c>
       <c r="AK24">
         <v>56</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.2738584310344832</v>
+        <v>0.2738067485632187</v>
       </c>
       <c r="AZ24">
-        <v>0.5661607926303521</v>
+        <v>0.5661253877733535</v>
       </c>
       <c r="BA24">
         <v>-0.253</v>
@@ -4815,10 +4815,10 @@
         <v>-0.0433</v>
       </c>
       <c r="BC24">
-        <v>0.03365</v>
+        <v>0.0336</v>
       </c>
       <c r="BD24">
-        <v>0.37025</v>
+        <v>0.37</v>
       </c>
       <c r="BE24">
         <v>3.45</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.3330119715517243</v>
+        <v>0.3329637192528737</v>
       </c>
       <c r="BH24">
-        <v>0.7091895291198929</v>
+        <v>0.7091770694183224</v>
       </c>
       <c r="BI24">
         <v>-0.25</v>
@@ -4842,7 +4842,7 @@
         <v>0.0203</v>
       </c>
       <c r="BL24">
-        <v>0.524</v>
+        <v>0.52325</v>
       </c>
       <c r="BM24">
         <v>4.09</v>
@@ -4904,10 +4904,10 @@
         <v>696</v>
       </c>
       <c r="S25">
-        <v>3.157804597701147</v>
+        <v>3.157790229885056</v>
       </c>
       <c r="T25">
-        <v>0.8579651008525857</v>
+        <v>0.8579695080808483</v>
       </c>
       <c r="U25">
         <v>0.48</v>
@@ -4928,10 +4928,10 @@
         <v>696</v>
       </c>
       <c r="AA25">
-        <v>37.01652298850568</v>
+        <v>37.0166666666666</v>
       </c>
       <c r="AB25">
-        <v>3.175037525554523</v>
+        <v>3.174798847458295</v>
       </c>
       <c r="AC25">
         <v>30.1</v>
@@ -4952,10 +4952,10 @@
         <v>696</v>
       </c>
       <c r="AI25">
-        <v>103.0492816091954</v>
+        <v>103.0491379310345</v>
       </c>
       <c r="AJ25">
-        <v>27.65639217721921</v>
+        <v>27.65649102215691</v>
       </c>
       <c r="AK25">
         <v>55.8</v>
@@ -5000,16 +5000,16 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.2493137887931035</v>
+        <v>0.2492465114942529</v>
       </c>
       <c r="AZ25">
-        <v>0.6010488492224264</v>
+        <v>0.6009129344975264</v>
       </c>
       <c r="BA25">
         <v>-0.259</v>
       </c>
       <c r="BB25">
-        <v>-0.0482</v>
+        <v>-0.048225</v>
       </c>
       <c r="BC25">
         <v>0.02075</v>
@@ -5024,10 +5024,10 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.3104307801724138</v>
+        <v>0.3103480890804598</v>
       </c>
       <c r="BH25">
-        <v>0.7722703171496486</v>
+        <v>0.7721956002601207</v>
       </c>
       <c r="BI25">
         <v>-0.255</v>
@@ -5101,10 +5101,10 @@
         <v>696</v>
       </c>
       <c r="S26">
-        <v>3.109744252873565</v>
+        <v>3.109729885057474</v>
       </c>
       <c r="T26">
-        <v>0.8591404910840612</v>
+        <v>0.8591507863556471</v>
       </c>
       <c r="U26">
         <v>0.462</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.3014235589080461</v>
+        <v>0.3013768017241381</v>
       </c>
       <c r="AZ26">
-        <v>0.6543658956465829</v>
+        <v>0.6543636900304249</v>
       </c>
       <c r="BA26">
         <v>-0.261</v>
@@ -5212,7 +5212,7 @@
         <v>0.01905</v>
       </c>
       <c r="BD26">
-        <v>0.39025</v>
+        <v>0.39</v>
       </c>
       <c r="BE26">
         <v>3.64</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.3737573702586209</v>
+        <v>0.3736956145114944</v>
       </c>
       <c r="BH26">
-        <v>0.8427700037270551</v>
+        <v>0.8427178749666491</v>
       </c>
       <c r="BI26">
         <v>-0.256</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.3408460767097705</v>
+        <v>0.340789605344828</v>
       </c>
       <c r="AZ27">
-        <v>0.6562718638106141</v>
+        <v>0.6562357241377045</v>
       </c>
       <c r="BA27">
         <v>-0.252</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.409440446091954</v>
+        <v>0.4093922894252873</v>
       </c>
       <c r="BH27">
-        <v>0.8379319820221786</v>
+        <v>0.837883276495495</v>
       </c>
       <c r="BI27">
         <v>-0.247</v>
@@ -5433,7 +5433,7 @@
         <v>0.02145</v>
       </c>
       <c r="BL27">
-        <v>0.54725</v>
+        <v>0.547</v>
       </c>
       <c r="BM27">
         <v>4.44</v>
@@ -5495,10 +5495,10 @@
         <v>696</v>
       </c>
       <c r="S28">
-        <v>3.041244252873571</v>
+        <v>3.041229885057479</v>
       </c>
       <c r="T28">
-        <v>0.8599591009824865</v>
+        <v>0.8599625516511102</v>
       </c>
       <c r="U28">
         <v>0.44</v>
@@ -5519,10 +5519,10 @@
         <v>696</v>
       </c>
       <c r="AA28">
-        <v>36.81278735632188</v>
+        <v>36.81307471264373</v>
       </c>
       <c r="AB28">
-        <v>3.248582688751028</v>
+        <v>3.248138597025867</v>
       </c>
       <c r="AC28">
         <v>30.1</v>
@@ -5591,10 +5591,10 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.343998046982758</v>
+        <v>0.3439700061781604</v>
       </c>
       <c r="AZ28">
-        <v>0.6741476836704166</v>
+        <v>0.6741469499549104</v>
       </c>
       <c r="BA28">
         <v>-0.257</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.4109681099137929</v>
+        <v>0.4108894438218389</v>
       </c>
       <c r="BH28">
-        <v>0.85428680112629</v>
+        <v>0.8542337491128744</v>
       </c>
       <c r="BI28">
         <v>-0.262</v>
@@ -5630,7 +5630,7 @@
         <v>0.02085</v>
       </c>
       <c r="BL28">
-        <v>0.55375</v>
+        <v>0.553</v>
       </c>
       <c r="BM28">
         <v>4.51</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.3180076387931032</v>
+        <v>0.317959318965517</v>
       </c>
       <c r="AZ29">
-        <v>0.5792820910086415</v>
+        <v>0.5792690668419902</v>
       </c>
       <c r="BA29">
         <v>-0.254</v>
@@ -5800,7 +5800,7 @@
         <v>-0.04145</v>
       </c>
       <c r="BC29">
-        <v>0.045</v>
+        <v>0.04495</v>
       </c>
       <c r="BD29">
         <v>0.52825</v>
@@ -5812,10 +5812,10 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.372622125</v>
+        <v>0.3725598672413796</v>
       </c>
       <c r="BH29">
-        <v>0.7010561639726555</v>
+        <v>0.7009339346577286</v>
       </c>
       <c r="BI29">
         <v>-0.267</v>
@@ -5827,7 +5827,7 @@
         <v>0.02295</v>
       </c>
       <c r="BL29">
-        <v>0.5714999999999999</v>
+        <v>0.57075</v>
       </c>
       <c r="BM29">
         <v>3.96</v>
@@ -5937,10 +5937,10 @@
         <v>696</v>
       </c>
       <c r="AI30">
-        <v>101.2814655172415</v>
+        <v>101.2813218390805</v>
       </c>
       <c r="AJ30">
-        <v>27.37789348474638</v>
+        <v>27.37792623390108</v>
       </c>
       <c r="AK30">
         <v>54.7</v>
@@ -5985,10 +5985,10 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.3131120242816088</v>
+        <v>0.3130770665229882</v>
       </c>
       <c r="AZ30">
-        <v>0.5853036477379855</v>
+        <v>0.5852969292521077</v>
       </c>
       <c r="BA30">
         <v>-0.266</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.36848856408046</v>
+        <v>0.3684304912356323</v>
       </c>
       <c r="BH30">
-        <v>0.718920574522748</v>
+        <v>0.7188911231678122</v>
       </c>
       <c r="BI30">
         <v>-0.301</v>
@@ -6086,10 +6086,10 @@
         <v>696</v>
       </c>
       <c r="S31">
-        <v>2.931446839080452</v>
+        <v>2.93143247126436</v>
       </c>
       <c r="T31">
-        <v>0.8494710804932152</v>
+        <v>0.8494821993097326</v>
       </c>
       <c r="U31">
         <v>0.423</v>
@@ -6158,10 +6158,10 @@
         <v>696</v>
       </c>
       <c r="AQ31">
-        <v>1.065892816091957</v>
+        <v>1.065891379310348</v>
       </c>
       <c r="AR31">
-        <v>0.6073789535491864</v>
+        <v>0.6073797149097506</v>
       </c>
       <c r="AS31">
         <v>0.0461</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.3165414224137931</v>
+        <v>0.3164756724137932</v>
       </c>
       <c r="AZ31">
-        <v>0.5941770889203235</v>
+        <v>0.5941371812154189</v>
       </c>
       <c r="BA31">
         <v>-0.271</v>
@@ -6194,7 +6194,7 @@
         <v>-0.050225</v>
       </c>
       <c r="BC31">
-        <v>0.0418</v>
+        <v>0.04175</v>
       </c>
       <c r="BD31">
         <v>0.52825</v>
@@ -6206,10 +6206,10 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.3693473520114942</v>
+        <v>0.3693033994252872</v>
       </c>
       <c r="BH31">
-        <v>0.7219962334953317</v>
+        <v>0.7219917482495263</v>
       </c>
       <c r="BI31">
         <v>-0.321</v>
@@ -6259,10 +6259,10 @@
         <v>696</v>
       </c>
       <c r="K32">
-        <v>37.01005747126435</v>
+        <v>37.01020114942528</v>
       </c>
       <c r="L32">
-        <v>2.835999207948348</v>
+        <v>2.835732321853972</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -6307,10 +6307,10 @@
         <v>696</v>
       </c>
       <c r="AA32">
-        <v>36.70517241379303</v>
+        <v>36.70545977011486</v>
       </c>
       <c r="AB32">
-        <v>3.164011064044527</v>
+        <v>3.163637659648261</v>
       </c>
       <c r="AC32">
         <v>30</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.3011378487068966</v>
+        <v>0.3010550145114944</v>
       </c>
       <c r="AZ32">
-        <v>0.5441759466774821</v>
+        <v>0.5440835348611838</v>
       </c>
       <c r="BA32">
         <v>-0.279</v>
@@ -6403,10 +6403,10 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.3519388603160922</v>
+        <v>0.3518940168247129</v>
       </c>
       <c r="BH32">
-        <v>0.6769461375135907</v>
+        <v>0.6769428068989181</v>
       </c>
       <c r="BI32">
         <v>-0.349</v>
@@ -6576,19 +6576,19 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.3761844870689656</v>
+        <v>0.3761170689655174</v>
       </c>
       <c r="AZ33">
-        <v>0.6909078840703491</v>
+        <v>0.6908434928808985</v>
       </c>
       <c r="BA33">
         <v>-0.294</v>
       </c>
       <c r="BB33">
-        <v>-0.0625</v>
+        <v>-0.06257499999999999</v>
       </c>
       <c r="BC33">
-        <v>0.0394</v>
+        <v>0.0393</v>
       </c>
       <c r="BD33">
         <v>0.6234999999999999</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.4369890718390808</v>
+        <v>0.4369540387931039</v>
       </c>
       <c r="BH33">
-        <v>0.8598090211248215</v>
+        <v>0.8598130394907216</v>
       </c>
       <c r="BI33">
         <v>-0.388</v>
@@ -6749,10 +6749,10 @@
         <v>696</v>
       </c>
       <c r="AQ34">
-        <v>1.04338103448276</v>
+        <v>1.04337959770115</v>
       </c>
       <c r="AR34">
-        <v>0.5893558855086432</v>
+        <v>0.5893569325728135</v>
       </c>
       <c r="AS34">
         <v>0.045</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.4342273864942526</v>
+        <v>0.4341992873563215</v>
       </c>
       <c r="AZ34">
-        <v>0.7651204936372697</v>
+        <v>0.7651222503283944</v>
       </c>
       <c r="BA34">
         <v>-0.304</v>
@@ -6797,22 +6797,22 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.4914456721264372</v>
+        <v>0.4913794910919544</v>
       </c>
       <c r="BH34">
-        <v>0.936155936123712</v>
+        <v>0.936082995150665</v>
       </c>
       <c r="BI34">
         <v>-0.422</v>
       </c>
       <c r="BJ34">
-        <v>-0.04075</v>
+        <v>-0.040675</v>
       </c>
       <c r="BK34">
         <v>0.02485</v>
       </c>
       <c r="BL34">
-        <v>0.5565</v>
+        <v>0.5557500000000001</v>
       </c>
       <c r="BM34">
         <v>4.66</v>
@@ -6898,10 +6898,10 @@
         <v>696</v>
       </c>
       <c r="AA35">
-        <v>36.3742816091954</v>
+        <v>36.37456896551725</v>
       </c>
       <c r="AB35">
-        <v>3.311755743088118</v>
+        <v>3.311332160513543</v>
       </c>
       <c r="AC35">
         <v>29.9</v>
@@ -6922,10 +6922,10 @@
         <v>696</v>
       </c>
       <c r="AI35">
-        <v>98.25747126436781</v>
+        <v>98.2573275862069</v>
       </c>
       <c r="AJ35">
-        <v>25.91074500453084</v>
+        <v>25.91087609838883</v>
       </c>
       <c r="AK35">
         <v>50.9</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.4368491810344829</v>
+        <v>0.4367875718390805</v>
       </c>
       <c r="AZ35">
-        <v>0.7561001949439586</v>
+        <v>0.7560313844749267</v>
       </c>
       <c r="BA35">
         <v>-0.301</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.4873012054597702</v>
+        <v>0.4872437485632184</v>
       </c>
       <c r="BH35">
-        <v>0.9140973513722815</v>
+        <v>0.9140683645711991</v>
       </c>
       <c r="BI35">
         <v>-0.431</v>
@@ -7071,10 +7071,10 @@
         <v>696</v>
       </c>
       <c r="S36">
-        <v>2.649201149425287</v>
+        <v>2.649186781609195</v>
       </c>
       <c r="T36">
-        <v>0.8428321507280288</v>
+        <v>0.8428291494332495</v>
       </c>
       <c r="U36">
         <v>0.355</v>
@@ -7095,10 +7095,10 @@
         <v>696</v>
       </c>
       <c r="AA36">
-        <v>36.33275862068961</v>
+        <v>36.33290229885053</v>
       </c>
       <c r="AB36">
-        <v>3.313854306494744</v>
+        <v>3.313794264563029</v>
       </c>
       <c r="AC36">
         <v>29.9</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.4278002011494255</v>
+        <v>0.4277461968390806</v>
       </c>
       <c r="AZ36">
-        <v>0.752018401537036</v>
+        <v>0.7519810418842152</v>
       </c>
       <c r="BA36">
         <v>-0.307</v>
@@ -7191,16 +7191,16 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.4741144727011496</v>
+        <v>0.4740793103448275</v>
       </c>
       <c r="BH36">
-        <v>0.899916697533066</v>
+        <v>0.899918691613969</v>
       </c>
       <c r="BI36">
         <v>-0.458</v>
       </c>
       <c r="BJ36">
-        <v>-0.037025</v>
+        <v>-0.03725</v>
       </c>
       <c r="BK36">
         <v>0.0382</v>
@@ -7364,10 +7364,10 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.378981245689655</v>
+        <v>0.3788877959770114</v>
       </c>
       <c r="AZ37">
-        <v>0.6406375351203502</v>
+        <v>0.6404754839347557</v>
       </c>
       <c r="BA37">
         <v>-0.311</v>
@@ -7376,7 +7376,7 @@
         <v>-0.071925</v>
       </c>
       <c r="BC37">
-        <v>0.0465</v>
+        <v>0.04645000000000001</v>
       </c>
       <c r="BD37">
         <v>0.757</v>
@@ -7388,10 +7388,10 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.4203840122126437</v>
+        <v>0.4203355982758621</v>
       </c>
       <c r="BH37">
-        <v>0.7774751355807311</v>
+        <v>0.7774021483823331</v>
       </c>
       <c r="BI37">
         <v>-0.483</v>
@@ -7400,13 +7400,13 @@
         <v>-0.031825</v>
       </c>
       <c r="BK37">
-        <v>0.0365</v>
+        <v>0.0364</v>
       </c>
       <c r="BL37">
         <v>0.5692499999999999</v>
       </c>
       <c r="BM37">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="38" spans="1:65">
@@ -7465,10 +7465,10 @@
         <v>696</v>
       </c>
       <c r="S38">
-        <v>2.565443965517243</v>
+        <v>2.565458333333335</v>
       </c>
       <c r="T38">
-        <v>0.8319252852924087</v>
+        <v>0.831900890603304</v>
       </c>
       <c r="U38">
         <v>0.343</v>
@@ -7492,7 +7492,7 @@
         <v>36.28951149425293</v>
       </c>
       <c r="AB38">
-        <v>3.242761376319971</v>
+        <v>3.242464076315826</v>
       </c>
       <c r="AC38">
         <v>29.9</v>
@@ -7513,10 +7513,10 @@
         <v>696</v>
       </c>
       <c r="AI38">
-        <v>96.88922413793105</v>
+        <v>96.88908045977011</v>
       </c>
       <c r="AJ38">
-        <v>25.67264000574926</v>
+        <v>25.67283302271531</v>
       </c>
       <c r="AK38">
         <v>46.3</v>
@@ -7537,10 +7537,10 @@
         <v>696</v>
       </c>
       <c r="AQ38">
-        <v>1.023789367816091</v>
+        <v>1.023787931034482</v>
       </c>
       <c r="AR38">
-        <v>0.5782226991521962</v>
+        <v>0.5782238893240803</v>
       </c>
       <c r="AS38">
         <v>0.0441</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.3915499583333333</v>
+        <v>0.3915135646551723</v>
       </c>
       <c r="AZ38">
-        <v>0.6922503985672718</v>
+        <v>0.6922479364315378</v>
       </c>
       <c r="BA38">
         <v>-0.322</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.4304532862068968</v>
+        <v>0.430386461350575</v>
       </c>
       <c r="BH38">
-        <v>0.8244461052275203</v>
+        <v>0.8243948676579941</v>
       </c>
       <c r="BI38">
         <v>-0.504</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.4184555272988505</v>
+        <v>0.418404474137931</v>
       </c>
       <c r="AZ39">
-        <v>0.7396853226699081</v>
+        <v>0.7396643822255698</v>
       </c>
       <c r="BA39">
         <v>-0.322</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.4553091551724133</v>
+        <v>0.4552427844827581</v>
       </c>
       <c r="BH39">
-        <v>0.8718069531634576</v>
+        <v>0.8717829874170674</v>
       </c>
       <c r="BI39">
         <v>-0.502</v>
@@ -7859,10 +7859,10 @@
         <v>696</v>
       </c>
       <c r="S40">
-        <v>2.521906609195401</v>
+        <v>2.521920977011493</v>
       </c>
       <c r="T40">
-        <v>0.8307472348699242</v>
+        <v>0.8307240792854477</v>
       </c>
       <c r="U40">
         <v>0.336</v>
@@ -7931,10 +7931,10 @@
         <v>696</v>
       </c>
       <c r="AQ40">
-        <v>1.018405316091952</v>
+        <v>1.018406752873561</v>
       </c>
       <c r="AR40">
-        <v>0.5755367691287674</v>
+        <v>0.575536594362805</v>
       </c>
       <c r="AS40">
         <v>0.0439</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.3977785071839082</v>
+        <v>0.3977271594827588</v>
       </c>
       <c r="AZ40">
-        <v>0.6781169203318365</v>
+        <v>0.6780344988978364</v>
       </c>
       <c r="BA40">
         <v>-0.325</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.4276777797413798</v>
+        <v>0.4276159352011499</v>
       </c>
       <c r="BH40">
-        <v>0.7663458233821449</v>
+        <v>0.7662810849944616</v>
       </c>
       <c r="BI40">
         <v>-0.506</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.3917668534482756</v>
+        <v>0.3917109626436779</v>
       </c>
       <c r="AZ41">
-        <v>0.6528361402178539</v>
+        <v>0.6527594081369508</v>
       </c>
       <c r="BA41">
         <v>-0.315</v>
@@ -8176,16 +8176,16 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.420169530172414</v>
+        <v>0.420131721264368</v>
       </c>
       <c r="BH41">
-        <v>0.739524308149706</v>
+        <v>0.7395203043798773</v>
       </c>
       <c r="BI41">
         <v>-0.492</v>
       </c>
       <c r="BJ41">
-        <v>-0.022225</v>
+        <v>-0.02225</v>
       </c>
       <c r="BK41">
         <v>0.0542</v>
@@ -8253,10 +8253,10 @@
         <v>696</v>
       </c>
       <c r="S42">
-        <v>2.548056034482764</v>
+        <v>2.548041666666672</v>
       </c>
       <c r="T42">
-        <v>0.8335237023164036</v>
+        <v>0.8335353205686555</v>
       </c>
       <c r="U42">
         <v>0.337</v>
@@ -8277,10 +8277,10 @@
         <v>696</v>
       </c>
       <c r="AA42">
-        <v>36.2647988505747</v>
+        <v>36.26494252873562</v>
       </c>
       <c r="AB42">
-        <v>3.236537712179228</v>
+        <v>3.236314761283638</v>
       </c>
       <c r="AC42">
         <v>29.9</v>
@@ -8301,10 +8301,10 @@
         <v>696</v>
       </c>
       <c r="AI42">
-        <v>96.58591954022991</v>
+        <v>96.58577586206899</v>
       </c>
       <c r="AJ42">
-        <v>25.60448538750562</v>
+        <v>25.60472610323406</v>
       </c>
       <c r="AK42">
         <v>45.2</v>
@@ -8349,10 +8349,10 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.4083995531609194</v>
+        <v>0.4083522227011492</v>
       </c>
       <c r="AZ42">
-        <v>0.6615609698462783</v>
+        <v>0.6615434527933957</v>
       </c>
       <c r="BA42">
         <v>-0.293</v>
@@ -8361,7 +8361,7 @@
         <v>-0.0268</v>
       </c>
       <c r="BC42">
-        <v>0.0834</v>
+        <v>0.08334999999999999</v>
       </c>
       <c r="BD42">
         <v>0.7775000000000001</v>
@@ -8373,10 +8373,10 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.4374864137931036</v>
+        <v>0.4374622040229885</v>
       </c>
       <c r="BH42">
-        <v>0.7592958679397369</v>
+        <v>0.7592949036846308</v>
       </c>
       <c r="BI42">
         <v>-0.456</v>
@@ -8385,7 +8385,7 @@
         <v>-0.017225</v>
       </c>
       <c r="BK42">
-        <v>0.0687</v>
+        <v>0.06865</v>
       </c>
       <c r="BL42">
         <v>0.555</v>
@@ -8474,10 +8474,10 @@
         <v>696</v>
       </c>
       <c r="AA43">
-        <v>36.27025862068965</v>
+        <v>36.27040229885056</v>
       </c>
       <c r="AB43">
-        <v>3.232197362342561</v>
+        <v>3.231956061243352</v>
       </c>
       <c r="AC43">
         <v>29.9</v>
@@ -8546,10 +8546,10 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.3940729386063218</v>
+        <v>0.3940268308908045</v>
       </c>
       <c r="AZ43">
-        <v>0.6683548202023173</v>
+        <v>0.6683113761956826</v>
       </c>
       <c r="BA43">
         <v>-0.304</v>
@@ -8558,7 +8558,7 @@
         <v>-0.0382</v>
       </c>
       <c r="BC43">
-        <v>0.07545</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="BD43">
         <v>0.7142499999999999</v>
@@ -8570,10 +8570,10 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.4234779021494249</v>
+        <v>0.4234376550517237</v>
       </c>
       <c r="BH43">
-        <v>0.7663520212031388</v>
+        <v>0.7662944413543842</v>
       </c>
       <c r="BI43">
         <v>-0.473</v>
@@ -8582,7 +8582,7 @@
         <v>-0.0223</v>
       </c>
       <c r="BK43">
-        <v>0.06175</v>
+        <v>0.0617</v>
       </c>
       <c r="BL43">
         <v>0.5642499999999999</v>
@@ -8647,10 +8647,10 @@
         <v>696</v>
       </c>
       <c r="S44">
-        <v>2.524441091954022</v>
+        <v>2.524442528735631</v>
       </c>
       <c r="T44">
-        <v>0.8285661859998893</v>
+        <v>0.8285623917244077</v>
       </c>
       <c r="U44">
         <v>0.337</v>
@@ -8695,10 +8695,10 @@
         <v>696</v>
       </c>
       <c r="AI44">
-        <v>96.40316091954024</v>
+        <v>96.40603448275863</v>
       </c>
       <c r="AJ44">
-        <v>25.70476408117824</v>
+        <v>25.71540799087075</v>
       </c>
       <c r="AK44">
         <v>44.5</v>
@@ -8719,10 +8719,10 @@
         <v>696</v>
       </c>
       <c r="AQ44">
-        <v>1.018662499999998</v>
+        <v>1.018663936781607</v>
       </c>
       <c r="AR44">
-        <v>0.5764438435729586</v>
+        <v>0.5764437358341786</v>
       </c>
       <c r="AS44">
         <v>0.0439</v>
@@ -8743,10 +8743,10 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.3944330044540232</v>
+        <v>0.3943846007183909</v>
       </c>
       <c r="AZ44">
-        <v>0.6912805466160905</v>
+        <v>0.6912244735709646</v>
       </c>
       <c r="BA44">
         <v>-0.315</v>
@@ -8758,7 +8758,7 @@
         <v>0.07165000000000001</v>
       </c>
       <c r="BD44">
-        <v>0.6857500000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="BE44">
         <v>3.28</v>
@@ -8767,10 +8767,10 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.4270460567528737</v>
+        <v>0.4269833281609197</v>
       </c>
       <c r="BH44">
-        <v>0.8024715835127975</v>
+        <v>0.8023677379962253</v>
       </c>
       <c r="BI44">
         <v>-0.491</v>
@@ -8820,10 +8820,10 @@
         <v>696</v>
       </c>
       <c r="K45">
-        <v>36.60660919540231</v>
+        <v>36.60646551724139</v>
       </c>
       <c r="L45">
-        <v>2.811371973039678</v>
+        <v>2.811292978129668</v>
       </c>
       <c r="M45">
         <v>29.9</v>
@@ -8916,10 +8916,10 @@
         <v>696</v>
       </c>
       <c r="AQ45">
-        <v>1.013569971264368</v>
+        <v>1.013571408045977</v>
       </c>
       <c r="AR45">
-        <v>0.5730564909720325</v>
+        <v>0.573056317547067</v>
       </c>
       <c r="AS45">
         <v>0.0437</v>
@@ -8940,10 +8940,10 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.4199013778735632</v>
+        <v>0.4198708577586205</v>
       </c>
       <c r="AZ45">
-        <v>0.7303586945764041</v>
+        <v>0.7303599810642043</v>
       </c>
       <c r="BA45">
         <v>-0.331</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.4547084254310342</v>
+        <v>0.4546521974137928</v>
       </c>
       <c r="BH45">
-        <v>0.857934453387399</v>
+        <v>0.8578732795623661</v>
       </c>
       <c r="BI45">
         <v>-0.516</v>
@@ -9137,10 +9137,10 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.457054990948276</v>
+        <v>0.4570097334770117</v>
       </c>
       <c r="AZ46">
-        <v>0.7625690564012212</v>
+        <v>0.7625173637616134</v>
       </c>
       <c r="BA46">
         <v>-0.318</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.4902296123563215</v>
+        <v>0.4901853854885052</v>
       </c>
       <c r="BH46">
-        <v>0.9039974580151728</v>
+        <v>0.9039846897455005</v>
       </c>
       <c r="BI46">
         <v>-0.495</v>
@@ -9238,10 +9238,10 @@
         <v>696</v>
       </c>
       <c r="S47">
-        <v>2.498091954022992</v>
+        <v>2.498135057471267</v>
       </c>
       <c r="T47">
-        <v>0.8396774904302059</v>
+        <v>0.8396735605031608</v>
       </c>
       <c r="U47">
         <v>0.321</v>
@@ -9262,10 +9262,10 @@
         <v>696</v>
       </c>
       <c r="AA47">
-        <v>36.10186781609201</v>
+        <v>36.10201149425293</v>
       </c>
       <c r="AB47">
-        <v>3.361210721367752</v>
+        <v>3.360998734726289</v>
       </c>
       <c r="AC47">
         <v>29.6</v>
@@ -9334,10 +9334,10 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.4913769511494252</v>
+        <v>0.4913350632183907</v>
       </c>
       <c r="AZ47">
-        <v>0.7705665394835324</v>
+        <v>0.7705273184150099</v>
       </c>
       <c r="BA47">
         <v>-0.294</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.524355123850575</v>
+        <v>0.5243486418103451</v>
       </c>
       <c r="BH47">
-        <v>0.9156908149334152</v>
+        <v>0.9157109709449303</v>
       </c>
       <c r="BI47">
         <v>-0.458</v>
@@ -9373,7 +9373,7 @@
         <v>0.07705000000000001</v>
       </c>
       <c r="BL47">
-        <v>0.6345000000000001</v>
+        <v>0.63375</v>
       </c>
       <c r="BM47">
         <v>4.51</v>
@@ -9411,10 +9411,10 @@
         <v>696</v>
       </c>
       <c r="K48">
-        <v>36.65761494252877</v>
+        <v>36.65689655172417</v>
       </c>
       <c r="L48">
-        <v>2.852604424233702</v>
+        <v>2.852389354735724</v>
       </c>
       <c r="M48">
         <v>29.9</v>
@@ -9435,13 +9435,13 @@
         <v>696</v>
       </c>
       <c r="S48">
-        <v>2.534058908045979</v>
+        <v>2.533344827586208</v>
       </c>
       <c r="T48">
-        <v>0.8439839206971614</v>
+        <v>0.8439836007488052</v>
       </c>
       <c r="U48">
-        <v>0.323</v>
+        <v>0.319</v>
       </c>
       <c r="V48">
         <v>1.98</v>
@@ -9483,10 +9483,10 @@
         <v>696</v>
       </c>
       <c r="AI48">
-        <v>96.35359195402293</v>
+        <v>96.3525862068965</v>
       </c>
       <c r="AJ48">
-        <v>25.31233358826521</v>
+        <v>25.31301810113209</v>
       </c>
       <c r="AK48">
         <v>45.4</v>
@@ -9507,10 +9507,10 @@
         <v>696</v>
       </c>
       <c r="AQ48">
-        <v>1.017394827586207</v>
+        <v>1.017377442528735</v>
       </c>
       <c r="AR48">
-        <v>0.5727841154972906</v>
+        <v>0.5727747117421397</v>
       </c>
       <c r="AS48">
         <v>0.0439</v>
@@ -9531,10 +9531,10 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.5034519172413799</v>
+        <v>0.5033907320402303</v>
       </c>
       <c r="AZ48">
-        <v>0.7634885520684018</v>
+        <v>0.7634298722480379</v>
       </c>
       <c r="BA48">
         <v>-0.272</v>
@@ -9555,10 +9555,10 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.5349365938936781</v>
+        <v>0.5348758456609194</v>
       </c>
       <c r="BH48">
-        <v>0.9048276105868742</v>
+        <v>0.904793950942597</v>
       </c>
       <c r="BI48">
         <v>-0.424</v>
@@ -9632,10 +9632,10 @@
         <v>696</v>
       </c>
       <c r="S49">
-        <v>2.558652298850581</v>
+        <v>2.558637931034489</v>
       </c>
       <c r="T49">
-        <v>0.8418756310824864</v>
+        <v>0.8418811624802052</v>
       </c>
       <c r="U49">
         <v>0.332</v>
@@ -9728,10 +9728,10 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.4817513145114936</v>
+        <v>0.4817117683908038</v>
       </c>
       <c r="AZ49">
-        <v>0.7334457231898704</v>
+        <v>0.733428654903038</v>
       </c>
       <c r="BA49">
         <v>-0.269</v>
@@ -9752,10 +9752,10 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.5124155347701141</v>
+        <v>0.5123833925287349</v>
       </c>
       <c r="BH49">
-        <v>0.8592184247399623</v>
+        <v>0.8592212449899371</v>
       </c>
       <c r="BI49">
         <v>-0.42</v>
@@ -9829,10 +9829,10 @@
         <v>696</v>
       </c>
       <c r="S50">
-        <v>2.583260057471269</v>
+        <v>2.583245689655177</v>
       </c>
       <c r="T50">
-        <v>0.8391766004871539</v>
+        <v>0.839169369196244</v>
       </c>
       <c r="U50">
         <v>0.339</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.4441075531609194</v>
+        <v>0.444053658045977</v>
       </c>
       <c r="AZ50">
-        <v>0.6652395855088665</v>
+        <v>0.6652226556204519</v>
       </c>
       <c r="BA50">
         <v>-0.261</v>
@@ -9949,10 +9949,10 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.4705422341954024</v>
+        <v>0.4704939086206894</v>
       </c>
       <c r="BH50">
-        <v>0.7605342027471689</v>
+        <v>0.7604903380581367</v>
       </c>
       <c r="BI50">
         <v>-0.408</v>
@@ -9964,7 +9964,7 @@
         <v>0.0906</v>
       </c>
       <c r="BL50">
-        <v>0.61025</v>
+        <v>0.61</v>
       </c>
       <c r="BM50">
         <v>3.52</v>
@@ -10050,10 +10050,10 @@
         <v>696</v>
       </c>
       <c r="AA51">
-        <v>36.31508620689663</v>
+        <v>36.31522988505755</v>
       </c>
       <c r="AB51">
-        <v>3.235595993230086</v>
+        <v>3.235530837929369</v>
       </c>
       <c r="AC51">
         <v>29.9</v>
@@ -10074,10 +10074,10 @@
         <v>696</v>
       </c>
       <c r="AI51">
-        <v>97.30229885057469</v>
+        <v>97.30215517241376</v>
       </c>
       <c r="AJ51">
-        <v>25.70082876142767</v>
+        <v>25.7009113509504</v>
       </c>
       <c r="AK51">
         <v>48.1</v>
@@ -10098,10 +10098,10 @@
         <v>696</v>
       </c>
       <c r="AQ51">
-        <v>1.02847183908046</v>
+        <v>1.028473275862069</v>
       </c>
       <c r="AR51">
-        <v>0.5806111864693132</v>
+        <v>0.5806098037209495</v>
       </c>
       <c r="AS51">
         <v>0.0443</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.4337747830459772</v>
+        <v>0.433722412356322</v>
       </c>
       <c r="AZ51">
-        <v>0.6419941184969196</v>
+        <v>0.6419733937467639</v>
       </c>
       <c r="BA51">
         <v>-0.242</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.4628342714080459</v>
+        <v>0.4627908119252872</v>
       </c>
       <c r="BH51">
-        <v>0.7463548809925067</v>
+        <v>0.7463382070767477</v>
       </c>
       <c r="BI51">
         <v>-0.379</v>
@@ -10158,7 +10158,7 @@
         <v>-0.003725</v>
       </c>
       <c r="BK51">
-        <v>0.09670000000000001</v>
+        <v>0.09665</v>
       </c>
       <c r="BL51">
         <v>0.585</v>
@@ -10199,10 +10199,10 @@
         <v>696</v>
       </c>
       <c r="K52">
-        <v>36.81767241379313</v>
+        <v>36.81982758620691</v>
       </c>
       <c r="L52">
-        <v>2.861778042992332</v>
+        <v>2.862324451419636</v>
       </c>
       <c r="M52">
         <v>29.9</v>
@@ -10223,10 +10223,10 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>2.695238505747122</v>
+        <v>2.697176724137927</v>
       </c>
       <c r="T52">
-        <v>0.8495768480431897</v>
+        <v>0.8496035836195506</v>
       </c>
       <c r="U52">
         <v>0.353</v>
@@ -10238,7 +10238,7 @@
         <v>2.61</v>
       </c>
       <c r="X52">
-        <v>3.2925</v>
+        <v>3.295</v>
       </c>
       <c r="Y52">
         <v>4.21</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>98.06767241379305</v>
+        <v>98.07528735632179</v>
       </c>
       <c r="AJ52">
-        <v>25.85710101399475</v>
+        <v>25.87039070105479</v>
       </c>
       <c r="AK52">
         <v>50</v>
@@ -10295,10 +10295,10 @@
         <v>696</v>
       </c>
       <c r="AQ52">
-        <v>1.036495545977013</v>
+        <v>1.036553017241381</v>
       </c>
       <c r="AR52">
-        <v>0.5850613969579163</v>
+        <v>0.5850815974743291</v>
       </c>
       <c r="AS52">
         <v>0.0446</v>
@@ -10319,10 +10319,10 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.4665668439655176</v>
+        <v>0.4664557465517242</v>
       </c>
       <c r="AZ52">
-        <v>0.6794810947523954</v>
+        <v>0.6793454223408978</v>
       </c>
       <c r="BA52">
         <v>-0.202</v>
@@ -10334,7 +10334,7 @@
         <v>0.134</v>
       </c>
       <c r="BD52">
-        <v>0.825</v>
+        <v>0.8242499999999999</v>
       </c>
       <c r="BE52">
         <v>3.4</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.5030237265804598</v>
+        <v>0.5029271109195402</v>
       </c>
       <c r="BH52">
-        <v>0.8143251493651753</v>
+        <v>0.8142427513805173</v>
       </c>
       <c r="BI52">
         <v>-0.317</v>
@@ -10358,7 +10358,7 @@
         <v>0.109</v>
       </c>
       <c r="BL52">
-        <v>0.614</v>
+        <v>0.61375</v>
       </c>
       <c r="BM52">
         <v>3.81</v>
@@ -10396,10 +10396,10 @@
         <v>696</v>
       </c>
       <c r="K53">
-        <v>36.946408045977</v>
+        <v>36.94626436781608</v>
       </c>
       <c r="L53">
-        <v>2.87245690342534</v>
+        <v>2.872717182491977</v>
       </c>
       <c r="M53">
         <v>29.9</v>
@@ -10420,10 +10420,10 @@
         <v>696</v>
       </c>
       <c r="S53">
-        <v>2.82248563218391</v>
+        <v>2.822297413793105</v>
       </c>
       <c r="T53">
-        <v>0.8563625516900849</v>
+        <v>0.8563044720354053</v>
       </c>
       <c r="U53">
         <v>0.39</v>
@@ -10492,10 +10492,10 @@
         <v>696</v>
       </c>
       <c r="AQ53">
-        <v>1.048044252873563</v>
+        <v>1.048028448275862</v>
       </c>
       <c r="AR53">
-        <v>0.5924512850167533</v>
+        <v>0.5924398967867034</v>
       </c>
       <c r="AS53">
         <v>0.0451</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.4591071580459775</v>
+        <v>0.4591186982758623</v>
       </c>
       <c r="AZ53">
-        <v>0.6255536248690166</v>
+        <v>0.6256267213513284</v>
       </c>
       <c r="BA53">
         <v>-0.167</v>
@@ -10540,10 +10540,10 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.4948939956896551</v>
+        <v>0.4948812916666666</v>
       </c>
       <c r="BH53">
-        <v>0.7444925502216708</v>
+        <v>0.7445068505719542</v>
       </c>
       <c r="BI53">
         <v>-0.262</v>
@@ -10555,7 +10555,7 @@
         <v>0.1175</v>
       </c>
       <c r="BL53">
-        <v>0.62625</v>
+        <v>0.626</v>
       </c>
       <c r="BM53">
         <v>3.42</v>
@@ -10617,10 +10617,10 @@
         <v>696</v>
       </c>
       <c r="S54">
-        <v>2.854527298850579</v>
+        <v>2.854541666666671</v>
       </c>
       <c r="T54">
-        <v>0.8562265933208431</v>
+        <v>0.8562029064225533</v>
       </c>
       <c r="U54">
         <v>0.396</v>
@@ -10641,10 +10641,10 @@
         <v>696</v>
       </c>
       <c r="AA54">
-        <v>36.52729885057472</v>
+        <v>36.52744252873564</v>
       </c>
       <c r="AB54">
-        <v>3.24885842083298</v>
+        <v>3.248739843728927</v>
       </c>
       <c r="AC54">
         <v>29.9</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.4425691728448274</v>
+        <v>0.4425403113505748</v>
       </c>
       <c r="AZ54">
-        <v>0.6350293649513473</v>
+        <v>0.6350249356542027</v>
       </c>
       <c r="BA54">
         <v>-0.153</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.4851573860632192</v>
+        <v>0.485105019252874</v>
       </c>
       <c r="BH54">
-        <v>0.7788956260584493</v>
+        <v>0.7788765789819388</v>
       </c>
       <c r="BI54">
         <v>-0.241</v>
@@ -10838,10 +10838,10 @@
         <v>696</v>
       </c>
       <c r="AA55">
-        <v>36.58405172413799</v>
+        <v>36.58433908045982</v>
       </c>
       <c r="AB55">
-        <v>3.219967597615673</v>
+        <v>3.219540003779753</v>
       </c>
       <c r="AC55">
         <v>29.9</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.4200549689655172</v>
+        <v>0.4200000010057471</v>
       </c>
       <c r="AZ55">
-        <v>0.5875790355839022</v>
+        <v>0.5875234427121877</v>
       </c>
       <c r="BA55">
         <v>-0.148</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.4656099887068968</v>
+        <v>0.4655292579454028</v>
       </c>
       <c r="BH55">
-        <v>0.7295234606321909</v>
+        <v>0.7293941990158961</v>
       </c>
       <c r="BI55">
         <v>-0.233</v>
@@ -11083,10 +11083,10 @@
         <v>696</v>
       </c>
       <c r="AQ56">
-        <v>1.056660488505749</v>
+        <v>1.05665905172414</v>
       </c>
       <c r="AR56">
-        <v>0.5999243992700024</v>
+        <v>0.5999257931125229</v>
       </c>
       <c r="AS56">
         <v>0.0457</v>
@@ -11107,10 +11107,10 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.3978643160919537</v>
+        <v>0.397843359195402</v>
       </c>
       <c r="AZ56">
-        <v>0.5790877311541051</v>
+        <v>0.5790860803999465</v>
       </c>
       <c r="BA56">
         <v>-0.175</v>
@@ -11131,10 +11131,10 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.4430140330459769</v>
+        <v>0.4429576379310341</v>
       </c>
       <c r="BH56">
-        <v>0.7177694884232693</v>
+        <v>0.7177342759344424</v>
       </c>
       <c r="BI56">
         <v>-0.275</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.3826251140804598</v>
+        <v>0.3825811581896553</v>
       </c>
       <c r="AZ57">
-        <v>0.556978152089046</v>
+        <v>0.5569589404234562</v>
       </c>
       <c r="BA57">
         <v>-0.18</v>
@@ -11319,7 +11319,7 @@
         <v>0.1105</v>
       </c>
       <c r="BD57">
-        <v>0.7022499999999999</v>
+        <v>0.7015</v>
       </c>
       <c r="BE57">
         <v>2.88</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.4232761303160918</v>
+        <v>0.423191822557471</v>
       </c>
       <c r="BH57">
-        <v>0.674076012294473</v>
+        <v>0.6739517020209139</v>
       </c>
       <c r="BI57">
         <v>-0.283</v>
@@ -11453,10 +11453,10 @@
         <v>696</v>
       </c>
       <c r="AI58">
-        <v>99.56422413793103</v>
+        <v>99.56408045977014</v>
       </c>
       <c r="AJ58">
-        <v>26.56382944518458</v>
+        <v>26.56387718763134</v>
       </c>
       <c r="AK58">
         <v>54</v>
@@ -11501,10 +11501,10 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.4045074957758624</v>
+        <v>0.4044171827586209</v>
       </c>
       <c r="AZ58">
-        <v>0.6050839777224737</v>
+        <v>0.6049484249060483</v>
       </c>
       <c r="BA58">
         <v>-0.185</v>
@@ -11525,10 +11525,10 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.4512245409195401</v>
+        <v>0.451190566091954</v>
       </c>
       <c r="BH58">
-        <v>0.7523326469620288</v>
+        <v>0.7523338532059375</v>
       </c>
       <c r="BI58">
         <v>-0.291</v>
@@ -11605,7 +11605,7 @@
         <v>2.811043103448278</v>
       </c>
       <c r="T59">
-        <v>0.8518774599509676</v>
+        <v>0.851875264205575</v>
       </c>
       <c r="U59">
         <v>0.39</v>
@@ -11626,10 +11626,10 @@
         <v>696</v>
       </c>
       <c r="AA59">
-        <v>36.48908045977009</v>
+        <v>36.48936781609194</v>
       </c>
       <c r="AB59">
-        <v>3.263276592208807</v>
+        <v>3.262964473255153</v>
       </c>
       <c r="AC59">
         <v>29.9</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>99.38678160919535</v>
+        <v>99.38821839080455</v>
       </c>
       <c r="AJ59">
-        <v>26.39390049416953</v>
+        <v>26.39423371163063</v>
       </c>
       <c r="AK59">
         <v>53.9</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.4390562423850577</v>
+        <v>0.438995189784483</v>
       </c>
       <c r="AZ59">
-        <v>0.6748711895008884</v>
+        <v>0.6747754917000509</v>
       </c>
       <c r="BA59">
         <v>-0.187</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.4897211031609195</v>
+        <v>0.4896864151005746</v>
       </c>
       <c r="BH59">
-        <v>0.8412305404964642</v>
+        <v>0.8412030746454541</v>
       </c>
       <c r="BI59">
         <v>-0.294</v>
@@ -11823,10 +11823,10 @@
         <v>696</v>
       </c>
       <c r="AA60">
-        <v>36.45474137931036</v>
+        <v>36.4550287356322</v>
       </c>
       <c r="AB60">
-        <v>3.291398065865493</v>
+        <v>3.291214028796317</v>
       </c>
       <c r="AC60">
         <v>29.9</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.4578674353448272</v>
+        <v>0.4578364770114938</v>
       </c>
       <c r="AZ60">
-        <v>0.7120156308389911</v>
+        <v>0.7119842497381643</v>
       </c>
       <c r="BA60">
         <v>-0.193</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.5087693448275866</v>
+        <v>0.5087408491379314</v>
       </c>
       <c r="BH60">
-        <v>0.8784492700040538</v>
+        <v>0.878448596471309</v>
       </c>
       <c r="BI60">
         <v>-0.303</v>
@@ -11931,7 +11931,7 @@
         <v>-0.00597</v>
       </c>
       <c r="BK60">
-        <v>0.0866</v>
+        <v>0.08655</v>
       </c>
       <c r="BL60">
         <v>0.60125</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>2.809567528735635</v>
+        <v>2.809553160919543</v>
       </c>
       <c r="T61">
-        <v>0.8526516058161938</v>
+        <v>0.8526623139498323</v>
       </c>
       <c r="U61">
         <v>0.388</v>
@@ -12092,10 +12092,10 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.4327771867816092</v>
+        <v>0.4327495622126438</v>
       </c>
       <c r="AZ61">
-        <v>0.6234486659724902</v>
+        <v>0.6234517075405593</v>
       </c>
       <c r="BA61">
         <v>-0.183</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.478084554597701</v>
+        <v>0.4780155416666664</v>
       </c>
       <c r="BH61">
-        <v>0.7712508878220102</v>
+        <v>0.7712046119824923</v>
       </c>
       <c r="BI61">
         <v>-0.288</v>
@@ -12131,7 +12131,7 @@
         <v>0.0921</v>
       </c>
       <c r="BL61">
-        <v>0.6054999999999999</v>
+        <v>0.60475</v>
       </c>
       <c r="BM61">
         <v>3.88</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>2.815099137931038</v>
+        <v>2.815127873563222</v>
       </c>
       <c r="T62">
-        <v>0.8490076290507086</v>
+        <v>0.8490345711743923</v>
       </c>
       <c r="U62">
         <v>0.396</v>
@@ -12217,10 +12217,10 @@
         <v>696</v>
       </c>
       <c r="AA62">
-        <v>36.53103448275864</v>
+        <v>36.53117816091957</v>
       </c>
       <c r="AB62">
-        <v>3.209852112322604</v>
+        <v>3.209776754133917</v>
       </c>
       <c r="AC62">
         <v>29.9</v>
@@ -12241,10 +12241,10 @@
         <v>696</v>
       </c>
       <c r="AI62">
-        <v>99.42873563218383</v>
+        <v>99.42859195402293</v>
       </c>
       <c r="AJ62">
-        <v>26.45081781350799</v>
+        <v>26.45091778799945</v>
       </c>
       <c r="AK62">
         <v>53.9</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.4068643045977009</v>
+        <v>0.4068072758620689</v>
       </c>
       <c r="AZ62">
-        <v>0.5850236934166261</v>
+        <v>0.5849782366595352</v>
       </c>
       <c r="BA62">
         <v>-0.186</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.4511596609195399</v>
+        <v>0.4511090201149421</v>
       </c>
       <c r="BH62">
-        <v>0.732437293915546</v>
+        <v>0.7324188959974856</v>
       </c>
       <c r="BI62">
         <v>-0.293</v>
@@ -12328,7 +12328,7 @@
         <v>0.09195</v>
       </c>
       <c r="BL62">
-        <v>0.5690000000000001</v>
+        <v>0.56825</v>
       </c>
       <c r="BM62">
         <v>3.4</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.3847298836206897</v>
+        <v>0.3846918103448276</v>
       </c>
       <c r="AZ63">
-        <v>0.5757546150691067</v>
+        <v>0.5757086338657085</v>
       </c>
       <c r="BA63">
         <v>-0.189</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.4239980991379307</v>
+        <v>0.4239401465517238</v>
       </c>
       <c r="BH63">
-        <v>0.6918671875427717</v>
+        <v>0.6918150894707653</v>
       </c>
       <c r="BI63">
         <v>-0.297</v>
@@ -12587,10 +12587,10 @@
         <v>696</v>
       </c>
       <c r="S64">
-        <v>2.799890804597706</v>
+        <v>2.799892241379315</v>
       </c>
       <c r="T64">
-        <v>0.8449145763310153</v>
+        <v>0.844910480054913</v>
       </c>
       <c r="U64">
         <v>0.393</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.3841944295977012</v>
+        <v>0.3841545574712644</v>
       </c>
       <c r="AZ64">
-        <v>0.6315814347170154</v>
+        <v>0.6315119634320647</v>
       </c>
       <c r="BA64">
         <v>-0.203</v>
@@ -12698,7 +12698,7 @@
         <v>0.1025</v>
       </c>
       <c r="BD64">
-        <v>0.627</v>
+        <v>0.62625</v>
       </c>
       <c r="BE64">
         <v>3.47</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.4294807313218387</v>
+        <v>0.4294588491379306</v>
       </c>
       <c r="BH64">
-        <v>0.771753107141423</v>
+        <v>0.7717545252847042</v>
       </c>
       <c r="BI64">
         <v>-0.319</v>
@@ -12719,7 +12719,7 @@
         <v>-0.0089125</v>
       </c>
       <c r="BK64">
-        <v>0.0779</v>
+        <v>0.07785</v>
       </c>
       <c r="BL64">
         <v>0.5287500000000001</v>
@@ -12808,10 +12808,10 @@
         <v>696</v>
       </c>
       <c r="AA65">
-        <v>36.53821839080465</v>
+        <v>36.53836206896557</v>
       </c>
       <c r="AB65">
-        <v>3.181864841828022</v>
+        <v>3.181670918135207</v>
       </c>
       <c r="AC65">
         <v>29.9</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.3705636422413789</v>
+        <v>0.370516156609195</v>
       </c>
       <c r="AZ65">
-        <v>0.565010987499031</v>
+        <v>0.5649626324798749</v>
       </c>
       <c r="BA65">
         <v>-0.202</v>
@@ -12904,22 +12904,22 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.4168126408045977</v>
+        <v>0.4167652988505746</v>
       </c>
       <c r="BH65">
-        <v>0.7209746848520604</v>
+        <v>0.7209527999636224</v>
       </c>
       <c r="BI65">
         <v>-0.318</v>
       </c>
       <c r="BJ65">
-        <v>-0.0073675</v>
+        <v>-0.00739</v>
       </c>
       <c r="BK65">
         <v>0.07114999999999999</v>
       </c>
       <c r="BL65">
-        <v>0.52325</v>
+        <v>0.5225</v>
       </c>
       <c r="BM65">
         <v>4.06</v>
@@ -12984,7 +12984,7 @@
         <v>2.778614942528736</v>
       </c>
       <c r="T66">
-        <v>0.8417959567569635</v>
+        <v>0.841771513971122</v>
       </c>
       <c r="U66">
         <v>0.393</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.3657389827586212</v>
+        <v>0.3656892126436786</v>
       </c>
       <c r="AZ66">
-        <v>0.5348459184220837</v>
+        <v>0.5347997393521833</v>
       </c>
       <c r="BA66">
         <v>-0.205</v>
@@ -13101,16 +13101,16 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.409080619252873</v>
+        <v>0.4090250143678155</v>
       </c>
       <c r="BH66">
-        <v>0.6847341652904203</v>
+        <v>0.6847103107272311</v>
       </c>
       <c r="BI66">
         <v>-0.323</v>
       </c>
       <c r="BJ66">
-        <v>-0.0078575</v>
+        <v>-0.007865</v>
       </c>
       <c r="BK66">
         <v>0.0742</v>
@@ -13178,10 +13178,10 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>2.781150862068967</v>
+        <v>2.781165229885059</v>
       </c>
       <c r="T67">
-        <v>0.8422953950981639</v>
+        <v>0.8422723990743949</v>
       </c>
       <c r="U67">
         <v>0.394</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.3649201666666667</v>
+        <v>0.3648887155172414</v>
       </c>
       <c r="AZ67">
-        <v>0.5130936337465016</v>
+        <v>0.5130912147961787</v>
       </c>
       <c r="BA67">
         <v>-0.201</v>
@@ -13298,19 +13298,19 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.4033047658045977</v>
+        <v>0.4032645948275861</v>
       </c>
       <c r="BH67">
-        <v>0.6437429309712602</v>
+        <v>0.643738883023423</v>
       </c>
       <c r="BI67">
         <v>-0.315</v>
       </c>
       <c r="BJ67">
-        <v>-0.00572</v>
+        <v>-0.0057425</v>
       </c>
       <c r="BK67">
-        <v>0.089</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="BL67">
         <v>0.5225</v>
@@ -13399,10 +13399,10 @@
         <v>696</v>
       </c>
       <c r="AA68">
-        <v>36.53807471264366</v>
+        <v>36.53821839080458</v>
       </c>
       <c r="AB68">
-        <v>3.166220318941663</v>
+        <v>3.166016354208319</v>
       </c>
       <c r="AC68">
         <v>29.8</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>99.18534482758616</v>
+        <v>99.18520114942525</v>
       </c>
       <c r="AJ68">
-        <v>26.44060074299954</v>
+        <v>26.4408137091083</v>
       </c>
       <c r="AK68">
         <v>53.1</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.3704519413793105</v>
+        <v>0.37042881954023</v>
       </c>
       <c r="AZ68">
-        <v>0.5251239465196627</v>
+        <v>0.5251242778253296</v>
       </c>
       <c r="BA68">
         <v>-0.196</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.4094154241379313</v>
+        <v>0.4093821863505751</v>
       </c>
       <c r="BH68">
-        <v>0.6555610297684443</v>
+        <v>0.6555590016735187</v>
       </c>
       <c r="BI68">
         <v>-0.308</v>
@@ -13510,7 +13510,7 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="BL68">
-        <v>0.5345</v>
+        <v>0.53425</v>
       </c>
       <c r="BM68">
         <v>2.87</v>
@@ -13596,10 +13596,10 @@
         <v>696</v>
       </c>
       <c r="AA69">
-        <v>36.48261494252872</v>
+        <v>36.4824712643678</v>
       </c>
       <c r="AB69">
-        <v>3.21568987212319</v>
+        <v>3.2155123447844</v>
       </c>
       <c r="AC69">
         <v>30.4</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>99.10445402298861</v>
+        <v>99.10416666666679</v>
       </c>
       <c r="AJ69">
-        <v>26.40146977030664</v>
+        <v>26.40168018189099</v>
       </c>
       <c r="AK69">
         <v>52.8</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.4274115428160918</v>
+        <v>0.4273511706896551</v>
       </c>
       <c r="AZ69">
-        <v>0.6523968341677046</v>
+        <v>0.6523307204033989</v>
       </c>
       <c r="BA69">
         <v>-0.205</v>
@@ -13692,16 +13692,16 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.4814359249999999</v>
+        <v>0.4813824479885057</v>
       </c>
       <c r="BH69">
-        <v>0.8117851901144113</v>
+        <v>0.8117299020084321</v>
       </c>
       <c r="BI69">
         <v>-0.321</v>
       </c>
       <c r="BJ69">
-        <v>-0.0069675</v>
+        <v>-0.0069825</v>
       </c>
       <c r="BK69">
         <v>0.0911</v>
@@ -13745,10 +13745,10 @@
         <v>696</v>
       </c>
       <c r="K70">
-        <v>36.99252873563218</v>
+        <v>36.99152298850575</v>
       </c>
       <c r="L70">
-        <v>2.6480890760261</v>
+        <v>2.647838805335232</v>
       </c>
       <c r="M70">
         <v>32.2</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>2.870919540229885</v>
+        <v>2.869827586206896</v>
       </c>
       <c r="T70">
-        <v>0.6919914037539984</v>
+        <v>0.6918794955899196</v>
       </c>
       <c r="U70">
         <v>1.61</v>
@@ -13817,10 +13817,10 @@
         <v>696</v>
       </c>
       <c r="AI70">
-        <v>99.34497126436774</v>
+        <v>99.34123563218382</v>
       </c>
       <c r="AJ70">
-        <v>26.49161567919437</v>
+        <v>26.48981198315062</v>
       </c>
       <c r="AK70">
         <v>52.5</v>
@@ -13841,10 +13841,10 @@
         <v>696</v>
       </c>
       <c r="AQ70">
-        <v>1.051121264367818</v>
+        <v>1.051088218390807</v>
       </c>
       <c r="AR70">
-        <v>0.5960492281167249</v>
+        <v>0.59603052169855</v>
       </c>
       <c r="AS70">
         <v>0.0452</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.4914936135057474</v>
+        <v>0.4914427227011496</v>
       </c>
       <c r="AZ70">
-        <v>0.7173444955056998</v>
+        <v>0.7173157017648579</v>
       </c>
       <c r="BA70">
         <v>-0.208</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.5639104679597693</v>
+        <v>0.5638212136494242</v>
       </c>
       <c r="BH70">
-        <v>0.9010285280030377</v>
+        <v>0.9009625062205927</v>
       </c>
       <c r="BI70">
         <v>-0.327</v>
@@ -13901,7 +13901,7 @@
         <v>-0.007425</v>
       </c>
       <c r="BK70">
-        <v>0.0911</v>
+        <v>0.09104999999999999</v>
       </c>
       <c r="BL70">
         <v>1.0125</v>
@@ -13990,10 +13990,10 @@
         <v>696</v>
       </c>
       <c r="AA71">
-        <v>36.63376436781606</v>
+        <v>36.63390804597699</v>
       </c>
       <c r="AB71">
-        <v>2.940267823497373</v>
+        <v>2.940072864098534</v>
       </c>
       <c r="AC71">
         <v>31.3</v>
@@ -14014,10 +14014,10 @@
         <v>696</v>
       </c>
       <c r="AI71">
-        <v>100.2270114942529</v>
+        <v>100.226867816092</v>
       </c>
       <c r="AJ71">
-        <v>27.1308577452176</v>
+        <v>27.13094141598762</v>
       </c>
       <c r="AK71">
         <v>52</v>
@@ -14038,10 +14038,10 @@
         <v>696</v>
       </c>
       <c r="AQ71">
-        <v>1.062358189655174</v>
+        <v>1.062372557471266</v>
       </c>
       <c r="AR71">
-        <v>0.6054063902158021</v>
+        <v>0.6054185737072399</v>
       </c>
       <c r="AS71">
         <v>0.0451</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.4902540574712642</v>
+        <v>0.4901835502873563</v>
       </c>
       <c r="AZ71">
-        <v>0.6527549410846372</v>
+        <v>0.6526603989982973</v>
       </c>
       <c r="BA71">
         <v>-0.217</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.5814440716954018</v>
+        <v>0.5814358662356317</v>
       </c>
       <c r="BH71">
-        <v>0.850004699325746</v>
+        <v>0.8500042055720457</v>
       </c>
       <c r="BI71">
         <v>-0.341</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>3.200201149425286</v>
+        <v>3.200258620689653</v>
       </c>
       <c r="T72">
-        <v>0.7919368587568519</v>
+        <v>0.7918805169739855</v>
       </c>
       <c r="U72">
         <v>2.04</v>
@@ -14175,7 +14175,7 @@
         <v>2.4975</v>
       </c>
       <c r="W72">
-        <v>3.09</v>
+        <v>3.095</v>
       </c>
       <c r="X72">
         <v>3.895</v>
@@ -14211,10 +14211,10 @@
         <v>696</v>
       </c>
       <c r="AI72">
-        <v>102.1295977011494</v>
+        <v>102.1297413793104</v>
       </c>
       <c r="AJ72">
-        <v>28.89158624598423</v>
+        <v>28.89146084678093</v>
       </c>
       <c r="AK72">
         <v>51.6</v>
@@ -14235,10 +14235,10 @@
         <v>696</v>
       </c>
       <c r="AQ72">
-        <v>1.08613577586207</v>
+        <v>1.086150143678162</v>
       </c>
       <c r="AR72">
-        <v>0.6287124316841664</v>
+        <v>0.6287247636538853</v>
       </c>
       <c r="AS72">
         <v>0.0451</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.4969687978448272</v>
+        <v>0.4969352173850572</v>
       </c>
       <c r="AZ72">
-        <v>0.6396211254055715</v>
+        <v>0.639601172396685</v>
       </c>
       <c r="BA72">
         <v>-0.224</v>
@@ -14283,16 +14283,16 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.6258165553304595</v>
+        <v>0.6257261783045976</v>
       </c>
       <c r="BH72">
-        <v>0.9073997779403952</v>
+        <v>0.9072675146946382</v>
       </c>
       <c r="BI72">
         <v>-0.351</v>
       </c>
       <c r="BJ72">
-        <v>-0.00928</v>
+        <v>-0.009285000000000002</v>
       </c>
       <c r="BK72">
         <v>0.0892</v>
@@ -14336,13 +14336,13 @@
         <v>696</v>
       </c>
       <c r="K73">
-        <v>37.66250000000002</v>
+        <v>37.66393678160924</v>
       </c>
       <c r="L73">
-        <v>1.820226584836041</v>
+        <v>1.81949665472988</v>
       </c>
       <c r="M73">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="N73">
         <v>36</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>3.541781609195406</v>
+        <v>3.543304597701154</v>
       </c>
       <c r="T73">
-        <v>1.05057256797527</v>
+        <v>1.049889065345852</v>
       </c>
       <c r="U73">
         <v>2.05</v>
@@ -14375,7 +14375,7 @@
         <v>3.26</v>
       </c>
       <c r="X73">
-        <v>4.1625</v>
+        <v>4.17</v>
       </c>
       <c r="Y73">
         <v>6.41</v>
@@ -14408,10 +14408,10 @@
         <v>696</v>
       </c>
       <c r="AI73">
-        <v>106.5508620689655</v>
+        <v>106.5573275862069</v>
       </c>
       <c r="AJ73">
-        <v>33.60108424686801</v>
+        <v>33.5980228655471</v>
       </c>
       <c r="AK73">
         <v>51.6</v>
@@ -14432,10 +14432,10 @@
         <v>696</v>
       </c>
       <c r="AQ73">
-        <v>1.138330316091954</v>
+        <v>1.138306034482758</v>
       </c>
       <c r="AR73">
-        <v>0.6843057267548912</v>
+        <v>0.6842331630179915</v>
       </c>
       <c r="AS73">
         <v>0.0453</v>
@@ -14456,16 +14456,16 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.5549927754310346</v>
+        <v>0.5550113389367817</v>
       </c>
       <c r="AZ73">
-        <v>0.7001357518335266</v>
+        <v>0.7001393555656668</v>
       </c>
       <c r="BA73">
         <v>-0.22</v>
       </c>
       <c r="BB73">
-        <v>-0.007575</v>
+        <v>-0.0075825</v>
       </c>
       <c r="BC73">
         <v>0.1305</v>
@@ -14480,16 +14480,16 @@
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.7514872683333333</v>
+        <v>0.7514679436350576</v>
       </c>
       <c r="BH73">
-        <v>1.077764997097062</v>
+        <v>1.077755656600355</v>
       </c>
       <c r="BI73">
         <v>-0.344</v>
       </c>
       <c r="BJ73">
-        <v>-0.006965</v>
+        <v>-0.0069675</v>
       </c>
       <c r="BK73">
         <v>0.1025</v>
@@ -14533,13 +14533,13 @@
         <v>696</v>
       </c>
       <c r="K74">
-        <v>38.15977011494256</v>
+        <v>38.15143678160922</v>
       </c>
       <c r="L74">
-        <v>1.428091025058909</v>
+        <v>1.429644300088195</v>
       </c>
       <c r="M74">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="N74">
         <v>37.1</v>
@@ -14557,22 +14557,22 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>4.038031609195409</v>
+        <v>4.030215517241385</v>
       </c>
       <c r="T74">
-        <v>1.364266584692059</v>
+        <v>1.365521097293832</v>
       </c>
       <c r="U74">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="V74">
-        <v>3.01</v>
+        <v>3.005</v>
       </c>
       <c r="W74">
-        <v>3.785</v>
+        <v>3.78</v>
       </c>
       <c r="X74">
-        <v>4.762499999999999</v>
+        <v>4.74</v>
       </c>
       <c r="Y74">
         <v>7.62</v>
@@ -14605,10 +14605,10 @@
         <v>696</v>
       </c>
       <c r="AI74">
-        <v>113.7409482758621</v>
+        <v>113.7170977011494</v>
       </c>
       <c r="AJ74">
-        <v>41.66829174148416</v>
+        <v>41.66635836593129</v>
       </c>
       <c r="AK74">
         <v>51.8</v>
@@ -14617,7 +14617,7 @@
         <v>86.875</v>
       </c>
       <c r="AM74">
-        <v>112.5</v>
+        <v>112</v>
       </c>
       <c r="AN74">
         <v>125</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>1.218605747126437</v>
+        <v>1.218421551724138</v>
       </c>
       <c r="AR74">
-        <v>0.7782945224707226</v>
+        <v>0.7782487236241539</v>
       </c>
       <c r="AS74">
         <v>0.0467</v>
@@ -14644,7 +14644,7 @@
         <v>1.22</v>
       </c>
       <c r="AV74">
-        <v>1.7225</v>
+        <v>1.72</v>
       </c>
       <c r="AW74">
         <v>5.01</v>
@@ -14653,46 +14653,46 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.5908089298850584</v>
+        <v>0.5904443061781618</v>
       </c>
       <c r="AZ74">
-        <v>0.704063430004674</v>
+        <v>0.7036311409756528</v>
       </c>
       <c r="BA74">
         <v>-0.216</v>
       </c>
       <c r="BB74">
-        <v>-0.00034675</v>
+        <v>-0.0003445</v>
       </c>
       <c r="BC74">
         <v>0.1655</v>
       </c>
       <c r="BD74">
-        <v>1.15</v>
+        <v>1.1425</v>
       </c>
       <c r="BE74">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="BF74">
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.8507013386494258</v>
+        <v>0.8502222441091958</v>
       </c>
       <c r="BH74">
-        <v>1.152946595171604</v>
+        <v>1.15232141575884</v>
       </c>
       <c r="BI74">
         <v>-0.338</v>
       </c>
       <c r="BJ74">
-        <v>-0.0004085</v>
+        <v>-0.00040675</v>
       </c>
       <c r="BK74">
         <v>0.151</v>
       </c>
       <c r="BL74">
-        <v>1.8525</v>
+        <v>1.85</v>
       </c>
       <c r="BM74">
         <v>4.34</v>
@@ -14730,10 +14730,10 @@
         <v>696</v>
       </c>
       <c r="K75">
-        <v>38.71551724137925</v>
+        <v>38.71709770114936</v>
       </c>
       <c r="L75">
-        <v>1.023038508380973</v>
+        <v>1.023470283230821</v>
       </c>
       <c r="M75">
         <v>37.4</v>
@@ -14754,10 +14754,10 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>4.592198275862068</v>
+        <v>4.595172413793102</v>
       </c>
       <c r="T75">
-        <v>1.716832174263679</v>
+        <v>1.716498853933336</v>
       </c>
       <c r="U75">
         <v>2.19</v>
@@ -14769,7 +14769,7 @@
         <v>4.305</v>
       </c>
       <c r="X75">
-        <v>5.795</v>
+        <v>5.7975</v>
       </c>
       <c r="Y75">
         <v>8.73</v>
@@ -14778,10 +14778,10 @@
         <v>696</v>
       </c>
       <c r="AA75">
-        <v>38.11508620689656</v>
+        <v>38.11522988505748</v>
       </c>
       <c r="AB75">
-        <v>1.545665368508527</v>
+        <v>1.545584829461792</v>
       </c>
       <c r="AC75">
         <v>35</v>
@@ -14802,10 +14802,10 @@
         <v>696</v>
       </c>
       <c r="AI75">
-        <v>123.3330459770114</v>
+        <v>123.3369252873562</v>
       </c>
       <c r="AJ75">
-        <v>51.46720853003534</v>
+        <v>51.46540978507301</v>
       </c>
       <c r="AK75">
         <v>52.1</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>1.315646408045976</v>
+        <v>1.315725574712643</v>
       </c>
       <c r="AR75">
-        <v>0.8733208361892735</v>
+        <v>0.8733963871413777</v>
       </c>
       <c r="AS75">
         <v>0.0506</v>
@@ -14850,13 +14850,13 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.5992574485344824</v>
+        <v>0.5992950664224133</v>
       </c>
       <c r="AZ75">
-        <v>0.672512116071363</v>
+        <v>0.6725591784902515</v>
       </c>
       <c r="BA75">
-        <v>-0.221</v>
+        <v>-0.222</v>
       </c>
       <c r="BB75">
         <v>0.012525</v>
@@ -14874,10 +14874,10 @@
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.9128772276436786</v>
+        <v>0.9129564386781611</v>
       </c>
       <c r="BH75">
-        <v>1.167795794112637</v>
+        <v>1.167899855575069</v>
       </c>
       <c r="BI75">
         <v>-0.347</v>
@@ -14927,10 +14927,10 @@
         <v>696</v>
       </c>
       <c r="K76">
-        <v>38.98189655172408</v>
+        <v>38.98204022988499</v>
       </c>
       <c r="L76">
-        <v>0.8297107899976098</v>
+        <v>0.8297572695895996</v>
       </c>
       <c r="M76">
         <v>38.3</v>
@@ -14951,10 +14951,10 @@
         <v>696</v>
       </c>
       <c r="S76">
-        <v>4.864482758620693</v>
+        <v>4.864497126436785</v>
       </c>
       <c r="T76">
-        <v>1.844926472494484</v>
+        <v>1.84494145039549</v>
       </c>
       <c r="U76">
         <v>2.28</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.504950087643678</v>
+        <v>0.5049326839080458</v>
       </c>
       <c r="AZ76">
-        <v>0.5843908711236991</v>
+        <v>0.5843862721632382</v>
       </c>
       <c r="BA76">
         <v>-0.212</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.7958817500000003</v>
+        <v>0.7957853362068966</v>
       </c>
       <c r="BH76">
-        <v>1.045702401468507</v>
+        <v>1.045606518006034</v>
       </c>
       <c r="BI76">
         <v>-0.332</v>
@@ -15148,10 +15148,10 @@
         <v>696</v>
       </c>
       <c r="S77">
-        <v>4.861465517241387</v>
+        <v>4.86149425287357</v>
       </c>
       <c r="T77">
-        <v>1.85003764502722</v>
+        <v>1.850070286814522</v>
       </c>
       <c r="U77">
         <v>2.28</v>
@@ -15172,10 +15172,10 @@
         <v>696</v>
       </c>
       <c r="AA77">
-        <v>38.53749999999998</v>
+        <v>38.5376436781609</v>
       </c>
       <c r="AB77">
-        <v>1.245591506650094</v>
+        <v>1.245465869113018</v>
       </c>
       <c r="AC77">
         <v>36.3</v>
@@ -15220,10 +15220,10 @@
         <v>696</v>
       </c>
       <c r="AQ77">
-        <v>1.366345258620688</v>
+        <v>1.36635962643678</v>
       </c>
       <c r="AR77">
-        <v>0.9167566089713215</v>
+        <v>0.9167653768992915</v>
       </c>
       <c r="AS77">
         <v>0.056</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.4445370073275859</v>
+        <v>0.4445145936781606</v>
       </c>
       <c r="AZ77">
-        <v>0.5423152633594243</v>
+        <v>0.5423112970253733</v>
       </c>
       <c r="BA77">
         <v>-0.211</v>
@@ -15259,7 +15259,7 @@
         <v>0.14</v>
       </c>
       <c r="BD77">
-        <v>0.784</v>
+        <v>0.7837500000000001</v>
       </c>
       <c r="BE77">
         <v>2.04</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.7098638936781611</v>
+        <v>0.7098551293103449</v>
       </c>
       <c r="BH77">
-        <v>0.9691431130635728</v>
+        <v>0.9691448506616888</v>
       </c>
       <c r="BI77">
         <v>-0.332</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.4113718234195399</v>
+        <v>0.4113581784482754</v>
       </c>
       <c r="AZ78">
-        <v>0.5173751069930973</v>
+        <v>0.5173718590631007</v>
       </c>
       <c r="BA78">
         <v>-0.222</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.661550185229885</v>
+        <v>0.6615007629597701</v>
       </c>
       <c r="BH78">
-        <v>0.9206537199117854</v>
+        <v>0.920617018618285</v>
       </c>
       <c r="BI78">
         <v>-0.348</v>
@@ -15518,10 +15518,10 @@
         <v>696</v>
       </c>
       <c r="K79">
-        <v>38.96839080459775</v>
+        <v>38.96853448275867</v>
       </c>
       <c r="L79">
-        <v>0.8005794643298657</v>
+        <v>0.8004683028360332</v>
       </c>
       <c r="M79">
         <v>38.3</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.4092051574712643</v>
+        <v>0.4091693813218391</v>
       </c>
       <c r="AZ79">
-        <v>0.5309623190251288</v>
+        <v>0.5309388853119744</v>
       </c>
       <c r="BA79">
         <v>-0.234</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.6703857278735637</v>
+        <v>0.6703506704022992</v>
       </c>
       <c r="BH79">
-        <v>0.9605583787452711</v>
+        <v>0.9605223029087351</v>
       </c>
       <c r="BI79">
         <v>-0.366</v>
@@ -15739,10 +15739,10 @@
         <v>696</v>
       </c>
       <c r="S80">
-        <v>4.836479885057474</v>
+        <v>4.836494252873567</v>
       </c>
       <c r="T80">
-        <v>1.8655464899245</v>
+        <v>1.865545167287553</v>
       </c>
       <c r="U80">
         <v>2.22</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.4230773854885059</v>
+        <v>0.4230497831896553</v>
       </c>
       <c r="AZ80">
-        <v>0.5580221598471596</v>
+        <v>0.5579847466916961</v>
       </c>
       <c r="BA80">
         <v>-0.234</v>
@@ -15859,10 +15859,10 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.7032335122126439</v>
+        <v>0.7031885235632185</v>
       </c>
       <c r="BH80">
-        <v>1.035138402365471</v>
+        <v>1.035097893768173</v>
       </c>
       <c r="BI80">
         <v>-0.366</v>
@@ -16032,10 +16032,10 @@
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.4134180350574715</v>
+        <v>0.4134059502873567</v>
       </c>
       <c r="AZ81">
-        <v>0.5321116237777876</v>
+        <v>0.5321102975377521</v>
       </c>
       <c r="BA81">
         <v>-0.223</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.6808517787356317</v>
+        <v>0.6807895359195398</v>
       </c>
       <c r="BH81">
-        <v>0.9780567297339849</v>
+        <v>0.9779780369871908</v>
       </c>
       <c r="BI81">
         <v>-0.35</v>
@@ -16229,10 +16229,10 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.2792726225574713</v>
+        <v>0.2792501943965517</v>
       </c>
       <c r="AZ82">
-        <v>0.3725354414210885</v>
+        <v>0.3725160584026671</v>
       </c>
       <c r="BA82">
         <v>-0.225</v>
@@ -16253,10 +16253,10 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.4546137793103447</v>
+        <v>0.4545739807471261</v>
       </c>
       <c r="BH82">
-        <v>0.6908175606982067</v>
+        <v>0.690757958996157</v>
       </c>
       <c r="BI82">
         <v>-0.353</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>4.891508620689658</v>
+        <v>4.891522988505749</v>
       </c>
       <c r="T83">
-        <v>1.879883095993428</v>
+        <v>1.879893685051541</v>
       </c>
       <c r="U83">
         <v>2.24</v>
@@ -16426,10 +16426,10 @@
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.1732837386494251</v>
+        <v>0.1732697874999998</v>
       </c>
       <c r="AZ83">
-        <v>0.2789363964745917</v>
+        <v>0.2789252403544287</v>
       </c>
       <c r="BA83">
         <v>-0.222</v>
@@ -16450,10 +16450,10 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.2959234173850571</v>
+        <v>0.2958800265804593</v>
       </c>
       <c r="BH83">
-        <v>0.5712726500212034</v>
+        <v>0.5712460976102326</v>
       </c>
       <c r="BI83">
         <v>-0.348</v>
@@ -16551,10 +16551,10 @@
         <v>696</v>
       </c>
       <c r="AA84">
-        <v>38.90589080459763</v>
+        <v>38.90603448275855</v>
       </c>
       <c r="AB84">
-        <v>0.9410126549819553</v>
+        <v>0.9408511798866619</v>
       </c>
       <c r="AC84">
         <v>36.8</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.136884142816092</v>
+        <v>0.1368440567528735</v>
       </c>
       <c r="AZ84">
-        <v>0.2509247365199678</v>
+        <v>0.250833602388949</v>
       </c>
       <c r="BA84">
         <v>-0.202</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.2419166379310345</v>
+        <v>0.2418786928160918</v>
       </c>
       <c r="BH84">
-        <v>0.5354967405781328</v>
+        <v>0.5354802077160216</v>
       </c>
       <c r="BI84">
         <v>-0.317</v>
@@ -16662,7 +16662,7 @@
         <v>0.0696</v>
       </c>
       <c r="BL84">
-        <v>0.29425</v>
+        <v>0.2935</v>
       </c>
       <c r="BM84">
         <v>3.61</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.115140322586207</v>
+        <v>0.1151029634339081</v>
       </c>
       <c r="AZ85">
-        <v>0.2377140014343834</v>
+        <v>0.2376146200484484</v>
       </c>
       <c r="BA85">
         <v>-0.198</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.2112505978304597</v>
+        <v>0.2112112142528735</v>
       </c>
       <c r="BH85">
-        <v>0.5121270633598828</v>
+        <v>0.5121138598747241</v>
       </c>
       <c r="BI85">
         <v>-0.311</v>
@@ -16921,10 +16921,10 @@
         <v>696</v>
       </c>
       <c r="S86">
-        <v>4.956422413793107</v>
+        <v>4.956408045977015</v>
       </c>
       <c r="T86">
-        <v>1.858335912131346</v>
+        <v>1.85834916301436</v>
       </c>
       <c r="U86">
         <v>2.34</v>
@@ -17017,10 +17017,10 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.1060737632183907</v>
+        <v>0.1060533448275861</v>
       </c>
       <c r="AZ86">
-        <v>0.2276452212999782</v>
+        <v>0.2276412474222198</v>
       </c>
       <c r="BA86">
         <v>-0.184</v>
@@ -17041,10 +17041,10 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.196411388362069</v>
+        <v>0.196364919683908</v>
       </c>
       <c r="BH86">
-        <v>0.4936243713210236</v>
+        <v>0.4936156376219729</v>
       </c>
       <c r="BI86">
         <v>-0.289</v>
@@ -17053,7 +17053,7 @@
         <v>0.0031475</v>
       </c>
       <c r="BK86">
-        <v>0.04895</v>
+        <v>0.0489</v>
       </c>
       <c r="BL86">
         <v>0.185</v>
@@ -17118,10 +17118,10 @@
         <v>696</v>
       </c>
       <c r="S87">
-        <v>4.969339080459766</v>
+        <v>4.969353448275857</v>
       </c>
       <c r="T87">
-        <v>1.851440075704248</v>
+        <v>1.851463511745836</v>
       </c>
       <c r="U87">
         <v>2.37</v>
@@ -17166,10 +17166,10 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>129.3840517241379</v>
+        <v>129.3854885057471</v>
       </c>
       <c r="AJ87">
-        <v>55.81188410327174</v>
+        <v>55.81528997388556</v>
       </c>
       <c r="AK87">
         <v>54.1</v>
@@ -17214,10 +17214,10 @@
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.09806855603448271</v>
+        <v>0.09804427298850565</v>
       </c>
       <c r="AZ87">
-        <v>0.21824635514589</v>
+        <v>0.2182336513944595</v>
       </c>
       <c r="BA87">
         <v>-0.176</v>
@@ -17226,7 +17226,7 @@
         <v>0.0032625</v>
       </c>
       <c r="BC87">
-        <v>0.0528</v>
+        <v>0.05275000000000001</v>
       </c>
       <c r="BD87">
         <v>0.103</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.1838235584770115</v>
+        <v>0.1837759852011494</v>
       </c>
       <c r="BH87">
-        <v>0.47472162419321</v>
+        <v>0.4746597379889949</v>
       </c>
       <c r="BI87">
         <v>-0.277</v>
@@ -17411,22 +17411,22 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.08714707428160928</v>
+        <v>0.08712368462643683</v>
       </c>
       <c r="AZ88">
-        <v>0.20846999264764</v>
+        <v>0.2084542552010817</v>
       </c>
       <c r="BA88">
         <v>-0.182</v>
       </c>
       <c r="BB88">
-        <v>0.0007285249999999999</v>
+        <v>0.0007285</v>
       </c>
       <c r="BC88">
         <v>0.04435</v>
       </c>
       <c r="BD88">
-        <v>0.09154999999999999</v>
+        <v>0.091525</v>
       </c>
       <c r="BE88">
         <v>1.41</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.1681044818965518</v>
+        <v>0.1680693655172415</v>
       </c>
       <c r="BH88">
-        <v>0.4517530663815129</v>
+        <v>0.4517407684226102</v>
       </c>
       <c r="BI88">
         <v>-0.286</v>
@@ -17608,10 +17608,10 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.1841318160919539</v>
+        <v>0.1841180790229884</v>
       </c>
       <c r="AZ89">
-        <v>0.3140709232880404</v>
+        <v>0.3140670859856636</v>
       </c>
       <c r="BA89">
         <v>-0.199</v>
@@ -17632,22 +17632,22 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.3256364998563217</v>
+        <v>0.3256142943965515</v>
       </c>
       <c r="BH89">
-        <v>0.5805526216610033</v>
+        <v>0.5805454715573876</v>
       </c>
       <c r="BI89">
         <v>-0.313</v>
       </c>
       <c r="BJ89">
-        <v>-0.00675</v>
+        <v>-0.006765</v>
       </c>
       <c r="BK89">
         <v>0.02415</v>
       </c>
       <c r="BL89">
-        <v>0.522</v>
+        <v>0.52125</v>
       </c>
       <c r="BM89">
         <v>2.91</v>
@@ -17709,10 +17709,10 @@
         <v>696</v>
       </c>
       <c r="S90">
-        <v>4.908678160919546</v>
+        <v>4.908663793103454</v>
       </c>
       <c r="T90">
-        <v>1.856265526120876</v>
+        <v>1.85628532031027</v>
       </c>
       <c r="U90">
         <v>2.3</v>
@@ -17781,10 +17781,10 @@
         <v>696</v>
       </c>
       <c r="AQ90">
-        <v>1.373247701149425</v>
+        <v>1.373249137931034</v>
       </c>
       <c r="AR90">
-        <v>0.9211086096267482</v>
+        <v>0.9211079929963945</v>
       </c>
       <c r="AS90">
         <v>0.0563</v>
@@ -17805,16 +17805,16 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.2705301091954025</v>
+        <v>0.2705051982758623</v>
       </c>
       <c r="AZ90">
-        <v>0.3960801528477125</v>
+        <v>0.3960699989064114</v>
       </c>
       <c r="BA90">
         <v>-0.211</v>
       </c>
       <c r="BB90">
-        <v>-0.006835</v>
+        <v>-0.0068425</v>
       </c>
       <c r="BC90">
         <v>0.03505</v>
@@ -17829,16 +17829,16 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.4577498548850574</v>
+        <v>0.4576835873563218</v>
       </c>
       <c r="BH90">
-        <v>0.7089986265128033</v>
+        <v>0.7089218576124758</v>
       </c>
       <c r="BI90">
         <v>-0.331</v>
       </c>
       <c r="BJ90">
-        <v>-0.007605000000000001</v>
+        <v>-0.00762</v>
       </c>
       <c r="BK90">
         <v>0.02915</v>
@@ -17906,10 +17906,10 @@
         <v>696</v>
       </c>
       <c r="S91">
-        <v>4.886551724137931</v>
+        <v>4.886566091954022</v>
       </c>
       <c r="T91">
-        <v>1.862580913847803</v>
+        <v>1.862562129893095</v>
       </c>
       <c r="U91">
         <v>2.27</v>
@@ -17930,10 +17930,10 @@
         <v>696</v>
       </c>
       <c r="AA91">
-        <v>38.7116379310345</v>
+        <v>38.71178160919542</v>
       </c>
       <c r="AB91">
-        <v>1.115383427803906</v>
+        <v>1.115285162621404</v>
       </c>
       <c r="AC91">
         <v>36.5</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.2924072689655174</v>
+        <v>0.2923957803160921</v>
       </c>
       <c r="AZ91">
-        <v>0.4264990637753234</v>
+        <v>0.4264933064690015</v>
       </c>
       <c r="BA91">
         <v>-0.224</v>
@@ -18026,10 +18026,10 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.5018019607758623</v>
+        <v>0.5017534564655176</v>
       </c>
       <c r="BH91">
-        <v>0.8060448915185044</v>
+        <v>0.8060144413690721</v>
       </c>
       <c r="BI91">
         <v>-0.351</v>
@@ -18199,10 +18199,10 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.2922080704022988</v>
+        <v>0.2921885272988506</v>
       </c>
       <c r="AZ92">
-        <v>0.4435734973076927</v>
+        <v>0.4435644967375636</v>
       </c>
       <c r="BA92">
         <v>-0.239</v>
@@ -18223,16 +18223,16 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.5071639051724133</v>
+        <v>0.5071459123563213</v>
       </c>
       <c r="BH92">
-        <v>0.8352519582997533</v>
+        <v>0.8352500131235783</v>
       </c>
       <c r="BI92">
         <v>-0.375</v>
       </c>
       <c r="BJ92">
-        <v>-0.010725</v>
+        <v>-0.01075</v>
       </c>
       <c r="BK92">
         <v>0.03005</v>
@@ -18396,10 +18396,10 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.2941778821839083</v>
+        <v>0.2941651954022992</v>
       </c>
       <c r="AZ93">
-        <v>0.4458647517085114</v>
+        <v>0.4458573748485586</v>
       </c>
       <c r="BA93">
         <v>-0.236</v>
@@ -18408,10 +18408,10 @@
         <v>-0.0105</v>
       </c>
       <c r="BC93">
-        <v>0.0409</v>
+        <v>0.04085</v>
       </c>
       <c r="BD93">
-        <v>0.55225</v>
+        <v>0.5515</v>
       </c>
       <c r="BE93">
         <v>2.2</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.5108541666666667</v>
+        <v>0.5107780761494254</v>
       </c>
       <c r="BH93">
-        <v>0.8457245128469175</v>
+        <v>0.8455482812846487</v>
       </c>
       <c r="BI93">
         <v>-0.37</v>
@@ -18497,10 +18497,10 @@
         <v>696</v>
       </c>
       <c r="S94">
-        <v>4.867614942528734</v>
+        <v>4.867629310344826</v>
       </c>
       <c r="T94">
-        <v>1.874234938708123</v>
+        <v>1.87423307609874</v>
       </c>
       <c r="U94">
         <v>2.23</v>
@@ -18521,10 +18521,10 @@
         <v>696</v>
       </c>
       <c r="AA94">
-        <v>38.71896551724131</v>
+        <v>38.71910919540223</v>
       </c>
       <c r="AB94">
-        <v>1.077373341416447</v>
+        <v>1.077110341302033</v>
       </c>
       <c r="AC94">
         <v>36.6</v>
@@ -18593,10 +18593,10 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.2725615043103454</v>
+        <v>0.2725361488505752</v>
       </c>
       <c r="AZ94">
-        <v>0.3926838953926722</v>
+        <v>0.392624043371687</v>
       </c>
       <c r="BA94">
         <v>-0.229</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.4683782759913796</v>
+        <v>0.4683012149568969</v>
       </c>
       <c r="BH94">
-        <v>0.7437004161985531</v>
+        <v>0.743620786153864</v>
       </c>
       <c r="BI94">
         <v>-0.359</v>
@@ -18694,10 +18694,10 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>4.877887931034476</v>
+        <v>4.87791666666666</v>
       </c>
       <c r="T95">
-        <v>1.871006575266016</v>
+        <v>1.871034753595098</v>
       </c>
       <c r="U95">
         <v>2.25</v>
@@ -18790,10 +18790,10 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.2629109577586208</v>
+        <v>0.2628894373563219</v>
       </c>
       <c r="AZ95">
-        <v>0.3734876212380508</v>
+        <v>0.3734790876209311</v>
       </c>
       <c r="BA95">
         <v>-0.221</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.4475044698275858</v>
+        <v>0.4474559629310341</v>
       </c>
       <c r="BH95">
-        <v>0.6981078235388881</v>
+        <v>0.6980261866153834</v>
       </c>
       <c r="BI95">
         <v>-0.347</v>
@@ -18829,7 +18829,7 @@
         <v>0.03665</v>
       </c>
       <c r="BL95">
-        <v>0.823</v>
+        <v>0.8222499999999999</v>
       </c>
       <c r="BM95">
         <v>3.19</v>
@@ -18867,10 +18867,10 @@
         <v>696</v>
       </c>
       <c r="K96">
-        <v>39.01178160919566</v>
+        <v>39.00977011494278</v>
       </c>
       <c r="L96">
-        <v>0.7977697246272268</v>
+        <v>0.7973459240608148</v>
       </c>
       <c r="M96">
         <v>38.4</v>
@@ -18891,25 +18891,25 @@
         <v>696</v>
       </c>
       <c r="S96">
-        <v>4.888563218390804</v>
+        <v>4.885545977011494</v>
       </c>
       <c r="T96">
-        <v>1.866075080501755</v>
+        <v>1.865970302310864</v>
       </c>
       <c r="U96">
         <v>2.26</v>
       </c>
       <c r="V96">
-        <v>3.12</v>
+        <v>3.115</v>
       </c>
       <c r="W96">
-        <v>4.6</v>
+        <v>4.595</v>
       </c>
       <c r="X96">
-        <v>6.2875</v>
+        <v>6.2725</v>
       </c>
       <c r="Y96">
-        <v>8.85</v>
+        <v>8.84</v>
       </c>
       <c r="Z96">
         <v>696</v>
@@ -18939,10 +18939,10 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>128.4349137931034</v>
+        <v>128.4158045977011</v>
       </c>
       <c r="AJ96">
-        <v>55.42401346421761</v>
+        <v>55.41353789021206</v>
       </c>
       <c r="AK96">
         <v>53.5</v>
@@ -18963,10 +18963,10 @@
         <v>696</v>
       </c>
       <c r="AQ96">
-        <v>1.370814511494253</v>
+        <v>1.370712356321839</v>
       </c>
       <c r="AR96">
-        <v>0.9201492212448251</v>
+        <v>0.9200779196856885</v>
       </c>
       <c r="AS96">
         <v>0.0562</v>
@@ -18987,13 +18987,13 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.2694206938218388</v>
+        <v>0.2693887415229882</v>
       </c>
       <c r="AZ96">
-        <v>0.3905956134477052</v>
+        <v>0.3905727167142248</v>
       </c>
       <c r="BA96">
-        <v>-0.215</v>
+        <v>-0.214</v>
       </c>
       <c r="BB96">
         <v>-0.0040875</v>
@@ -19002,7 +19002,7 @@
         <v>0.04265</v>
       </c>
       <c r="BD96">
-        <v>0.50875</v>
+        <v>0.508</v>
       </c>
       <c r="BE96">
         <v>1.88</v>
@@ -19011,10 +19011,10 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.4608544867816095</v>
+        <v>0.4607554227011496</v>
       </c>
       <c r="BH96">
-        <v>0.7371432934634849</v>
+        <v>0.7369656801942915</v>
       </c>
       <c r="BI96">
         <v>-0.336</v>
@@ -19023,7 +19023,7 @@
         <v>-0.004015</v>
       </c>
       <c r="BK96">
-        <v>0.0369</v>
+        <v>0.03685</v>
       </c>
       <c r="BL96">
         <v>0.8110000000000001</v>
@@ -19088,10 +19088,10 @@
         <v>696</v>
       </c>
       <c r="S97">
-        <v>4.892600574712639</v>
+        <v>4.892614942528732</v>
       </c>
       <c r="T97">
-        <v>1.857814757537309</v>
+        <v>1.857817641655635</v>
       </c>
       <c r="U97">
         <v>2.29</v>
@@ -19184,10 +19184,10 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.2905883245689658</v>
+        <v>0.2905541258620694</v>
       </c>
       <c r="AZ97">
-        <v>0.4377685653660583</v>
+        <v>0.4377158942647622</v>
       </c>
       <c r="BA97">
         <v>-0.206</v>
@@ -19208,10 +19208,10 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.5044109876724139</v>
+        <v>0.5043725156465517</v>
       </c>
       <c r="BH97">
-        <v>0.8506634610411832</v>
+        <v>0.8506457578896806</v>
       </c>
       <c r="BI97">
         <v>-0.323</v>
@@ -19381,10 +19381,10 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.2852750023850575</v>
+        <v>0.28524523125</v>
       </c>
       <c r="AZ98">
-        <v>0.4104871334066937</v>
+        <v>0.4104698396810538</v>
       </c>
       <c r="BA98">
         <v>-0.197</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.4862283213362069</v>
+        <v>0.4862110717528735</v>
       </c>
       <c r="BH98">
-        <v>0.7670497345696941</v>
+        <v>0.7670500418327059</v>
       </c>
       <c r="BI98">
         <v>-0.31</v>
@@ -19417,7 +19417,7 @@
         <v>-0.0022975</v>
       </c>
       <c r="BK98">
-        <v>0.03885</v>
+        <v>0.0388</v>
       </c>
       <c r="BL98">
         <v>0.86075</v>
@@ -19578,10 +19578,10 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.2528663803160922</v>
+        <v>0.2528444088936784</v>
       </c>
       <c r="AZ99">
-        <v>0.3514840119926246</v>
+        <v>0.3514736783058534</v>
       </c>
       <c r="BA99">
         <v>-0.203</v>
@@ -19602,10 +19602,10 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.4195914875</v>
+        <v>0.4195777983477012</v>
       </c>
       <c r="BH99">
-        <v>0.6212012841614659</v>
+        <v>0.6211969414843993</v>
       </c>
       <c r="BI99">
         <v>-0.318</v>
@@ -19703,10 +19703,10 @@
         <v>696</v>
       </c>
       <c r="AA100">
-        <v>38.74956896551721</v>
+        <v>38.74985632183905</v>
       </c>
       <c r="AB100">
-        <v>1.082815322469645</v>
+        <v>1.082709089336853</v>
       </c>
       <c r="AC100">
         <v>36.6</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.2624730991379312</v>
+        <v>0.2624463146551726</v>
       </c>
       <c r="AZ100">
-        <v>0.3844342449191969</v>
+        <v>0.3844207405156101</v>
       </c>
       <c r="BA100">
         <v>-0.216</v>
@@ -19799,10 +19799,10 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.4463912439655173</v>
+        <v>0.4463718423850577</v>
       </c>
       <c r="BH100">
-        <v>0.7051194624466317</v>
+        <v>0.7051140325635746</v>
       </c>
       <c r="BI100">
         <v>-0.34</v>
@@ -19852,10 +19852,10 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>38.96681034482754</v>
+        <v>38.96695402298847</v>
       </c>
       <c r="L101">
-        <v>0.8042363722167919</v>
+        <v>0.8041259990471096</v>
       </c>
       <c r="M101">
         <v>38.3</v>
@@ -19900,10 +19900,10 @@
         <v>696</v>
       </c>
       <c r="AA101">
-        <v>38.73951149425289</v>
+        <v>38.73979885057474</v>
       </c>
       <c r="AB101">
-        <v>1.100048026360371</v>
+        <v>1.099906844871127</v>
       </c>
       <c r="AC101">
         <v>36.4</v>
@@ -19948,10 +19948,10 @@
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>1.369975718390804</v>
+        <v>1.369991522988505</v>
       </c>
       <c r="AR101">
-        <v>0.9189383841844579</v>
+        <v>0.9189506545648464</v>
       </c>
       <c r="AS101">
         <v>0.0562</v>
@@ -19972,10 +19972,10 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.2751752472701152</v>
+        <v>0.275085485632184</v>
       </c>
       <c r="AZ101">
-        <v>0.4016002483151881</v>
+        <v>0.4014714272503015</v>
       </c>
       <c r="BA101">
         <v>-0.209</v>
@@ -19984,10 +19984,10 @@
         <v>-0.0056625</v>
       </c>
       <c r="BC101">
-        <v>0.03965</v>
+        <v>0.0396</v>
       </c>
       <c r="BD101">
-        <v>0.522</v>
+        <v>0.52175</v>
       </c>
       <c r="BE101">
         <v>1.96</v>
@@ -19996,10 +19996,10 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.4689122107758623</v>
+        <v>0.4688083939655173</v>
       </c>
       <c r="BH101">
-        <v>0.7416003957205139</v>
+        <v>0.7414949238993298</v>
       </c>
       <c r="BI101">
         <v>-0.328</v>
@@ -20049,10 +20049,10 @@
         <v>696</v>
       </c>
       <c r="K102">
-        <v>38.96494252873563</v>
+        <v>38.95675287356321</v>
       </c>
       <c r="L102">
-        <v>0.7971754071632096</v>
+        <v>0.7969982005289651</v>
       </c>
       <c r="M102">
         <v>38.3</v>
@@ -20073,25 +20073,25 @@
         <v>696</v>
       </c>
       <c r="S102">
-        <v>4.843290229885063</v>
+        <v>4.836623563218397</v>
       </c>
       <c r="T102">
-        <v>1.8669644370396</v>
+        <v>1.866998809451772</v>
       </c>
       <c r="U102">
         <v>2.21</v>
       </c>
       <c r="V102">
-        <v>3.0675</v>
+        <v>3.06</v>
       </c>
       <c r="W102">
         <v>4.55</v>
       </c>
       <c r="X102">
-        <v>6.2525</v>
+        <v>6.2225</v>
       </c>
       <c r="Y102">
-        <v>8.82</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="Z102">
         <v>696</v>
@@ -20121,10 +20121,10 @@
         <v>696</v>
       </c>
       <c r="AI102">
-        <v>128.4081896551724</v>
+        <v>128.3974137931034</v>
       </c>
       <c r="AJ102">
-        <v>55.39755160835137</v>
+        <v>55.39089886213399</v>
       </c>
       <c r="AK102">
         <v>53.5</v>
@@ -20145,10 +20145,10 @@
         <v>696</v>
       </c>
       <c r="AQ102">
-        <v>1.369832614942528</v>
+        <v>1.369589655172413</v>
       </c>
       <c r="AR102">
-        <v>0.9195076248971988</v>
+        <v>0.9193932698006338</v>
       </c>
       <c r="AS102">
         <v>0.0562</v>
@@ -20160,7 +20160,7 @@
         <v>1.28</v>
       </c>
       <c r="AV102">
-        <v>1.87</v>
+        <v>1.8625</v>
       </c>
       <c r="AW102">
         <v>5.41</v>
@@ -20169,13 +20169,13 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.2586187701149428</v>
+        <v>0.2585340890804602</v>
       </c>
       <c r="AZ102">
-        <v>0.3782820919892266</v>
+        <v>0.378166805126773</v>
       </c>
       <c r="BA102">
-        <v>-0.221</v>
+        <v>-0.22</v>
       </c>
       <c r="BB102">
         <v>-0.010575</v>
@@ -20184,7 +20184,7 @@
         <v>0.039</v>
       </c>
       <c r="BD102">
-        <v>0.495</v>
+        <v>0.49425</v>
       </c>
       <c r="BE102">
         <v>1.87</v>
@@ -20193,16 +20193,16 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.4373135775862066</v>
+        <v>0.43717987341954</v>
       </c>
       <c r="BH102">
-        <v>0.6746318584964818</v>
+        <v>0.6743872656239328</v>
       </c>
       <c r="BI102">
         <v>-0.346</v>
       </c>
       <c r="BJ102">
-        <v>-0.00907</v>
+        <v>-0.009075</v>
       </c>
       <c r="BK102">
         <v>0.0311</v>
@@ -20366,10 +20366,10 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.2663397491379308</v>
+        <v>0.2663025076149423</v>
       </c>
       <c r="AZ103">
-        <v>0.3933832404624232</v>
+        <v>0.3933239316187419</v>
       </c>
       <c r="BA103">
         <v>-0.224</v>
@@ -20378,7 +20378,7 @@
         <v>-0.011425</v>
       </c>
       <c r="BC103">
-        <v>0.03755</v>
+        <v>0.0375</v>
       </c>
       <c r="BD103">
         <v>0.506</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.4525030920977008</v>
+        <v>0.4524715231321838</v>
       </c>
       <c r="BH103">
-        <v>0.7085307071836192</v>
+        <v>0.7085033879457056</v>
       </c>
       <c r="BI103">
         <v>-0.352</v>
@@ -20563,10 +20563,10 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.3110295923577586</v>
+        <v>0.3110153328304598</v>
       </c>
       <c r="AZ104">
-        <v>0.4664116421694831</v>
+        <v>0.4664047938617471</v>
       </c>
       <c r="BA104">
         <v>-0.228</v>
@@ -20587,16 +20587,16 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.5306951752442527</v>
+        <v>0.5306415054310344</v>
       </c>
       <c r="BH104">
-        <v>0.856679185525496</v>
+        <v>0.8566336165926351</v>
       </c>
       <c r="BI104">
         <v>-0.358</v>
       </c>
       <c r="BJ104">
-        <v>-0.011175</v>
+        <v>-0.01125</v>
       </c>
       <c r="BK104">
         <v>0.0271</v>
@@ -20688,10 +20688,10 @@
         <v>696</v>
       </c>
       <c r="AA105">
-        <v>38.66767241379309</v>
+        <v>38.66781609195401</v>
       </c>
       <c r="AB105">
-        <v>1.131855692374343</v>
+        <v>1.13177716014677</v>
       </c>
       <c r="AC105">
         <v>36.4</v>
@@ -20760,10 +20760,10 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.3140996195402297</v>
+        <v>0.3140816640804597</v>
       </c>
       <c r="AZ105">
-        <v>0.4538105714443365</v>
+        <v>0.4537969395915615</v>
       </c>
       <c r="BA105">
         <v>-0.231</v>
@@ -20784,10 +20784,10 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.5170057737068975</v>
+        <v>0.5169732449712654</v>
       </c>
       <c r="BH105">
-        <v>0.7778874900096674</v>
+        <v>0.7778754055712598</v>
       </c>
       <c r="BI105">
         <v>-0.362</v>
@@ -20909,10 +20909,10 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>128.0247126436782</v>
+        <v>128.0261494252874</v>
       </c>
       <c r="AJ106">
-        <v>55.36699709053932</v>
+        <v>55.36635973263762</v>
       </c>
       <c r="AK106">
         <v>53.2</v>
@@ -20957,10 +20957,10 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.3085543017241379</v>
+        <v>0.3085385833333333</v>
       </c>
       <c r="AZ106">
-        <v>0.4446503353398647</v>
+        <v>0.4446439400651367</v>
       </c>
       <c r="BA106">
         <v>-0.234</v>
@@ -20981,10 +20981,10 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.5028470362068964</v>
+        <v>0.5028087459770113</v>
       </c>
       <c r="BH106">
-        <v>0.7526275597562195</v>
+        <v>0.752591314457089</v>
       </c>
       <c r="BI106">
         <v>-0.366</v>
@@ -21154,16 +21154,16 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.3043790747126439</v>
+        <v>0.3043545761494256</v>
       </c>
       <c r="AZ107">
-        <v>0.4379015543711846</v>
+        <v>0.4378908679715567</v>
       </c>
       <c r="BA107">
         <v>-0.235</v>
       </c>
       <c r="BB107">
-        <v>-0.0124</v>
+        <v>-0.012425</v>
       </c>
       <c r="BC107">
         <v>0.0427</v>
@@ -21178,10 +21178,10 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.4963757887931032</v>
+        <v>0.4963473405172413</v>
       </c>
       <c r="BH107">
-        <v>0.7433095879698803</v>
+        <v>0.7432779861330857</v>
       </c>
       <c r="BI107">
         <v>-0.369</v>
@@ -21351,10 +21351,10 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.3074205890804597</v>
+        <v>0.3074042528735631</v>
       </c>
       <c r="AZ108">
-        <v>0.4430368474190601</v>
+        <v>0.443033731519609</v>
       </c>
       <c r="BA108">
         <v>-0.235</v>
@@ -21375,10 +21375,10 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.5022101494252869</v>
+        <v>0.5021691436781603</v>
       </c>
       <c r="BH108">
-        <v>0.7547904120548369</v>
+        <v>0.7547356098578505</v>
       </c>
       <c r="BI108">
         <v>-0.368</v>
@@ -21548,10 +21548,10 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.3137178297413791</v>
+        <v>0.3137352202586204</v>
       </c>
       <c r="AZ109">
-        <v>0.4465878597490581</v>
+        <v>0.4466187366034652</v>
       </c>
       <c r="BA109">
         <v>-0.229</v>
@@ -21572,16 +21572,16 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.5118670745689649</v>
+        <v>0.5119027346264361</v>
       </c>
       <c r="BH109">
-        <v>0.7644613607934507</v>
+        <v>0.7645370773201575</v>
       </c>
       <c r="BI109">
         <v>-0.358</v>
       </c>
       <c r="BJ109">
-        <v>-0.008227499999999999</v>
+        <v>-0.008235000000000001</v>
       </c>
       <c r="BK109">
         <v>0.0326</v>
@@ -21625,10 +21625,10 @@
         <v>696</v>
       </c>
       <c r="K110">
-        <v>38.91522988505728</v>
+        <v>38.91494252873544</v>
       </c>
       <c r="L110">
-        <v>0.7909547670250817</v>
+        <v>0.7910693952234603</v>
       </c>
       <c r="M110">
         <v>38.3</v>
@@ -21649,10 +21649,10 @@
         <v>696</v>
       </c>
       <c r="S110">
-        <v>4.797500000000011</v>
+        <v>4.79719827586208</v>
       </c>
       <c r="T110">
-        <v>1.879320882238385</v>
+        <v>1.879346295593128</v>
       </c>
       <c r="U110">
         <v>2.15</v>
@@ -21667,7 +21667,7 @@
         <v>6.2</v>
       </c>
       <c r="Y110">
-        <v>8.77</v>
+        <v>8.76</v>
       </c>
       <c r="Z110">
         <v>696</v>
@@ -21697,10 +21697,10 @@
         <v>696</v>
       </c>
       <c r="AI110">
-        <v>127.9491379310345</v>
+        <v>127.944683908046</v>
       </c>
       <c r="AJ110">
-        <v>55.3362903999445</v>
+        <v>55.33407318417597</v>
       </c>
       <c r="AK110">
         <v>52.9</v>
@@ -21721,10 +21721,10 @@
         <v>696</v>
       </c>
       <c r="AQ110">
-        <v>1.365085775862069</v>
+        <v>1.365064224137931</v>
       </c>
       <c r="AR110">
-        <v>0.9175355634369072</v>
+        <v>0.9175099151203462</v>
       </c>
       <c r="AS110">
         <v>0.056</v>
@@ -21745,10 +21745,10 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.3107242202586209</v>
+        <v>0.3107402625000003</v>
       </c>
       <c r="AZ110">
-        <v>0.4482651037562886</v>
+        <v>0.4483021959485804</v>
       </c>
       <c r="BA110">
         <v>-0.239</v>
@@ -21769,10 +21769,10 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.5103745771551722</v>
+        <v>0.5103805281609192</v>
       </c>
       <c r="BH110">
-        <v>0.7684804959371504</v>
+        <v>0.7685070920915028</v>
       </c>
       <c r="BI110">
         <v>-0.374</v>
@@ -21942,10 +21942,10 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.2623797508620693</v>
+        <v>0.2623569620689658</v>
       </c>
       <c r="AZ111">
-        <v>0.3786726490394999</v>
+        <v>0.3786603413506648</v>
       </c>
       <c r="BA111">
         <v>-0.246</v>
@@ -21966,10 +21966,10 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.4332590864942528</v>
+        <v>0.4332095133620688</v>
       </c>
       <c r="BH111">
-        <v>0.6592174404481167</v>
+        <v>0.6591273483958056</v>
       </c>
       <c r="BI111">
         <v>-0.385</v>
@@ -22019,10 +22019,10 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>38.9372126436781</v>
+        <v>38.93764367816085</v>
       </c>
       <c r="L112">
-        <v>0.7617909535271997</v>
+        <v>0.7623833658947919</v>
       </c>
       <c r="M112">
         <v>38.3</v>
@@ -22043,10 +22043,10 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>4.814827586206903</v>
+        <v>4.816106321839088</v>
       </c>
       <c r="T112">
-        <v>1.901504508196377</v>
+        <v>1.901670809529371</v>
       </c>
       <c r="U112">
         <v>2.06</v>
@@ -22055,22 +22055,22 @@
         <v>2.96</v>
       </c>
       <c r="W112">
-        <v>4.505</v>
+        <v>4.51</v>
       </c>
       <c r="X112">
         <v>6.25</v>
       </c>
       <c r="Y112">
-        <v>8.91</v>
+        <v>8.92</v>
       </c>
       <c r="Z112">
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>38.75387931034489</v>
+        <v>38.7540229885058</v>
       </c>
       <c r="AB112">
-        <v>1.006217738827456</v>
+        <v>1.006145673358253</v>
       </c>
       <c r="AC112">
         <v>36.8</v>
@@ -22091,10 +22091,10 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>128.032183908046</v>
+        <v>128.0369252873564</v>
       </c>
       <c r="AJ112">
-        <v>55.59678681104598</v>
+        <v>55.59830338775892</v>
       </c>
       <c r="AK112">
         <v>51.5</v>
@@ -22115,10 +22115,10 @@
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>1.366428017241378</v>
+        <v>1.366468247126435</v>
       </c>
       <c r="AR112">
-        <v>0.9199454577855338</v>
+        <v>0.9199522292792012</v>
       </c>
       <c r="AS112">
         <v>0.056</v>
@@ -22139,10 +22139,10 @@
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.2110453778735631</v>
+        <v>0.2109900919540229</v>
       </c>
       <c r="AZ112">
-        <v>0.3388220830493175</v>
+        <v>0.338741664723234</v>
       </c>
       <c r="BA112">
         <v>-0.317</v>
@@ -22151,7 +22151,7 @@
         <v>-0.01955</v>
       </c>
       <c r="BC112">
-        <v>0.04235</v>
+        <v>0.0423</v>
       </c>
       <c r="BD112">
         <v>0.396</v>
@@ -22163,10 +22163,10 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.3481752002873562</v>
+        <v>0.3480632982758619</v>
       </c>
       <c r="BH112">
-        <v>0.596496769474027</v>
+        <v>0.5962845792985567</v>
       </c>
       <c r="BI112">
         <v>-0.495</v>
@@ -22175,7 +22175,7 @@
         <v>-0.0123</v>
       </c>
       <c r="BK112">
-        <v>0.03075</v>
+        <v>0.0307</v>
       </c>
       <c r="BL112">
         <v>0.5852499999999999</v>
